--- a/icd_files/56922.xlsx
+++ b/icd_files/56922.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\datiphy\Documents\NEO Excel\icd_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D4F55C-7E3E-4F00-A356-9F5EF768A586}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D1E6DC-5E49-4493-A531-51BC90E57C66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADDS Chart" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2520" uniqueCount="857">
   <si>
     <t>CHARTTIME</t>
   </si>
@@ -1740,6 +1740,18 @@
     <t>01-21</t>
   </si>
   <si>
+    <t>01-22</t>
+  </si>
+  <si>
+    <t>01-23</t>
+  </si>
+  <si>
+    <t>01-24</t>
+  </si>
+  <si>
+    <t>01-25</t>
+  </si>
+  <si>
     <t>GCS: Verbal</t>
   </si>
   <si>
@@ -1749,15 +1761,117 @@
     <t>GCS: Total</t>
   </si>
   <si>
+    <t>PHENObarbital</t>
+  </si>
+  <si>
     <t>0.9% Sodium Chloride</t>
   </si>
   <si>
-    <t>PHENObarbital</t>
+    <t>Lorazepam</t>
+  </si>
+  <si>
+    <t>Thiamine</t>
+  </si>
+  <si>
+    <t>Sarna Lotion</t>
+  </si>
+  <si>
+    <t>NS (Mini Bag Plus)</t>
+  </si>
+  <si>
+    <t>NS (Glass Bottle)</t>
+  </si>
+  <si>
+    <t>Miconazole 2% Cream</t>
+  </si>
+  <si>
+    <t>Propofol</t>
+  </si>
+  <si>
+    <t>Ondansetron</t>
+  </si>
+  <si>
+    <t>Fluconazole</t>
+  </si>
+  <si>
+    <t>Potassium Chloride</t>
+  </si>
+  <si>
+    <t>Racepinephrine</t>
+  </si>
+  <si>
+    <t>LeVETiracetam</t>
+  </si>
+  <si>
+    <t>Ampicillin Sodium</t>
   </si>
   <si>
     <t>Calcium Gluconate</t>
   </si>
   <si>
+    <t>CeftriaXONE</t>
+  </si>
+  <si>
+    <t>Iso-Osmotic Dextrose</t>
+  </si>
+  <si>
+    <t>Acyclovir</t>
+  </si>
+  <si>
+    <t>Heparin</t>
+  </si>
+  <si>
+    <t>Docusate Sodium (Liquid)</t>
+  </si>
+  <si>
+    <t>Senna</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>Phenytoin Sodium</t>
+  </si>
+  <si>
+    <t>D5 1/2NS</t>
+  </si>
+  <si>
+    <t>Doxycycline Hyclate</t>
+  </si>
+  <si>
+    <t>Midazolam</t>
+  </si>
+  <si>
+    <t>Fentanyl Citrate</t>
+  </si>
+  <si>
+    <t>Sodium Chloride 0.9%  Flush</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>Pregabalin</t>
+  </si>
+  <si>
+    <t>5% Dextrose</t>
+  </si>
+  <si>
+    <t>Fosphenytoin</t>
+  </si>
+  <si>
+    <t>Vancomycin</t>
+  </si>
+  <si>
+    <t>Ranitidine</t>
+  </si>
+  <si>
+    <t>Ibuprofen</t>
+  </si>
+  <si>
+    <t>Neutra-Phos</t>
+  </si>
+  <si>
     <t>00:00</t>
   </si>
   <si>
@@ -1767,9 +1881,30 @@
     <t>2 VIAL</t>
   </si>
   <si>
+    <t>2 BAG</t>
+  </si>
+  <si>
+    <t>200 mL</t>
+  </si>
+  <si>
+    <t>600 mL</t>
+  </si>
+  <si>
+    <t>5000 mL</t>
+  </si>
+  <si>
+    <t>100 UDCUP</t>
+  </si>
+  <si>
+    <t>1 TAB</t>
+  </si>
+  <si>
     <t>100 mL</t>
   </si>
   <si>
+    <t>50 mL</t>
+  </si>
+  <si>
     <t>10:49</t>
   </si>
   <si>
@@ -1812,6 +1947,18 @@
     <t>23:00</t>
   </si>
   <si>
+    <t>40 mL</t>
+  </si>
+  <si>
+    <t>200 VIAL</t>
+  </si>
+  <si>
+    <t>1000 mL</t>
+  </si>
+  <si>
+    <t>100 VIAL</t>
+  </si>
+  <si>
     <t>01:00</t>
   </si>
   <si>
@@ -1863,6 +2010,12 @@
     <t>22:00</t>
   </si>
   <si>
+    <t>1-2 VIAL</t>
+  </si>
+  <si>
+    <t>25-50 mL</t>
+  </si>
+  <si>
     <t>03:00</t>
   </si>
   <si>
@@ -1905,6 +2058,27 @@
     <t>No Response-ETT</t>
   </si>
   <si>
+    <t>1000 VIAL</t>
+  </si>
+  <si>
+    <t>60 TAB</t>
+  </si>
+  <si>
+    <t>500 mL</t>
+  </si>
+  <si>
+    <t>150 TAB</t>
+  </si>
+  <si>
+    <t>400 TAB</t>
+  </si>
+  <si>
+    <t>250 mL</t>
+  </si>
+  <si>
+    <t>2000 mL</t>
+  </si>
+  <si>
     <t>08:25</t>
   </si>
   <si>
@@ -1917,7 +2091,16 @@
     <t>23:09</t>
   </si>
   <si>
-    <t>250 mL</t>
+    <t>40 TAB</t>
+  </si>
+  <si>
+    <t>10 SYR</t>
+  </si>
+  <si>
+    <t>2 PKT</t>
+  </si>
+  <si>
+    <t>40 PKT</t>
   </si>
   <si>
     <t>00:10</t>
@@ -1938,6 +2121,12 @@
     <t>20:12</t>
   </si>
   <si>
+    <t>20 BAG</t>
+  </si>
+  <si>
+    <t>2000 TAB</t>
+  </si>
+  <si>
     <t>02:25</t>
   </si>
   <si>
@@ -1947,6 +2136,12 @@
     <t>13:30</t>
   </si>
   <si>
+    <t>1 mL</t>
+  </si>
+  <si>
+    <t>75 CAP</t>
+  </si>
+  <si>
     <t>02:13</t>
   </si>
   <si>
@@ -1956,15 +2151,18 @@
     <t>20:07</t>
   </si>
   <si>
+    <t>300 VIAL</t>
+  </si>
+  <si>
+    <t>6 VIAL</t>
+  </si>
+  <si>
     <t>00:05</t>
   </si>
   <si>
     <t>20:09</t>
   </si>
   <si>
-    <t>500 mL</t>
-  </si>
-  <si>
     <t>00:20</t>
   </si>
   <si>
@@ -2007,12 +2205,12 @@
     <t>22:13</t>
   </si>
   <si>
+    <t>300 SYR</t>
+  </si>
+  <si>
     <t>200 SYR</t>
   </si>
   <si>
-    <t>300 SYR</t>
-  </si>
-  <si>
     <t>00:27</t>
   </si>
   <si>
@@ -2028,6 +2226,9 @@
     <t>20:22</t>
   </si>
   <si>
+    <t>1 TUBE</t>
+  </si>
+  <si>
     <t>03:16</t>
   </si>
   <si>
@@ -2073,6 +2274,9 @@
     <t>12:17</t>
   </si>
   <si>
+    <t>100 TAB</t>
+  </si>
+  <si>
     <t>04:12</t>
   </si>
   <si>
@@ -2085,6 +2289,12 @@
     <t>20:42</t>
   </si>
   <si>
+    <t>40 CAP</t>
+  </si>
+  <si>
+    <t>0.5 NEB</t>
+  </si>
+  <si>
     <t>00:31</t>
   </si>
   <si>
@@ -2101,6 +2311,15 @@
   </si>
   <si>
     <t>03:27</t>
+  </si>
+  <si>
+    <t>200 TAB</t>
+  </si>
+  <si>
+    <t>0.5 mL</t>
+  </si>
+  <si>
+    <t>1 BTL</t>
   </si>
   <si>
     <t>Patient Identification Label</t>
@@ -7601,7 +7820,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9837-4474-8150-08566B6D3498}"/>
+              <c16:uniqueId val="{00000000-D56E-4B80-9BFF-53D63526D658}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10537,7 +10756,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9837-4474-8150-08566B6D3498}"/>
+              <c16:uniqueId val="{00000001-D56E-4B80-9BFF-53D63526D658}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13473,7 +13692,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9837-4474-8150-08566B6D3498}"/>
+              <c16:uniqueId val="{00000002-D56E-4B80-9BFF-53D63526D658}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -16742,7 +16961,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-9837-4474-8150-08566B6D3498}"/>
+              <c16:uniqueId val="{00000003-D56E-4B80-9BFF-53D63526D658}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -19813,7 +20032,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-9837-4474-8150-08566B6D3498}"/>
+              <c16:uniqueId val="{00000004-D56E-4B80-9BFF-53D63526D658}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -22176,7 +22395,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-9837-4474-8150-08566B6D3498}"/>
+              <c16:uniqueId val="{00000005-D56E-4B80-9BFF-53D63526D658}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -23886,7 +24105,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-9837-4474-8150-08566B6D3498}"/>
+              <c16:uniqueId val="{00000006-D56E-4B80-9BFF-53D63526D658}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -25590,7 +25809,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-9837-4474-8150-08566B6D3498}"/>
+              <c16:uniqueId val="{00000007-D56E-4B80-9BFF-53D63526D658}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -27297,7 +27516,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-9837-4474-8150-08566B6D3498}"/>
+              <c16:uniqueId val="{00000008-D56E-4B80-9BFF-53D63526D658}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -27740,7 +27959,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AADC7E9-E5F5-40EF-AD86-28A519A059C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F1DC4D-B31A-4E38-8454-D2DBD38A3D51}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AL76"/>
   <sheetViews>
@@ -27765,7 +27984,7 @@
     <row r="1" spans="2:25" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>693</v>
+        <v>766</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -27778,7 +27997,7 @@
     </row>
     <row r="3" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>694</v>
+        <v>767</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
@@ -27791,7 +28010,7 @@
     </row>
     <row r="4" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>695</v>
+        <v>768</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="12"/>
@@ -27804,7 +28023,7 @@
     </row>
     <row r="5" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>696</v>
+        <v>769</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="14"/>
@@ -27817,27 +28036,27 @@
     </row>
     <row r="6" spans="2:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
-        <v>697</v>
+        <v>770</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="19" t="s">
-        <v>698</v>
+        <v>771</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="21" t="s">
-        <v>699</v>
+        <v>772</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="22" t="s">
-        <v>700</v>
+        <v>773</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>701</v>
+        <v>774</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
@@ -27865,7 +28084,7 @@
     </row>
     <row r="9" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="30" t="s">
-        <v>702</v>
+        <v>775</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
@@ -27893,11 +28112,11 @@
     </row>
     <row r="10" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
-        <v>703</v>
+        <v>776</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="38" t="s">
-        <v>704</v>
+        <v>777</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="40"/>
@@ -27920,7 +28139,7 @@
       <c r="W10" s="40"/>
       <c r="X10" s="40"/>
       <c r="Y10" s="41" t="s">
-        <v>704</v>
+        <v>777</v>
       </c>
     </row>
     <row r="11" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27957,7 +28176,7 @@
       <c r="B12" s="42"/>
       <c r="C12" s="43"/>
       <c r="D12" s="48" t="s">
-        <v>705</v>
+        <v>778</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="50"/>
@@ -27980,14 +28199,14 @@
       <c r="W12" s="50"/>
       <c r="X12" s="50"/>
       <c r="Y12" s="51" t="s">
-        <v>705</v>
+        <v>778</v>
       </c>
     </row>
     <row r="13" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="42"/>
       <c r="C13" s="43"/>
       <c r="D13" s="52" t="s">
-        <v>706</v>
+        <v>779</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="54"/>
@@ -28010,14 +28229,14 @@
       <c r="W13" s="54"/>
       <c r="X13" s="54"/>
       <c r="Y13" s="55" t="s">
-        <v>706</v>
+        <v>779</v>
       </c>
     </row>
     <row r="14" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
       <c r="C14" s="43"/>
       <c r="D14" s="56" t="s">
-        <v>707</v>
+        <v>780</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="58"/>
@@ -28040,14 +28259,14 @@
       <c r="W14" s="58"/>
       <c r="X14" s="58"/>
       <c r="Y14" s="59" t="s">
-        <v>707</v>
+        <v>780</v>
       </c>
     </row>
     <row r="15" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
       <c r="C15" s="43"/>
       <c r="D15" s="44" t="s">
-        <v>708</v>
+        <v>781</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="46"/>
@@ -28070,14 +28289,14 @@
       <c r="W15" s="46"/>
       <c r="X15" s="46"/>
       <c r="Y15" s="47" t="s">
-        <v>708</v>
+        <v>781</v>
       </c>
     </row>
     <row r="16" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="60"/>
       <c r="C16" s="61"/>
       <c r="D16" s="62" t="s">
-        <v>709</v>
+        <v>782</v>
       </c>
       <c r="E16" s="63"/>
       <c r="F16" s="64"/>
@@ -28100,16 +28319,16 @@
       <c r="W16" s="64"/>
       <c r="X16" s="64"/>
       <c r="Y16" s="65" t="s">
-        <v>709</v>
+        <v>782</v>
       </c>
     </row>
     <row r="17" spans="2:38" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="36" t="s">
-        <v>710</v>
+        <v>783</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="66" t="s">
-        <v>711</v>
+        <v>784</v>
       </c>
       <c r="E17" s="67"/>
       <c r="F17" s="68"/>
@@ -28132,14 +28351,14 @@
       <c r="W17" s="68"/>
       <c r="X17" s="68"/>
       <c r="Y17" s="69" t="s">
-        <v>711</v>
+        <v>784</v>
       </c>
     </row>
     <row r="18" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
       <c r="C18" s="43"/>
       <c r="D18" s="52" t="s">
-        <v>712</v>
+        <v>785</v>
       </c>
       <c r="E18" s="53"/>
       <c r="F18" s="54"/>
@@ -28162,10 +28381,10 @@
       <c r="W18" s="54"/>
       <c r="X18" s="54"/>
       <c r="Y18" s="55" t="s">
-        <v>712</v>
+        <v>785</v>
       </c>
       <c r="Z18" s="70" t="s">
-        <v>713</v>
+        <v>786</v>
       </c>
       <c r="AA18" s="71"/>
       <c r="AB18" s="71"/>
@@ -28173,7 +28392,7 @@
       <c r="AD18" s="71"/>
       <c r="AE18" s="72"/>
       <c r="AF18" s="73" t="s">
-        <v>714</v>
+        <v>787</v>
       </c>
       <c r="AG18" s="73"/>
       <c r="AH18" s="73"/>
@@ -28185,7 +28404,7 @@
       <c r="B19" s="60"/>
       <c r="C19" s="61"/>
       <c r="D19" s="75" t="s">
-        <v>715</v>
+        <v>788</v>
       </c>
       <c r="E19" s="76"/>
       <c r="F19" s="77"/>
@@ -28208,7 +28427,7 @@
       <c r="W19" s="77"/>
       <c r="X19" s="77"/>
       <c r="Y19" s="78" t="s">
-        <v>715</v>
+        <v>788</v>
       </c>
       <c r="Z19" s="79"/>
       <c r="AA19" s="80"/>
@@ -28224,11 +28443,11 @@
     </row>
     <row r="20" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="87" t="s">
-        <v>716</v>
+        <v>789</v>
       </c>
       <c r="C20" s="88"/>
       <c r="D20" s="89" t="s">
-        <v>717</v>
+        <v>790</v>
       </c>
       <c r="E20" s="90"/>
       <c r="F20" s="91"/>
@@ -28251,7 +28470,7 @@
       <c r="W20" s="91"/>
       <c r="X20" s="91"/>
       <c r="Y20" s="92" t="s">
-        <v>717</v>
+        <v>790</v>
       </c>
       <c r="Z20" s="79"/>
       <c r="AA20" s="93"/>
@@ -28269,7 +28488,7 @@
       <c r="B21" s="99"/>
       <c r="C21" s="100"/>
       <c r="D21" s="56" t="s">
-        <v>718</v>
+        <v>791</v>
       </c>
       <c r="E21" s="57"/>
       <c r="F21" s="58"/>
@@ -28292,7 +28511,7 @@
       <c r="W21" s="58"/>
       <c r="X21" s="58"/>
       <c r="Y21" s="59" t="s">
-        <v>718</v>
+        <v>791</v>
       </c>
       <c r="Z21" s="101"/>
       <c r="AA21" s="102"/>
@@ -28311,7 +28530,7 @@
       <c r="B22" s="99"/>
       <c r="C22" s="100"/>
       <c r="D22" s="48" t="s">
-        <v>719</v>
+        <v>792</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
@@ -28334,10 +28553,10 @@
       <c r="W22" s="50"/>
       <c r="X22" s="50"/>
       <c r="Y22" s="51" t="s">
-        <v>719</v>
+        <v>792</v>
       </c>
       <c r="Z22" s="104" t="s">
-        <v>720</v>
+        <v>793</v>
       </c>
       <c r="AA22" s="105"/>
       <c r="AB22" s="105"/>
@@ -28355,7 +28574,7 @@
       <c r="B23" s="107"/>
       <c r="C23" s="108"/>
       <c r="D23" s="109" t="s">
-        <v>721</v>
+        <v>794</v>
       </c>
       <c r="E23" s="110"/>
       <c r="F23" s="111"/>
@@ -28378,52 +28597,52 @@
       <c r="W23" s="111"/>
       <c r="X23" s="111"/>
       <c r="Y23" s="112" t="s">
-        <v>721</v>
+        <v>794</v>
       </c>
       <c r="Z23" s="113" t="s">
-        <v>722</v>
+        <v>795</v>
       </c>
       <c r="AA23" s="77" t="s">
-        <v>723</v>
+        <v>796</v>
       </c>
       <c r="AB23" s="76" t="s">
-        <v>724</v>
+        <v>797</v>
       </c>
       <c r="AC23" s="77" t="s">
-        <v>725</v>
+        <v>798</v>
       </c>
       <c r="AD23" s="76" t="s">
-        <v>726</v>
+        <v>799</v>
       </c>
       <c r="AE23" s="77" t="s">
-        <v>727</v>
+        <v>800</v>
       </c>
       <c r="AF23" s="76" t="s">
-        <v>728</v>
+        <v>801</v>
       </c>
       <c r="AG23" s="77" t="s">
-        <v>729</v>
+        <v>802</v>
       </c>
       <c r="AH23" s="76" t="s">
-        <v>730</v>
+        <v>803</v>
       </c>
       <c r="AI23" s="77" t="s">
-        <v>731</v>
+        <v>804</v>
       </c>
       <c r="AJ23" s="76" t="s">
-        <v>732</v>
+        <v>805</v>
       </c>
       <c r="AK23" s="114" t="s">
-        <v>733</v>
+        <v>806</v>
       </c>
     </row>
     <row r="24" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="87" t="s">
-        <v>734</v>
+        <v>807</v>
       </c>
       <c r="C24" s="88"/>
       <c r="D24" s="115" t="s">
-        <v>735</v>
+        <v>808</v>
       </c>
       <c r="E24" s="116"/>
       <c r="F24" s="117"/>
@@ -28446,53 +28665,53 @@
       <c r="W24" s="117"/>
       <c r="X24" s="117"/>
       <c r="Y24" s="118" t="s">
-        <v>735</v>
+        <v>808</v>
       </c>
       <c r="Z24" s="119" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AA24" s="120" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AB24" s="121" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AC24" s="122" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AD24" s="123" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AE24" s="124" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AF24" s="123" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AG24" s="125" t="s">
-        <v>739</v>
+        <v>812</v>
       </c>
       <c r="AH24" s="126" t="s">
-        <v>739</v>
+        <v>812</v>
       </c>
       <c r="AI24" s="125" t="s">
-        <v>740</v>
+        <v>813</v>
       </c>
       <c r="AJ24" s="126" t="s">
-        <v>741</v>
+        <v>814</v>
       </c>
       <c r="AK24" s="125" t="s">
-        <v>741</v>
+        <v>814</v>
       </c>
       <c r="AL24" s="127" t="s">
-        <v>742</v>
+        <v>815</v>
       </c>
     </row>
     <row r="25" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="99"/>
       <c r="C25" s="100"/>
       <c r="D25" s="48" t="s">
-        <v>722</v>
+        <v>795</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
@@ -28515,43 +28734,43 @@
       <c r="W25" s="50"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="51" t="s">
-        <v>722</v>
+        <v>795</v>
       </c>
       <c r="Z25" s="128" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AA25" s="129" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AB25" s="128" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AC25" s="130" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AD25" s="131" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AE25" s="130" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AF25" s="132" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AG25" s="133" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AH25" s="134" t="s">
-        <v>739</v>
+        <v>812</v>
       </c>
       <c r="AI25" s="135" t="s">
-        <v>739</v>
+        <v>812</v>
       </c>
       <c r="AJ25" s="134" t="s">
-        <v>740</v>
+        <v>813</v>
       </c>
       <c r="AK25" s="135" t="s">
-        <v>740</v>
+        <v>813</v>
       </c>
       <c r="AL25" s="136"/>
     </row>
@@ -28559,7 +28778,7 @@
       <c r="B26" s="99"/>
       <c r="C26" s="100"/>
       <c r="D26" s="48" t="s">
-        <v>723</v>
+        <v>796</v>
       </c>
       <c r="E26" s="49"/>
       <c r="F26" s="50"/>
@@ -28582,43 +28801,43 @@
       <c r="W26" s="50"/>
       <c r="X26" s="50"/>
       <c r="Y26" s="51" t="s">
-        <v>723</v>
+        <v>796</v>
       </c>
       <c r="Z26" s="137" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AA26" s="138" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AB26" s="137" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AC26" s="138" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AD26" s="137" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AE26" s="139" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AF26" s="140" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AG26" s="141" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AH26" s="142" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AI26" s="143" t="s">
-        <v>739</v>
+        <v>812</v>
       </c>
       <c r="AJ26" s="144" t="s">
-        <v>739</v>
+        <v>812</v>
       </c>
       <c r="AK26" s="143" t="s">
-        <v>740</v>
+        <v>813</v>
       </c>
       <c r="AL26" s="136"/>
     </row>
@@ -28626,7 +28845,7 @@
       <c r="B27" s="99"/>
       <c r="C27" s="100"/>
       <c r="D27" s="48" t="s">
-        <v>724</v>
+        <v>797</v>
       </c>
       <c r="E27" s="49"/>
       <c r="F27" s="50"/>
@@ -28649,43 +28868,43 @@
       <c r="W27" s="50"/>
       <c r="X27" s="50"/>
       <c r="Y27" s="51" t="s">
-        <v>724</v>
+        <v>797</v>
       </c>
       <c r="Z27" s="145" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AA27" s="146" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AB27" s="147" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AC27" s="146" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AD27" s="147" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AE27" s="148" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AF27" s="149" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AG27" s="150" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AH27" s="151" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AI27" s="152" t="s">
-        <v>739</v>
+        <v>812</v>
       </c>
       <c r="AJ27" s="153" t="s">
-        <v>739</v>
+        <v>812</v>
       </c>
       <c r="AK27" s="152" t="s">
-        <v>739</v>
+        <v>812</v>
       </c>
       <c r="AL27" s="136"/>
     </row>
@@ -28693,7 +28912,7 @@
       <c r="B28" s="99"/>
       <c r="C28" s="100"/>
       <c r="D28" s="154" t="s">
-        <v>725</v>
+        <v>798</v>
       </c>
       <c r="E28" s="53"/>
       <c r="F28" s="54"/>
@@ -28716,43 +28935,43 @@
       <c r="W28" s="54"/>
       <c r="X28" s="54"/>
       <c r="Y28" s="55" t="s">
-        <v>725</v>
+        <v>798</v>
       </c>
       <c r="Z28" s="155" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AA28" s="130" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AB28" s="128" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AC28" s="129" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AD28" s="128" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AE28" s="129" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AF28" s="128" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AG28" s="130" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AH28" s="131" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AI28" s="133" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AJ28" s="132" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AK28" s="133" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AL28" s="136"/>
     </row>
@@ -28760,7 +28979,7 @@
       <c r="B29" s="99"/>
       <c r="C29" s="100"/>
       <c r="D29" s="156" t="s">
-        <v>726</v>
+        <v>799</v>
       </c>
       <c r="E29" s="57"/>
       <c r="F29" s="58"/>
@@ -28783,43 +29002,43 @@
       <c r="W29" s="58"/>
       <c r="X29" s="58"/>
       <c r="Y29" s="59" t="s">
-        <v>726</v>
+        <v>799</v>
       </c>
       <c r="Z29" s="157" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AA29" s="158" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AB29" s="159" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AC29" s="160" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AD29" s="161" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AE29" s="160" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AF29" s="161" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AG29" s="160" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AH29" s="159" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AI29" s="158" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AJ29" s="162" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AK29" s="163" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AL29" s="136"/>
     </row>
@@ -28827,7 +29046,7 @@
       <c r="B30" s="99"/>
       <c r="C30" s="100"/>
       <c r="D30" s="156" t="s">
-        <v>727</v>
+        <v>800</v>
       </c>
       <c r="E30" s="57"/>
       <c r="F30" s="58"/>
@@ -28850,43 +29069,43 @@
       <c r="W30" s="58"/>
       <c r="X30" s="58"/>
       <c r="Y30" s="59" t="s">
-        <v>727</v>
+        <v>800</v>
       </c>
       <c r="Z30" s="164" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AA30" s="148" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AB30" s="149" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AC30" s="148" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AD30" s="147" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AE30" s="146" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AF30" s="147" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AG30" s="146" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AH30" s="147" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AI30" s="148" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AJ30" s="149" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AK30" s="165" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AL30" s="136"/>
     </row>
@@ -28894,7 +29113,7 @@
       <c r="B31" s="99"/>
       <c r="C31" s="100"/>
       <c r="D31" s="156" t="s">
-        <v>728</v>
+        <v>801</v>
       </c>
       <c r="E31" s="57"/>
       <c r="F31" s="58"/>
@@ -28917,43 +29136,43 @@
       <c r="W31" s="58"/>
       <c r="X31" s="58"/>
       <c r="Y31" s="59" t="s">
-        <v>728</v>
+        <v>801</v>
       </c>
       <c r="Z31" s="166" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AA31" s="133" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AB31" s="131" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AC31" s="130" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AD31" s="128" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AE31" s="129" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AF31" s="128" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AG31" s="129" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AH31" s="128" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AI31" s="129" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AJ31" s="128" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AK31" s="167" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AL31" s="136"/>
     </row>
@@ -28961,7 +29180,7 @@
       <c r="B32" s="99"/>
       <c r="C32" s="100"/>
       <c r="D32" s="156" t="s">
-        <v>729</v>
+        <v>802</v>
       </c>
       <c r="E32" s="57"/>
       <c r="F32" s="58"/>
@@ -28984,43 +29203,43 @@
       <c r="W32" s="58"/>
       <c r="X32" s="58"/>
       <c r="Y32" s="59" t="s">
-        <v>729</v>
+        <v>802</v>
       </c>
       <c r="Z32" s="168" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AA32" s="163" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AB32" s="162" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AC32" s="158" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AD32" s="159" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AE32" s="160" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AF32" s="161" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AG32" s="160" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AH32" s="161" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AI32" s="160" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AJ32" s="161" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AK32" s="169" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AL32" s="136"/>
     </row>
@@ -29028,7 +29247,7 @@
       <c r="B33" s="99"/>
       <c r="C33" s="100"/>
       <c r="D33" s="156" t="s">
-        <v>730</v>
+        <v>803</v>
       </c>
       <c r="E33" s="57"/>
       <c r="F33" s="58"/>
@@ -29051,43 +29270,43 @@
       <c r="W33" s="58"/>
       <c r="X33" s="58"/>
       <c r="Y33" s="59" t="s">
-        <v>730</v>
+        <v>803</v>
       </c>
       <c r="Z33" s="170" t="s">
-        <v>739</v>
+        <v>812</v>
       </c>
       <c r="AA33" s="151" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AB33" s="151" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AC33" s="151" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AD33" s="149" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AE33" s="149" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AF33" s="147" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AG33" s="147" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AH33" s="147" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AI33" s="147" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AJ33" s="147" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AK33" s="147" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AL33" s="136"/>
     </row>
@@ -29095,7 +29314,7 @@
       <c r="B34" s="99"/>
       <c r="C34" s="100"/>
       <c r="D34" s="154" t="s">
-        <v>731</v>
+        <v>804</v>
       </c>
       <c r="E34" s="53"/>
       <c r="F34" s="54"/>
@@ -29118,43 +29337,43 @@
       <c r="W34" s="54"/>
       <c r="X34" s="54"/>
       <c r="Y34" s="55" t="s">
-        <v>731</v>
+        <v>804</v>
       </c>
       <c r="Z34" s="171" t="s">
-        <v>739</v>
+        <v>812</v>
       </c>
       <c r="AA34" s="134" t="s">
-        <v>739</v>
+        <v>812</v>
       </c>
       <c r="AB34" s="134" t="s">
-        <v>739</v>
+        <v>812</v>
       </c>
       <c r="AC34" s="132" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AD34" s="132" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AE34" s="132" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AF34" s="131" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AG34" s="131" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AH34" s="128" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AI34" s="128" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AJ34" s="128" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AK34" s="128" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AL34" s="136"/>
     </row>
@@ -29162,7 +29381,7 @@
       <c r="B35" s="99"/>
       <c r="C35" s="100"/>
       <c r="D35" s="48" t="s">
-        <v>732</v>
+        <v>805</v>
       </c>
       <c r="E35" s="49"/>
       <c r="F35" s="50"/>
@@ -29185,43 +29404,43 @@
       <c r="W35" s="50"/>
       <c r="X35" s="50"/>
       <c r="Y35" s="51" t="s">
-        <v>732</v>
+        <v>805</v>
       </c>
       <c r="Z35" s="171" t="s">
-        <v>740</v>
+        <v>813</v>
       </c>
       <c r="AA35" s="134" t="s">
-        <v>739</v>
+        <v>812</v>
       </c>
       <c r="AB35" s="134" t="s">
-        <v>739</v>
+        <v>812</v>
       </c>
       <c r="AC35" s="134" t="s">
-        <v>739</v>
+        <v>812</v>
       </c>
       <c r="AD35" s="132" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AE35" s="132" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AF35" s="132" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AG35" s="132" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AH35" s="131" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AI35" s="131" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AJ35" s="128" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AK35" s="128" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AL35" s="136"/>
     </row>
@@ -29229,7 +29448,7 @@
       <c r="B36" s="99"/>
       <c r="C36" s="100"/>
       <c r="D36" s="172" t="s">
-        <v>733</v>
+        <v>806</v>
       </c>
       <c r="E36" s="173"/>
       <c r="F36" s="174"/>
@@ -29252,7 +29471,7 @@
       <c r="W36" s="174"/>
       <c r="X36" s="174"/>
       <c r="Y36" s="175" t="s">
-        <v>733</v>
+        <v>806</v>
       </c>
       <c r="Z36" s="176"/>
       <c r="AA36" s="177"/>
@@ -29265,10 +29484,10 @@
       <c r="AH36" s="177"/>
       <c r="AI36" s="177"/>
       <c r="AJ36" s="131" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AK36" s="128" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AL36" s="136"/>
     </row>
@@ -29276,7 +29495,7 @@
       <c r="B37" s="99"/>
       <c r="C37" s="100"/>
       <c r="D37" s="178" t="s">
-        <v>743</v>
+        <v>816</v>
       </c>
       <c r="E37" s="179"/>
       <c r="F37" s="180"/>
@@ -29299,14 +29518,14 @@
       <c r="W37" s="180"/>
       <c r="X37" s="180"/>
       <c r="Y37" s="181" t="s">
-        <v>743</v>
+        <v>816</v>
       </c>
       <c r="Z37" s="176"/>
       <c r="AA37" s="177"/>
       <c r="AB37" s="177"/>
       <c r="AC37" s="177"/>
       <c r="AD37" s="182" t="s">
-        <v>744</v>
+        <v>817</v>
       </c>
       <c r="AE37" s="182"/>
       <c r="AF37" s="182"/>
@@ -29321,7 +29540,7 @@
       <c r="B38" s="99"/>
       <c r="C38" s="100"/>
       <c r="D38" s="178" t="s">
-        <v>745</v>
+        <v>818</v>
       </c>
       <c r="E38" s="179"/>
       <c r="F38" s="180"/>
@@ -29344,7 +29563,7 @@
       <c r="W38" s="180"/>
       <c r="X38" s="180"/>
       <c r="Y38" s="181" t="s">
-        <v>745</v>
+        <v>818</v>
       </c>
       <c r="Z38" s="176"/>
       <c r="AA38" s="177"/>
@@ -29364,7 +29583,7 @@
       <c r="B39" s="99"/>
       <c r="C39" s="100"/>
       <c r="D39" s="178" t="s">
-        <v>746</v>
+        <v>819</v>
       </c>
       <c r="E39" s="179"/>
       <c r="F39" s="180"/>
@@ -29387,7 +29606,7 @@
       <c r="W39" s="180"/>
       <c r="X39" s="180"/>
       <c r="Y39" s="181" t="s">
-        <v>746</v>
+        <v>819</v>
       </c>
       <c r="Z39" s="176"/>
       <c r="AA39" s="177"/>
@@ -29407,7 +29626,7 @@
       <c r="B40" s="107"/>
       <c r="C40" s="108"/>
       <c r="D40" s="62" t="s">
-        <v>747</v>
+        <v>820</v>
       </c>
       <c r="E40" s="63"/>
       <c r="F40" s="64"/>
@@ -29430,7 +29649,7 @@
       <c r="W40" s="64"/>
       <c r="X40" s="64"/>
       <c r="Y40" s="65" t="s">
-        <v>747</v>
+        <v>820</v>
       </c>
       <c r="Z40" s="185"/>
       <c r="AA40" s="186"/>
@@ -29448,11 +29667,11 @@
     </row>
     <row r="41" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="87" t="s">
-        <v>748</v>
+        <v>821</v>
       </c>
       <c r="C41" s="88"/>
       <c r="D41" s="38" t="s">
-        <v>749</v>
+        <v>822</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="40"/>
@@ -29475,14 +29694,14 @@
       <c r="W41" s="40"/>
       <c r="X41" s="40"/>
       <c r="Y41" s="41" t="s">
-        <v>749</v>
+        <v>822</v>
       </c>
     </row>
     <row r="42" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="99"/>
       <c r="C42" s="100"/>
       <c r="D42" s="44" t="s">
-        <v>728</v>
+        <v>801</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="46"/>
@@ -29505,14 +29724,14 @@
       <c r="W42" s="46"/>
       <c r="X42" s="46"/>
       <c r="Y42" s="47" t="s">
-        <v>728</v>
+        <v>801</v>
       </c>
     </row>
     <row r="43" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="99"/>
       <c r="C43" s="100"/>
       <c r="D43" s="48" t="s">
-        <v>729</v>
+        <v>802</v>
       </c>
       <c r="E43" s="49"/>
       <c r="F43" s="50"/>
@@ -29535,14 +29754,14 @@
       <c r="W43" s="50"/>
       <c r="X43" s="50"/>
       <c r="Y43" s="51" t="s">
-        <v>729</v>
+        <v>802</v>
       </c>
     </row>
     <row r="44" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="99"/>
       <c r="C44" s="100"/>
       <c r="D44" s="48" t="s">
-        <v>730</v>
+        <v>803</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="50"/>
@@ -29565,14 +29784,14 @@
       <c r="W44" s="50"/>
       <c r="X44" s="50"/>
       <c r="Y44" s="51" t="s">
-        <v>730</v>
+        <v>803</v>
       </c>
     </row>
     <row r="45" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="99"/>
       <c r="C45" s="100"/>
       <c r="D45" s="52" t="s">
-        <v>731</v>
+        <v>804</v>
       </c>
       <c r="E45" s="53"/>
       <c r="F45" s="54"/>
@@ -29595,14 +29814,14 @@
       <c r="W45" s="54"/>
       <c r="X45" s="54"/>
       <c r="Y45" s="55" t="s">
-        <v>731</v>
+        <v>804</v>
       </c>
     </row>
     <row r="46" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="99"/>
       <c r="C46" s="100"/>
       <c r="D46" s="56" t="s">
-        <v>732</v>
+        <v>805</v>
       </c>
       <c r="E46" s="57"/>
       <c r="F46" s="58"/>
@@ -29625,14 +29844,14 @@
       <c r="W46" s="58"/>
       <c r="X46" s="58"/>
       <c r="Y46" s="59" t="s">
-        <v>732</v>
+        <v>805</v>
       </c>
     </row>
     <row r="47" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="99"/>
       <c r="C47" s="100"/>
       <c r="D47" s="56" t="s">
-        <v>733</v>
+        <v>806</v>
       </c>
       <c r="E47" s="57"/>
       <c r="F47" s="58"/>
@@ -29655,10 +29874,10 @@
       <c r="W47" s="58"/>
       <c r="X47" s="58"/>
       <c r="Y47" s="59" t="s">
-        <v>733</v>
+        <v>806</v>
       </c>
       <c r="AA47" s="189" t="s">
-        <v>750</v>
+        <v>823</v>
       </c>
       <c r="AB47" s="190"/>
       <c r="AC47" s="190"/>
@@ -29675,7 +29894,7 @@
       <c r="B48" s="99"/>
       <c r="C48" s="100"/>
       <c r="D48" s="56" t="s">
-        <v>743</v>
+        <v>816</v>
       </c>
       <c r="E48" s="57"/>
       <c r="F48" s="58"/>
@@ -29698,7 +29917,7 @@
       <c r="W48" s="58"/>
       <c r="X48" s="58"/>
       <c r="Y48" s="59" t="s">
-        <v>743</v>
+        <v>816</v>
       </c>
       <c r="AA48" s="190"/>
       <c r="AB48" s="190"/>
@@ -29716,7 +29935,7 @@
       <c r="B49" s="99"/>
       <c r="C49" s="100"/>
       <c r="D49" s="56" t="s">
-        <v>745</v>
+        <v>818</v>
       </c>
       <c r="E49" s="57"/>
       <c r="F49" s="58"/>
@@ -29739,7 +29958,7 @@
       <c r="W49" s="58"/>
       <c r="X49" s="58"/>
       <c r="Y49" s="59" t="s">
-        <v>745</v>
+        <v>818</v>
       </c>
       <c r="AA49" s="190"/>
       <c r="AB49" s="190"/>
@@ -29757,7 +29976,7 @@
       <c r="B50" s="99"/>
       <c r="C50" s="100"/>
       <c r="D50" s="56" t="s">
-        <v>746</v>
+        <v>819</v>
       </c>
       <c r="E50" s="57"/>
       <c r="F50" s="58"/>
@@ -29780,14 +29999,14 @@
       <c r="W50" s="58"/>
       <c r="X50" s="58"/>
       <c r="Y50" s="59" t="s">
-        <v>746</v>
+        <v>819</v>
       </c>
     </row>
     <row r="51" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="99"/>
       <c r="C51" s="100"/>
       <c r="D51" s="52" t="s">
-        <v>747</v>
+        <v>820</v>
       </c>
       <c r="E51" s="53"/>
       <c r="F51" s="54"/>
@@ -29810,14 +30029,14 @@
       <c r="W51" s="54"/>
       <c r="X51" s="54"/>
       <c r="Y51" s="55" t="s">
-        <v>747</v>
+        <v>820</v>
       </c>
     </row>
     <row r="52" spans="2:37" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="107"/>
       <c r="C52" s="108"/>
       <c r="D52" s="62" t="s">
-        <v>751</v>
+        <v>824</v>
       </c>
       <c r="E52" s="63"/>
       <c r="F52" s="64"/>
@@ -29840,24 +30059,24 @@
       <c r="W52" s="64"/>
       <c r="X52" s="64"/>
       <c r="Y52" s="65" t="s">
-        <v>751</v>
+        <v>824</v>
       </c>
       <c r="AB52" s="191"/>
       <c r="AC52" s="191"/>
       <c r="AD52" s="191"/>
       <c r="AE52" s="191"/>
       <c r="AG52" s="14" t="s">
-        <v>752</v>
+        <v>825</v>
       </c>
       <c r="AH52" s="14"/>
     </row>
     <row r="53" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="36" t="s">
-        <v>753</v>
+        <v>826</v>
       </c>
       <c r="C53" s="37"/>
       <c r="D53" s="66" t="s">
-        <v>754</v>
+        <v>827</v>
       </c>
       <c r="E53" s="67"/>
       <c r="F53" s="68"/>
@@ -29880,7 +30099,7 @@
       <c r="W53" s="68"/>
       <c r="X53" s="68"/>
       <c r="Y53" s="69" t="s">
-        <v>754</v>
+        <v>827</v>
       </c>
       <c r="AG53" s="192"/>
       <c r="AH53" s="192"/>
@@ -29889,7 +30108,7 @@
       <c r="B54" s="42"/>
       <c r="C54" s="43"/>
       <c r="D54" s="52" t="s">
-        <v>755</v>
+        <v>828</v>
       </c>
       <c r="E54" s="53"/>
       <c r="F54" s="54"/>
@@ -29912,14 +30131,14 @@
       <c r="W54" s="54"/>
       <c r="X54" s="54"/>
       <c r="Y54" s="55" t="s">
-        <v>755</v>
+        <v>828</v>
       </c>
       <c r="AB54" s="193"/>
       <c r="AC54" s="193"/>
       <c r="AD54" s="193"/>
       <c r="AE54" s="193"/>
       <c r="AG54" s="14" t="s">
-        <v>756</v>
+        <v>829</v>
       </c>
       <c r="AH54" s="14"/>
     </row>
@@ -29927,7 +30146,7 @@
       <c r="B55" s="42"/>
       <c r="C55" s="43"/>
       <c r="D55" s="56" t="s">
-        <v>757</v>
+        <v>830</v>
       </c>
       <c r="E55" s="57"/>
       <c r="F55" s="58"/>
@@ -29950,7 +30169,7 @@
       <c r="W55" s="58"/>
       <c r="X55" s="58"/>
       <c r="Y55" s="59" t="s">
-        <v>757</v>
+        <v>830</v>
       </c>
       <c r="AG55" s="192"/>
       <c r="AH55" s="192"/>
@@ -29959,7 +30178,7 @@
       <c r="B56" s="42"/>
       <c r="C56" s="43"/>
       <c r="D56" s="52" t="s">
-        <v>758</v>
+        <v>831</v>
       </c>
       <c r="E56" s="53"/>
       <c r="F56" s="54"/>
@@ -29982,14 +30201,14 @@
       <c r="W56" s="54"/>
       <c r="X56" s="54"/>
       <c r="Y56" s="55" t="s">
-        <v>758</v>
+        <v>831</v>
       </c>
       <c r="AB56" s="194"/>
       <c r="AC56" s="194"/>
       <c r="AD56" s="194"/>
       <c r="AE56" s="194"/>
       <c r="AG56" s="14" t="s">
-        <v>759</v>
+        <v>832</v>
       </c>
       <c r="AH56" s="14"/>
     </row>
@@ -29997,7 +30216,7 @@
       <c r="B57" s="42"/>
       <c r="C57" s="43"/>
       <c r="D57" s="48" t="s">
-        <v>760</v>
+        <v>833</v>
       </c>
       <c r="E57" s="49"/>
       <c r="F57" s="50"/>
@@ -30020,7 +30239,7 @@
       <c r="W57" s="50"/>
       <c r="X57" s="50"/>
       <c r="Y57" s="51" t="s">
-        <v>760</v>
+        <v>833</v>
       </c>
       <c r="AG57" s="192"/>
       <c r="AH57" s="192"/>
@@ -30029,7 +30248,7 @@
       <c r="B58" s="60"/>
       <c r="C58" s="61"/>
       <c r="D58" s="109" t="s">
-        <v>761</v>
+        <v>834</v>
       </c>
       <c r="E58" s="110"/>
       <c r="F58" s="111"/>
@@ -30052,24 +30271,24 @@
       <c r="W58" s="111"/>
       <c r="X58" s="111"/>
       <c r="Y58" s="112" t="s">
-        <v>761</v>
+        <v>834</v>
       </c>
       <c r="AB58" s="195"/>
       <c r="AC58" s="195"/>
       <c r="AD58" s="195"/>
       <c r="AE58" s="195"/>
       <c r="AG58" s="14" t="s">
-        <v>762</v>
+        <v>835</v>
       </c>
       <c r="AH58" s="14"/>
     </row>
     <row r="59" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="36" t="s">
-        <v>763</v>
+        <v>836</v>
       </c>
       <c r="C59" s="37"/>
       <c r="D59" s="196" t="s">
-        <v>764</v>
+        <v>837</v>
       </c>
       <c r="E59" s="197"/>
       <c r="F59" s="198"/>
@@ -30092,7 +30311,7 @@
       <c r="W59" s="198"/>
       <c r="X59" s="198"/>
       <c r="Y59" s="199" t="s">
-        <v>764</v>
+        <v>837</v>
       </c>
       <c r="AG59" s="192"/>
       <c r="AH59" s="192"/>
@@ -30101,7 +30320,7 @@
       <c r="B60" s="42"/>
       <c r="C60" s="43"/>
       <c r="D60" s="56" t="s">
-        <v>765</v>
+        <v>838</v>
       </c>
       <c r="E60" s="57"/>
       <c r="F60" s="58"/>
@@ -30124,22 +30343,22 @@
       <c r="W60" s="58"/>
       <c r="X60" s="58"/>
       <c r="Y60" s="59" t="s">
-        <v>765</v>
+        <v>838</v>
       </c>
       <c r="AB60" s="135" t="s">
-        <v>740</v>
+        <v>813</v>
       </c>
       <c r="AC60" s="135" t="s">
-        <v>740</v>
+        <v>813</v>
       </c>
       <c r="AD60" s="135" t="s">
-        <v>740</v>
+        <v>813</v>
       </c>
       <c r="AE60" s="135" t="s">
-        <v>740</v>
+        <v>813</v>
       </c>
       <c r="AG60" s="14" t="s">
-        <v>766</v>
+        <v>839</v>
       </c>
       <c r="AH60" s="14"/>
     </row>
@@ -30147,7 +30366,7 @@
       <c r="B61" s="42"/>
       <c r="C61" s="43"/>
       <c r="D61" s="48" t="s">
-        <v>767</v>
+        <v>840</v>
       </c>
       <c r="E61" s="49"/>
       <c r="F61" s="50"/>
@@ -30170,7 +30389,7 @@
       <c r="W61" s="50"/>
       <c r="X61" s="50"/>
       <c r="Y61" s="51" t="s">
-        <v>767</v>
+        <v>840</v>
       </c>
       <c r="AB61" s="200"/>
       <c r="AC61" s="200"/>
@@ -30183,7 +30402,7 @@
       <c r="B62" s="60"/>
       <c r="C62" s="61"/>
       <c r="D62" s="109" t="s">
-        <v>768</v>
+        <v>841</v>
       </c>
       <c r="E62" s="110"/>
       <c r="F62" s="111"/>
@@ -30206,32 +30425,32 @@
       <c r="W62" s="111"/>
       <c r="X62" s="111"/>
       <c r="Y62" s="112" t="s">
-        <v>768</v>
+        <v>841</v>
       </c>
       <c r="AB62" s="135" t="s">
-        <v>741</v>
+        <v>814</v>
       </c>
       <c r="AC62" s="135" t="s">
-        <v>741</v>
+        <v>814</v>
       </c>
       <c r="AD62" s="135" t="s">
-        <v>741</v>
+        <v>814</v>
       </c>
       <c r="AE62" s="135" t="s">
-        <v>741</v>
+        <v>814</v>
       </c>
       <c r="AG62" s="14" t="s">
-        <v>769</v>
+        <v>842</v>
       </c>
       <c r="AH62" s="14"/>
     </row>
     <row r="63" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="36" t="s">
-        <v>770</v>
+        <v>843</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="89" t="s">
-        <v>771</v>
+        <v>844</v>
       </c>
       <c r="E63" s="90"/>
       <c r="F63" s="91"/>
@@ -30254,7 +30473,7 @@
       <c r="W63" s="91"/>
       <c r="X63" s="91"/>
       <c r="Y63" s="92" t="s">
-        <v>771</v>
+        <v>844</v>
       </c>
       <c r="AG63" s="192"/>
       <c r="AH63" s="192"/>
@@ -30263,7 +30482,7 @@
       <c r="B64" s="42"/>
       <c r="C64" s="43"/>
       <c r="D64" s="52" t="s">
-        <v>772</v>
+        <v>845</v>
       </c>
       <c r="E64" s="53"/>
       <c r="F64" s="54"/>
@@ -30286,14 +30505,14 @@
       <c r="W64" s="54"/>
       <c r="X64" s="54"/>
       <c r="Y64" s="55" t="s">
-        <v>772</v>
+        <v>845</v>
       </c>
       <c r="AB64" s="201"/>
       <c r="AC64" s="201"/>
       <c r="AD64" s="201"/>
       <c r="AE64" s="201"/>
       <c r="AG64" s="14" t="s">
-        <v>773</v>
+        <v>846</v>
       </c>
       <c r="AH64" s="14"/>
     </row>
@@ -30301,7 +30520,7 @@
       <c r="B65" s="42"/>
       <c r="C65" s="43"/>
       <c r="D65" s="44" t="s">
-        <v>774</v>
+        <v>847</v>
       </c>
       <c r="E65" s="45"/>
       <c r="F65" s="46"/>
@@ -30324,14 +30543,14 @@
       <c r="W65" s="46"/>
       <c r="X65" s="46"/>
       <c r="Y65" s="47" t="s">
-        <v>774</v>
+        <v>847</v>
       </c>
     </row>
     <row r="66" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="60"/>
       <c r="C66" s="61"/>
       <c r="D66" s="62" t="s">
-        <v>775</v>
+        <v>848</v>
       </c>
       <c r="E66" s="63"/>
       <c r="F66" s="64"/>
@@ -30354,12 +30573,12 @@
       <c r="W66" s="64"/>
       <c r="X66" s="64"/>
       <c r="Y66" s="65" t="s">
-        <v>775</v>
+        <v>848</v>
       </c>
     </row>
     <row r="67" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="202" t="s">
-        <v>776</v>
+        <v>849</v>
       </c>
       <c r="C67" s="203"/>
       <c r="D67" s="204"/>
@@ -30387,7 +30606,7 @@
     </row>
     <row r="68" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="208" t="s">
-        <v>777</v>
+        <v>850</v>
       </c>
       <c r="C68" s="209" t="s">
         <v>4</v>
@@ -30414,13 +30633,13 @@
       <c r="W68" s="91"/>
       <c r="X68" s="91"/>
       <c r="Y68" s="211" t="s">
-        <v>778</v>
+        <v>851</v>
       </c>
     </row>
     <row r="69" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="212"/>
       <c r="C69" s="213" t="s">
-        <v>779</v>
+        <v>852</v>
       </c>
       <c r="D69" s="214"/>
       <c r="E69" s="57"/>
@@ -30448,7 +30667,7 @@
     <row r="70" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="212"/>
       <c r="C70" s="213" t="s">
-        <v>780</v>
+        <v>853</v>
       </c>
       <c r="D70" s="214"/>
       <c r="E70" s="57"/>
@@ -30560,7 +30779,7 @@
     <row r="74" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="212"/>
       <c r="C74" s="213" t="s">
-        <v>781</v>
+        <v>854</v>
       </c>
       <c r="D74" s="214"/>
       <c r="E74" s="57"/>
@@ -30588,7 +30807,7 @@
     <row r="75" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="212"/>
       <c r="C75" s="213" t="s">
-        <v>782</v>
+        <v>855</v>
       </c>
       <c r="D75" s="214"/>
       <c r="E75" s="216"/>
@@ -30616,7 +30835,7 @@
     <row r="76" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="218"/>
       <c r="C76" s="219" t="s">
-        <v>783</v>
+        <v>856</v>
       </c>
       <c r="D76" s="220"/>
       <c r="E76" s="221"/>
@@ -42883,13 +43102,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A30:IU38"/>
+  <dimension ref="A30:KW72"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="30" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:309" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>547</v>
       </c>
@@ -42897,7 +43116,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="31" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:309" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>549</v>
       </c>
@@ -42932,10 +43151,10 @@
         <v>549</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>550</v>
@@ -43001,13 +43220,13 @@
         <v>550</v>
       </c>
       <c r="AJ31" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK31" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AL31" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AM31" s="1" t="s">
         <v>551</v>
@@ -43070,13 +43289,13 @@
         <v>551</v>
       </c>
       <c r="BG31" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="BH31" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="BI31" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="BJ31" s="1" t="s">
         <v>552</v>
@@ -43142,2823 +43361,4793 @@
         <v>552</v>
       </c>
       <c r="CE31" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="CF31" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="CG31" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="CH31" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="CI31" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="CJ31" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="CK31" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="CL31" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="CM31" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="CN31" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="CO31" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="CP31" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="CQ31" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="CR31" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="CS31" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="CT31" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="CU31" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="CV31" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="CW31" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="CX31" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="CY31" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="CZ31" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="DA31" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="DB31" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="DC31" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="DD31" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="CF31" s="1" t="s">
+      <c r="DE31" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="CG31" s="1" t="s">
+      <c r="DF31" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="CH31" s="1" t="s">
+      <c r="DG31" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="CI31" s="1" t="s">
+      <c r="DH31" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="CJ31" s="1" t="s">
+      <c r="DI31" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="CK31" s="1" t="s">
+      <c r="DJ31" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="CL31" s="1" t="s">
+      <c r="DK31" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="CM31" s="1" t="s">
+      <c r="DL31" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="CN31" s="1" t="s">
+      <c r="DM31" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="CO31" s="1" t="s">
+      <c r="DN31" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="CP31" s="1" t="s">
+      <c r="DO31" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="CQ31" s="1" t="s">
+      <c r="DP31" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="CR31" s="1" t="s">
+      <c r="DQ31" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="DR31" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="DS31" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="DT31" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="DU31" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="DV31" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="DW31" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="CS31" s="1" t="s">
+      <c r="DX31" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="CT31" s="1" t="s">
+      <c r="DY31" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="CU31" s="1" t="s">
+      <c r="DZ31" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="CV31" s="1" t="s">
+      <c r="EA31" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="CW31" s="1" t="s">
+      <c r="EB31" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="CX31" s="1" t="s">
+      <c r="EC31" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="CY31" s="1" t="s">
+      <c r="ED31" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="CZ31" s="1" t="s">
+      <c r="EE31" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="DA31" s="1" t="s">
+      <c r="EF31" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="DB31" s="1" t="s">
+      <c r="EG31" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="EH31" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="EI31" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="DC31" s="1" t="s">
+      <c r="EJ31" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="DD31" s="1" t="s">
+      <c r="EK31" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="DE31" s="1" t="s">
+      <c r="EL31" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="DF31" s="1" t="s">
+      <c r="EM31" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="DG31" s="1" t="s">
+      <c r="EN31" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="DH31" s="1" t="s">
+      <c r="EO31" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="DI31" s="1" t="s">
+      <c r="EP31" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="DJ31" s="1" t="s">
+      <c r="EQ31" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="DK31" s="1" t="s">
+      <c r="ER31" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="DL31" s="1" t="s">
+      <c r="ES31" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="DM31" s="1" t="s">
+      <c r="ET31" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="DN31" s="1" t="s">
+      <c r="EU31" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="EV31" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="DO31" s="1" t="s">
+      <c r="EW31" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="DP31" s="1" t="s">
+      <c r="EX31" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="DQ31" s="1" t="s">
+      <c r="EY31" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="DR31" s="1" t="s">
+      <c r="EZ31" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="DS31" s="1" t="s">
+      <c r="FA31" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="DT31" s="1" t="s">
+      <c r="FB31" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="DU31" s="1" t="s">
+      <c r="FC31" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="DV31" s="1" t="s">
+      <c r="FD31" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="DW31" s="1" t="s">
+      <c r="FE31" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="DX31" s="1" t="s">
+      <c r="FF31" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="DY31" s="1" t="s">
+      <c r="FG31" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="DZ31" s="1" t="s">
+      <c r="FH31" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="EA31" s="1" t="s">
+      <c r="FI31" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="EB31" s="1" t="s">
+      <c r="FJ31" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="EC31" s="1" t="s">
+      <c r="FK31" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="FL31" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="FM31" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="FN31" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="FO31" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="FP31" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="FQ31" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="FR31" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="FS31" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="FT31" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="FU31" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="FV31" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="FW31" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="FX31" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="FY31" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="FZ31" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="ED31" s="1" t="s">
+      <c r="GA31" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="EE31" s="1" t="s">
+      <c r="GB31" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="EF31" s="1" t="s">
+      <c r="GC31" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="EG31" s="1" t="s">
+      <c r="GD31" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="EH31" s="1" t="s">
+      <c r="GE31" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="EI31" s="1" t="s">
+      <c r="GF31" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="EJ31" s="1" t="s">
+      <c r="GG31" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="EK31" s="1" t="s">
+      <c r="GH31" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="EL31" s="1" t="s">
+      <c r="GI31" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="EM31" s="1" t="s">
+      <c r="GJ31" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="EN31" s="1" t="s">
+      <c r="GK31" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="EO31" s="1" t="s">
+      <c r="GL31" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="EP31" s="1" t="s">
+      <c r="GM31" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="EQ31" s="1" t="s">
+      <c r="GN31" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="ER31" s="1" t="s">
+      <c r="GO31" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="ES31" s="1" t="s">
+      <c r="GP31" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="ET31" s="1" t="s">
+      <c r="GQ31" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="EU31" s="1" t="s">
+      <c r="GR31" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="EV31" s="1" t="s">
+      <c r="GS31" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="EW31" s="1" t="s">
+      <c r="GT31" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="EX31" s="1" t="s">
+      <c r="GU31" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="EY31" s="1" t="s">
+      <c r="GV31" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="EZ31" s="1" t="s">
+      <c r="GW31" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="FA31" s="1" t="s">
+      <c r="GX31" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="FB31" s="1" t="s">
+      <c r="GY31" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="FC31" s="1" t="s">
+      <c r="GZ31" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="FD31" s="1" t="s">
+      <c r="HA31" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="FE31" s="1" t="s">
+      <c r="HB31" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="FF31" s="1" t="s">
+      <c r="HC31" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="FG31" s="1" t="s">
+      <c r="HD31" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="FH31" s="1" t="s">
+      <c r="HE31" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="FI31" s="1" t="s">
+      <c r="HF31" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="FJ31" s="1" t="s">
+      <c r="HG31" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="FK31" s="1" t="s">
+      <c r="HH31" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="FL31" s="1" t="s">
+      <c r="HI31" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="FM31" s="1" t="s">
+      <c r="HJ31" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="FN31" s="1" t="s">
+      <c r="HK31" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="FO31" s="1" t="s">
+      <c r="HL31" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="FP31" s="1" t="s">
+      <c r="HM31" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="FQ31" s="1" t="s">
+      <c r="HN31" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="FR31" s="1" t="s">
+      <c r="HO31" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="FS31" s="1" t="s">
+      <c r="HP31" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="FT31" s="1" t="s">
+      <c r="HQ31" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="FU31" s="1" t="s">
+      <c r="HR31" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="FV31" s="1" t="s">
+      <c r="HS31" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="FW31" s="1" t="s">
+      <c r="HT31" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="FX31" s="1" t="s">
+      <c r="HU31" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="FY31" s="1" t="s">
+      <c r="HV31" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="FZ31" s="1" t="s">
+      <c r="HW31" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="GA31" s="1" t="s">
+      <c r="HX31" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="GB31" s="1" t="s">
+      <c r="HY31" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="GC31" s="1" t="s">
+      <c r="HZ31" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="GD31" s="1" t="s">
+      <c r="IA31" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="GE31" s="1" t="s">
+      <c r="IB31" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="GF31" s="1" t="s">
+      <c r="IC31" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="GG31" s="1" t="s">
+      <c r="ID31" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="GH31" s="1" t="s">
+      <c r="IE31" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="GI31" s="1" t="s">
+      <c r="IF31" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="GJ31" s="1" t="s">
+      <c r="IG31" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="GK31" s="1" t="s">
+      <c r="IH31" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="GL31" s="1" t="s">
+      <c r="II31" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="GM31" s="1" t="s">
+      <c r="IJ31" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="GN31" s="1" t="s">
+      <c r="IK31" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="GO31" s="1" t="s">
+      <c r="IL31" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="GP31" s="1" t="s">
+      <c r="IM31" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="GQ31" s="1" t="s">
+      <c r="IN31" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="GR31" s="1" t="s">
+      <c r="IO31" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="GS31" s="1" t="s">
+      <c r="IP31" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="GT31" s="1" t="s">
+      <c r="IQ31" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="GU31" s="1" t="s">
+      <c r="IR31" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="GV31" s="1" t="s">
+      <c r="IS31" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="GW31" s="1" t="s">
+      <c r="IT31" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="GX31" s="1" t="s">
+      <c r="IU31" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="GY31" s="1" t="s">
+      <c r="IV31" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="GZ31" s="1" t="s">
+      <c r="IW31" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="HA31" s="1" t="s">
+      <c r="IX31" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="HB31" s="1" t="s">
+      <c r="IY31" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="HC31" s="1" t="s">
+      <c r="IZ31" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="HD31" s="1" t="s">
+      <c r="JA31" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="HE31" s="1" t="s">
+      <c r="JB31" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="HF31" s="1" t="s">
+      <c r="JC31" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="HG31" s="1" t="s">
+      <c r="JD31" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="HH31" s="1" t="s">
+      <c r="JE31" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="HI31" s="1" t="s">
+      <c r="JF31" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="HJ31" s="1" t="s">
+      <c r="JG31" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="HK31" s="1" t="s">
+      <c r="JH31" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="HL31" s="1" t="s">
+      <c r="JI31" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="HM31" s="1" t="s">
+      <c r="JJ31" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="HN31" s="1" t="s">
+      <c r="JK31" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="HO31" s="1" t="s">
+      <c r="JL31" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="HP31" s="1" t="s">
+      <c r="JM31" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="HQ31" s="1" t="s">
+      <c r="JN31" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="HR31" s="1" t="s">
+      <c r="JO31" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="HS31" s="1" t="s">
+      <c r="JP31" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="HT31" s="1" t="s">
+      <c r="JQ31" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="HU31" s="1" t="s">
+      <c r="JR31" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="HV31" s="1" t="s">
+      <c r="JS31" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="HW31" s="1" t="s">
+      <c r="JT31" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="HX31" s="1" t="s">
+      <c r="JU31" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="HY31" s="1" t="s">
+      <c r="JV31" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="HZ31" s="1" t="s">
+      <c r="JW31" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="IA31" s="1" t="s">
+      <c r="JX31" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="IB31" s="1" t="s">
+      <c r="JY31" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="IC31" s="1" t="s">
+      <c r="JZ31" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="ID31" s="1" t="s">
+      <c r="KA31" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="IE31" s="1" t="s">
+      <c r="KB31" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="IF31" s="1" t="s">
+      <c r="KC31" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="IG31" s="1" t="s">
+      <c r="KD31" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="IH31" s="1" t="s">
+      <c r="KE31" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="II31" s="1" t="s">
+      <c r="KF31" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="IJ31" s="1" t="s">
+      <c r="KG31" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="IK31" s="1" t="s">
+      <c r="KH31" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="IL31" s="1" t="s">
+      <c r="KI31" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="IM31" s="1" t="s">
+      <c r="KJ31" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="IN31" s="1" t="s">
+      <c r="KK31" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="IO31" s="1" t="s">
+      <c r="KL31" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="IP31" s="1" t="s">
+      <c r="KM31" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="IQ31" s="1" t="s">
+      <c r="KN31" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="IR31" s="1" t="s">
+      <c r="KO31" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="IS31" s="1" t="s">
+      <c r="KP31" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="IT31" s="1" t="s">
+      <c r="KQ31" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="IU31" s="1" t="s">
+      <c r="KR31" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="KS31" s="1" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="32" spans="1:255" x14ac:dyDescent="0.3">
+      <c r="KT31" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="KU31" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="KV31" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="KW31" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="32" spans="1:309" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B32" t="s">
+        <v>616</v>
+      </c>
+      <c r="C32" t="s">
+        <v>616</v>
+      </c>
+      <c r="D32" t="s">
+        <v>616</v>
+      </c>
+      <c r="E32" t="s">
+        <v>616</v>
+      </c>
+      <c r="F32" t="s">
+        <v>627</v>
+      </c>
+      <c r="G32" t="s">
+        <v>630</v>
+      </c>
+      <c r="H32" t="s">
+        <v>633</v>
+      </c>
+      <c r="I32" t="s">
+        <v>634</v>
+      </c>
+      <c r="J32" t="s">
+        <v>635</v>
+      </c>
+      <c r="K32" t="s">
+        <v>636</v>
+      </c>
+      <c r="L32" t="s">
+        <v>638</v>
+      </c>
+      <c r="M32" t="s">
+        <v>639</v>
+      </c>
+      <c r="N32" t="s">
+        <v>640</v>
+      </c>
+      <c r="O32" t="s">
+        <v>616</v>
+      </c>
+      <c r="P32" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>645</v>
+      </c>
+      <c r="R32" t="s">
+        <v>646</v>
+      </c>
+      <c r="S32" t="s">
+        <v>647</v>
+      </c>
+      <c r="T32" t="s">
+        <v>648</v>
+      </c>
+      <c r="U32" t="s">
+        <v>649</v>
+      </c>
+      <c r="V32" t="s">
+        <v>650</v>
+      </c>
+      <c r="W32" t="s">
+        <v>652</v>
+      </c>
+      <c r="X32" t="s">
+        <v>653</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>654</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>655</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>633</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>656</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>635</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>657</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>658</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>659</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>660</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>638</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>639</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>661</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>640</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>616</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>646</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>664</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>648</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>649</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>665</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>650</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>652</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>667</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>669</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>655</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>670</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>671</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>672</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>673</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>635</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>674</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>658</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>675</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>676</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>639</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>661</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>640</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>616</v>
+      </c>
+      <c r="BK32" t="s">
+        <v>616</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>616</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>616</v>
+      </c>
+      <c r="BN32" t="s">
+        <v>616</v>
+      </c>
+      <c r="BO32" t="s">
+        <v>616</v>
+      </c>
+      <c r="BP32" t="s">
+        <v>616</v>
+      </c>
+      <c r="BQ32" t="s">
+        <v>616</v>
+      </c>
+      <c r="BR32" t="s">
+        <v>616</v>
+      </c>
+      <c r="BS32" t="s">
+        <v>616</v>
+      </c>
+      <c r="BT32" t="s">
+        <v>616</v>
+      </c>
+      <c r="BU32" t="s">
+        <v>616</v>
+      </c>
+      <c r="BV32" t="s">
+        <v>616</v>
+      </c>
+      <c r="BW32" t="s">
+        <v>616</v>
+      </c>
+      <c r="BX32" t="s">
+        <v>616</v>
+      </c>
+      <c r="BY32" t="s">
+        <v>616</v>
+      </c>
+      <c r="BZ32" t="s">
+        <v>616</v>
+      </c>
+      <c r="CA32" t="s">
+        <v>616</v>
+      </c>
+      <c r="CB32" t="s">
+        <v>616</v>
+      </c>
+      <c r="CC32" t="s">
+        <v>616</v>
+      </c>
+      <c r="CD32" t="s">
+        <v>616</v>
+      </c>
+      <c r="CE32" t="s">
+        <v>616</v>
+      </c>
+      <c r="CF32" t="s">
+        <v>616</v>
+      </c>
+      <c r="CG32" t="s">
+        <v>616</v>
+      </c>
+      <c r="CH32" t="s">
+        <v>645</v>
+      </c>
+      <c r="CI32" t="s">
+        <v>646</v>
+      </c>
+      <c r="CJ32" t="s">
+        <v>664</v>
+      </c>
+      <c r="CK32" t="s">
+        <v>648</v>
+      </c>
+      <c r="CL32" t="s">
+        <v>649</v>
+      </c>
+      <c r="CM32" t="s">
+        <v>665</v>
+      </c>
+      <c r="CN32" t="s">
+        <v>650</v>
+      </c>
+      <c r="CO32" t="s">
+        <v>685</v>
+      </c>
+      <c r="CP32" t="s">
+        <v>686</v>
+      </c>
+      <c r="CQ32" t="s">
+        <v>654</v>
+      </c>
+      <c r="CR32" t="s">
+        <v>655</v>
+      </c>
+      <c r="CS32" t="s">
+        <v>633</v>
+      </c>
+      <c r="CT32" t="s">
+        <v>634</v>
+      </c>
+      <c r="CU32" t="s">
+        <v>656</v>
+      </c>
+      <c r="CV32" t="s">
+        <v>635</v>
+      </c>
+      <c r="CW32" t="s">
+        <v>657</v>
+      </c>
+      <c r="CX32" t="s">
+        <v>687</v>
+      </c>
+      <c r="CY32" t="s">
+        <v>660</v>
+      </c>
+      <c r="CZ32" t="s">
+        <v>638</v>
+      </c>
+      <c r="DA32" t="s">
+        <v>639</v>
+      </c>
+      <c r="DB32" t="s">
+        <v>661</v>
+      </c>
+      <c r="DC32" t="s">
+        <v>688</v>
+      </c>
+      <c r="DD32" t="s">
+        <v>616</v>
+      </c>
+      <c r="DE32" t="s">
+        <v>616</v>
+      </c>
+      <c r="DF32" t="s">
+        <v>616</v>
+      </c>
+      <c r="DG32" t="s">
+        <v>616</v>
+      </c>
+      <c r="DH32" t="s">
+        <v>616</v>
+      </c>
+      <c r="DI32" t="s">
+        <v>616</v>
+      </c>
+      <c r="DJ32" t="s">
+        <v>616</v>
+      </c>
+      <c r="DK32" t="s">
+        <v>616</v>
+      </c>
+      <c r="DL32" t="s">
+        <v>693</v>
+      </c>
+      <c r="DM32" t="s">
+        <v>694</v>
+      </c>
+      <c r="DN32" t="s">
+        <v>695</v>
+      </c>
+      <c r="DO32" t="s">
+        <v>696</v>
+      </c>
+      <c r="DP32" t="s">
+        <v>649</v>
+      </c>
+      <c r="DQ32" t="s">
+        <v>697</v>
+      </c>
+      <c r="DR32" t="s">
+        <v>652</v>
+      </c>
+      <c r="DS32" t="s">
+        <v>633</v>
+      </c>
+      <c r="DT32" t="s">
+        <v>657</v>
+      </c>
+      <c r="DU32" t="s">
+        <v>698</v>
+      </c>
+      <c r="DV32" t="s">
+        <v>661</v>
+      </c>
+      <c r="DW32" t="s">
+        <v>616</v>
+      </c>
+      <c r="DX32" t="s">
+        <v>616</v>
+      </c>
+      <c r="DY32" t="s">
+        <v>616</v>
+      </c>
+      <c r="DZ32" t="s">
+        <v>701</v>
+      </c>
+      <c r="EA32" t="s">
+        <v>648</v>
+      </c>
+      <c r="EB32" t="s">
+        <v>702</v>
+      </c>
+      <c r="EC32" t="s">
+        <v>665</v>
+      </c>
+      <c r="ED32" t="s">
+        <v>652</v>
+      </c>
+      <c r="EE32" t="s">
+        <v>633</v>
+      </c>
+      <c r="EF32" t="s">
+        <v>703</v>
+      </c>
+      <c r="EG32" t="s">
+        <v>657</v>
+      </c>
+      <c r="EH32" t="s">
+        <v>638</v>
+      </c>
+      <c r="EI32" t="s">
+        <v>616</v>
+      </c>
+      <c r="EJ32" t="s">
+        <v>616</v>
+      </c>
+      <c r="EK32" t="s">
+        <v>693</v>
+      </c>
+      <c r="EL32" t="s">
+        <v>706</v>
+      </c>
+      <c r="EM32" t="s">
+        <v>648</v>
+      </c>
+      <c r="EN32" t="s">
+        <v>707</v>
+      </c>
+      <c r="EO32" t="s">
+        <v>652</v>
+      </c>
+      <c r="EP32" t="s">
+        <v>654</v>
+      </c>
+      <c r="EQ32" t="s">
+        <v>633</v>
+      </c>
+      <c r="ER32" t="s">
+        <v>656</v>
+      </c>
+      <c r="ES32" t="s">
+        <v>657</v>
+      </c>
+      <c r="ET32" t="s">
+        <v>708</v>
+      </c>
+      <c r="EU32" t="s">
+        <v>661</v>
+      </c>
+      <c r="EV32" t="s">
+        <v>616</v>
+      </c>
+      <c r="EW32" t="s">
+        <v>616</v>
+      </c>
+      <c r="EX32" t="s">
+        <v>616</v>
+      </c>
+      <c r="EY32" t="s">
+        <v>616</v>
+      </c>
+      <c r="EZ32" t="s">
+        <v>616</v>
+      </c>
+      <c r="FA32" t="s">
+        <v>616</v>
+      </c>
+      <c r="FB32" t="s">
+        <v>616</v>
+      </c>
+      <c r="FC32" t="s">
+        <v>616</v>
+      </c>
+      <c r="FD32" t="s">
+        <v>616</v>
+      </c>
+      <c r="FE32" t="s">
+        <v>616</v>
+      </c>
+      <c r="FF32" t="s">
+        <v>616</v>
+      </c>
+      <c r="FG32" t="s">
+        <v>616</v>
+      </c>
+      <c r="FH32" t="s">
+        <v>616</v>
+      </c>
+      <c r="FI32" t="s">
+        <v>616</v>
+      </c>
+      <c r="FJ32" t="s">
+        <v>616</v>
+      </c>
+      <c r="FK32" t="s">
+        <v>616</v>
+      </c>
+      <c r="FL32" t="s">
+        <v>616</v>
+      </c>
+      <c r="FM32" t="s">
+        <v>616</v>
+      </c>
+      <c r="FN32" t="s">
+        <v>711</v>
+      </c>
+      <c r="FO32" t="s">
+        <v>646</v>
+      </c>
+      <c r="FP32" t="s">
+        <v>648</v>
+      </c>
+      <c r="FQ32" t="s">
+        <v>665</v>
+      </c>
+      <c r="FR32" t="s">
+        <v>652</v>
+      </c>
+      <c r="FS32" t="s">
+        <v>654</v>
+      </c>
+      <c r="FT32" t="s">
+        <v>633</v>
+      </c>
+      <c r="FU32" t="s">
+        <v>656</v>
+      </c>
+      <c r="FV32" t="s">
+        <v>657</v>
+      </c>
+      <c r="FW32" t="s">
+        <v>659</v>
+      </c>
+      <c r="FX32" t="s">
+        <v>712</v>
+      </c>
+      <c r="FY32" t="s">
+        <v>661</v>
+      </c>
+      <c r="FZ32" t="s">
+        <v>616</v>
+      </c>
+      <c r="GA32" t="s">
+        <v>713</v>
+      </c>
+      <c r="GB32" t="s">
+        <v>664</v>
+      </c>
+      <c r="GC32" t="s">
+        <v>714</v>
+      </c>
+      <c r="GD32" t="s">
+        <v>665</v>
+      </c>
+      <c r="GE32" t="s">
+        <v>652</v>
+      </c>
+      <c r="GF32" t="s">
+        <v>654</v>
+      </c>
+      <c r="GG32" t="s">
+        <v>633</v>
+      </c>
+      <c r="GH32" t="s">
+        <v>656</v>
+      </c>
+      <c r="GI32" t="s">
+        <v>657</v>
+      </c>
+      <c r="GJ32" t="s">
+        <v>659</v>
+      </c>
+      <c r="GK32" t="s">
+        <v>715</v>
+      </c>
+      <c r="GL32" t="s">
+        <v>661</v>
+      </c>
+      <c r="GM32" t="s">
+        <v>616</v>
+      </c>
+      <c r="GN32" t="s">
+        <v>717</v>
+      </c>
+      <c r="GO32" t="s">
+        <v>701</v>
+      </c>
+      <c r="GP32" t="s">
+        <v>718</v>
+      </c>
+      <c r="GQ32" t="s">
+        <v>719</v>
+      </c>
+      <c r="GR32" t="s">
+        <v>720</v>
+      </c>
+      <c r="GS32" t="s">
+        <v>721</v>
+      </c>
+      <c r="GT32" t="s">
+        <v>722</v>
+      </c>
+      <c r="GU32" t="s">
+        <v>723</v>
+      </c>
+      <c r="GV32" t="s">
+        <v>724</v>
+      </c>
+      <c r="GW32" t="s">
+        <v>725</v>
+      </c>
+      <c r="GX32" t="s">
+        <v>726</v>
+      </c>
+      <c r="GY32" t="s">
+        <v>616</v>
+      </c>
+      <c r="GZ32" t="s">
+        <v>616</v>
+      </c>
+      <c r="HA32" t="s">
+        <v>729</v>
+      </c>
+      <c r="HB32" t="s">
+        <v>730</v>
+      </c>
+      <c r="HC32" t="s">
+        <v>731</v>
+      </c>
+      <c r="HD32" t="s">
+        <v>652</v>
+      </c>
+      <c r="HE32" t="s">
+        <v>654</v>
+      </c>
+      <c r="HF32" t="s">
+        <v>633</v>
+      </c>
+      <c r="HG32" t="s">
+        <v>656</v>
+      </c>
+      <c r="HH32" t="s">
+        <v>657</v>
+      </c>
+      <c r="HI32" t="s">
+        <v>659</v>
+      </c>
+      <c r="HJ32" t="s">
+        <v>638</v>
+      </c>
+      <c r="HK32" t="s">
+        <v>661</v>
+      </c>
+      <c r="HL32" t="s">
+        <v>616</v>
+      </c>
+      <c r="HM32" t="s">
+        <v>646</v>
+      </c>
+      <c r="HN32" t="s">
+        <v>648</v>
+      </c>
+      <c r="HO32" t="s">
+        <v>652</v>
+      </c>
+      <c r="HP32" t="s">
+        <v>654</v>
+      </c>
+      <c r="HQ32" t="s">
+        <v>633</v>
+      </c>
+      <c r="HR32" t="s">
+        <v>732</v>
+      </c>
+      <c r="HS32" t="s">
+        <v>657</v>
+      </c>
+      <c r="HT32" t="s">
+        <v>659</v>
+      </c>
+      <c r="HU32" t="s">
+        <v>733</v>
+      </c>
+      <c r="HV32" t="s">
+        <v>616</v>
+      </c>
+      <c r="HW32" t="s">
+        <v>717</v>
+      </c>
+      <c r="HX32" t="s">
+        <v>735</v>
+      </c>
+      <c r="HY32" t="s">
+        <v>652</v>
+      </c>
+      <c r="HZ32" t="s">
+        <v>654</v>
+      </c>
+      <c r="IA32" t="s">
+        <v>633</v>
+      </c>
+      <c r="IB32" t="s">
+        <v>656</v>
+      </c>
+      <c r="IC32" t="s">
+        <v>657</v>
+      </c>
+      <c r="ID32" t="s">
+        <v>659</v>
+      </c>
+      <c r="IE32" t="s">
+        <v>725</v>
+      </c>
+      <c r="IF32" t="s">
+        <v>616</v>
+      </c>
+      <c r="IG32" t="s">
+        <v>693</v>
+      </c>
+      <c r="IH32" t="s">
+        <v>737</v>
+      </c>
+      <c r="II32" t="s">
+        <v>652</v>
+      </c>
+      <c r="IJ32" t="s">
+        <v>633</v>
+      </c>
+      <c r="IK32" t="s">
+        <v>658</v>
+      </c>
+      <c r="IL32" t="s">
+        <v>738</v>
+      </c>
+      <c r="IM32" t="s">
+        <v>739</v>
+      </c>
+      <c r="IN32" t="s">
+        <v>616</v>
+      </c>
+      <c r="IO32" t="s">
+        <v>616</v>
+      </c>
+      <c r="IP32" t="s">
+        <v>616</v>
+      </c>
+      <c r="IQ32" t="s">
+        <v>616</v>
+      </c>
+      <c r="IR32" t="s">
+        <v>713</v>
+      </c>
+      <c r="IS32" t="s">
+        <v>741</v>
+      </c>
+      <c r="IT32" t="s">
+        <v>652</v>
+      </c>
+      <c r="IU32" t="s">
+        <v>633</v>
+      </c>
+      <c r="IV32" t="s">
+        <v>657</v>
+      </c>
+      <c r="IW32" t="s">
+        <v>638</v>
+      </c>
+      <c r="IX32" t="s">
+        <v>616</v>
+      </c>
+      <c r="IY32" t="s">
+        <v>616</v>
+      </c>
+      <c r="IZ32" t="s">
+        <v>742</v>
+      </c>
+      <c r="JA32" t="s">
+        <v>743</v>
+      </c>
+      <c r="JB32" t="s">
+        <v>744</v>
+      </c>
+      <c r="JC32" t="s">
+        <v>633</v>
+      </c>
+      <c r="JD32" t="s">
+        <v>657</v>
+      </c>
+      <c r="JE32" t="s">
+        <v>745</v>
+      </c>
+      <c r="JF32" t="s">
+        <v>746</v>
+      </c>
+      <c r="JG32" t="s">
+        <v>648</v>
+      </c>
+      <c r="JH32" t="s">
+        <v>652</v>
+      </c>
+      <c r="JI32" t="s">
+        <v>633</v>
+      </c>
+      <c r="JJ32" t="s">
+        <v>657</v>
+      </c>
+      <c r="JK32" t="s">
+        <v>638</v>
+      </c>
+      <c r="JL32" t="s">
+        <v>616</v>
+      </c>
+      <c r="JM32" t="s">
+        <v>648</v>
+      </c>
+      <c r="JN32" t="s">
+        <v>748</v>
+      </c>
+      <c r="JO32" t="s">
+        <v>749</v>
+      </c>
+      <c r="JP32" t="s">
+        <v>657</v>
+      </c>
+      <c r="JQ32" t="s">
+        <v>676</v>
+      </c>
+      <c r="JR32" t="s">
+        <v>616</v>
+      </c>
+      <c r="JS32" t="s">
+        <v>751</v>
+      </c>
+      <c r="JT32" t="s">
+        <v>752</v>
+      </c>
+      <c r="JU32" t="s">
+        <v>753</v>
+      </c>
+      <c r="JV32" t="s">
+        <v>658</v>
+      </c>
+      <c r="JW32" t="s">
+        <v>754</v>
+      </c>
+      <c r="JX32" t="s">
+        <v>616</v>
+      </c>
+      <c r="JY32" t="s">
+        <v>757</v>
+      </c>
+      <c r="JZ32" t="s">
+        <v>758</v>
+      </c>
+      <c r="KA32" t="s">
+        <v>652</v>
+      </c>
+      <c r="KB32" t="s">
+        <v>633</v>
+      </c>
+      <c r="KC32" t="s">
+        <v>759</v>
+      </c>
+      <c r="KD32" t="s">
+        <v>638</v>
+      </c>
+      <c r="KE32" t="s">
+        <v>698</v>
+      </c>
+      <c r="KF32" t="s">
+        <v>616</v>
+      </c>
+      <c r="KG32" t="s">
+        <v>760</v>
+      </c>
+      <c r="KH32" t="s">
+        <v>652</v>
+      </c>
+      <c r="KI32" t="s">
+        <v>633</v>
+      </c>
+      <c r="KJ32" t="s">
+        <v>657</v>
+      </c>
+      <c r="KK32" t="s">
+        <v>761</v>
+      </c>
+      <c r="KL32" t="s">
+        <v>638</v>
+      </c>
+      <c r="KM32" t="s">
+        <v>616</v>
+      </c>
+      <c r="KN32" t="s">
+        <v>616</v>
+      </c>
+      <c r="KO32" t="s">
+        <v>762</v>
+      </c>
+      <c r="KP32" t="s">
+        <v>652</v>
+      </c>
+      <c r="KQ32" t="s">
+        <v>633</v>
+      </c>
+      <c r="KR32" t="s">
+        <v>657</v>
+      </c>
+      <c r="KS32" t="s">
+        <v>616</v>
+      </c>
+      <c r="KT32" t="s">
+        <v>616</v>
+      </c>
+      <c r="KU32" t="s">
+        <v>616</v>
+      </c>
+      <c r="KV32" t="s">
+        <v>616</v>
+      </c>
+      <c r="KW32" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="33" spans="1:309" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="F33" t="s">
+        <v>628</v>
+      </c>
+      <c r="G33" t="s">
+        <v>631</v>
+      </c>
+      <c r="H33" t="s">
+        <v>631</v>
+      </c>
+      <c r="I33" t="s">
+        <v>631</v>
+      </c>
+      <c r="J33" t="s">
+        <v>628</v>
+      </c>
+      <c r="K33" t="s">
+        <v>637</v>
+      </c>
+      <c r="L33" t="s">
+        <v>628</v>
+      </c>
+      <c r="M33" t="s">
+        <v>628</v>
+      </c>
+      <c r="N33" t="s">
+        <v>637</v>
+      </c>
+      <c r="O33" t="s">
+        <v>628</v>
+      </c>
+      <c r="P33" t="s">
+        <v>628</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>628</v>
+      </c>
+      <c r="R33" t="s">
+        <v>628</v>
+      </c>
+      <c r="S33" t="s">
+        <v>637</v>
+      </c>
+      <c r="T33" t="s">
+        <v>637</v>
+      </c>
+      <c r="U33" t="s">
+        <v>637</v>
+      </c>
+      <c r="V33" t="s">
+        <v>651</v>
+      </c>
+      <c r="W33" t="s">
+        <v>651</v>
+      </c>
+      <c r="X33" t="s">
+        <v>651</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>651</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>651</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>651</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>651</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>651</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>651</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>651</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>651</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>651</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>651</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>651</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>651</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>651</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>651</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>651</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>651</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>651</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>651</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>651</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>651</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>651</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>651</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>631</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>631</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>631</v>
+      </c>
+      <c r="AX33" t="s">
+        <v>631</v>
+      </c>
+      <c r="AY33" t="s">
+        <v>631</v>
+      </c>
+      <c r="AZ33" t="s">
+        <v>631</v>
+      </c>
+      <c r="BA33" t="s">
+        <v>631</v>
+      </c>
+      <c r="BB33" t="s">
+        <v>631</v>
+      </c>
+      <c r="BC33" t="s">
+        <v>631</v>
+      </c>
+      <c r="BD33" t="s">
+        <v>631</v>
+      </c>
+      <c r="BE33" t="s">
+        <v>651</v>
+      </c>
+      <c r="BF33" t="s">
+        <v>677</v>
+      </c>
+      <c r="BG33" t="s">
+        <v>677</v>
+      </c>
+      <c r="BH33" t="s">
+        <v>677</v>
+      </c>
+      <c r="BI33" t="s">
+        <v>677</v>
+      </c>
+      <c r="BJ33" t="s">
+        <v>631</v>
+      </c>
+      <c r="BK33" t="s">
+        <v>631</v>
+      </c>
+      <c r="BL33" t="s">
+        <v>631</v>
+      </c>
+      <c r="BM33" t="s">
+        <v>631</v>
+      </c>
+      <c r="BN33" t="s">
+        <v>631</v>
+      </c>
+      <c r="BO33" t="s">
+        <v>631</v>
+      </c>
+      <c r="BP33" t="s">
+        <v>631</v>
+      </c>
+      <c r="BQ33" t="s">
+        <v>631</v>
+      </c>
+      <c r="BR33" t="s">
+        <v>631</v>
+      </c>
+      <c r="BS33" t="s">
+        <v>631</v>
+      </c>
+      <c r="BT33" t="s">
+        <v>631</v>
+      </c>
+      <c r="BU33" t="s">
+        <v>631</v>
+      </c>
+      <c r="BV33" t="s">
+        <v>631</v>
+      </c>
+      <c r="BW33" t="s">
+        <v>631</v>
+      </c>
+      <c r="BX33" t="s">
+        <v>631</v>
+      </c>
+      <c r="BY33" t="s">
+        <v>631</v>
+      </c>
+      <c r="BZ33" t="s">
+        <v>631</v>
+      </c>
+      <c r="CA33" t="s">
+        <v>631</v>
+      </c>
+      <c r="CB33" t="s">
+        <v>631</v>
+      </c>
+      <c r="CC33" t="s">
+        <v>631</v>
+      </c>
+      <c r="CD33" t="s">
+        <v>631</v>
+      </c>
+      <c r="CE33" t="s">
+        <v>631</v>
+      </c>
+      <c r="CF33" t="s">
+        <v>631</v>
+      </c>
+      <c r="CG33" t="s">
+        <v>631</v>
+      </c>
+      <c r="CH33" t="s">
+        <v>677</v>
+      </c>
+      <c r="CI33" t="s">
+        <v>677</v>
+      </c>
+      <c r="CJ33" t="s">
+        <v>677</v>
+      </c>
+      <c r="CK33" t="s">
+        <v>677</v>
+      </c>
+      <c r="CL33" t="s">
+        <v>677</v>
+      </c>
+      <c r="CM33" t="s">
+        <v>677</v>
+      </c>
+      <c r="CN33" t="s">
+        <v>631</v>
+      </c>
+      <c r="CO33" t="s">
+        <v>677</v>
+      </c>
+      <c r="CP33" t="s">
+        <v>677</v>
+      </c>
+      <c r="CQ33" t="s">
+        <v>677</v>
+      </c>
+      <c r="CR33" t="s">
+        <v>677</v>
+      </c>
+      <c r="CS33" t="s">
+        <v>677</v>
+      </c>
+      <c r="CT33" t="s">
+        <v>677</v>
+      </c>
+      <c r="CU33" t="s">
+        <v>677</v>
+      </c>
+      <c r="CV33" t="s">
+        <v>677</v>
+      </c>
+      <c r="CW33" t="s">
+        <v>677</v>
+      </c>
+      <c r="CX33" t="s">
+        <v>677</v>
+      </c>
+      <c r="CY33" t="s">
+        <v>677</v>
+      </c>
+      <c r="CZ33" t="s">
+        <v>677</v>
+      </c>
+      <c r="DA33" t="s">
+        <v>677</v>
+      </c>
+      <c r="DB33" t="s">
+        <v>677</v>
+      </c>
+      <c r="DC33" t="s">
+        <v>677</v>
+      </c>
+      <c r="DL33" t="s">
+        <v>677</v>
+      </c>
+      <c r="DM33" t="s">
+        <v>677</v>
+      </c>
+      <c r="DN33" t="s">
+        <v>677</v>
+      </c>
+      <c r="DO33" t="s">
+        <v>677</v>
+      </c>
+      <c r="DP33" t="s">
+        <v>677</v>
+      </c>
+      <c r="DQ33" t="s">
+        <v>677</v>
+      </c>
+      <c r="DR33" t="s">
+        <v>677</v>
+      </c>
+      <c r="DS33" t="s">
+        <v>631</v>
+      </c>
+      <c r="DT33" t="s">
+        <v>677</v>
+      </c>
+      <c r="DU33" t="s">
+        <v>677</v>
+      </c>
+      <c r="DV33" t="s">
+        <v>677</v>
+      </c>
+      <c r="DW33" t="s">
+        <v>677</v>
+      </c>
+      <c r="DX33" t="s">
+        <v>677</v>
+      </c>
+      <c r="DY33" t="s">
+        <v>677</v>
+      </c>
+      <c r="DZ33" t="s">
+        <v>677</v>
+      </c>
+      <c r="EA33" t="s">
+        <v>677</v>
+      </c>
+      <c r="EB33" t="s">
+        <v>677</v>
+      </c>
+      <c r="EC33" t="s">
+        <v>677</v>
+      </c>
+      <c r="ED33" t="s">
+        <v>677</v>
+      </c>
+      <c r="EE33" t="s">
+        <v>677</v>
+      </c>
+      <c r="EF33" t="s">
+        <v>677</v>
+      </c>
+      <c r="EG33" t="s">
+        <v>677</v>
+      </c>
+      <c r="EH33" t="s">
+        <v>677</v>
+      </c>
+      <c r="EK33" t="s">
+        <v>677</v>
+      </c>
+      <c r="EL33" t="s">
+        <v>677</v>
+      </c>
+      <c r="EM33" t="s">
+        <v>677</v>
+      </c>
+      <c r="EN33" t="s">
+        <v>677</v>
+      </c>
+      <c r="EO33" t="s">
+        <v>677</v>
+      </c>
+      <c r="EP33" t="s">
+        <v>677</v>
+      </c>
+      <c r="EQ33" t="s">
+        <v>677</v>
+      </c>
+      <c r="ER33" t="s">
+        <v>677</v>
+      </c>
+      <c r="ES33" t="s">
+        <v>677</v>
+      </c>
+      <c r="ET33" t="s">
+        <v>677</v>
+      </c>
+      <c r="EU33" t="s">
+        <v>677</v>
+      </c>
+      <c r="FN33" t="s">
+        <v>677</v>
+      </c>
+      <c r="FO33" t="s">
+        <v>677</v>
+      </c>
+      <c r="FP33" t="s">
+        <v>677</v>
+      </c>
+      <c r="FQ33" t="s">
+        <v>677</v>
+      </c>
+      <c r="FR33" t="s">
+        <v>677</v>
+      </c>
+      <c r="FS33" t="s">
+        <v>677</v>
+      </c>
+      <c r="FT33" t="s">
+        <v>677</v>
+      </c>
+      <c r="FU33" t="s">
+        <v>677</v>
+      </c>
+      <c r="FV33" t="s">
+        <v>677</v>
+      </c>
+      <c r="FW33" t="s">
+        <v>677</v>
+      </c>
+      <c r="FX33" t="s">
+        <v>677</v>
+      </c>
+      <c r="FY33" t="s">
+        <v>677</v>
+      </c>
+      <c r="GA33" t="s">
+        <v>677</v>
+      </c>
+      <c r="GB33" t="s">
+        <v>631</v>
+      </c>
+      <c r="GC33" t="s">
+        <v>677</v>
+      </c>
+      <c r="GD33" t="s">
+        <v>677</v>
+      </c>
+      <c r="GE33" t="s">
+        <v>677</v>
+      </c>
+      <c r="GF33" t="s">
+        <v>677</v>
+      </c>
+      <c r="GG33" t="s">
+        <v>677</v>
+      </c>
+      <c r="GH33" t="s">
+        <v>677</v>
+      </c>
+      <c r="GI33" t="s">
+        <v>677</v>
+      </c>
+      <c r="GJ33" t="s">
+        <v>677</v>
+      </c>
+      <c r="GK33" t="s">
+        <v>677</v>
+      </c>
+      <c r="GL33" t="s">
+        <v>677</v>
+      </c>
+      <c r="GN33" t="s">
+        <v>677</v>
+      </c>
+      <c r="GO33" t="s">
+        <v>677</v>
+      </c>
+      <c r="GP33" t="s">
+        <v>677</v>
+      </c>
+      <c r="GQ33" t="s">
+        <v>677</v>
+      </c>
+      <c r="GR33" t="s">
+        <v>677</v>
+      </c>
+      <c r="GS33" t="s">
+        <v>677</v>
+      </c>
+      <c r="GT33" t="s">
+        <v>677</v>
+      </c>
+      <c r="GU33" t="s">
+        <v>677</v>
+      </c>
+      <c r="GV33" t="s">
+        <v>677</v>
+      </c>
+      <c r="GW33" t="s">
+        <v>677</v>
+      </c>
+      <c r="GX33" t="s">
+        <v>677</v>
+      </c>
+      <c r="HA33" t="s">
+        <v>677</v>
+      </c>
+      <c r="HB33" t="s">
+        <v>677</v>
+      </c>
+      <c r="HC33" t="s">
+        <v>677</v>
+      </c>
+      <c r="HD33" t="s">
+        <v>677</v>
+      </c>
+      <c r="HE33" t="s">
+        <v>677</v>
+      </c>
+      <c r="HF33" t="s">
+        <v>677</v>
+      </c>
+      <c r="HG33" t="s">
+        <v>677</v>
+      </c>
+      <c r="HH33" t="s">
+        <v>677</v>
+      </c>
+      <c r="HI33" t="s">
+        <v>677</v>
+      </c>
+      <c r="HJ33" t="s">
+        <v>677</v>
+      </c>
+      <c r="HK33" t="s">
+        <v>677</v>
+      </c>
+      <c r="HL33" t="s">
+        <v>677</v>
+      </c>
+      <c r="HM33" t="s">
+        <v>677</v>
+      </c>
+      <c r="HN33" t="s">
+        <v>677</v>
+      </c>
+      <c r="HO33" t="s">
+        <v>677</v>
+      </c>
+      <c r="HP33" t="s">
+        <v>677</v>
+      </c>
+      <c r="HQ33" t="s">
+        <v>677</v>
+      </c>
+      <c r="HR33" t="s">
+        <v>677</v>
+      </c>
+      <c r="HS33" t="s">
+        <v>677</v>
+      </c>
+      <c r="HT33" t="s">
+        <v>677</v>
+      </c>
+      <c r="HU33" t="s">
+        <v>677</v>
+      </c>
+      <c r="HW33" t="s">
+        <v>677</v>
+      </c>
+      <c r="HX33" t="s">
+        <v>677</v>
+      </c>
+      <c r="HY33" t="s">
+        <v>677</v>
+      </c>
+      <c r="HZ33" t="s">
+        <v>677</v>
+      </c>
+      <c r="IA33" t="s">
+        <v>677</v>
+      </c>
+      <c r="IB33" t="s">
+        <v>677</v>
+      </c>
+      <c r="IC33" t="s">
+        <v>677</v>
+      </c>
+      <c r="ID33" t="s">
+        <v>677</v>
+      </c>
+      <c r="IE33" t="s">
+        <v>677</v>
+      </c>
+      <c r="IG33" t="s">
+        <v>677</v>
+      </c>
+      <c r="IH33" t="s">
+        <v>677</v>
+      </c>
+      <c r="II33" t="s">
+        <v>677</v>
+      </c>
+      <c r="IJ33" t="s">
+        <v>677</v>
+      </c>
+      <c r="IK33" t="s">
+        <v>677</v>
+      </c>
+      <c r="IL33" t="s">
+        <v>677</v>
+      </c>
+      <c r="IM33" t="s">
+        <v>677</v>
+      </c>
+      <c r="IR33" t="s">
+        <v>677</v>
+      </c>
+      <c r="IS33" t="s">
+        <v>631</v>
+      </c>
+      <c r="IT33" t="s">
+        <v>677</v>
+      </c>
+      <c r="IU33" t="s">
+        <v>677</v>
+      </c>
+      <c r="IV33" t="s">
+        <v>677</v>
+      </c>
+      <c r="IW33" t="s">
+        <v>677</v>
+      </c>
+      <c r="IZ33" t="s">
+        <v>677</v>
+      </c>
+      <c r="JA33" t="s">
+        <v>677</v>
+      </c>
+      <c r="JB33" t="s">
+        <v>677</v>
+      </c>
+      <c r="JC33" t="s">
+        <v>677</v>
+      </c>
+      <c r="JD33" t="s">
+        <v>677</v>
+      </c>
+      <c r="JE33" t="s">
+        <v>677</v>
+      </c>
+      <c r="JF33" t="s">
+        <v>677</v>
+      </c>
+      <c r="JG33" t="s">
+        <v>677</v>
+      </c>
+      <c r="JH33" t="s">
+        <v>677</v>
+      </c>
+      <c r="JI33" t="s">
+        <v>677</v>
+      </c>
+      <c r="JJ33" t="s">
+        <v>677</v>
+      </c>
+      <c r="JK33" t="s">
+        <v>677</v>
+      </c>
+      <c r="JL33" t="s">
+        <v>677</v>
+      </c>
+      <c r="JM33" t="s">
+        <v>677</v>
+      </c>
+      <c r="JN33" t="s">
+        <v>677</v>
+      </c>
+      <c r="JO33" t="s">
+        <v>677</v>
+      </c>
+      <c r="JP33" t="s">
+        <v>677</v>
+      </c>
+      <c r="JQ33" t="s">
+        <v>677</v>
+      </c>
+      <c r="JR33" t="s">
+        <v>677</v>
+      </c>
+      <c r="JS33" t="s">
+        <v>677</v>
+      </c>
+      <c r="JT33" t="s">
+        <v>677</v>
+      </c>
+      <c r="JU33" t="s">
+        <v>677</v>
+      </c>
+      <c r="JV33" t="s">
+        <v>677</v>
+      </c>
+      <c r="JW33" t="s">
+        <v>677</v>
+      </c>
+      <c r="JY33" t="s">
+        <v>677</v>
+      </c>
+      <c r="JZ33" t="s">
+        <v>677</v>
+      </c>
+      <c r="KA33" t="s">
+        <v>677</v>
+      </c>
+      <c r="KB33" t="s">
+        <v>637</v>
+      </c>
+      <c r="KC33" t="s">
+        <v>637</v>
+      </c>
+      <c r="KD33" t="s">
+        <v>637</v>
+      </c>
+      <c r="KF33" t="s">
+        <v>637</v>
+      </c>
+      <c r="KG33" t="s">
+        <v>637</v>
+      </c>
+      <c r="KH33" t="s">
+        <v>637</v>
+      </c>
+      <c r="KI33" t="s">
+        <v>637</v>
+      </c>
+      <c r="KJ33" t="s">
+        <v>637</v>
+      </c>
+      <c r="KK33" t="s">
+        <v>637</v>
+      </c>
+      <c r="KL33" t="s">
+        <v>637</v>
+      </c>
+      <c r="KM33" t="s">
+        <v>637</v>
+      </c>
+      <c r="KN33" t="s">
+        <v>637</v>
+      </c>
+      <c r="KO33" t="s">
+        <v>637</v>
+      </c>
+      <c r="KP33" t="s">
+        <v>637</v>
+      </c>
+      <c r="KQ33" t="s">
+        <v>628</v>
+      </c>
+      <c r="KR33" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="34" spans="1:309" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="F34" t="s">
+        <v>629</v>
+      </c>
+      <c r="G34" t="s">
+        <v>632</v>
+      </c>
+      <c r="H34" t="s">
+        <v>629</v>
+      </c>
+      <c r="I34" t="s">
+        <v>629</v>
+      </c>
+      <c r="J34" t="s">
+        <v>632</v>
+      </c>
+      <c r="K34" t="s">
+        <v>632</v>
+      </c>
+      <c r="L34" t="s">
+        <v>632</v>
+      </c>
+      <c r="M34" t="s">
+        <v>632</v>
+      </c>
+      <c r="N34" t="s">
+        <v>632</v>
+      </c>
+      <c r="O34" t="s">
+        <v>632</v>
+      </c>
+      <c r="P34" t="s">
+        <v>632</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>632</v>
+      </c>
+      <c r="R34" t="s">
+        <v>632</v>
+      </c>
+      <c r="S34" t="s">
+        <v>632</v>
+      </c>
+      <c r="T34" t="s">
+        <v>632</v>
+      </c>
+      <c r="U34" t="s">
+        <v>632</v>
+      </c>
+      <c r="V34" t="s">
+        <v>629</v>
+      </c>
+      <c r="W34" t="s">
+        <v>629</v>
+      </c>
+      <c r="X34" t="s">
+        <v>629</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>629</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>629</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>629</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>629</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>629</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>629</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>629</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>629</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>629</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>629</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>629</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>629</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>629</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>629</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>629</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>629</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>629</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>629</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>629</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>629</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>666</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>666</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>668</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>629</v>
+      </c>
+      <c r="AW34" t="s">
+        <v>629</v>
+      </c>
+      <c r="AX34" t="s">
+        <v>629</v>
+      </c>
+      <c r="AY34" t="s">
+        <v>629</v>
+      </c>
+      <c r="AZ34" t="s">
+        <v>629</v>
+      </c>
+      <c r="BA34" t="s">
+        <v>629</v>
+      </c>
+      <c r="BB34" t="s">
+        <v>668</v>
+      </c>
+      <c r="BC34" t="s">
+        <v>668</v>
+      </c>
+      <c r="BD34" t="s">
+        <v>668</v>
+      </c>
+      <c r="BE34" t="s">
+        <v>668</v>
+      </c>
+      <c r="BF34" t="s">
+        <v>666</v>
+      </c>
+      <c r="BG34" t="s">
+        <v>666</v>
+      </c>
+      <c r="BH34" t="s">
+        <v>666</v>
+      </c>
+      <c r="BI34" t="s">
+        <v>666</v>
+      </c>
+      <c r="BJ34" t="s">
+        <v>666</v>
+      </c>
+      <c r="BK34" t="s">
+        <v>666</v>
+      </c>
+      <c r="BL34" t="s">
+        <v>666</v>
+      </c>
+      <c r="BM34" t="s">
+        <v>666</v>
+      </c>
+      <c r="BN34" t="s">
+        <v>666</v>
+      </c>
+      <c r="BO34" t="s">
+        <v>666</v>
+      </c>
+      <c r="BP34" t="s">
+        <v>666</v>
+      </c>
+      <c r="BQ34" t="s">
+        <v>666</v>
+      </c>
+      <c r="BR34" t="s">
+        <v>666</v>
+      </c>
+      <c r="BS34" t="s">
+        <v>666</v>
+      </c>
+      <c r="BT34" t="s">
+        <v>666</v>
+      </c>
+      <c r="BU34" t="s">
+        <v>666</v>
+      </c>
+      <c r="BV34" t="s">
+        <v>666</v>
+      </c>
+      <c r="BW34" t="s">
+        <v>666</v>
+      </c>
+      <c r="BX34" t="s">
+        <v>666</v>
+      </c>
+      <c r="BY34" t="s">
+        <v>666</v>
+      </c>
+      <c r="BZ34" t="s">
+        <v>666</v>
+      </c>
+      <c r="CA34" t="s">
+        <v>666</v>
+      </c>
+      <c r="CB34" t="s">
+        <v>666</v>
+      </c>
+      <c r="CC34" t="s">
+        <v>666</v>
+      </c>
+      <c r="CD34" t="s">
+        <v>666</v>
+      </c>
+      <c r="CE34" t="s">
+        <v>666</v>
+      </c>
+      <c r="CF34" t="s">
+        <v>666</v>
+      </c>
+      <c r="CG34" t="s">
+        <v>666</v>
+      </c>
+      <c r="CH34" t="s">
+        <v>666</v>
+      </c>
+      <c r="CI34" t="s">
+        <v>666</v>
+      </c>
+      <c r="CJ34" t="s">
+        <v>666</v>
+      </c>
+      <c r="CK34" t="s">
+        <v>666</v>
+      </c>
+      <c r="CL34" t="s">
+        <v>666</v>
+      </c>
+      <c r="CM34" t="s">
+        <v>666</v>
+      </c>
+      <c r="CN34" t="s">
+        <v>666</v>
+      </c>
+      <c r="CO34" t="s">
+        <v>666</v>
+      </c>
+      <c r="CP34" t="s">
+        <v>666</v>
+      </c>
+      <c r="CQ34" t="s">
+        <v>668</v>
+      </c>
+      <c r="CR34" t="s">
+        <v>668</v>
+      </c>
+      <c r="CS34" t="s">
+        <v>668</v>
+      </c>
+      <c r="CT34" t="s">
+        <v>668</v>
+      </c>
+      <c r="CU34" t="s">
+        <v>668</v>
+      </c>
+      <c r="CV34" t="s">
+        <v>668</v>
+      </c>
+      <c r="CW34" t="s">
+        <v>668</v>
+      </c>
+      <c r="CX34" t="s">
+        <v>668</v>
+      </c>
+      <c r="CY34" t="s">
+        <v>668</v>
+      </c>
+      <c r="CZ34" t="s">
+        <v>629</v>
+      </c>
+      <c r="DA34" t="s">
+        <v>629</v>
+      </c>
+      <c r="DB34" t="s">
+        <v>629</v>
+      </c>
+      <c r="DC34" t="s">
+        <v>668</v>
+      </c>
+      <c r="DL34" t="s">
+        <v>668</v>
+      </c>
+      <c r="DM34" t="s">
+        <v>668</v>
+      </c>
+      <c r="DN34" t="s">
+        <v>668</v>
+      </c>
+      <c r="DO34" t="s">
+        <v>668</v>
+      </c>
+      <c r="DP34" t="s">
+        <v>668</v>
+      </c>
+      <c r="DQ34" t="s">
+        <v>668</v>
+      </c>
+      <c r="DR34" t="s">
+        <v>629</v>
+      </c>
+      <c r="DS34" t="s">
+        <v>629</v>
+      </c>
+      <c r="DT34" t="s">
+        <v>629</v>
+      </c>
+      <c r="DU34" t="s">
+        <v>668</v>
+      </c>
+      <c r="DV34" t="s">
+        <v>668</v>
+      </c>
+      <c r="DW34" t="s">
+        <v>668</v>
+      </c>
+      <c r="DX34" t="s">
+        <v>668</v>
+      </c>
+      <c r="DY34" t="s">
+        <v>668</v>
+      </c>
+      <c r="DZ34" t="s">
+        <v>668</v>
+      </c>
+      <c r="EA34" t="s">
+        <v>668</v>
+      </c>
+      <c r="EC34" t="s">
+        <v>668</v>
+      </c>
+      <c r="ED34" t="s">
+        <v>629</v>
+      </c>
+      <c r="EE34" t="s">
+        <v>629</v>
+      </c>
+      <c r="EF34" t="s">
+        <v>666</v>
+      </c>
+      <c r="EG34" t="s">
+        <v>629</v>
+      </c>
+      <c r="EH34" t="s">
+        <v>629</v>
+      </c>
+      <c r="EK34" t="s">
+        <v>629</v>
+      </c>
+      <c r="EL34" t="s">
+        <v>632</v>
+      </c>
+      <c r="EM34" t="s">
+        <v>629</v>
+      </c>
+      <c r="EN34" t="s">
+        <v>632</v>
+      </c>
+      <c r="EO34" t="s">
+        <v>632</v>
+      </c>
+      <c r="EP34" t="s">
+        <v>666</v>
+      </c>
+      <c r="EQ34" t="s">
+        <v>632</v>
+      </c>
+      <c r="ER34" t="s">
+        <v>632</v>
+      </c>
+      <c r="ES34" t="s">
+        <v>632</v>
+      </c>
+      <c r="ET34" t="s">
+        <v>629</v>
+      </c>
+      <c r="EU34" t="s">
+        <v>632</v>
+      </c>
+      <c r="FN34" t="s">
+        <v>632</v>
+      </c>
+      <c r="FO34" t="s">
+        <v>629</v>
+      </c>
+      <c r="FP34" t="s">
+        <v>629</v>
+      </c>
+      <c r="FQ34" t="s">
+        <v>629</v>
+      </c>
+      <c r="FR34" t="s">
+        <v>629</v>
+      </c>
+      <c r="FS34" t="s">
+        <v>632</v>
+      </c>
+      <c r="FT34" t="s">
+        <v>632</v>
+      </c>
+      <c r="FU34" t="s">
+        <v>632</v>
+      </c>
+      <c r="FV34" t="s">
+        <v>632</v>
+      </c>
+      <c r="FW34" t="s">
+        <v>632</v>
+      </c>
+      <c r="FX34" t="s">
+        <v>632</v>
+      </c>
+      <c r="FY34" t="s">
+        <v>632</v>
+      </c>
+      <c r="GA34" t="s">
+        <v>632</v>
+      </c>
+      <c r="GB34" t="s">
+        <v>632</v>
+      </c>
+      <c r="GC34" t="s">
+        <v>632</v>
+      </c>
+      <c r="GD34" t="s">
+        <v>632</v>
+      </c>
+      <c r="GE34" t="s">
+        <v>632</v>
+      </c>
+      <c r="GF34" t="s">
+        <v>632</v>
+      </c>
+      <c r="GG34" t="s">
+        <v>632</v>
+      </c>
+      <c r="GH34" t="s">
+        <v>632</v>
+      </c>
+      <c r="GI34" t="s">
+        <v>632</v>
+      </c>
+      <c r="GJ34" t="s">
+        <v>632</v>
+      </c>
+      <c r="GK34" t="s">
+        <v>632</v>
+      </c>
+      <c r="GL34" t="s">
+        <v>629</v>
+      </c>
+      <c r="GN34" t="s">
+        <v>629</v>
+      </c>
+      <c r="GO34" t="s">
+        <v>632</v>
+      </c>
+      <c r="GP34" t="s">
+        <v>632</v>
+      </c>
+      <c r="GQ34" t="s">
+        <v>632</v>
+      </c>
+      <c r="GR34" t="s">
+        <v>632</v>
+      </c>
+      <c r="GS34" t="s">
+        <v>632</v>
+      </c>
+      <c r="GT34" t="s">
+        <v>632</v>
+      </c>
+      <c r="GU34" t="s">
+        <v>632</v>
+      </c>
+      <c r="GV34" t="s">
+        <v>632</v>
+      </c>
+      <c r="GW34" t="s">
+        <v>632</v>
+      </c>
+      <c r="GX34" t="s">
+        <v>629</v>
+      </c>
+      <c r="HA34" t="s">
+        <v>632</v>
+      </c>
+      <c r="HB34" t="s">
+        <v>632</v>
+      </c>
+      <c r="HC34" t="s">
+        <v>632</v>
+      </c>
+      <c r="HD34" t="s">
+        <v>632</v>
+      </c>
+      <c r="HE34" t="s">
+        <v>632</v>
+      </c>
+      <c r="HF34" t="s">
+        <v>632</v>
+      </c>
+      <c r="HG34" t="s">
+        <v>632</v>
+      </c>
+      <c r="HH34" t="s">
+        <v>632</v>
+      </c>
+      <c r="HI34" t="s">
+        <v>632</v>
+      </c>
+      <c r="HJ34" t="s">
+        <v>632</v>
+      </c>
+      <c r="HK34" t="s">
+        <v>632</v>
+      </c>
+      <c r="HL34" t="s">
+        <v>632</v>
+      </c>
+      <c r="HM34" t="s">
+        <v>632</v>
+      </c>
+      <c r="HN34" t="s">
+        <v>632</v>
+      </c>
+      <c r="HO34" t="s">
+        <v>632</v>
+      </c>
+      <c r="HP34" t="s">
+        <v>632</v>
+      </c>
+      <c r="HQ34" t="s">
+        <v>632</v>
+      </c>
+      <c r="HR34" t="s">
+        <v>632</v>
+      </c>
+      <c r="HS34" t="s">
+        <v>632</v>
+      </c>
+      <c r="HT34" t="s">
+        <v>632</v>
+      </c>
+      <c r="HU34" t="s">
+        <v>632</v>
+      </c>
+      <c r="HW34" t="s">
+        <v>632</v>
+      </c>
+      <c r="HX34" t="s">
+        <v>632</v>
+      </c>
+      <c r="HY34" t="s">
+        <v>632</v>
+      </c>
+      <c r="HZ34" t="s">
+        <v>632</v>
+      </c>
+      <c r="IA34" t="s">
+        <v>632</v>
+      </c>
+      <c r="IB34" t="s">
+        <v>632</v>
+      </c>
+      <c r="IC34" t="s">
+        <v>632</v>
+      </c>
+      <c r="ID34" t="s">
+        <v>632</v>
+      </c>
+      <c r="IE34" t="s">
+        <v>632</v>
+      </c>
+      <c r="IG34" t="s">
+        <v>632</v>
+      </c>
+      <c r="IH34" t="s">
+        <v>632</v>
+      </c>
+      <c r="II34" t="s">
+        <v>632</v>
+      </c>
+      <c r="IJ34" t="s">
+        <v>632</v>
+      </c>
+      <c r="IK34" t="s">
+        <v>629</v>
+      </c>
+      <c r="IL34" t="s">
+        <v>632</v>
+      </c>
+      <c r="IM34" t="s">
+        <v>632</v>
+      </c>
+      <c r="IR34" t="s">
+        <v>632</v>
+      </c>
+      <c r="IS34" t="s">
+        <v>632</v>
+      </c>
+      <c r="IT34" t="s">
+        <v>632</v>
+      </c>
+      <c r="IU34" t="s">
+        <v>632</v>
+      </c>
+      <c r="IV34" t="s">
+        <v>632</v>
+      </c>
+      <c r="IW34" t="s">
+        <v>632</v>
+      </c>
+      <c r="IZ34" t="s">
+        <v>632</v>
+      </c>
+      <c r="JA34" t="s">
+        <v>632</v>
+      </c>
+      <c r="JB34" t="s">
+        <v>632</v>
+      </c>
+      <c r="JC34" t="s">
+        <v>632</v>
+      </c>
+      <c r="JD34" t="s">
+        <v>632</v>
+      </c>
+      <c r="JE34" t="s">
+        <v>632</v>
+      </c>
+      <c r="JF34" t="s">
+        <v>632</v>
+      </c>
+      <c r="JG34" t="s">
+        <v>632</v>
+      </c>
+      <c r="JH34" t="s">
+        <v>632</v>
+      </c>
+      <c r="JI34" t="s">
+        <v>632</v>
+      </c>
+      <c r="JJ34" t="s">
+        <v>632</v>
+      </c>
+      <c r="JK34" t="s">
+        <v>632</v>
+      </c>
+      <c r="JL34" t="s">
+        <v>632</v>
+      </c>
+      <c r="JM34" t="s">
+        <v>632</v>
+      </c>
+      <c r="JN34" t="s">
+        <v>629</v>
+      </c>
+      <c r="JO34" t="s">
+        <v>632</v>
+      </c>
+      <c r="JP34" t="s">
+        <v>632</v>
+      </c>
+      <c r="JQ34" t="s">
+        <v>632</v>
+      </c>
+      <c r="JR34" t="s">
+        <v>632</v>
+      </c>
+      <c r="JS34" t="s">
+        <v>632</v>
+      </c>
+      <c r="JT34" t="s">
+        <v>632</v>
+      </c>
+      <c r="JU34" t="s">
+        <v>632</v>
+      </c>
+      <c r="JV34" t="s">
+        <v>632</v>
+      </c>
+      <c r="JW34" t="s">
+        <v>632</v>
+      </c>
+      <c r="JY34" t="s">
+        <v>632</v>
+      </c>
+      <c r="JZ34" t="s">
+        <v>632</v>
+      </c>
+      <c r="KA34" t="s">
+        <v>632</v>
+      </c>
+      <c r="KB34" t="s">
+        <v>632</v>
+      </c>
+      <c r="KC34" t="s">
+        <v>632</v>
+      </c>
+      <c r="KE34" t="s">
+        <v>632</v>
+      </c>
+      <c r="KF34" t="s">
+        <v>632</v>
+      </c>
+      <c r="KG34" t="s">
+        <v>632</v>
+      </c>
+      <c r="KH34" t="s">
+        <v>632</v>
+      </c>
+      <c r="KI34" t="s">
+        <v>632</v>
+      </c>
+      <c r="KJ34" t="s">
+        <v>632</v>
+      </c>
+      <c r="KK34" t="s">
+        <v>632</v>
+      </c>
+      <c r="KL34" t="s">
+        <v>632</v>
+      </c>
+      <c r="KM34" t="s">
+        <v>632</v>
+      </c>
+      <c r="KN34" t="s">
+        <v>632</v>
+      </c>
+      <c r="KO34" t="s">
+        <v>632</v>
+      </c>
+      <c r="KP34" t="s">
+        <v>632</v>
+      </c>
+      <c r="KQ34" t="s">
+        <v>632</v>
+      </c>
+      <c r="KR34" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="35" spans="1:309" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="C32" t="s">
-        <v>578</v>
-      </c>
-      <c r="D32" t="s">
+    </row>
+    <row r="36" spans="1:309" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="GY36" t="s">
+        <v>727</v>
+      </c>
+      <c r="GZ36" t="s">
+        <v>728</v>
+      </c>
+      <c r="IF36" t="s">
+        <v>736</v>
+      </c>
+      <c r="IN36" t="s">
+        <v>728</v>
+      </c>
+      <c r="IO36" t="s">
+        <v>728</v>
+      </c>
+      <c r="IP36" t="s">
+        <v>740</v>
+      </c>
+      <c r="IQ36" t="s">
+        <v>740</v>
+      </c>
+      <c r="IX36" t="s">
+        <v>727</v>
+      </c>
+      <c r="IY36" t="s">
+        <v>727</v>
+      </c>
+      <c r="JL36" t="s">
+        <v>747</v>
+      </c>
+      <c r="KM36" t="s">
+        <v>620</v>
+      </c>
+      <c r="KN36" t="s">
+        <v>728</v>
+      </c>
+      <c r="KS36" t="s">
+        <v>763</v>
+      </c>
+      <c r="KV36" t="s">
+        <v>763</v>
+      </c>
+      <c r="KW36" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="37" spans="1:309" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B37" t="s">
+        <v>617</v>
+      </c>
+      <c r="C37" t="s">
+        <v>625</v>
+      </c>
+      <c r="D37" t="s">
+        <v>625</v>
+      </c>
+      <c r="E37" t="s">
+        <v>617</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>625</v>
+      </c>
+      <c r="BJ37" t="s">
+        <v>625</v>
+      </c>
+      <c r="BK37" t="s">
+        <v>625</v>
+      </c>
+      <c r="BL37" t="s">
+        <v>625</v>
+      </c>
+      <c r="BM37" t="s">
+        <v>625</v>
+      </c>
+      <c r="BN37" t="s">
+        <v>625</v>
+      </c>
+      <c r="BO37" t="s">
+        <v>625</v>
+      </c>
+      <c r="BP37" t="s">
+        <v>625</v>
+      </c>
+      <c r="BQ37" t="s">
+        <v>625</v>
+      </c>
+      <c r="BR37" t="s">
+        <v>625</v>
+      </c>
+      <c r="BS37" t="s">
+        <v>625</v>
+      </c>
+      <c r="BT37" t="s">
+        <v>625</v>
+      </c>
+      <c r="BU37" t="s">
+        <v>625</v>
+      </c>
+      <c r="BV37" t="s">
+        <v>625</v>
+      </c>
+      <c r="BW37" t="s">
+        <v>625</v>
+      </c>
+      <c r="BX37" t="s">
+        <v>625</v>
+      </c>
+      <c r="BY37" t="s">
+        <v>625</v>
+      </c>
+      <c r="BZ37" t="s">
+        <v>625</v>
+      </c>
+      <c r="CA37" t="s">
+        <v>625</v>
+      </c>
+      <c r="CB37" t="s">
+        <v>625</v>
+      </c>
+      <c r="CC37" t="s">
+        <v>625</v>
+      </c>
+      <c r="CD37" t="s">
+        <v>625</v>
+      </c>
+      <c r="CE37" t="s">
+        <v>625</v>
+      </c>
+      <c r="CF37" t="s">
+        <v>625</v>
+      </c>
+      <c r="CG37" t="s">
+        <v>625</v>
+      </c>
+      <c r="DD37" t="s">
+        <v>617</v>
+      </c>
+      <c r="DE37" t="s">
+        <v>617</v>
+      </c>
+      <c r="DF37" t="s">
+        <v>617</v>
+      </c>
+      <c r="DG37" t="s">
+        <v>617</v>
+      </c>
+      <c r="DH37" t="s">
+        <v>683</v>
+      </c>
+      <c r="DI37" t="s">
+        <v>683</v>
+      </c>
+      <c r="DJ37" t="s">
+        <v>683</v>
+      </c>
+      <c r="DK37" t="s">
+        <v>683</v>
+      </c>
+      <c r="EV37" t="s">
+        <v>625</v>
+      </c>
+      <c r="EW37" t="s">
+        <v>625</v>
+      </c>
+      <c r="EX37" t="s">
+        <v>625</v>
+      </c>
+      <c r="EY37" t="s">
+        <v>625</v>
+      </c>
+      <c r="EZ37" t="s">
+        <v>625</v>
+      </c>
+      <c r="FA37" t="s">
+        <v>625</v>
+      </c>
+      <c r="FB37" t="s">
+        <v>625</v>
+      </c>
+      <c r="FC37" t="s">
+        <v>625</v>
+      </c>
+      <c r="FD37" t="s">
+        <v>625</v>
+      </c>
+      <c r="FE37" t="s">
+        <v>625</v>
+      </c>
+      <c r="FF37" t="s">
+        <v>625</v>
+      </c>
+      <c r="FG37" t="s">
+        <v>625</v>
+      </c>
+      <c r="FH37" t="s">
+        <v>625</v>
+      </c>
+      <c r="FI37" t="s">
+        <v>625</v>
+      </c>
+      <c r="FJ37" t="s">
+        <v>625</v>
+      </c>
+      <c r="FK37" t="s">
+        <v>625</v>
+      </c>
+      <c r="FL37" t="s">
+        <v>625</v>
+      </c>
+      <c r="FM37" t="s">
+        <v>625</v>
+      </c>
+      <c r="FZ37" t="s">
+        <v>680</v>
+      </c>
+      <c r="IF37" t="s">
+        <v>683</v>
+      </c>
+      <c r="IN37" t="s">
+        <v>680</v>
+      </c>
+      <c r="IO37" t="s">
+        <v>683</v>
+      </c>
+      <c r="IP37" t="s">
+        <v>683</v>
+      </c>
+      <c r="IQ37" t="s">
+        <v>680</v>
+      </c>
+      <c r="JX37" t="s">
+        <v>680</v>
+      </c>
+      <c r="KM37" t="s">
+        <v>683</v>
+      </c>
+      <c r="KN37" t="s">
+        <v>683</v>
+      </c>
+      <c r="KS37" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="38" spans="1:309" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="EI38" t="s">
+        <v>704</v>
+      </c>
+      <c r="EJ38" t="s">
+        <v>704</v>
+      </c>
+      <c r="KT38" t="s">
+        <v>764</v>
+      </c>
+      <c r="KU38" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="39" spans="1:309" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="E32" t="s">
+      <c r="KV39" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="40" spans="1:309" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="KW40" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="41" spans="1:309" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="GM41" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="42" spans="1:309" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="F32" t="s">
+      <c r="HV42" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="43" spans="1:309" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="HV43" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="44" spans="1:309" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="BJ44" t="s">
+        <v>678</v>
+      </c>
+      <c r="BK44" t="s">
+        <v>678</v>
+      </c>
+      <c r="BL44" t="s">
+        <v>678</v>
+      </c>
+      <c r="BM44" t="s">
+        <v>678</v>
+      </c>
+      <c r="BN44" t="s">
+        <v>678</v>
+      </c>
+      <c r="BO44" t="s">
+        <v>678</v>
+      </c>
+      <c r="BP44" t="s">
+        <v>678</v>
+      </c>
+      <c r="BQ44" t="s">
+        <v>678</v>
+      </c>
+      <c r="BR44" t="s">
+        <v>678</v>
+      </c>
+      <c r="BS44" t="s">
+        <v>678</v>
+      </c>
+      <c r="BT44" t="s">
+        <v>678</v>
+      </c>
+      <c r="BU44" t="s">
+        <v>678</v>
+      </c>
+      <c r="BV44" t="s">
+        <v>678</v>
+      </c>
+      <c r="BW44" t="s">
+        <v>678</v>
+      </c>
+      <c r="BX44" t="s">
+        <v>678</v>
+      </c>
+      <c r="BY44" t="s">
+        <v>678</v>
+      </c>
+      <c r="BZ44" t="s">
+        <v>678</v>
+      </c>
+      <c r="CA44" t="s">
+        <v>678</v>
+      </c>
+      <c r="CB44" t="s">
+        <v>678</v>
+      </c>
+      <c r="CC44" t="s">
+        <v>678</v>
+      </c>
+      <c r="CD44" t="s">
+        <v>678</v>
+      </c>
+      <c r="CE44" t="s">
+        <v>678</v>
+      </c>
+      <c r="CF44" t="s">
+        <v>678</v>
+      </c>
+      <c r="CG44" t="s">
+        <v>678</v>
+      </c>
+      <c r="IF44" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="45" spans="1:309" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="G32" t="s">
+      <c r="JL45" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="46" spans="1:309" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="H32" t="s">
+      <c r="JR46" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="47" spans="1:309" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="I32" t="s">
+      <c r="O47" t="s">
+        <v>641</v>
+      </c>
+      <c r="P47" t="s">
+        <v>641</v>
+      </c>
+      <c r="BJ47" t="s">
+        <v>679</v>
+      </c>
+      <c r="BK47" t="s">
+        <v>679</v>
+      </c>
+      <c r="BL47" t="s">
+        <v>679</v>
+      </c>
+      <c r="BM47" t="s">
+        <v>679</v>
+      </c>
+      <c r="BN47" t="s">
+        <v>679</v>
+      </c>
+      <c r="BO47" t="s">
+        <v>679</v>
+      </c>
+      <c r="BP47" t="s">
+        <v>679</v>
+      </c>
+      <c r="BQ47" t="s">
+        <v>679</v>
+      </c>
+      <c r="BR47" t="s">
+        <v>679</v>
+      </c>
+      <c r="BS47" t="s">
+        <v>679</v>
+      </c>
+      <c r="BT47" t="s">
+        <v>679</v>
+      </c>
+      <c r="BU47" t="s">
+        <v>679</v>
+      </c>
+      <c r="BV47" t="s">
+        <v>679</v>
+      </c>
+      <c r="BW47" t="s">
+        <v>679</v>
+      </c>
+      <c r="BX47" t="s">
+        <v>679</v>
+      </c>
+      <c r="BY47" t="s">
+        <v>679</v>
+      </c>
+      <c r="BZ47" t="s">
+        <v>679</v>
+      </c>
+      <c r="CA47" t="s">
+        <v>679</v>
+      </c>
+      <c r="CB47" t="s">
+        <v>679</v>
+      </c>
+      <c r="CC47" t="s">
+        <v>679</v>
+      </c>
+      <c r="CD47" t="s">
+        <v>679</v>
+      </c>
+      <c r="CE47" t="s">
+        <v>679</v>
+      </c>
+      <c r="CF47" t="s">
+        <v>679</v>
+      </c>
+      <c r="CG47" t="s">
+        <v>679</v>
+      </c>
+      <c r="DD47" t="s">
+        <v>689</v>
+      </c>
+      <c r="DE47" t="s">
+        <v>689</v>
+      </c>
+      <c r="DF47" t="s">
+        <v>689</v>
+      </c>
+      <c r="DG47" t="s">
+        <v>692</v>
+      </c>
+      <c r="DH47" t="s">
+        <v>689</v>
+      </c>
+      <c r="DI47" t="s">
+        <v>689</v>
+      </c>
+      <c r="DJ47" t="s">
+        <v>689</v>
+      </c>
+      <c r="DK47" t="s">
+        <v>692</v>
+      </c>
+      <c r="DW47" t="s">
+        <v>699</v>
+      </c>
+      <c r="DX47" t="s">
+        <v>699</v>
+      </c>
+      <c r="DY47" t="s">
+        <v>699</v>
+      </c>
+      <c r="EV47" t="s">
+        <v>692</v>
+      </c>
+      <c r="EW47" t="s">
+        <v>692</v>
+      </c>
+      <c r="EX47" t="s">
+        <v>692</v>
+      </c>
+      <c r="EY47" t="s">
+        <v>692</v>
+      </c>
+      <c r="EZ47" t="s">
+        <v>692</v>
+      </c>
+      <c r="FA47" t="s">
+        <v>692</v>
+      </c>
+      <c r="FB47" t="s">
+        <v>692</v>
+      </c>
+      <c r="FC47" t="s">
+        <v>692</v>
+      </c>
+      <c r="FD47" t="s">
+        <v>692</v>
+      </c>
+      <c r="FE47" t="s">
+        <v>692</v>
+      </c>
+      <c r="FF47" t="s">
+        <v>692</v>
+      </c>
+      <c r="FG47" t="s">
+        <v>692</v>
+      </c>
+      <c r="FH47" t="s">
+        <v>692</v>
+      </c>
+      <c r="FI47" t="s">
+        <v>692</v>
+      </c>
+      <c r="FJ47" t="s">
+        <v>692</v>
+      </c>
+      <c r="FK47" t="s">
+        <v>692</v>
+      </c>
+      <c r="FL47" t="s">
+        <v>692</v>
+      </c>
+      <c r="FM47" t="s">
+        <v>692</v>
+      </c>
+      <c r="FZ47" t="s">
+        <v>692</v>
+      </c>
+      <c r="GM47" t="s">
+        <v>692</v>
+      </c>
+      <c r="JX47" t="s">
+        <v>755</v>
+      </c>
+      <c r="KF47" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="48" spans="1:309" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="J32" t="s">
+      <c r="JX48" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="49" spans="1:292" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="BJ49" t="s">
+        <v>680</v>
+      </c>
+      <c r="BK49" t="s">
+        <v>680</v>
+      </c>
+      <c r="BL49" t="s">
+        <v>680</v>
+      </c>
+      <c r="BM49" t="s">
+        <v>684</v>
+      </c>
+      <c r="BN49" t="s">
+        <v>684</v>
+      </c>
+      <c r="BO49" t="s">
+        <v>680</v>
+      </c>
+      <c r="BP49" t="s">
+        <v>684</v>
+      </c>
+      <c r="BQ49" t="s">
+        <v>680</v>
+      </c>
+      <c r="BR49" t="s">
+        <v>684</v>
+      </c>
+      <c r="BS49" t="s">
+        <v>684</v>
+      </c>
+      <c r="BT49" t="s">
+        <v>684</v>
+      </c>
+      <c r="BU49" t="s">
+        <v>684</v>
+      </c>
+      <c r="BV49" t="s">
+        <v>684</v>
+      </c>
+      <c r="BW49" t="s">
+        <v>680</v>
+      </c>
+      <c r="BX49" t="s">
+        <v>680</v>
+      </c>
+      <c r="BY49" t="s">
+        <v>684</v>
+      </c>
+      <c r="BZ49" t="s">
+        <v>680</v>
+      </c>
+      <c r="CA49" t="s">
+        <v>680</v>
+      </c>
+      <c r="CB49" t="s">
+        <v>684</v>
+      </c>
+      <c r="CC49" t="s">
+        <v>680</v>
+      </c>
+      <c r="CD49" t="s">
+        <v>680</v>
+      </c>
+      <c r="CE49" t="s">
+        <v>684</v>
+      </c>
+      <c r="CF49" t="s">
+        <v>684</v>
+      </c>
+      <c r="CG49" t="s">
+        <v>680</v>
+      </c>
+      <c r="DW49" t="s">
+        <v>700</v>
+      </c>
+      <c r="DX49" t="s">
+        <v>684</v>
+      </c>
+      <c r="DY49" t="s">
+        <v>700</v>
+      </c>
+      <c r="KF49" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="50" spans="1:292" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="K32" t="s">
+      <c r="B50" t="s">
+        <v>618</v>
+      </c>
+      <c r="C50" t="s">
+        <v>618</v>
+      </c>
+      <c r="D50" t="s">
+        <v>618</v>
+      </c>
+      <c r="E50" t="s">
+        <v>618</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="51" spans="1:292" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="L32" t="s">
+      <c r="B51" t="s">
+        <v>618</v>
+      </c>
+      <c r="C51" t="s">
+        <v>618</v>
+      </c>
+      <c r="D51" t="s">
+        <v>618</v>
+      </c>
+      <c r="E51" t="s">
+        <v>618</v>
+      </c>
+      <c r="BJ51" t="s">
+        <v>618</v>
+      </c>
+      <c r="BK51" t="s">
+        <v>618</v>
+      </c>
+      <c r="BL51" t="s">
+        <v>618</v>
+      </c>
+      <c r="BM51" t="s">
+        <v>618</v>
+      </c>
+      <c r="BN51" t="s">
+        <v>618</v>
+      </c>
+      <c r="BO51" t="s">
+        <v>618</v>
+      </c>
+      <c r="BP51" t="s">
+        <v>618</v>
+      </c>
+      <c r="BQ51" t="s">
+        <v>618</v>
+      </c>
+      <c r="BR51" t="s">
+        <v>618</v>
+      </c>
+      <c r="BS51" t="s">
+        <v>618</v>
+      </c>
+      <c r="BT51" t="s">
+        <v>618</v>
+      </c>
+      <c r="BU51" t="s">
+        <v>618</v>
+      </c>
+      <c r="BV51" t="s">
+        <v>618</v>
+      </c>
+      <c r="BW51" t="s">
+        <v>618</v>
+      </c>
+      <c r="BX51" t="s">
+        <v>618</v>
+      </c>
+      <c r="BY51" t="s">
+        <v>618</v>
+      </c>
+      <c r="BZ51" t="s">
+        <v>618</v>
+      </c>
+      <c r="CA51" t="s">
+        <v>618</v>
+      </c>
+      <c r="CB51" t="s">
+        <v>618</v>
+      </c>
+      <c r="CC51" t="s">
+        <v>618</v>
+      </c>
+      <c r="CD51" t="s">
+        <v>618</v>
+      </c>
+      <c r="CE51" t="s">
+        <v>618</v>
+      </c>
+      <c r="CF51" t="s">
+        <v>618</v>
+      </c>
+      <c r="CG51" t="s">
+        <v>618</v>
+      </c>
+      <c r="DD51" t="s">
+        <v>618</v>
+      </c>
+      <c r="DE51" t="s">
+        <v>618</v>
+      </c>
+      <c r="DF51" t="s">
+        <v>618</v>
+      </c>
+      <c r="DG51" t="s">
+        <v>618</v>
+      </c>
+      <c r="DH51" t="s">
+        <v>618</v>
+      </c>
+      <c r="DI51" t="s">
+        <v>618</v>
+      </c>
+      <c r="DJ51" t="s">
+        <v>618</v>
+      </c>
+      <c r="DK51" t="s">
+        <v>618</v>
+      </c>
+      <c r="DW51" t="s">
+        <v>618</v>
+      </c>
+      <c r="DX51" t="s">
+        <v>618</v>
+      </c>
+      <c r="DY51" t="s">
+        <v>618</v>
+      </c>
+      <c r="EI51" t="s">
+        <v>618</v>
+      </c>
+      <c r="EJ51" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="52" spans="1:292" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="M32" t="s">
-        <v>578</v>
-      </c>
-      <c r="N32" t="s">
+      <c r="B52" t="s">
+        <v>619</v>
+      </c>
+      <c r="C52" t="s">
+        <v>619</v>
+      </c>
+      <c r="D52" t="s">
+        <v>619</v>
+      </c>
+      <c r="E52" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="53" spans="1:292" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="O32" t="s">
+      <c r="B53" t="s">
+        <v>620</v>
+      </c>
+      <c r="C53" t="s">
+        <v>620</v>
+      </c>
+      <c r="D53" t="s">
+        <v>626</v>
+      </c>
+      <c r="E53" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="54" spans="1:292" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="P32" t="s">
+      <c r="B54" t="s">
+        <v>621</v>
+      </c>
+      <c r="C54" t="s">
+        <v>621</v>
+      </c>
+      <c r="D54" t="s">
+        <v>621</v>
+      </c>
+      <c r="E54" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="55" spans="1:292" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="B55" t="s">
+        <v>622</v>
+      </c>
+      <c r="C55" t="s">
+        <v>622</v>
+      </c>
+      <c r="D55" t="s">
+        <v>622</v>
+      </c>
+      <c r="E55" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="56" spans="1:292" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="R32" t="s">
+      <c r="B56" t="s">
+        <v>623</v>
+      </c>
+      <c r="C56" t="s">
+        <v>623</v>
+      </c>
+      <c r="D56" t="s">
+        <v>623</v>
+      </c>
+      <c r="E56" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="57" spans="1:292" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="S32" t="s">
+      <c r="B57" t="s">
+        <v>624</v>
+      </c>
+      <c r="C57" t="s">
+        <v>624</v>
+      </c>
+      <c r="D57" t="s">
+        <v>624</v>
+      </c>
+      <c r="E57" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="58" spans="1:292" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="T32" t="s">
+      <c r="O58" t="s">
+        <v>617</v>
+      </c>
+      <c r="P58" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="59" spans="1:292" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="O59" t="s">
+        <v>642</v>
+      </c>
+      <c r="P59" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="60" spans="1:292" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="U32" t="s">
+      <c r="O60" t="s">
+        <v>643</v>
+      </c>
+      <c r="P60" t="s">
+        <v>643</v>
+      </c>
+      <c r="AM60" t="s">
+        <v>643</v>
+      </c>
+      <c r="BJ60" t="s">
+        <v>643</v>
+      </c>
+      <c r="BK60" t="s">
+        <v>643</v>
+      </c>
+      <c r="BL60" t="s">
+        <v>643</v>
+      </c>
+      <c r="BM60" t="s">
+        <v>643</v>
+      </c>
+      <c r="BN60" t="s">
+        <v>643</v>
+      </c>
+      <c r="BO60" t="s">
+        <v>643</v>
+      </c>
+      <c r="BP60" t="s">
+        <v>643</v>
+      </c>
+      <c r="BQ60" t="s">
+        <v>643</v>
+      </c>
+      <c r="BR60" t="s">
+        <v>643</v>
+      </c>
+      <c r="BS60" t="s">
+        <v>643</v>
+      </c>
+      <c r="BT60" t="s">
+        <v>643</v>
+      </c>
+      <c r="BU60" t="s">
+        <v>643</v>
+      </c>
+      <c r="BV60" t="s">
+        <v>643</v>
+      </c>
+      <c r="BW60" t="s">
+        <v>643</v>
+      </c>
+      <c r="BX60" t="s">
+        <v>643</v>
+      </c>
+      <c r="BY60" t="s">
+        <v>643</v>
+      </c>
+      <c r="BZ60" t="s">
+        <v>643</v>
+      </c>
+      <c r="CA60" t="s">
+        <v>643</v>
+      </c>
+      <c r="CB60" t="s">
+        <v>643</v>
+      </c>
+      <c r="CC60" t="s">
+        <v>643</v>
+      </c>
+      <c r="CD60" t="s">
+        <v>643</v>
+      </c>
+      <c r="CE60" t="s">
+        <v>643</v>
+      </c>
+      <c r="CF60" t="s">
+        <v>643</v>
+      </c>
+      <c r="CG60" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="61" spans="1:292" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="V32" t="s">
+      <c r="O61" t="s">
+        <v>644</v>
+      </c>
+      <c r="P61" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="62" spans="1:292" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="W32" t="s">
+      <c r="AM62" t="s">
+        <v>662</v>
+      </c>
+      <c r="EV62" t="s">
+        <v>625</v>
+      </c>
+      <c r="EW62" t="s">
+        <v>710</v>
+      </c>
+      <c r="EX62" t="s">
+        <v>710</v>
+      </c>
+      <c r="EY62" t="s">
+        <v>625</v>
+      </c>
+      <c r="EZ62" t="s">
+        <v>710</v>
+      </c>
+      <c r="FA62" t="s">
+        <v>625</v>
+      </c>
+      <c r="FB62" t="s">
+        <v>625</v>
+      </c>
+      <c r="FC62" t="s">
+        <v>710</v>
+      </c>
+      <c r="FD62" t="s">
+        <v>625</v>
+      </c>
+      <c r="FE62" t="s">
+        <v>625</v>
+      </c>
+      <c r="FF62" t="s">
+        <v>625</v>
+      </c>
+      <c r="FG62" t="s">
+        <v>625</v>
+      </c>
+      <c r="FH62" t="s">
+        <v>625</v>
+      </c>
+      <c r="FI62" t="s">
+        <v>710</v>
+      </c>
+      <c r="FJ62" t="s">
+        <v>710</v>
+      </c>
+      <c r="FK62" t="s">
+        <v>625</v>
+      </c>
+      <c r="FL62" t="s">
+        <v>625</v>
+      </c>
+      <c r="FM62" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="63" spans="1:292" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="X32" t="s">
-        <v>588</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>589</v>
-      </c>
-      <c r="Z32" t="s">
+      <c r="AM63" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="64" spans="1:292" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="AA32" t="s">
-        <v>590</v>
-      </c>
-      <c r="AB32" t="s">
+      <c r="DD64" t="s">
+        <v>690</v>
+      </c>
+      <c r="DE64" t="s">
+        <v>690</v>
+      </c>
+      <c r="DF64" t="s">
+        <v>690</v>
+      </c>
+      <c r="DG64" t="s">
+        <v>690</v>
+      </c>
+      <c r="DH64" t="s">
+        <v>690</v>
+      </c>
+      <c r="DI64" t="s">
+        <v>690</v>
+      </c>
+      <c r="DJ64" t="s">
+        <v>690</v>
+      </c>
+      <c r="DK64" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="65" spans="1:169" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="AC32" t="s">
+      <c r="DW65" t="s">
+        <v>626</v>
+      </c>
+      <c r="DX65" t="s">
+        <v>626</v>
+      </c>
+      <c r="DY65" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="66" spans="1:169" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="AD32" t="s">
+      <c r="EI66" t="s">
+        <v>705</v>
+      </c>
+      <c r="EJ66" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="67" spans="1:169" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="AE32" t="s">
+      <c r="BJ67" t="s">
+        <v>625</v>
+      </c>
+      <c r="BK67" t="s">
+        <v>625</v>
+      </c>
+      <c r="BL67" t="s">
+        <v>683</v>
+      </c>
+      <c r="BM67" t="s">
+        <v>683</v>
+      </c>
+      <c r="BN67" t="s">
+        <v>625</v>
+      </c>
+      <c r="BO67" t="s">
+        <v>683</v>
+      </c>
+      <c r="BP67" t="s">
+        <v>625</v>
+      </c>
+      <c r="BQ67" t="s">
+        <v>625</v>
+      </c>
+      <c r="BR67" t="s">
+        <v>625</v>
+      </c>
+      <c r="BS67" t="s">
+        <v>683</v>
+      </c>
+      <c r="BT67" t="s">
+        <v>625</v>
+      </c>
+      <c r="BU67" t="s">
+        <v>683</v>
+      </c>
+      <c r="BV67" t="s">
+        <v>625</v>
+      </c>
+      <c r="BW67" t="s">
+        <v>683</v>
+      </c>
+      <c r="BX67" t="s">
+        <v>625</v>
+      </c>
+      <c r="BY67" t="s">
+        <v>683</v>
+      </c>
+      <c r="BZ67" t="s">
+        <v>683</v>
+      </c>
+      <c r="CA67" t="s">
+        <v>625</v>
+      </c>
+      <c r="CB67" t="s">
+        <v>683</v>
+      </c>
+      <c r="CC67" t="s">
+        <v>625</v>
+      </c>
+      <c r="CD67" t="s">
+        <v>683</v>
+      </c>
+      <c r="CE67" t="s">
+        <v>683</v>
+      </c>
+      <c r="CF67" t="s">
+        <v>625</v>
+      </c>
+      <c r="CG67" t="s">
+        <v>683</v>
+      </c>
+      <c r="EV67" t="s">
+        <v>625</v>
+      </c>
+      <c r="EW67" t="s">
+        <v>625</v>
+      </c>
+      <c r="EX67" t="s">
+        <v>625</v>
+      </c>
+      <c r="EY67" t="s">
+        <v>625</v>
+      </c>
+      <c r="EZ67" t="s">
+        <v>625</v>
+      </c>
+      <c r="FA67" t="s">
+        <v>625</v>
+      </c>
+      <c r="FB67" t="s">
+        <v>625</v>
+      </c>
+      <c r="FC67" t="s">
+        <v>625</v>
+      </c>
+      <c r="FD67" t="s">
+        <v>625</v>
+      </c>
+      <c r="FE67" t="s">
+        <v>625</v>
+      </c>
+      <c r="FF67" t="s">
+        <v>625</v>
+      </c>
+      <c r="FG67" t="s">
+        <v>625</v>
+      </c>
+      <c r="FH67" t="s">
+        <v>625</v>
+      </c>
+      <c r="FI67" t="s">
+        <v>625</v>
+      </c>
+      <c r="FJ67" t="s">
+        <v>625</v>
+      </c>
+      <c r="FK67" t="s">
+        <v>625</v>
+      </c>
+      <c r="FL67" t="s">
+        <v>625</v>
+      </c>
+      <c r="FM67" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="68" spans="1:169" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="AF32" t="s">
-        <v>593</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>594</v>
-      </c>
-      <c r="AH32" t="s">
+      <c r="EV68" t="s">
+        <v>709</v>
+      </c>
+      <c r="EW68" t="s">
+        <v>709</v>
+      </c>
+      <c r="EX68" t="s">
+        <v>709</v>
+      </c>
+      <c r="EY68" t="s">
+        <v>709</v>
+      </c>
+      <c r="EZ68" t="s">
+        <v>709</v>
+      </c>
+      <c r="FA68" t="s">
+        <v>709</v>
+      </c>
+      <c r="FB68" t="s">
+        <v>709</v>
+      </c>
+      <c r="FC68" t="s">
+        <v>709</v>
+      </c>
+      <c r="FD68" t="s">
+        <v>709</v>
+      </c>
+      <c r="FE68" t="s">
+        <v>709</v>
+      </c>
+      <c r="FF68" t="s">
+        <v>709</v>
+      </c>
+      <c r="FG68" t="s">
+        <v>709</v>
+      </c>
+      <c r="FH68" t="s">
+        <v>709</v>
+      </c>
+      <c r="FI68" t="s">
+        <v>709</v>
+      </c>
+      <c r="FJ68" t="s">
+        <v>709</v>
+      </c>
+      <c r="FK68" t="s">
+        <v>709</v>
+      </c>
+      <c r="FL68" t="s">
+        <v>709</v>
+      </c>
+      <c r="FM68" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="69" spans="1:169" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="AI32" t="s">
-        <v>595</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>578</v>
-      </c>
-      <c r="AK32" t="s">
-        <v>597</v>
-      </c>
-      <c r="AL32" t="s">
+      <c r="BJ69" t="s">
+        <v>617</v>
+      </c>
+      <c r="BK69" t="s">
+        <v>617</v>
+      </c>
+      <c r="BL69" t="s">
+        <v>617</v>
+      </c>
+      <c r="BM69" t="s">
+        <v>617</v>
+      </c>
+      <c r="BN69" t="s">
+        <v>617</v>
+      </c>
+      <c r="BO69" t="s">
+        <v>617</v>
+      </c>
+      <c r="BP69" t="s">
+        <v>617</v>
+      </c>
+      <c r="BQ69" t="s">
+        <v>617</v>
+      </c>
+      <c r="BR69" t="s">
+        <v>617</v>
+      </c>
+      <c r="BS69" t="s">
+        <v>617</v>
+      </c>
+      <c r="BT69" t="s">
+        <v>617</v>
+      </c>
+      <c r="BU69" t="s">
+        <v>617</v>
+      </c>
+      <c r="BV69" t="s">
+        <v>617</v>
+      </c>
+      <c r="BW69" t="s">
+        <v>617</v>
+      </c>
+      <c r="BX69" t="s">
+        <v>617</v>
+      </c>
+      <c r="BY69" t="s">
+        <v>617</v>
+      </c>
+      <c r="BZ69" t="s">
+        <v>617</v>
+      </c>
+      <c r="CA69" t="s">
+        <v>617</v>
+      </c>
+      <c r="CB69" t="s">
+        <v>617</v>
+      </c>
+      <c r="CC69" t="s">
+        <v>617</v>
+      </c>
+      <c r="CD69" t="s">
+        <v>617</v>
+      </c>
+      <c r="CE69" t="s">
+        <v>617</v>
+      </c>
+      <c r="CF69" t="s">
+        <v>617</v>
+      </c>
+      <c r="CG69" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="70" spans="1:169" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="AM32" t="s">
-        <v>599</v>
-      </c>
-      <c r="AN32" t="s">
-        <v>600</v>
-      </c>
-      <c r="AO32" t="s">
+      <c r="BJ70" t="s">
+        <v>681</v>
+      </c>
+      <c r="BK70" t="s">
+        <v>681</v>
+      </c>
+      <c r="BL70" t="s">
+        <v>681</v>
+      </c>
+      <c r="BM70" t="s">
+        <v>681</v>
+      </c>
+      <c r="BN70" t="s">
+        <v>681</v>
+      </c>
+      <c r="BO70" t="s">
+        <v>681</v>
+      </c>
+      <c r="BP70" t="s">
+        <v>681</v>
+      </c>
+      <c r="BQ70" t="s">
+        <v>681</v>
+      </c>
+      <c r="BR70" t="s">
+        <v>681</v>
+      </c>
+      <c r="BS70" t="s">
+        <v>681</v>
+      </c>
+      <c r="BT70" t="s">
+        <v>681</v>
+      </c>
+      <c r="BU70" t="s">
+        <v>681</v>
+      </c>
+      <c r="BV70" t="s">
+        <v>681</v>
+      </c>
+      <c r="BW70" t="s">
+        <v>681</v>
+      </c>
+      <c r="BX70" t="s">
+        <v>681</v>
+      </c>
+      <c r="BY70" t="s">
+        <v>681</v>
+      </c>
+      <c r="BZ70" t="s">
+        <v>681</v>
+      </c>
+      <c r="CA70" t="s">
+        <v>681</v>
+      </c>
+      <c r="CB70" t="s">
+        <v>681</v>
+      </c>
+      <c r="CC70" t="s">
+        <v>681</v>
+      </c>
+      <c r="CD70" t="s">
+        <v>681</v>
+      </c>
+      <c r="CE70" t="s">
+        <v>681</v>
+      </c>
+      <c r="CF70" t="s">
+        <v>681</v>
+      </c>
+      <c r="CG70" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="71" spans="1:169" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="AP32" t="s">
-        <v>601</v>
-      </c>
-      <c r="AQ32" t="s">
-        <v>603</v>
-      </c>
-      <c r="AR32" t="s">
-        <v>616</v>
-      </c>
-      <c r="AS32" t="s">
-        <v>618</v>
-      </c>
-      <c r="AT32" t="s">
-        <v>606</v>
-      </c>
-      <c r="AU32" t="s">
-        <v>619</v>
-      </c>
-      <c r="AV32" t="s">
-        <v>620</v>
-      </c>
-      <c r="AW32" t="s">
-        <v>621</v>
-      </c>
-      <c r="AX32" t="s">
-        <v>622</v>
-      </c>
-      <c r="AY32" t="s">
-        <v>590</v>
-      </c>
-      <c r="AZ32" t="s">
-        <v>623</v>
-      </c>
-      <c r="BA32" t="s">
-        <v>609</v>
-      </c>
-      <c r="BB32" t="s">
-        <v>624</v>
-      </c>
-      <c r="BC32" t="s">
-        <v>625</v>
-      </c>
-      <c r="BD32" t="s">
-        <v>594</v>
-      </c>
-      <c r="BE32" t="s">
-        <v>612</v>
-      </c>
-      <c r="BF32" t="s">
-        <v>595</v>
-      </c>
-      <c r="BG32" t="s">
-        <v>578</v>
-      </c>
-      <c r="BH32" t="s">
-        <v>578</v>
-      </c>
-      <c r="BI32" t="s">
-        <v>596</v>
-      </c>
-      <c r="BJ32" t="s">
-        <v>597</v>
-      </c>
-      <c r="BK32" t="s">
-        <v>613</v>
-      </c>
-      <c r="BL32" t="s">
-        <v>599</v>
-      </c>
-      <c r="BM32" t="s">
-        <v>600</v>
-      </c>
-      <c r="BN32" t="s">
-        <v>614</v>
-      </c>
-      <c r="BO32" t="s">
-        <v>601</v>
-      </c>
-      <c r="BP32" t="s">
-        <v>627</v>
-      </c>
-      <c r="BQ32" t="s">
-        <v>628</v>
-      </c>
-      <c r="BR32" t="s">
-        <v>605</v>
-      </c>
-      <c r="BS32" t="s">
-        <v>606</v>
-      </c>
-      <c r="BT32" t="s">
-        <v>588</v>
-      </c>
-      <c r="BU32" t="s">
-        <v>589</v>
-      </c>
-      <c r="BV32" t="s">
-        <v>607</v>
-      </c>
-      <c r="BW32" t="s">
-        <v>590</v>
-      </c>
-      <c r="BX32" t="s">
-        <v>608</v>
-      </c>
-      <c r="BY32" t="s">
-        <v>629</v>
-      </c>
-      <c r="BZ32" t="s">
-        <v>611</v>
-      </c>
-      <c r="CA32" t="s">
-        <v>593</v>
-      </c>
-      <c r="CB32" t="s">
-        <v>594</v>
-      </c>
-      <c r="CC32" t="s">
-        <v>612</v>
-      </c>
-      <c r="CD32" t="s">
-        <v>630</v>
-      </c>
-      <c r="CE32" t="s">
-        <v>578</v>
-      </c>
-      <c r="CF32" t="s">
-        <v>578</v>
-      </c>
-      <c r="CG32" t="s">
-        <v>632</v>
-      </c>
-      <c r="CH32" t="s">
-        <v>633</v>
-      </c>
-      <c r="CI32" t="s">
-        <v>634</v>
-      </c>
-      <c r="CJ32" t="s">
-        <v>635</v>
-      </c>
-      <c r="CK32" t="s">
-        <v>600</v>
-      </c>
-      <c r="CL32" t="s">
-        <v>636</v>
-      </c>
-      <c r="CM32" t="s">
-        <v>603</v>
-      </c>
-      <c r="CN32" t="s">
-        <v>588</v>
-      </c>
-      <c r="CO32" t="s">
-        <v>608</v>
-      </c>
-      <c r="CP32" t="s">
-        <v>637</v>
-      </c>
-      <c r="CQ32" t="s">
-        <v>612</v>
-      </c>
-      <c r="CR32" t="s">
-        <v>578</v>
-      </c>
-      <c r="CS32" t="s">
-        <v>638</v>
-      </c>
-      <c r="CT32" t="s">
-        <v>599</v>
-      </c>
-      <c r="CU32" t="s">
-        <v>639</v>
-      </c>
-      <c r="CV32" t="s">
-        <v>614</v>
-      </c>
-      <c r="CW32" t="s">
-        <v>603</v>
-      </c>
-      <c r="CX32" t="s">
-        <v>588</v>
-      </c>
-      <c r="CY32" t="s">
-        <v>640</v>
-      </c>
-      <c r="CZ32" t="s">
-        <v>608</v>
-      </c>
-      <c r="DA32" t="s">
-        <v>593</v>
-      </c>
-      <c r="DB32" t="s">
-        <v>578</v>
-      </c>
-      <c r="DC32" t="s">
-        <v>632</v>
-      </c>
-      <c r="DD32" t="s">
-        <v>641</v>
-      </c>
-      <c r="DE32" t="s">
-        <v>599</v>
-      </c>
-      <c r="DF32" t="s">
-        <v>642</v>
-      </c>
-      <c r="DG32" t="s">
-        <v>603</v>
-      </c>
-      <c r="DH32" t="s">
-        <v>605</v>
-      </c>
-      <c r="DI32" t="s">
-        <v>588</v>
-      </c>
-      <c r="DJ32" t="s">
-        <v>607</v>
-      </c>
-      <c r="DK32" t="s">
-        <v>608</v>
-      </c>
-      <c r="DL32" t="s">
-        <v>643</v>
-      </c>
-      <c r="DM32" t="s">
-        <v>612</v>
-      </c>
-      <c r="DN32" t="s">
-        <v>578</v>
-      </c>
-      <c r="DO32" t="s">
-        <v>578</v>
-      </c>
-      <c r="DP32" t="s">
-        <v>578</v>
-      </c>
-      <c r="DQ32" t="s">
-        <v>644</v>
-      </c>
-      <c r="DR32" t="s">
-        <v>597</v>
-      </c>
-      <c r="DS32" t="s">
-        <v>599</v>
-      </c>
-      <c r="DT32" t="s">
-        <v>614</v>
-      </c>
-      <c r="DU32" t="s">
-        <v>603</v>
-      </c>
-      <c r="DV32" t="s">
-        <v>605</v>
-      </c>
-      <c r="DW32" t="s">
-        <v>588</v>
-      </c>
-      <c r="DX32" t="s">
-        <v>607</v>
-      </c>
-      <c r="DY32" t="s">
-        <v>608</v>
-      </c>
-      <c r="DZ32" t="s">
-        <v>610</v>
-      </c>
-      <c r="EA32" t="s">
-        <v>645</v>
-      </c>
-      <c r="EB32" t="s">
-        <v>612</v>
-      </c>
-      <c r="EC32" t="s">
-        <v>578</v>
-      </c>
-      <c r="ED32" t="s">
-        <v>647</v>
-      </c>
-      <c r="EE32" t="s">
-        <v>613</v>
-      </c>
-      <c r="EF32" t="s">
-        <v>648</v>
-      </c>
-      <c r="EG32" t="s">
-        <v>614</v>
-      </c>
-      <c r="EH32" t="s">
-        <v>603</v>
-      </c>
-      <c r="EI32" t="s">
-        <v>605</v>
-      </c>
-      <c r="EJ32" t="s">
-        <v>588</v>
-      </c>
-      <c r="EK32" t="s">
-        <v>607</v>
-      </c>
-      <c r="EL32" t="s">
-        <v>608</v>
-      </c>
-      <c r="EM32" t="s">
-        <v>610</v>
-      </c>
-      <c r="EN32" t="s">
-        <v>649</v>
-      </c>
-      <c r="EO32" t="s">
-        <v>612</v>
-      </c>
-      <c r="EP32" t="s">
-        <v>578</v>
-      </c>
-      <c r="EQ32" t="s">
-        <v>651</v>
-      </c>
-      <c r="ER32" t="s">
-        <v>638</v>
-      </c>
-      <c r="ES32" t="s">
-        <v>652</v>
-      </c>
-      <c r="ET32" t="s">
-        <v>653</v>
-      </c>
-      <c r="EU32" t="s">
-        <v>654</v>
-      </c>
-      <c r="EV32" t="s">
-        <v>655</v>
-      </c>
-      <c r="EW32" t="s">
-        <v>656</v>
-      </c>
-      <c r="EX32" t="s">
-        <v>657</v>
-      </c>
-      <c r="EY32" t="s">
-        <v>658</v>
-      </c>
-      <c r="EZ32" t="s">
-        <v>659</v>
-      </c>
-      <c r="FA32" t="s">
-        <v>660</v>
-      </c>
-      <c r="FB32" t="s">
-        <v>578</v>
-      </c>
-      <c r="FC32" t="s">
-        <v>578</v>
-      </c>
-      <c r="FD32" t="s">
-        <v>663</v>
-      </c>
-      <c r="FE32" t="s">
-        <v>664</v>
-      </c>
-      <c r="FF32" t="s">
-        <v>665</v>
-      </c>
-      <c r="FG32" t="s">
-        <v>603</v>
-      </c>
-      <c r="FH32" t="s">
-        <v>605</v>
-      </c>
-      <c r="FI32" t="s">
-        <v>588</v>
-      </c>
-      <c r="FJ32" t="s">
-        <v>607</v>
-      </c>
-      <c r="FK32" t="s">
-        <v>608</v>
-      </c>
-      <c r="FL32" t="s">
-        <v>610</v>
-      </c>
-      <c r="FM32" t="s">
-        <v>593</v>
-      </c>
-      <c r="FN32" t="s">
-        <v>612</v>
-      </c>
-      <c r="FO32" t="s">
-        <v>578</v>
-      </c>
-      <c r="FP32" t="s">
-        <v>597</v>
-      </c>
-      <c r="FQ32" t="s">
-        <v>599</v>
-      </c>
-      <c r="FR32" t="s">
-        <v>603</v>
-      </c>
-      <c r="FS32" t="s">
-        <v>605</v>
-      </c>
-      <c r="FT32" t="s">
-        <v>588</v>
-      </c>
-      <c r="FU32" t="s">
-        <v>666</v>
-      </c>
-      <c r="FV32" t="s">
-        <v>608</v>
-      </c>
-      <c r="FW32" t="s">
-        <v>610</v>
-      </c>
-      <c r="FX32" t="s">
-        <v>667</v>
-      </c>
-      <c r="FY32" t="s">
-        <v>578</v>
-      </c>
-      <c r="FZ32" t="s">
-        <v>651</v>
-      </c>
-      <c r="GA32" t="s">
-        <v>668</v>
-      </c>
-      <c r="GB32" t="s">
-        <v>603</v>
-      </c>
-      <c r="GC32" t="s">
-        <v>605</v>
-      </c>
-      <c r="GD32" t="s">
-        <v>588</v>
-      </c>
-      <c r="GE32" t="s">
-        <v>607</v>
-      </c>
-      <c r="GF32" t="s">
-        <v>608</v>
-      </c>
-      <c r="GG32" t="s">
-        <v>610</v>
-      </c>
-      <c r="GH32" t="s">
-        <v>659</v>
-      </c>
-      <c r="GI32" t="s">
-        <v>578</v>
-      </c>
-      <c r="GJ32" t="s">
-        <v>632</v>
-      </c>
-      <c r="GK32" t="s">
-        <v>670</v>
-      </c>
-      <c r="GL32" t="s">
-        <v>603</v>
-      </c>
-      <c r="GM32" t="s">
-        <v>588</v>
-      </c>
-      <c r="GN32" t="s">
-        <v>609</v>
-      </c>
-      <c r="GO32" t="s">
-        <v>671</v>
-      </c>
-      <c r="GP32" t="s">
-        <v>672</v>
-      </c>
-      <c r="GQ32" t="s">
-        <v>578</v>
-      </c>
-      <c r="GR32" t="s">
-        <v>578</v>
-      </c>
-      <c r="GS32" t="s">
-        <v>578</v>
-      </c>
-      <c r="GT32" t="s">
-        <v>578</v>
-      </c>
-      <c r="GU32" t="s">
-        <v>647</v>
-      </c>
-      <c r="GV32" t="s">
-        <v>674</v>
-      </c>
-      <c r="GW32" t="s">
-        <v>603</v>
-      </c>
-      <c r="GX32" t="s">
-        <v>588</v>
-      </c>
-      <c r="GY32" t="s">
-        <v>608</v>
-      </c>
-      <c r="GZ32" t="s">
-        <v>593</v>
-      </c>
-      <c r="HA32" t="s">
-        <v>578</v>
-      </c>
-      <c r="HB32" t="s">
-        <v>578</v>
-      </c>
-      <c r="HC32" t="s">
-        <v>675</v>
-      </c>
-      <c r="HD32" t="s">
-        <v>676</v>
-      </c>
-      <c r="HE32" t="s">
-        <v>677</v>
-      </c>
-      <c r="HF32" t="s">
-        <v>588</v>
-      </c>
-      <c r="HG32" t="s">
-        <v>608</v>
-      </c>
-      <c r="HH32" t="s">
-        <v>678</v>
-      </c>
-      <c r="HI32" t="s">
-        <v>679</v>
-      </c>
-      <c r="HJ32" t="s">
-        <v>599</v>
-      </c>
-      <c r="HK32" t="s">
-        <v>603</v>
-      </c>
-      <c r="HL32" t="s">
-        <v>588</v>
-      </c>
-      <c r="HM32" t="s">
-        <v>608</v>
-      </c>
-      <c r="HN32" t="s">
-        <v>593</v>
-      </c>
-      <c r="HO32" t="s">
-        <v>578</v>
-      </c>
-      <c r="HP32" t="s">
-        <v>599</v>
-      </c>
-      <c r="HQ32" t="s">
-        <v>681</v>
-      </c>
-      <c r="HR32" t="s">
+      <c r="BJ71" t="s">
         <v>682</v>
       </c>
-      <c r="HS32" t="s">
-        <v>608</v>
-      </c>
-      <c r="HT32" t="s">
-        <v>625</v>
-      </c>
-      <c r="HU32" t="s">
-        <v>578</v>
-      </c>
-      <c r="HV32" t="s">
-        <v>683</v>
-      </c>
-      <c r="HW32" t="s">
-        <v>684</v>
-      </c>
-      <c r="HX32" t="s">
-        <v>685</v>
-      </c>
-      <c r="HY32" t="s">
-        <v>609</v>
-      </c>
-      <c r="HZ32" t="s">
-        <v>686</v>
-      </c>
-      <c r="IA32" t="s">
-        <v>578</v>
-      </c>
-      <c r="IB32" t="s">
-        <v>687</v>
-      </c>
-      <c r="IC32" t="s">
-        <v>688</v>
-      </c>
-      <c r="ID32" t="s">
-        <v>603</v>
-      </c>
-      <c r="IE32" t="s">
-        <v>588</v>
-      </c>
-      <c r="IF32" t="s">
-        <v>689</v>
-      </c>
-      <c r="IG32" t="s">
-        <v>593</v>
-      </c>
-      <c r="IH32" t="s">
-        <v>637</v>
-      </c>
-      <c r="II32" t="s">
-        <v>578</v>
-      </c>
-      <c r="IJ32" t="s">
-        <v>690</v>
-      </c>
-      <c r="IK32" t="s">
-        <v>603</v>
-      </c>
-      <c r="IL32" t="s">
-        <v>588</v>
-      </c>
-      <c r="IM32" t="s">
-        <v>608</v>
-      </c>
-      <c r="IN32" t="s">
+      <c r="BK71" t="s">
+        <v>682</v>
+      </c>
+      <c r="BL71" t="s">
+        <v>682</v>
+      </c>
+      <c r="BM71" t="s">
+        <v>682</v>
+      </c>
+      <c r="BN71" t="s">
+        <v>682</v>
+      </c>
+      <c r="BO71" t="s">
+        <v>682</v>
+      </c>
+      <c r="BP71" t="s">
+        <v>682</v>
+      </c>
+      <c r="BQ71" t="s">
+        <v>682</v>
+      </c>
+      <c r="BR71" t="s">
+        <v>682</v>
+      </c>
+      <c r="BS71" t="s">
+        <v>682</v>
+      </c>
+      <c r="BT71" t="s">
+        <v>682</v>
+      </c>
+      <c r="BU71" t="s">
+        <v>682</v>
+      </c>
+      <c r="BV71" t="s">
+        <v>682</v>
+      </c>
+      <c r="BW71" t="s">
+        <v>682</v>
+      </c>
+      <c r="BX71" t="s">
+        <v>682</v>
+      </c>
+      <c r="BY71" t="s">
+        <v>682</v>
+      </c>
+      <c r="BZ71" t="s">
+        <v>682</v>
+      </c>
+      <c r="CA71" t="s">
+        <v>682</v>
+      </c>
+      <c r="CB71" t="s">
+        <v>682</v>
+      </c>
+      <c r="CC71" t="s">
+        <v>682</v>
+      </c>
+      <c r="CD71" t="s">
+        <v>682</v>
+      </c>
+      <c r="CE71" t="s">
+        <v>682</v>
+      </c>
+      <c r="CF71" t="s">
+        <v>682</v>
+      </c>
+      <c r="CG71" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="72" spans="1:169" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="DD72" t="s">
         <v>691</v>
       </c>
-      <c r="IO32" t="s">
-        <v>593</v>
-      </c>
-      <c r="IP32" t="s">
-        <v>578</v>
-      </c>
-      <c r="IQ32" t="s">
-        <v>692</v>
-      </c>
-      <c r="IR32" t="s">
-        <v>603</v>
-      </c>
-      <c r="IS32" t="s">
-        <v>588</v>
-      </c>
-      <c r="IT32" t="s">
-        <v>608</v>
-      </c>
-      <c r="IU32" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="33" spans="1:255" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="D33" t="s">
-        <v>583</v>
-      </c>
-      <c r="E33" t="s">
-        <v>586</v>
-      </c>
-      <c r="F33" t="s">
-        <v>586</v>
-      </c>
-      <c r="G33" t="s">
-        <v>586</v>
-      </c>
-      <c r="H33" t="s">
-        <v>583</v>
-      </c>
-      <c r="I33" t="s">
-        <v>592</v>
-      </c>
-      <c r="J33" t="s">
-        <v>583</v>
-      </c>
-      <c r="K33" t="s">
-        <v>583</v>
-      </c>
-      <c r="L33" t="s">
-        <v>592</v>
-      </c>
-      <c r="M33" t="s">
-        <v>583</v>
-      </c>
-      <c r="N33" t="s">
-        <v>583</v>
-      </c>
-      <c r="O33" t="s">
-        <v>583</v>
-      </c>
-      <c r="P33" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>592</v>
-      </c>
-      <c r="R33" t="s">
-        <v>592</v>
-      </c>
-      <c r="S33" t="s">
-        <v>602</v>
-      </c>
-      <c r="T33" t="s">
-        <v>602</v>
-      </c>
-      <c r="U33" t="s">
-        <v>602</v>
-      </c>
-      <c r="V33" t="s">
-        <v>602</v>
-      </c>
-      <c r="W33" t="s">
-        <v>602</v>
-      </c>
-      <c r="X33" t="s">
-        <v>602</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>602</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>602</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>602</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>602</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>602</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>602</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>602</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>602</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>602</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>602</v>
-      </c>
-      <c r="AI33" t="s">
-        <v>602</v>
-      </c>
-      <c r="AJ33" t="s">
-        <v>602</v>
-      </c>
-      <c r="AK33" t="s">
-        <v>602</v>
-      </c>
-      <c r="AL33" t="s">
-        <v>602</v>
-      </c>
-      <c r="AM33" t="s">
-        <v>602</v>
-      </c>
-      <c r="AN33" t="s">
-        <v>602</v>
-      </c>
-      <c r="AO33" t="s">
-        <v>602</v>
-      </c>
-      <c r="AP33" t="s">
-        <v>602</v>
-      </c>
-      <c r="AQ33" t="s">
-        <v>602</v>
-      </c>
-      <c r="AR33" t="s">
-        <v>586</v>
-      </c>
-      <c r="AS33" t="s">
-        <v>586</v>
-      </c>
-      <c r="AT33" t="s">
-        <v>586</v>
-      </c>
-      <c r="AU33" t="s">
-        <v>586</v>
-      </c>
-      <c r="AV33" t="s">
-        <v>586</v>
-      </c>
-      <c r="AW33" t="s">
-        <v>586</v>
-      </c>
-      <c r="AX33" t="s">
-        <v>586</v>
-      </c>
-      <c r="AY33" t="s">
-        <v>586</v>
-      </c>
-      <c r="AZ33" t="s">
-        <v>586</v>
-      </c>
-      <c r="BA33" t="s">
-        <v>586</v>
-      </c>
-      <c r="BB33" t="s">
-        <v>602</v>
-      </c>
-      <c r="BC33" t="s">
-        <v>626</v>
-      </c>
-      <c r="BD33" t="s">
-        <v>626</v>
-      </c>
-      <c r="BE33" t="s">
-        <v>626</v>
-      </c>
-      <c r="BF33" t="s">
-        <v>626</v>
-      </c>
-      <c r="BG33" t="s">
-        <v>586</v>
-      </c>
-      <c r="BH33" t="s">
-        <v>586</v>
-      </c>
-      <c r="BI33" t="s">
-        <v>626</v>
-      </c>
-      <c r="BJ33" t="s">
-        <v>626</v>
-      </c>
-      <c r="BK33" t="s">
-        <v>626</v>
-      </c>
-      <c r="BL33" t="s">
-        <v>626</v>
-      </c>
-      <c r="BM33" t="s">
-        <v>626</v>
-      </c>
-      <c r="BN33" t="s">
-        <v>626</v>
-      </c>
-      <c r="BO33" t="s">
-        <v>586</v>
-      </c>
-      <c r="BP33" t="s">
-        <v>626</v>
-      </c>
-      <c r="BQ33" t="s">
-        <v>626</v>
-      </c>
-      <c r="BR33" t="s">
-        <v>626</v>
-      </c>
-      <c r="BS33" t="s">
-        <v>626</v>
-      </c>
-      <c r="BT33" t="s">
-        <v>626</v>
-      </c>
-      <c r="BU33" t="s">
-        <v>626</v>
-      </c>
-      <c r="BV33" t="s">
-        <v>626</v>
-      </c>
-      <c r="BW33" t="s">
-        <v>626</v>
-      </c>
-      <c r="BX33" t="s">
-        <v>626</v>
-      </c>
-      <c r="BY33" t="s">
-        <v>626</v>
-      </c>
-      <c r="BZ33" t="s">
-        <v>626</v>
-      </c>
-      <c r="CA33" t="s">
-        <v>626</v>
-      </c>
-      <c r="CB33" t="s">
-        <v>626</v>
-      </c>
-      <c r="CC33" t="s">
-        <v>626</v>
-      </c>
-      <c r="CD33" t="s">
-        <v>626</v>
-      </c>
-      <c r="CG33" t="s">
-        <v>626</v>
-      </c>
-      <c r="CH33" t="s">
-        <v>626</v>
-      </c>
-      <c r="CI33" t="s">
-        <v>626</v>
-      </c>
-      <c r="CJ33" t="s">
-        <v>626</v>
-      </c>
-      <c r="CK33" t="s">
-        <v>626</v>
-      </c>
-      <c r="CL33" t="s">
-        <v>626</v>
-      </c>
-      <c r="CM33" t="s">
-        <v>626</v>
-      </c>
-      <c r="CN33" t="s">
-        <v>586</v>
-      </c>
-      <c r="CO33" t="s">
-        <v>626</v>
-      </c>
-      <c r="CP33" t="s">
-        <v>626</v>
-      </c>
-      <c r="CQ33" t="s">
-        <v>626</v>
-      </c>
-      <c r="CR33" t="s">
-        <v>626</v>
-      </c>
-      <c r="CS33" t="s">
-        <v>626</v>
-      </c>
-      <c r="CT33" t="s">
-        <v>626</v>
-      </c>
-      <c r="CU33" t="s">
-        <v>626</v>
-      </c>
-      <c r="CV33" t="s">
-        <v>626</v>
-      </c>
-      <c r="CW33" t="s">
-        <v>626</v>
-      </c>
-      <c r="CX33" t="s">
-        <v>626</v>
-      </c>
-      <c r="CY33" t="s">
-        <v>626</v>
-      </c>
-      <c r="CZ33" t="s">
-        <v>626</v>
-      </c>
-      <c r="DA33" t="s">
-        <v>626</v>
-      </c>
-      <c r="DC33" t="s">
-        <v>626</v>
-      </c>
-      <c r="DD33" t="s">
-        <v>626</v>
-      </c>
-      <c r="DE33" t="s">
-        <v>626</v>
-      </c>
-      <c r="DF33" t="s">
-        <v>626</v>
-      </c>
-      <c r="DG33" t="s">
-        <v>626</v>
-      </c>
-      <c r="DH33" t="s">
-        <v>626</v>
-      </c>
-      <c r="DI33" t="s">
-        <v>626</v>
-      </c>
-      <c r="DJ33" t="s">
-        <v>626</v>
-      </c>
-      <c r="DK33" t="s">
-        <v>626</v>
-      </c>
-      <c r="DL33" t="s">
-        <v>626</v>
-      </c>
-      <c r="DM33" t="s">
-        <v>626</v>
-      </c>
-      <c r="DQ33" t="s">
-        <v>626</v>
-      </c>
-      <c r="DR33" t="s">
-        <v>626</v>
-      </c>
-      <c r="DS33" t="s">
-        <v>626</v>
-      </c>
-      <c r="DT33" t="s">
-        <v>626</v>
-      </c>
-      <c r="DU33" t="s">
-        <v>626</v>
-      </c>
-      <c r="DV33" t="s">
-        <v>626</v>
-      </c>
-      <c r="DW33" t="s">
-        <v>626</v>
-      </c>
-      <c r="DX33" t="s">
-        <v>626</v>
-      </c>
-      <c r="DY33" t="s">
-        <v>626</v>
-      </c>
-      <c r="DZ33" t="s">
-        <v>626</v>
-      </c>
-      <c r="EA33" t="s">
-        <v>626</v>
-      </c>
-      <c r="EB33" t="s">
-        <v>626</v>
-      </c>
-      <c r="ED33" t="s">
-        <v>626</v>
-      </c>
-      <c r="EE33" t="s">
-        <v>586</v>
-      </c>
-      <c r="EF33" t="s">
-        <v>626</v>
-      </c>
-      <c r="EG33" t="s">
-        <v>626</v>
-      </c>
-      <c r="EH33" t="s">
-        <v>626</v>
-      </c>
-      <c r="EI33" t="s">
-        <v>626</v>
-      </c>
-      <c r="EJ33" t="s">
-        <v>626</v>
-      </c>
-      <c r="EK33" t="s">
-        <v>626</v>
-      </c>
-      <c r="EL33" t="s">
-        <v>626</v>
-      </c>
-      <c r="EM33" t="s">
-        <v>626</v>
-      </c>
-      <c r="EN33" t="s">
-        <v>626</v>
-      </c>
-      <c r="EO33" t="s">
-        <v>626</v>
-      </c>
-      <c r="EQ33" t="s">
-        <v>626</v>
-      </c>
-      <c r="ER33" t="s">
-        <v>626</v>
-      </c>
-      <c r="ES33" t="s">
-        <v>626</v>
-      </c>
-      <c r="ET33" t="s">
-        <v>626</v>
-      </c>
-      <c r="EU33" t="s">
-        <v>626</v>
-      </c>
-      <c r="EV33" t="s">
-        <v>626</v>
-      </c>
-      <c r="EW33" t="s">
-        <v>626</v>
-      </c>
-      <c r="EX33" t="s">
-        <v>626</v>
-      </c>
-      <c r="EY33" t="s">
-        <v>626</v>
-      </c>
-      <c r="EZ33" t="s">
-        <v>626</v>
-      </c>
-      <c r="FA33" t="s">
-        <v>626</v>
-      </c>
-      <c r="FD33" t="s">
-        <v>626</v>
-      </c>
-      <c r="FE33" t="s">
-        <v>626</v>
-      </c>
-      <c r="FF33" t="s">
-        <v>626</v>
-      </c>
-      <c r="FG33" t="s">
-        <v>626</v>
-      </c>
-      <c r="FH33" t="s">
-        <v>626</v>
-      </c>
-      <c r="FI33" t="s">
-        <v>626</v>
-      </c>
-      <c r="FJ33" t="s">
-        <v>626</v>
-      </c>
-      <c r="FK33" t="s">
-        <v>626</v>
-      </c>
-      <c r="FL33" t="s">
-        <v>626</v>
-      </c>
-      <c r="FM33" t="s">
-        <v>626</v>
-      </c>
-      <c r="FN33" t="s">
-        <v>626</v>
-      </c>
-      <c r="FO33" t="s">
-        <v>626</v>
-      </c>
-      <c r="FP33" t="s">
-        <v>626</v>
-      </c>
-      <c r="FQ33" t="s">
-        <v>626</v>
-      </c>
-      <c r="FR33" t="s">
-        <v>626</v>
-      </c>
-      <c r="FS33" t="s">
-        <v>626</v>
-      </c>
-      <c r="FT33" t="s">
-        <v>626</v>
-      </c>
-      <c r="FU33" t="s">
-        <v>626</v>
-      </c>
-      <c r="FV33" t="s">
-        <v>626</v>
-      </c>
-      <c r="FW33" t="s">
-        <v>626</v>
-      </c>
-      <c r="FX33" t="s">
-        <v>626</v>
-      </c>
-      <c r="FZ33" t="s">
-        <v>626</v>
-      </c>
-      <c r="GA33" t="s">
-        <v>626</v>
-      </c>
-      <c r="GB33" t="s">
-        <v>626</v>
-      </c>
-      <c r="GC33" t="s">
-        <v>626</v>
-      </c>
-      <c r="GD33" t="s">
-        <v>626</v>
-      </c>
-      <c r="GE33" t="s">
-        <v>626</v>
-      </c>
-      <c r="GF33" t="s">
-        <v>626</v>
-      </c>
-      <c r="GG33" t="s">
-        <v>626</v>
-      </c>
-      <c r="GH33" t="s">
-        <v>626</v>
-      </c>
-      <c r="GJ33" t="s">
-        <v>626</v>
-      </c>
-      <c r="GK33" t="s">
-        <v>626</v>
-      </c>
-      <c r="GL33" t="s">
-        <v>626</v>
-      </c>
-      <c r="GM33" t="s">
-        <v>626</v>
-      </c>
-      <c r="GN33" t="s">
-        <v>626</v>
-      </c>
-      <c r="GO33" t="s">
-        <v>626</v>
-      </c>
-      <c r="GP33" t="s">
-        <v>626</v>
-      </c>
-      <c r="GU33" t="s">
-        <v>626</v>
-      </c>
-      <c r="GV33" t="s">
-        <v>586</v>
-      </c>
-      <c r="GW33" t="s">
-        <v>626</v>
-      </c>
-      <c r="GX33" t="s">
-        <v>626</v>
-      </c>
-      <c r="GY33" t="s">
-        <v>626</v>
-      </c>
-      <c r="GZ33" t="s">
-        <v>626</v>
-      </c>
-      <c r="HC33" t="s">
-        <v>626</v>
-      </c>
-      <c r="HD33" t="s">
-        <v>626</v>
-      </c>
-      <c r="HE33" t="s">
-        <v>626</v>
-      </c>
-      <c r="HF33" t="s">
-        <v>626</v>
-      </c>
-      <c r="HG33" t="s">
-        <v>626</v>
-      </c>
-      <c r="HH33" t="s">
-        <v>626</v>
-      </c>
-      <c r="HI33" t="s">
-        <v>626</v>
-      </c>
-      <c r="HJ33" t="s">
-        <v>626</v>
-      </c>
-      <c r="HK33" t="s">
-        <v>626</v>
-      </c>
-      <c r="HL33" t="s">
-        <v>626</v>
-      </c>
-      <c r="HM33" t="s">
-        <v>626</v>
-      </c>
-      <c r="HN33" t="s">
-        <v>626</v>
-      </c>
-      <c r="HO33" t="s">
-        <v>626</v>
-      </c>
-      <c r="HP33" t="s">
-        <v>626</v>
-      </c>
-      <c r="HQ33" t="s">
-        <v>626</v>
-      </c>
-      <c r="HR33" t="s">
-        <v>626</v>
-      </c>
-      <c r="HS33" t="s">
-        <v>626</v>
-      </c>
-      <c r="HT33" t="s">
-        <v>626</v>
-      </c>
-      <c r="HU33" t="s">
-        <v>626</v>
-      </c>
-      <c r="HV33" t="s">
-        <v>626</v>
-      </c>
-      <c r="HW33" t="s">
-        <v>626</v>
-      </c>
-      <c r="HX33" t="s">
-        <v>626</v>
-      </c>
-      <c r="HY33" t="s">
-        <v>626</v>
-      </c>
-      <c r="HZ33" t="s">
-        <v>626</v>
-      </c>
-      <c r="IB33" t="s">
-        <v>626</v>
-      </c>
-      <c r="IC33" t="s">
-        <v>626</v>
-      </c>
-      <c r="ID33" t="s">
-        <v>626</v>
-      </c>
-      <c r="IE33" t="s">
-        <v>592</v>
-      </c>
-      <c r="IF33" t="s">
-        <v>592</v>
-      </c>
-      <c r="IG33" t="s">
-        <v>592</v>
-      </c>
-      <c r="II33" t="s">
-        <v>592</v>
-      </c>
-      <c r="IJ33" t="s">
-        <v>592</v>
-      </c>
-      <c r="IK33" t="s">
-        <v>592</v>
-      </c>
-      <c r="IL33" t="s">
-        <v>592</v>
-      </c>
-      <c r="IM33" t="s">
-        <v>592</v>
-      </c>
-      <c r="IN33" t="s">
-        <v>592</v>
-      </c>
-      <c r="IO33" t="s">
-        <v>592</v>
-      </c>
-      <c r="IP33" t="s">
-        <v>592</v>
-      </c>
-      <c r="IQ33" t="s">
-        <v>592</v>
-      </c>
-      <c r="IR33" t="s">
-        <v>592</v>
-      </c>
-      <c r="IS33" t="s">
-        <v>583</v>
-      </c>
-      <c r="IT33" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="34" spans="1:255" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="D34" t="s">
-        <v>584</v>
-      </c>
-      <c r="E34" t="s">
-        <v>587</v>
-      </c>
-      <c r="F34" t="s">
-        <v>584</v>
-      </c>
-      <c r="G34" t="s">
-        <v>584</v>
-      </c>
-      <c r="H34" t="s">
-        <v>587</v>
-      </c>
-      <c r="I34" t="s">
-        <v>587</v>
-      </c>
-      <c r="J34" t="s">
-        <v>587</v>
-      </c>
-      <c r="K34" t="s">
-        <v>587</v>
-      </c>
-      <c r="L34" t="s">
-        <v>587</v>
-      </c>
-      <c r="M34" t="s">
-        <v>587</v>
-      </c>
-      <c r="N34" t="s">
-        <v>587</v>
-      </c>
-      <c r="O34" t="s">
-        <v>587</v>
-      </c>
-      <c r="P34" t="s">
-        <v>587</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>587</v>
-      </c>
-      <c r="R34" t="s">
-        <v>587</v>
-      </c>
-      <c r="S34" t="s">
-        <v>584</v>
-      </c>
-      <c r="T34" t="s">
-        <v>584</v>
-      </c>
-      <c r="U34" t="s">
-        <v>584</v>
-      </c>
-      <c r="V34" t="s">
-        <v>584</v>
-      </c>
-      <c r="W34" t="s">
-        <v>584</v>
-      </c>
-      <c r="X34" t="s">
-        <v>584</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>584</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>584</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>584</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>584</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>584</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>584</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>584</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>584</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>584</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>584</v>
-      </c>
-      <c r="AI34" t="s">
-        <v>584</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>584</v>
-      </c>
-      <c r="AK34" t="s">
-        <v>584</v>
-      </c>
-      <c r="AL34" t="s">
-        <v>584</v>
-      </c>
-      <c r="AM34" t="s">
-        <v>584</v>
-      </c>
-      <c r="AN34" t="s">
-        <v>584</v>
-      </c>
-      <c r="AO34" t="s">
-        <v>584</v>
-      </c>
-      <c r="AP34" t="s">
-        <v>615</v>
-      </c>
-      <c r="AQ34" t="s">
-        <v>615</v>
-      </c>
-      <c r="AR34" t="s">
-        <v>617</v>
-      </c>
-      <c r="AS34" t="s">
-        <v>584</v>
-      </c>
-      <c r="AT34" t="s">
-        <v>584</v>
-      </c>
-      <c r="AU34" t="s">
-        <v>584</v>
-      </c>
-      <c r="AV34" t="s">
-        <v>584</v>
-      </c>
-      <c r="AW34" t="s">
-        <v>584</v>
-      </c>
-      <c r="AX34" t="s">
-        <v>584</v>
-      </c>
-      <c r="AY34" t="s">
-        <v>617</v>
-      </c>
-      <c r="AZ34" t="s">
-        <v>617</v>
-      </c>
-      <c r="BA34" t="s">
-        <v>617</v>
-      </c>
-      <c r="BB34" t="s">
-        <v>617</v>
-      </c>
-      <c r="BC34" t="s">
-        <v>615</v>
-      </c>
-      <c r="BD34" t="s">
-        <v>615</v>
-      </c>
-      <c r="BE34" t="s">
-        <v>615</v>
-      </c>
-      <c r="BF34" t="s">
-        <v>615</v>
-      </c>
-      <c r="BG34" t="s">
-        <v>615</v>
-      </c>
-      <c r="BH34" t="s">
-        <v>615</v>
-      </c>
-      <c r="BI34" t="s">
-        <v>615</v>
-      </c>
-      <c r="BJ34" t="s">
-        <v>615</v>
-      </c>
-      <c r="BK34" t="s">
-        <v>615</v>
-      </c>
-      <c r="BL34" t="s">
-        <v>615</v>
-      </c>
-      <c r="BM34" t="s">
-        <v>615</v>
-      </c>
-      <c r="BN34" t="s">
-        <v>615</v>
-      </c>
-      <c r="BO34" t="s">
-        <v>615</v>
-      </c>
-      <c r="BP34" t="s">
-        <v>615</v>
-      </c>
-      <c r="BQ34" t="s">
-        <v>615</v>
-      </c>
-      <c r="BR34" t="s">
-        <v>617</v>
-      </c>
-      <c r="BS34" t="s">
-        <v>617</v>
-      </c>
-      <c r="BT34" t="s">
-        <v>617</v>
-      </c>
-      <c r="BU34" t="s">
-        <v>617</v>
-      </c>
-      <c r="BV34" t="s">
-        <v>617</v>
-      </c>
-      <c r="BW34" t="s">
-        <v>617</v>
-      </c>
-      <c r="BX34" t="s">
-        <v>617</v>
-      </c>
-      <c r="BY34" t="s">
-        <v>617</v>
-      </c>
-      <c r="BZ34" t="s">
-        <v>617</v>
-      </c>
-      <c r="CA34" t="s">
-        <v>584</v>
-      </c>
-      <c r="CB34" t="s">
-        <v>584</v>
-      </c>
-      <c r="CC34" t="s">
-        <v>584</v>
-      </c>
-      <c r="CD34" t="s">
-        <v>617</v>
-      </c>
-      <c r="CG34" t="s">
-        <v>617</v>
-      </c>
-      <c r="CH34" t="s">
-        <v>617</v>
-      </c>
-      <c r="CI34" t="s">
-        <v>617</v>
-      </c>
-      <c r="CJ34" t="s">
-        <v>617</v>
-      </c>
-      <c r="CK34" t="s">
-        <v>617</v>
-      </c>
-      <c r="CL34" t="s">
-        <v>617</v>
-      </c>
-      <c r="CM34" t="s">
-        <v>584</v>
-      </c>
-      <c r="CN34" t="s">
-        <v>584</v>
-      </c>
-      <c r="CO34" t="s">
-        <v>584</v>
-      </c>
-      <c r="CP34" t="s">
-        <v>617</v>
-      </c>
-      <c r="CQ34" t="s">
-        <v>617</v>
-      </c>
-      <c r="CR34" t="s">
-        <v>617</v>
-      </c>
-      <c r="CS34" t="s">
-        <v>617</v>
-      </c>
-      <c r="CT34" t="s">
-        <v>617</v>
-      </c>
-      <c r="CV34" t="s">
-        <v>617</v>
-      </c>
-      <c r="CW34" t="s">
-        <v>584</v>
-      </c>
-      <c r="CX34" t="s">
-        <v>584</v>
-      </c>
-      <c r="CY34" t="s">
-        <v>615</v>
-      </c>
-      <c r="CZ34" t="s">
-        <v>584</v>
-      </c>
-      <c r="DA34" t="s">
-        <v>584</v>
-      </c>
-      <c r="DC34" t="s">
-        <v>584</v>
-      </c>
-      <c r="DD34" t="s">
-        <v>587</v>
-      </c>
-      <c r="DE34" t="s">
-        <v>584</v>
-      </c>
-      <c r="DF34" t="s">
-        <v>587</v>
-      </c>
-      <c r="DG34" t="s">
-        <v>587</v>
-      </c>
-      <c r="DH34" t="s">
-        <v>615</v>
-      </c>
-      <c r="DI34" t="s">
-        <v>587</v>
-      </c>
-      <c r="DJ34" t="s">
-        <v>587</v>
-      </c>
-      <c r="DK34" t="s">
-        <v>587</v>
-      </c>
-      <c r="DL34" t="s">
-        <v>584</v>
-      </c>
-      <c r="DM34" t="s">
-        <v>587</v>
-      </c>
-      <c r="DQ34" t="s">
-        <v>587</v>
-      </c>
-      <c r="DR34" t="s">
-        <v>584</v>
-      </c>
-      <c r="DS34" t="s">
-        <v>584</v>
-      </c>
-      <c r="DT34" t="s">
-        <v>584</v>
-      </c>
-      <c r="DU34" t="s">
-        <v>584</v>
-      </c>
-      <c r="DV34" t="s">
-        <v>587</v>
-      </c>
-      <c r="DW34" t="s">
-        <v>587</v>
-      </c>
-      <c r="DX34" t="s">
-        <v>587</v>
-      </c>
-      <c r="DY34" t="s">
-        <v>587</v>
-      </c>
-      <c r="DZ34" t="s">
-        <v>587</v>
-      </c>
-      <c r="EA34" t="s">
-        <v>587</v>
-      </c>
-      <c r="EB34" t="s">
-        <v>587</v>
-      </c>
-      <c r="ED34" t="s">
-        <v>587</v>
-      </c>
-      <c r="EE34" t="s">
-        <v>587</v>
-      </c>
-      <c r="EF34" t="s">
-        <v>587</v>
-      </c>
-      <c r="EG34" t="s">
-        <v>587</v>
-      </c>
-      <c r="EH34" t="s">
-        <v>587</v>
-      </c>
-      <c r="EI34" t="s">
-        <v>587</v>
-      </c>
-      <c r="EJ34" t="s">
-        <v>587</v>
-      </c>
-      <c r="EK34" t="s">
-        <v>587</v>
-      </c>
-      <c r="EL34" t="s">
-        <v>587</v>
-      </c>
-      <c r="EM34" t="s">
-        <v>587</v>
-      </c>
-      <c r="EN34" t="s">
-        <v>587</v>
-      </c>
-      <c r="EO34" t="s">
-        <v>584</v>
-      </c>
-      <c r="EQ34" t="s">
-        <v>584</v>
-      </c>
-      <c r="ER34" t="s">
-        <v>587</v>
-      </c>
-      <c r="ES34" t="s">
-        <v>587</v>
-      </c>
-      <c r="ET34" t="s">
-        <v>587</v>
-      </c>
-      <c r="EU34" t="s">
-        <v>587</v>
-      </c>
-      <c r="EV34" t="s">
-        <v>587</v>
-      </c>
-      <c r="EW34" t="s">
-        <v>587</v>
-      </c>
-      <c r="EX34" t="s">
-        <v>587</v>
-      </c>
-      <c r="EY34" t="s">
-        <v>587</v>
-      </c>
-      <c r="EZ34" t="s">
-        <v>587</v>
-      </c>
-      <c r="FA34" t="s">
-        <v>584</v>
-      </c>
-      <c r="FD34" t="s">
-        <v>587</v>
-      </c>
-      <c r="FE34" t="s">
-        <v>587</v>
-      </c>
-      <c r="FF34" t="s">
-        <v>587</v>
-      </c>
-      <c r="FG34" t="s">
-        <v>587</v>
-      </c>
-      <c r="FH34" t="s">
-        <v>587</v>
-      </c>
-      <c r="FI34" t="s">
-        <v>587</v>
-      </c>
-      <c r="FJ34" t="s">
-        <v>587</v>
-      </c>
-      <c r="FK34" t="s">
-        <v>587</v>
-      </c>
-      <c r="FL34" t="s">
-        <v>587</v>
-      </c>
-      <c r="FM34" t="s">
-        <v>587</v>
-      </c>
-      <c r="FN34" t="s">
-        <v>587</v>
-      </c>
-      <c r="FO34" t="s">
-        <v>587</v>
-      </c>
-      <c r="FP34" t="s">
-        <v>587</v>
-      </c>
-      <c r="FQ34" t="s">
-        <v>587</v>
-      </c>
-      <c r="FR34" t="s">
-        <v>587</v>
-      </c>
-      <c r="FS34" t="s">
-        <v>587</v>
-      </c>
-      <c r="FT34" t="s">
-        <v>587</v>
-      </c>
-      <c r="FU34" t="s">
-        <v>587</v>
-      </c>
-      <c r="FV34" t="s">
-        <v>587</v>
-      </c>
-      <c r="FW34" t="s">
-        <v>587</v>
-      </c>
-      <c r="FX34" t="s">
-        <v>587</v>
-      </c>
-      <c r="FZ34" t="s">
-        <v>587</v>
-      </c>
-      <c r="GA34" t="s">
-        <v>587</v>
-      </c>
-      <c r="GB34" t="s">
-        <v>587</v>
-      </c>
-      <c r="GC34" t="s">
-        <v>587</v>
-      </c>
-      <c r="GD34" t="s">
-        <v>587</v>
-      </c>
-      <c r="GE34" t="s">
-        <v>587</v>
-      </c>
-      <c r="GF34" t="s">
-        <v>587</v>
-      </c>
-      <c r="GG34" t="s">
-        <v>587</v>
-      </c>
-      <c r="GH34" t="s">
-        <v>587</v>
-      </c>
-      <c r="GJ34" t="s">
-        <v>587</v>
-      </c>
-      <c r="GK34" t="s">
-        <v>587</v>
-      </c>
-      <c r="GL34" t="s">
-        <v>587</v>
-      </c>
-      <c r="GM34" t="s">
-        <v>587</v>
-      </c>
-      <c r="GN34" t="s">
-        <v>584</v>
-      </c>
-      <c r="GO34" t="s">
-        <v>587</v>
-      </c>
-      <c r="GP34" t="s">
-        <v>587</v>
-      </c>
-      <c r="GU34" t="s">
-        <v>587</v>
-      </c>
-      <c r="GV34" t="s">
-        <v>587</v>
-      </c>
-      <c r="GW34" t="s">
-        <v>587</v>
-      </c>
-      <c r="GX34" t="s">
-        <v>587</v>
-      </c>
-      <c r="GY34" t="s">
-        <v>587</v>
-      </c>
-      <c r="GZ34" t="s">
-        <v>587</v>
-      </c>
-      <c r="HC34" t="s">
-        <v>587</v>
-      </c>
-      <c r="HD34" t="s">
-        <v>587</v>
-      </c>
-      <c r="HE34" t="s">
-        <v>587</v>
-      </c>
-      <c r="HF34" t="s">
-        <v>587</v>
-      </c>
-      <c r="HG34" t="s">
-        <v>587</v>
-      </c>
-      <c r="HH34" t="s">
-        <v>587</v>
-      </c>
-      <c r="HI34" t="s">
-        <v>587</v>
-      </c>
-      <c r="HJ34" t="s">
-        <v>587</v>
-      </c>
-      <c r="HK34" t="s">
-        <v>587</v>
-      </c>
-      <c r="HL34" t="s">
-        <v>587</v>
-      </c>
-      <c r="HM34" t="s">
-        <v>587</v>
-      </c>
-      <c r="HN34" t="s">
-        <v>587</v>
-      </c>
-      <c r="HO34" t="s">
-        <v>587</v>
-      </c>
-      <c r="HP34" t="s">
-        <v>587</v>
-      </c>
-      <c r="HQ34" t="s">
-        <v>584</v>
-      </c>
-      <c r="HR34" t="s">
-        <v>587</v>
-      </c>
-      <c r="HS34" t="s">
-        <v>587</v>
-      </c>
-      <c r="HT34" t="s">
-        <v>587</v>
-      </c>
-      <c r="HU34" t="s">
-        <v>587</v>
-      </c>
-      <c r="HV34" t="s">
-        <v>587</v>
-      </c>
-      <c r="HW34" t="s">
-        <v>587</v>
-      </c>
-      <c r="HX34" t="s">
-        <v>587</v>
-      </c>
-      <c r="HY34" t="s">
-        <v>587</v>
-      </c>
-      <c r="HZ34" t="s">
-        <v>587</v>
-      </c>
-      <c r="IB34" t="s">
-        <v>587</v>
-      </c>
-      <c r="IC34" t="s">
-        <v>587</v>
-      </c>
-      <c r="ID34" t="s">
-        <v>587</v>
-      </c>
-      <c r="IE34" t="s">
-        <v>587</v>
-      </c>
-      <c r="IF34" t="s">
-        <v>587</v>
-      </c>
-      <c r="IH34" t="s">
-        <v>587</v>
-      </c>
-      <c r="II34" t="s">
-        <v>587</v>
-      </c>
-      <c r="IJ34" t="s">
-        <v>587</v>
-      </c>
-      <c r="IK34" t="s">
-        <v>587</v>
-      </c>
-      <c r="IL34" t="s">
-        <v>587</v>
-      </c>
-      <c r="IM34" t="s">
-        <v>587</v>
-      </c>
-      <c r="IN34" t="s">
-        <v>587</v>
-      </c>
-      <c r="IO34" t="s">
-        <v>587</v>
-      </c>
-      <c r="IP34" t="s">
-        <v>587</v>
-      </c>
-      <c r="IQ34" t="s">
-        <v>587</v>
-      </c>
-      <c r="IR34" t="s">
-        <v>587</v>
-      </c>
-      <c r="IS34" t="s">
-        <v>587</v>
-      </c>
-      <c r="IT34" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="35" spans="1:255" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="36" spans="1:255" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="B36" t="s">
-        <v>579</v>
-      </c>
-      <c r="C36" t="s">
-        <v>581</v>
-      </c>
-      <c r="AJ36" t="s">
-        <v>581</v>
-      </c>
-      <c r="BG36" t="s">
-        <v>581</v>
-      </c>
-      <c r="BH36" t="s">
-        <v>581</v>
-      </c>
-      <c r="CE36" t="s">
-        <v>579</v>
-      </c>
-      <c r="CF36" t="s">
-        <v>631</v>
-      </c>
-      <c r="DN36" t="s">
-        <v>581</v>
-      </c>
-      <c r="DO36" t="s">
-        <v>581</v>
-      </c>
-      <c r="DP36" t="s">
-        <v>581</v>
-      </c>
-      <c r="EC36" t="s">
-        <v>646</v>
-      </c>
-      <c r="EP36" t="s">
-        <v>650</v>
-      </c>
-      <c r="FY36" t="s">
-        <v>631</v>
-      </c>
-      <c r="GI36" t="s">
-        <v>631</v>
-      </c>
-      <c r="GQ36" t="s">
-        <v>631</v>
-      </c>
-      <c r="GR36" t="s">
-        <v>646</v>
-      </c>
-      <c r="GS36" t="s">
-        <v>646</v>
-      </c>
-      <c r="GT36" t="s">
-        <v>631</v>
-      </c>
-      <c r="IA36" t="s">
-        <v>646</v>
-      </c>
-      <c r="IP36" t="s">
-        <v>631</v>
-      </c>
-      <c r="IU36" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="37" spans="1:255" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="FB37" t="s">
-        <v>661</v>
-      </c>
-      <c r="FC37" t="s">
-        <v>662</v>
-      </c>
-      <c r="GI37" t="s">
-        <v>669</v>
-      </c>
-      <c r="GQ37" t="s">
-        <v>661</v>
-      </c>
-      <c r="GR37" t="s">
-        <v>673</v>
-      </c>
-      <c r="GS37" t="s">
-        <v>661</v>
-      </c>
-      <c r="GT37" t="s">
-        <v>673</v>
-      </c>
-      <c r="HA37" t="s">
-        <v>662</v>
-      </c>
-      <c r="HB37" t="s">
-        <v>662</v>
-      </c>
-      <c r="HO37" t="s">
-        <v>680</v>
-      </c>
-      <c r="IP37" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="38" spans="1:255" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="B38" t="s">
-        <v>580</v>
-      </c>
-      <c r="C38" t="s">
-        <v>580</v>
-      </c>
-      <c r="BG38" t="s">
-        <v>580</v>
-      </c>
-      <c r="BH38" t="s">
-        <v>580</v>
-      </c>
-      <c r="CE38" t="s">
-        <v>580</v>
-      </c>
-      <c r="CF38" t="s">
-        <v>580</v>
-      </c>
-      <c r="CR38" t="s">
-        <v>580</v>
-      </c>
-      <c r="DB38" t="s">
-        <v>580</v>
+      <c r="DE72" t="s">
+        <v>691</v>
+      </c>
+      <c r="DF72" t="s">
+        <v>691</v>
+      </c>
+      <c r="DG72" t="s">
+        <v>691</v>
+      </c>
+      <c r="DH72" t="s">
+        <v>691</v>
+      </c>
+      <c r="DI72" t="s">
+        <v>691</v>
+      </c>
+      <c r="DJ72" t="s">
+        <v>691</v>
+      </c>
+      <c r="DK72" t="s">
+        <v>691</v>
       </c>
     </row>
   </sheetData>

--- a/icd_files/56922.xlsx
+++ b/icd_files/56922.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\datiphy\Documents\NEO Excel\icd_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D4F55C-7E3E-4F00-A356-9F5EF768A586}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5A81BE-6EA2-4CF4-92AA-94F5EF95664D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADDS Chart" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2520" uniqueCount="857">
   <si>
     <t>CHARTTIME</t>
   </si>
@@ -1740,6 +1740,18 @@
     <t>01-21</t>
   </si>
   <si>
+    <t>01-22</t>
+  </si>
+  <si>
+    <t>01-23</t>
+  </si>
+  <si>
+    <t>01-24</t>
+  </si>
+  <si>
+    <t>01-25</t>
+  </si>
+  <si>
     <t>GCS: Verbal</t>
   </si>
   <si>
@@ -1749,15 +1761,117 @@
     <t>GCS: Total</t>
   </si>
   <si>
+    <t>PHENObarbital</t>
+  </si>
+  <si>
     <t>0.9% Sodium Chloride</t>
   </si>
   <si>
-    <t>PHENObarbital</t>
+    <t>Lorazepam</t>
+  </si>
+  <si>
+    <t>Thiamine</t>
+  </si>
+  <si>
+    <t>Sarna Lotion</t>
+  </si>
+  <si>
+    <t>NS (Mini Bag Plus)</t>
+  </si>
+  <si>
+    <t>NS (Glass Bottle)</t>
+  </si>
+  <si>
+    <t>Miconazole 2% Cream</t>
+  </si>
+  <si>
+    <t>Propofol</t>
+  </si>
+  <si>
+    <t>Ondansetron</t>
+  </si>
+  <si>
+    <t>Fluconazole</t>
+  </si>
+  <si>
+    <t>Potassium Chloride</t>
+  </si>
+  <si>
+    <t>Racepinephrine</t>
+  </si>
+  <si>
+    <t>LeVETiracetam</t>
+  </si>
+  <si>
+    <t>Ampicillin Sodium</t>
   </si>
   <si>
     <t>Calcium Gluconate</t>
   </si>
   <si>
+    <t>CeftriaXONE</t>
+  </si>
+  <si>
+    <t>Iso-Osmotic Dextrose</t>
+  </si>
+  <si>
+    <t>Acyclovir</t>
+  </si>
+  <si>
+    <t>Heparin</t>
+  </si>
+  <si>
+    <t>Docusate Sodium (Liquid)</t>
+  </si>
+  <si>
+    <t>Senna</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>Phenytoin Sodium</t>
+  </si>
+  <si>
+    <t>D5 1/2NS</t>
+  </si>
+  <si>
+    <t>Doxycycline Hyclate</t>
+  </si>
+  <si>
+    <t>Midazolam</t>
+  </si>
+  <si>
+    <t>Fentanyl Citrate</t>
+  </si>
+  <si>
+    <t>Sodium Chloride 0.9%  Flush</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>Pregabalin</t>
+  </si>
+  <si>
+    <t>5% Dextrose</t>
+  </si>
+  <si>
+    <t>Fosphenytoin</t>
+  </si>
+  <si>
+    <t>Vancomycin</t>
+  </si>
+  <si>
+    <t>Ranitidine</t>
+  </si>
+  <si>
+    <t>Ibuprofen</t>
+  </si>
+  <si>
+    <t>Neutra-Phos</t>
+  </si>
+  <si>
     <t>00:00</t>
   </si>
   <si>
@@ -1767,9 +1881,30 @@
     <t>2 VIAL</t>
   </si>
   <si>
+    <t>2 BAG</t>
+  </si>
+  <si>
+    <t>200 mL</t>
+  </si>
+  <si>
+    <t>600 mL</t>
+  </si>
+  <si>
+    <t>5000 mL</t>
+  </si>
+  <si>
+    <t>100 UDCUP</t>
+  </si>
+  <si>
+    <t>1 TAB</t>
+  </si>
+  <si>
     <t>100 mL</t>
   </si>
   <si>
+    <t>50 mL</t>
+  </si>
+  <si>
     <t>10:49</t>
   </si>
   <si>
@@ -1812,6 +1947,18 @@
     <t>23:00</t>
   </si>
   <si>
+    <t>40 mL</t>
+  </si>
+  <si>
+    <t>200 VIAL</t>
+  </si>
+  <si>
+    <t>1000 mL</t>
+  </si>
+  <si>
+    <t>100 VIAL</t>
+  </si>
+  <si>
     <t>01:00</t>
   </si>
   <si>
@@ -1863,6 +2010,12 @@
     <t>22:00</t>
   </si>
   <si>
+    <t>1-2 VIAL</t>
+  </si>
+  <si>
+    <t>25-50 mL</t>
+  </si>
+  <si>
     <t>03:00</t>
   </si>
   <si>
@@ -1905,6 +2058,27 @@
     <t>No Response-ETT</t>
   </si>
   <si>
+    <t>1000 VIAL</t>
+  </si>
+  <si>
+    <t>60 TAB</t>
+  </si>
+  <si>
+    <t>500 mL</t>
+  </si>
+  <si>
+    <t>150 TAB</t>
+  </si>
+  <si>
+    <t>400 TAB</t>
+  </si>
+  <si>
+    <t>250 mL</t>
+  </si>
+  <si>
+    <t>2000 mL</t>
+  </si>
+  <si>
     <t>08:25</t>
   </si>
   <si>
@@ -1917,7 +2091,16 @@
     <t>23:09</t>
   </si>
   <si>
-    <t>250 mL</t>
+    <t>40 TAB</t>
+  </si>
+  <si>
+    <t>10 SYR</t>
+  </si>
+  <si>
+    <t>2 PKT</t>
+  </si>
+  <si>
+    <t>40 PKT</t>
   </si>
   <si>
     <t>00:10</t>
@@ -1938,6 +2121,12 @@
     <t>20:12</t>
   </si>
   <si>
+    <t>20 BAG</t>
+  </si>
+  <si>
+    <t>2000 TAB</t>
+  </si>
+  <si>
     <t>02:25</t>
   </si>
   <si>
@@ -1947,6 +2136,12 @@
     <t>13:30</t>
   </si>
   <si>
+    <t>1 mL</t>
+  </si>
+  <si>
+    <t>75 CAP</t>
+  </si>
+  <si>
     <t>02:13</t>
   </si>
   <si>
@@ -1956,15 +2151,18 @@
     <t>20:07</t>
   </si>
   <si>
+    <t>300 VIAL</t>
+  </si>
+  <si>
+    <t>6 VIAL</t>
+  </si>
+  <si>
     <t>00:05</t>
   </si>
   <si>
     <t>20:09</t>
   </si>
   <si>
-    <t>500 mL</t>
-  </si>
-  <si>
     <t>00:20</t>
   </si>
   <si>
@@ -2007,12 +2205,12 @@
     <t>22:13</t>
   </si>
   <si>
+    <t>300 SYR</t>
+  </si>
+  <si>
     <t>200 SYR</t>
   </si>
   <si>
-    <t>300 SYR</t>
-  </si>
-  <si>
     <t>00:27</t>
   </si>
   <si>
@@ -2028,6 +2226,9 @@
     <t>20:22</t>
   </si>
   <si>
+    <t>1 TUBE</t>
+  </si>
+  <si>
     <t>03:16</t>
   </si>
   <si>
@@ -2073,6 +2274,9 @@
     <t>12:17</t>
   </si>
   <si>
+    <t>100 TAB</t>
+  </si>
+  <si>
     <t>04:12</t>
   </si>
   <si>
@@ -2085,6 +2289,12 @@
     <t>20:42</t>
   </si>
   <si>
+    <t>40 CAP</t>
+  </si>
+  <si>
+    <t>0.5 NEB</t>
+  </si>
+  <si>
     <t>00:31</t>
   </si>
   <si>
@@ -2101,6 +2311,15 @@
   </si>
   <si>
     <t>03:27</t>
+  </si>
+  <si>
+    <t>200 TAB</t>
+  </si>
+  <si>
+    <t>0.5 mL</t>
+  </si>
+  <si>
+    <t>1 BTL</t>
   </si>
   <si>
     <t>Patient Identification Label</t>
@@ -7601,7 +7820,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9837-4474-8150-08566B6D3498}"/>
+              <c16:uniqueId val="{00000000-4E9B-407E-AFB0-8355E91EA6BA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10537,7 +10756,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9837-4474-8150-08566B6D3498}"/>
+              <c16:uniqueId val="{00000001-4E9B-407E-AFB0-8355E91EA6BA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13473,7 +13692,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9837-4474-8150-08566B6D3498}"/>
+              <c16:uniqueId val="{00000002-4E9B-407E-AFB0-8355E91EA6BA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -16742,7 +16961,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-9837-4474-8150-08566B6D3498}"/>
+              <c16:uniqueId val="{00000003-4E9B-407E-AFB0-8355E91EA6BA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -19813,7 +20032,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-9837-4474-8150-08566B6D3498}"/>
+              <c16:uniqueId val="{00000004-4E9B-407E-AFB0-8355E91EA6BA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -22176,7 +22395,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-9837-4474-8150-08566B6D3498}"/>
+              <c16:uniqueId val="{00000005-4E9B-407E-AFB0-8355E91EA6BA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -23886,7 +24105,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-9837-4474-8150-08566B6D3498}"/>
+              <c16:uniqueId val="{00000006-4E9B-407E-AFB0-8355E91EA6BA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -25590,7 +25809,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-9837-4474-8150-08566B6D3498}"/>
+              <c16:uniqueId val="{00000007-4E9B-407E-AFB0-8355E91EA6BA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -27297,7 +27516,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-9837-4474-8150-08566B6D3498}"/>
+              <c16:uniqueId val="{00000008-4E9B-407E-AFB0-8355E91EA6BA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -27740,7 +27959,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AADC7E9-E5F5-40EF-AD86-28A519A059C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467DF247-B952-4966-9DBD-899C1B34F70F}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AL76"/>
   <sheetViews>
@@ -27765,7 +27984,7 @@
     <row r="1" spans="2:25" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>693</v>
+        <v>766</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -27778,7 +27997,7 @@
     </row>
     <row r="3" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>694</v>
+        <v>767</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
@@ -27791,7 +28010,7 @@
     </row>
     <row r="4" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>695</v>
+        <v>768</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="12"/>
@@ -27804,7 +28023,7 @@
     </row>
     <row r="5" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>696</v>
+        <v>769</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="14"/>
@@ -27817,27 +28036,27 @@
     </row>
     <row r="6" spans="2:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
-        <v>697</v>
+        <v>770</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="19" t="s">
-        <v>698</v>
+        <v>771</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="21" t="s">
-        <v>699</v>
+        <v>772</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="22" t="s">
-        <v>700</v>
+        <v>773</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>701</v>
+        <v>774</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
@@ -27865,7 +28084,7 @@
     </row>
     <row r="9" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="30" t="s">
-        <v>702</v>
+        <v>775</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
@@ -27893,11 +28112,11 @@
     </row>
     <row r="10" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
-        <v>703</v>
+        <v>776</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="38" t="s">
-        <v>704</v>
+        <v>777</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="40"/>
@@ -27920,7 +28139,7 @@
       <c r="W10" s="40"/>
       <c r="X10" s="40"/>
       <c r="Y10" s="41" t="s">
-        <v>704</v>
+        <v>777</v>
       </c>
     </row>
     <row r="11" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27957,7 +28176,7 @@
       <c r="B12" s="42"/>
       <c r="C12" s="43"/>
       <c r="D12" s="48" t="s">
-        <v>705</v>
+        <v>778</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="50"/>
@@ -27980,14 +28199,14 @@
       <c r="W12" s="50"/>
       <c r="X12" s="50"/>
       <c r="Y12" s="51" t="s">
-        <v>705</v>
+        <v>778</v>
       </c>
     </row>
     <row r="13" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="42"/>
       <c r="C13" s="43"/>
       <c r="D13" s="52" t="s">
-        <v>706</v>
+        <v>779</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="54"/>
@@ -28010,14 +28229,14 @@
       <c r="W13" s="54"/>
       <c r="X13" s="54"/>
       <c r="Y13" s="55" t="s">
-        <v>706</v>
+        <v>779</v>
       </c>
     </row>
     <row r="14" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
       <c r="C14" s="43"/>
       <c r="D14" s="56" t="s">
-        <v>707</v>
+        <v>780</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="58"/>
@@ -28040,14 +28259,14 @@
       <c r="W14" s="58"/>
       <c r="X14" s="58"/>
       <c r="Y14" s="59" t="s">
-        <v>707</v>
+        <v>780</v>
       </c>
     </row>
     <row r="15" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
       <c r="C15" s="43"/>
       <c r="D15" s="44" t="s">
-        <v>708</v>
+        <v>781</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="46"/>
@@ -28070,14 +28289,14 @@
       <c r="W15" s="46"/>
       <c r="X15" s="46"/>
       <c r="Y15" s="47" t="s">
-        <v>708</v>
+        <v>781</v>
       </c>
     </row>
     <row r="16" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="60"/>
       <c r="C16" s="61"/>
       <c r="D16" s="62" t="s">
-        <v>709</v>
+        <v>782</v>
       </c>
       <c r="E16" s="63"/>
       <c r="F16" s="64"/>
@@ -28100,16 +28319,16 @@
       <c r="W16" s="64"/>
       <c r="X16" s="64"/>
       <c r="Y16" s="65" t="s">
-        <v>709</v>
+        <v>782</v>
       </c>
     </row>
     <row r="17" spans="2:38" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="36" t="s">
-        <v>710</v>
+        <v>783</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="66" t="s">
-        <v>711</v>
+        <v>784</v>
       </c>
       <c r="E17" s="67"/>
       <c r="F17" s="68"/>
@@ -28132,14 +28351,14 @@
       <c r="W17" s="68"/>
       <c r="X17" s="68"/>
       <c r="Y17" s="69" t="s">
-        <v>711</v>
+        <v>784</v>
       </c>
     </row>
     <row r="18" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
       <c r="C18" s="43"/>
       <c r="D18" s="52" t="s">
-        <v>712</v>
+        <v>785</v>
       </c>
       <c r="E18" s="53"/>
       <c r="F18" s="54"/>
@@ -28162,10 +28381,10 @@
       <c r="W18" s="54"/>
       <c r="X18" s="54"/>
       <c r="Y18" s="55" t="s">
-        <v>712</v>
+        <v>785</v>
       </c>
       <c r="Z18" s="70" t="s">
-        <v>713</v>
+        <v>786</v>
       </c>
       <c r="AA18" s="71"/>
       <c r="AB18" s="71"/>
@@ -28173,7 +28392,7 @@
       <c r="AD18" s="71"/>
       <c r="AE18" s="72"/>
       <c r="AF18" s="73" t="s">
-        <v>714</v>
+        <v>787</v>
       </c>
       <c r="AG18" s="73"/>
       <c r="AH18" s="73"/>
@@ -28185,7 +28404,7 @@
       <c r="B19" s="60"/>
       <c r="C19" s="61"/>
       <c r="D19" s="75" t="s">
-        <v>715</v>
+        <v>788</v>
       </c>
       <c r="E19" s="76"/>
       <c r="F19" s="77"/>
@@ -28208,7 +28427,7 @@
       <c r="W19" s="77"/>
       <c r="X19" s="77"/>
       <c r="Y19" s="78" t="s">
-        <v>715</v>
+        <v>788</v>
       </c>
       <c r="Z19" s="79"/>
       <c r="AA19" s="80"/>
@@ -28224,11 +28443,11 @@
     </row>
     <row r="20" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="87" t="s">
-        <v>716</v>
+        <v>789</v>
       </c>
       <c r="C20" s="88"/>
       <c r="D20" s="89" t="s">
-        <v>717</v>
+        <v>790</v>
       </c>
       <c r="E20" s="90"/>
       <c r="F20" s="91"/>
@@ -28251,7 +28470,7 @@
       <c r="W20" s="91"/>
       <c r="X20" s="91"/>
       <c r="Y20" s="92" t="s">
-        <v>717</v>
+        <v>790</v>
       </c>
       <c r="Z20" s="79"/>
       <c r="AA20" s="93"/>
@@ -28269,7 +28488,7 @@
       <c r="B21" s="99"/>
       <c r="C21" s="100"/>
       <c r="D21" s="56" t="s">
-        <v>718</v>
+        <v>791</v>
       </c>
       <c r="E21" s="57"/>
       <c r="F21" s="58"/>
@@ -28292,7 +28511,7 @@
       <c r="W21" s="58"/>
       <c r="X21" s="58"/>
       <c r="Y21" s="59" t="s">
-        <v>718</v>
+        <v>791</v>
       </c>
       <c r="Z21" s="101"/>
       <c r="AA21" s="102"/>
@@ -28311,7 +28530,7 @@
       <c r="B22" s="99"/>
       <c r="C22" s="100"/>
       <c r="D22" s="48" t="s">
-        <v>719</v>
+        <v>792</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
@@ -28334,10 +28553,10 @@
       <c r="W22" s="50"/>
       <c r="X22" s="50"/>
       <c r="Y22" s="51" t="s">
-        <v>719</v>
+        <v>792</v>
       </c>
       <c r="Z22" s="104" t="s">
-        <v>720</v>
+        <v>793</v>
       </c>
       <c r="AA22" s="105"/>
       <c r="AB22" s="105"/>
@@ -28355,7 +28574,7 @@
       <c r="B23" s="107"/>
       <c r="C23" s="108"/>
       <c r="D23" s="109" t="s">
-        <v>721</v>
+        <v>794</v>
       </c>
       <c r="E23" s="110"/>
       <c r="F23" s="111"/>
@@ -28378,52 +28597,52 @@
       <c r="W23" s="111"/>
       <c r="X23" s="111"/>
       <c r="Y23" s="112" t="s">
-        <v>721</v>
+        <v>794</v>
       </c>
       <c r="Z23" s="113" t="s">
-        <v>722</v>
+        <v>795</v>
       </c>
       <c r="AA23" s="77" t="s">
-        <v>723</v>
+        <v>796</v>
       </c>
       <c r="AB23" s="76" t="s">
-        <v>724</v>
+        <v>797</v>
       </c>
       <c r="AC23" s="77" t="s">
-        <v>725</v>
+        <v>798</v>
       </c>
       <c r="AD23" s="76" t="s">
-        <v>726</v>
+        <v>799</v>
       </c>
       <c r="AE23" s="77" t="s">
-        <v>727</v>
+        <v>800</v>
       </c>
       <c r="AF23" s="76" t="s">
-        <v>728</v>
+        <v>801</v>
       </c>
       <c r="AG23" s="77" t="s">
-        <v>729</v>
+        <v>802</v>
       </c>
       <c r="AH23" s="76" t="s">
-        <v>730</v>
+        <v>803</v>
       </c>
       <c r="AI23" s="77" t="s">
-        <v>731</v>
+        <v>804</v>
       </c>
       <c r="AJ23" s="76" t="s">
-        <v>732</v>
+        <v>805</v>
       </c>
       <c r="AK23" s="114" t="s">
-        <v>733</v>
+        <v>806</v>
       </c>
     </row>
     <row r="24" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="87" t="s">
-        <v>734</v>
+        <v>807</v>
       </c>
       <c r="C24" s="88"/>
       <c r="D24" s="115" t="s">
-        <v>735</v>
+        <v>808</v>
       </c>
       <c r="E24" s="116"/>
       <c r="F24" s="117"/>
@@ -28446,53 +28665,53 @@
       <c r="W24" s="117"/>
       <c r="X24" s="117"/>
       <c r="Y24" s="118" t="s">
-        <v>735</v>
+        <v>808</v>
       </c>
       <c r="Z24" s="119" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AA24" s="120" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AB24" s="121" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AC24" s="122" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AD24" s="123" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AE24" s="124" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AF24" s="123" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AG24" s="125" t="s">
-        <v>739</v>
+        <v>812</v>
       </c>
       <c r="AH24" s="126" t="s">
-        <v>739</v>
+        <v>812</v>
       </c>
       <c r="AI24" s="125" t="s">
-        <v>740</v>
+        <v>813</v>
       </c>
       <c r="AJ24" s="126" t="s">
-        <v>741</v>
+        <v>814</v>
       </c>
       <c r="AK24" s="125" t="s">
-        <v>741</v>
+        <v>814</v>
       </c>
       <c r="AL24" s="127" t="s">
-        <v>742</v>
+        <v>815</v>
       </c>
     </row>
     <row r="25" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="99"/>
       <c r="C25" s="100"/>
       <c r="D25" s="48" t="s">
-        <v>722</v>
+        <v>795</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
@@ -28515,43 +28734,43 @@
       <c r="W25" s="50"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="51" t="s">
-        <v>722</v>
+        <v>795</v>
       </c>
       <c r="Z25" s="128" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AA25" s="129" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AB25" s="128" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AC25" s="130" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AD25" s="131" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AE25" s="130" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AF25" s="132" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AG25" s="133" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AH25" s="134" t="s">
-        <v>739</v>
+        <v>812</v>
       </c>
       <c r="AI25" s="135" t="s">
-        <v>739</v>
+        <v>812</v>
       </c>
       <c r="AJ25" s="134" t="s">
-        <v>740</v>
+        <v>813</v>
       </c>
       <c r="AK25" s="135" t="s">
-        <v>740</v>
+        <v>813</v>
       </c>
       <c r="AL25" s="136"/>
     </row>
@@ -28559,7 +28778,7 @@
       <c r="B26" s="99"/>
       <c r="C26" s="100"/>
       <c r="D26" s="48" t="s">
-        <v>723</v>
+        <v>796</v>
       </c>
       <c r="E26" s="49"/>
       <c r="F26" s="50"/>
@@ -28582,43 +28801,43 @@
       <c r="W26" s="50"/>
       <c r="X26" s="50"/>
       <c r="Y26" s="51" t="s">
-        <v>723</v>
+        <v>796</v>
       </c>
       <c r="Z26" s="137" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AA26" s="138" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AB26" s="137" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AC26" s="138" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AD26" s="137" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AE26" s="139" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AF26" s="140" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AG26" s="141" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AH26" s="142" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AI26" s="143" t="s">
-        <v>739</v>
+        <v>812</v>
       </c>
       <c r="AJ26" s="144" t="s">
-        <v>739</v>
+        <v>812</v>
       </c>
       <c r="AK26" s="143" t="s">
-        <v>740</v>
+        <v>813</v>
       </c>
       <c r="AL26" s="136"/>
     </row>
@@ -28626,7 +28845,7 @@
       <c r="B27" s="99"/>
       <c r="C27" s="100"/>
       <c r="D27" s="48" t="s">
-        <v>724</v>
+        <v>797</v>
       </c>
       <c r="E27" s="49"/>
       <c r="F27" s="50"/>
@@ -28649,43 +28868,43 @@
       <c r="W27" s="50"/>
       <c r="X27" s="50"/>
       <c r="Y27" s="51" t="s">
-        <v>724</v>
+        <v>797</v>
       </c>
       <c r="Z27" s="145" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AA27" s="146" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AB27" s="147" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AC27" s="146" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AD27" s="147" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AE27" s="148" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AF27" s="149" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AG27" s="150" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AH27" s="151" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AI27" s="152" t="s">
-        <v>739</v>
+        <v>812</v>
       </c>
       <c r="AJ27" s="153" t="s">
-        <v>739</v>
+        <v>812</v>
       </c>
       <c r="AK27" s="152" t="s">
-        <v>739</v>
+        <v>812</v>
       </c>
       <c r="AL27" s="136"/>
     </row>
@@ -28693,7 +28912,7 @@
       <c r="B28" s="99"/>
       <c r="C28" s="100"/>
       <c r="D28" s="154" t="s">
-        <v>725</v>
+        <v>798</v>
       </c>
       <c r="E28" s="53"/>
       <c r="F28" s="54"/>
@@ -28716,43 +28935,43 @@
       <c r="W28" s="54"/>
       <c r="X28" s="54"/>
       <c r="Y28" s="55" t="s">
-        <v>725</v>
+        <v>798</v>
       </c>
       <c r="Z28" s="155" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AA28" s="130" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AB28" s="128" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AC28" s="129" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AD28" s="128" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AE28" s="129" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AF28" s="128" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AG28" s="130" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AH28" s="131" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AI28" s="133" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AJ28" s="132" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AK28" s="133" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AL28" s="136"/>
     </row>
@@ -28760,7 +28979,7 @@
       <c r="B29" s="99"/>
       <c r="C29" s="100"/>
       <c r="D29" s="156" t="s">
-        <v>726</v>
+        <v>799</v>
       </c>
       <c r="E29" s="57"/>
       <c r="F29" s="58"/>
@@ -28783,43 +29002,43 @@
       <c r="W29" s="58"/>
       <c r="X29" s="58"/>
       <c r="Y29" s="59" t="s">
-        <v>726</v>
+        <v>799</v>
       </c>
       <c r="Z29" s="157" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AA29" s="158" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AB29" s="159" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AC29" s="160" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AD29" s="161" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AE29" s="160" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AF29" s="161" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AG29" s="160" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AH29" s="159" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AI29" s="158" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AJ29" s="162" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AK29" s="163" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AL29" s="136"/>
     </row>
@@ -28827,7 +29046,7 @@
       <c r="B30" s="99"/>
       <c r="C30" s="100"/>
       <c r="D30" s="156" t="s">
-        <v>727</v>
+        <v>800</v>
       </c>
       <c r="E30" s="57"/>
       <c r="F30" s="58"/>
@@ -28850,43 +29069,43 @@
       <c r="W30" s="58"/>
       <c r="X30" s="58"/>
       <c r="Y30" s="59" t="s">
-        <v>727</v>
+        <v>800</v>
       </c>
       <c r="Z30" s="164" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AA30" s="148" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AB30" s="149" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AC30" s="148" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AD30" s="147" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AE30" s="146" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AF30" s="147" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AG30" s="146" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AH30" s="147" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AI30" s="148" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AJ30" s="149" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AK30" s="165" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AL30" s="136"/>
     </row>
@@ -28894,7 +29113,7 @@
       <c r="B31" s="99"/>
       <c r="C31" s="100"/>
       <c r="D31" s="156" t="s">
-        <v>728</v>
+        <v>801</v>
       </c>
       <c r="E31" s="57"/>
       <c r="F31" s="58"/>
@@ -28917,43 +29136,43 @@
       <c r="W31" s="58"/>
       <c r="X31" s="58"/>
       <c r="Y31" s="59" t="s">
-        <v>728</v>
+        <v>801</v>
       </c>
       <c r="Z31" s="166" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AA31" s="133" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AB31" s="131" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AC31" s="130" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AD31" s="128" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AE31" s="129" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AF31" s="128" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AG31" s="129" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AH31" s="128" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AI31" s="129" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AJ31" s="128" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AK31" s="167" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AL31" s="136"/>
     </row>
@@ -28961,7 +29180,7 @@
       <c r="B32" s="99"/>
       <c r="C32" s="100"/>
       <c r="D32" s="156" t="s">
-        <v>729</v>
+        <v>802</v>
       </c>
       <c r="E32" s="57"/>
       <c r="F32" s="58"/>
@@ -28984,43 +29203,43 @@
       <c r="W32" s="58"/>
       <c r="X32" s="58"/>
       <c r="Y32" s="59" t="s">
-        <v>729</v>
+        <v>802</v>
       </c>
       <c r="Z32" s="168" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AA32" s="163" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AB32" s="162" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AC32" s="158" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AD32" s="159" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AE32" s="160" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AF32" s="161" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AG32" s="160" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AH32" s="161" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AI32" s="160" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AJ32" s="161" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AK32" s="169" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AL32" s="136"/>
     </row>
@@ -29028,7 +29247,7 @@
       <c r="B33" s="99"/>
       <c r="C33" s="100"/>
       <c r="D33" s="156" t="s">
-        <v>730</v>
+        <v>803</v>
       </c>
       <c r="E33" s="57"/>
       <c r="F33" s="58"/>
@@ -29051,43 +29270,43 @@
       <c r="W33" s="58"/>
       <c r="X33" s="58"/>
       <c r="Y33" s="59" t="s">
-        <v>730</v>
+        <v>803</v>
       </c>
       <c r="Z33" s="170" t="s">
-        <v>739</v>
+        <v>812</v>
       </c>
       <c r="AA33" s="151" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AB33" s="151" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AC33" s="151" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AD33" s="149" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AE33" s="149" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AF33" s="147" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AG33" s="147" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AH33" s="147" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AI33" s="147" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AJ33" s="147" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AK33" s="147" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AL33" s="136"/>
     </row>
@@ -29095,7 +29314,7 @@
       <c r="B34" s="99"/>
       <c r="C34" s="100"/>
       <c r="D34" s="154" t="s">
-        <v>731</v>
+        <v>804</v>
       </c>
       <c r="E34" s="53"/>
       <c r="F34" s="54"/>
@@ -29118,43 +29337,43 @@
       <c r="W34" s="54"/>
       <c r="X34" s="54"/>
       <c r="Y34" s="55" t="s">
-        <v>731</v>
+        <v>804</v>
       </c>
       <c r="Z34" s="171" t="s">
-        <v>739</v>
+        <v>812</v>
       </c>
       <c r="AA34" s="134" t="s">
-        <v>739</v>
+        <v>812</v>
       </c>
       <c r="AB34" s="134" t="s">
-        <v>739</v>
+        <v>812</v>
       </c>
       <c r="AC34" s="132" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AD34" s="132" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AE34" s="132" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AF34" s="131" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AG34" s="131" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AH34" s="128" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AI34" s="128" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AJ34" s="128" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AK34" s="128" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AL34" s="136"/>
     </row>
@@ -29162,7 +29381,7 @@
       <c r="B35" s="99"/>
       <c r="C35" s="100"/>
       <c r="D35" s="48" t="s">
-        <v>732</v>
+        <v>805</v>
       </c>
       <c r="E35" s="49"/>
       <c r="F35" s="50"/>
@@ -29185,43 +29404,43 @@
       <c r="W35" s="50"/>
       <c r="X35" s="50"/>
       <c r="Y35" s="51" t="s">
-        <v>732</v>
+        <v>805</v>
       </c>
       <c r="Z35" s="171" t="s">
-        <v>740</v>
+        <v>813</v>
       </c>
       <c r="AA35" s="134" t="s">
-        <v>739</v>
+        <v>812</v>
       </c>
       <c r="AB35" s="134" t="s">
-        <v>739</v>
+        <v>812</v>
       </c>
       <c r="AC35" s="134" t="s">
-        <v>739</v>
+        <v>812</v>
       </c>
       <c r="AD35" s="132" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AE35" s="132" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AF35" s="132" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AG35" s="132" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="AH35" s="131" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AI35" s="131" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AJ35" s="128" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AK35" s="128" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AL35" s="136"/>
     </row>
@@ -29229,7 +29448,7 @@
       <c r="B36" s="99"/>
       <c r="C36" s="100"/>
       <c r="D36" s="172" t="s">
-        <v>733</v>
+        <v>806</v>
       </c>
       <c r="E36" s="173"/>
       <c r="F36" s="174"/>
@@ -29252,7 +29471,7 @@
       <c r="W36" s="174"/>
       <c r="X36" s="174"/>
       <c r="Y36" s="175" t="s">
-        <v>733</v>
+        <v>806</v>
       </c>
       <c r="Z36" s="176"/>
       <c r="AA36" s="177"/>
@@ -29265,10 +29484,10 @@
       <c r="AH36" s="177"/>
       <c r="AI36" s="177"/>
       <c r="AJ36" s="131" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="AK36" s="128" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="AL36" s="136"/>
     </row>
@@ -29276,7 +29495,7 @@
       <c r="B37" s="99"/>
       <c r="C37" s="100"/>
       <c r="D37" s="178" t="s">
-        <v>743</v>
+        <v>816</v>
       </c>
       <c r="E37" s="179"/>
       <c r="F37" s="180"/>
@@ -29299,14 +29518,14 @@
       <c r="W37" s="180"/>
       <c r="X37" s="180"/>
       <c r="Y37" s="181" t="s">
-        <v>743</v>
+        <v>816</v>
       </c>
       <c r="Z37" s="176"/>
       <c r="AA37" s="177"/>
       <c r="AB37" s="177"/>
       <c r="AC37" s="177"/>
       <c r="AD37" s="182" t="s">
-        <v>744</v>
+        <v>817</v>
       </c>
       <c r="AE37" s="182"/>
       <c r="AF37" s="182"/>
@@ -29321,7 +29540,7 @@
       <c r="B38" s="99"/>
       <c r="C38" s="100"/>
       <c r="D38" s="178" t="s">
-        <v>745</v>
+        <v>818</v>
       </c>
       <c r="E38" s="179"/>
       <c r="F38" s="180"/>
@@ -29344,7 +29563,7 @@
       <c r="W38" s="180"/>
       <c r="X38" s="180"/>
       <c r="Y38" s="181" t="s">
-        <v>745</v>
+        <v>818</v>
       </c>
       <c r="Z38" s="176"/>
       <c r="AA38" s="177"/>
@@ -29364,7 +29583,7 @@
       <c r="B39" s="99"/>
       <c r="C39" s="100"/>
       <c r="D39" s="178" t="s">
-        <v>746</v>
+        <v>819</v>
       </c>
       <c r="E39" s="179"/>
       <c r="F39" s="180"/>
@@ -29387,7 +29606,7 @@
       <c r="W39" s="180"/>
       <c r="X39" s="180"/>
       <c r="Y39" s="181" t="s">
-        <v>746</v>
+        <v>819</v>
       </c>
       <c r="Z39" s="176"/>
       <c r="AA39" s="177"/>
@@ -29407,7 +29626,7 @@
       <c r="B40" s="107"/>
       <c r="C40" s="108"/>
       <c r="D40" s="62" t="s">
-        <v>747</v>
+        <v>820</v>
       </c>
       <c r="E40" s="63"/>
       <c r="F40" s="64"/>
@@ -29430,7 +29649,7 @@
       <c r="W40" s="64"/>
       <c r="X40" s="64"/>
       <c r="Y40" s="65" t="s">
-        <v>747</v>
+        <v>820</v>
       </c>
       <c r="Z40" s="185"/>
       <c r="AA40" s="186"/>
@@ -29448,11 +29667,11 @@
     </row>
     <row r="41" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="87" t="s">
-        <v>748</v>
+        <v>821</v>
       </c>
       <c r="C41" s="88"/>
       <c r="D41" s="38" t="s">
-        <v>749</v>
+        <v>822</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="40"/>
@@ -29475,14 +29694,14 @@
       <c r="W41" s="40"/>
       <c r="X41" s="40"/>
       <c r="Y41" s="41" t="s">
-        <v>749</v>
+        <v>822</v>
       </c>
     </row>
     <row r="42" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="99"/>
       <c r="C42" s="100"/>
       <c r="D42" s="44" t="s">
-        <v>728</v>
+        <v>801</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="46"/>
@@ -29505,14 +29724,14 @@
       <c r="W42" s="46"/>
       <c r="X42" s="46"/>
       <c r="Y42" s="47" t="s">
-        <v>728</v>
+        <v>801</v>
       </c>
     </row>
     <row r="43" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="99"/>
       <c r="C43" s="100"/>
       <c r="D43" s="48" t="s">
-        <v>729</v>
+        <v>802</v>
       </c>
       <c r="E43" s="49"/>
       <c r="F43" s="50"/>
@@ -29535,14 +29754,14 @@
       <c r="W43" s="50"/>
       <c r="X43" s="50"/>
       <c r="Y43" s="51" t="s">
-        <v>729</v>
+        <v>802</v>
       </c>
     </row>
     <row r="44" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="99"/>
       <c r="C44" s="100"/>
       <c r="D44" s="48" t="s">
-        <v>730</v>
+        <v>803</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="50"/>
@@ -29565,14 +29784,14 @@
       <c r="W44" s="50"/>
       <c r="X44" s="50"/>
       <c r="Y44" s="51" t="s">
-        <v>730</v>
+        <v>803</v>
       </c>
     </row>
     <row r="45" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="99"/>
       <c r="C45" s="100"/>
       <c r="D45" s="52" t="s">
-        <v>731</v>
+        <v>804</v>
       </c>
       <c r="E45" s="53"/>
       <c r="F45" s="54"/>
@@ -29595,14 +29814,14 @@
       <c r="W45" s="54"/>
       <c r="X45" s="54"/>
       <c r="Y45" s="55" t="s">
-        <v>731</v>
+        <v>804</v>
       </c>
     </row>
     <row r="46" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="99"/>
       <c r="C46" s="100"/>
       <c r="D46" s="56" t="s">
-        <v>732</v>
+        <v>805</v>
       </c>
       <c r="E46" s="57"/>
       <c r="F46" s="58"/>
@@ -29625,14 +29844,14 @@
       <c r="W46" s="58"/>
       <c r="X46" s="58"/>
       <c r="Y46" s="59" t="s">
-        <v>732</v>
+        <v>805</v>
       </c>
     </row>
     <row r="47" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="99"/>
       <c r="C47" s="100"/>
       <c r="D47" s="56" t="s">
-        <v>733</v>
+        <v>806</v>
       </c>
       <c r="E47" s="57"/>
       <c r="F47" s="58"/>
@@ -29655,10 +29874,10 @@
       <c r="W47" s="58"/>
       <c r="X47" s="58"/>
       <c r="Y47" s="59" t="s">
-        <v>733</v>
+        <v>806</v>
       </c>
       <c r="AA47" s="189" t="s">
-        <v>750</v>
+        <v>823</v>
       </c>
       <c r="AB47" s="190"/>
       <c r="AC47" s="190"/>
@@ -29675,7 +29894,7 @@
       <c r="B48" s="99"/>
       <c r="C48" s="100"/>
       <c r="D48" s="56" t="s">
-        <v>743</v>
+        <v>816</v>
       </c>
       <c r="E48" s="57"/>
       <c r="F48" s="58"/>
@@ -29698,7 +29917,7 @@
       <c r="W48" s="58"/>
       <c r="X48" s="58"/>
       <c r="Y48" s="59" t="s">
-        <v>743</v>
+        <v>816</v>
       </c>
       <c r="AA48" s="190"/>
       <c r="AB48" s="190"/>
@@ -29716,7 +29935,7 @@
       <c r="B49" s="99"/>
       <c r="C49" s="100"/>
       <c r="D49" s="56" t="s">
-        <v>745</v>
+        <v>818</v>
       </c>
       <c r="E49" s="57"/>
       <c r="F49" s="58"/>
@@ -29739,7 +29958,7 @@
       <c r="W49" s="58"/>
       <c r="X49" s="58"/>
       <c r="Y49" s="59" t="s">
-        <v>745</v>
+        <v>818</v>
       </c>
       <c r="AA49" s="190"/>
       <c r="AB49" s="190"/>
@@ -29757,7 +29976,7 @@
       <c r="B50" s="99"/>
       <c r="C50" s="100"/>
       <c r="D50" s="56" t="s">
-        <v>746</v>
+        <v>819</v>
       </c>
       <c r="E50" s="57"/>
       <c r="F50" s="58"/>
@@ -29780,14 +29999,14 @@
       <c r="W50" s="58"/>
       <c r="X50" s="58"/>
       <c r="Y50" s="59" t="s">
-        <v>746</v>
+        <v>819</v>
       </c>
     </row>
     <row r="51" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="99"/>
       <c r="C51" s="100"/>
       <c r="D51" s="52" t="s">
-        <v>747</v>
+        <v>820</v>
       </c>
       <c r="E51" s="53"/>
       <c r="F51" s="54"/>
@@ -29810,14 +30029,14 @@
       <c r="W51" s="54"/>
       <c r="X51" s="54"/>
       <c r="Y51" s="55" t="s">
-        <v>747</v>
+        <v>820</v>
       </c>
     </row>
     <row r="52" spans="2:37" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="107"/>
       <c r="C52" s="108"/>
       <c r="D52" s="62" t="s">
-        <v>751</v>
+        <v>824</v>
       </c>
       <c r="E52" s="63"/>
       <c r="F52" s="64"/>
@@ -29840,24 +30059,24 @@
       <c r="W52" s="64"/>
       <c r="X52" s="64"/>
       <c r="Y52" s="65" t="s">
-        <v>751</v>
+        <v>824</v>
       </c>
       <c r="AB52" s="191"/>
       <c r="AC52" s="191"/>
       <c r="AD52" s="191"/>
       <c r="AE52" s="191"/>
       <c r="AG52" s="14" t="s">
-        <v>752</v>
+        <v>825</v>
       </c>
       <c r="AH52" s="14"/>
     </row>
     <row r="53" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="36" t="s">
-        <v>753</v>
+        <v>826</v>
       </c>
       <c r="C53" s="37"/>
       <c r="D53" s="66" t="s">
-        <v>754</v>
+        <v>827</v>
       </c>
       <c r="E53" s="67"/>
       <c r="F53" s="68"/>
@@ -29880,7 +30099,7 @@
       <c r="W53" s="68"/>
       <c r="X53" s="68"/>
       <c r="Y53" s="69" t="s">
-        <v>754</v>
+        <v>827</v>
       </c>
       <c r="AG53" s="192"/>
       <c r="AH53" s="192"/>
@@ -29889,7 +30108,7 @@
       <c r="B54" s="42"/>
       <c r="C54" s="43"/>
       <c r="D54" s="52" t="s">
-        <v>755</v>
+        <v>828</v>
       </c>
       <c r="E54" s="53"/>
       <c r="F54" s="54"/>
@@ -29912,14 +30131,14 @@
       <c r="W54" s="54"/>
       <c r="X54" s="54"/>
       <c r="Y54" s="55" t="s">
-        <v>755</v>
+        <v>828</v>
       </c>
       <c r="AB54" s="193"/>
       <c r="AC54" s="193"/>
       <c r="AD54" s="193"/>
       <c r="AE54" s="193"/>
       <c r="AG54" s="14" t="s">
-        <v>756</v>
+        <v>829</v>
       </c>
       <c r="AH54" s="14"/>
     </row>
@@ -29927,7 +30146,7 @@
       <c r="B55" s="42"/>
       <c r="C55" s="43"/>
       <c r="D55" s="56" t="s">
-        <v>757</v>
+        <v>830</v>
       </c>
       <c r="E55" s="57"/>
       <c r="F55" s="58"/>
@@ -29950,7 +30169,7 @@
       <c r="W55" s="58"/>
       <c r="X55" s="58"/>
       <c r="Y55" s="59" t="s">
-        <v>757</v>
+        <v>830</v>
       </c>
       <c r="AG55" s="192"/>
       <c r="AH55" s="192"/>
@@ -29959,7 +30178,7 @@
       <c r="B56" s="42"/>
       <c r="C56" s="43"/>
       <c r="D56" s="52" t="s">
-        <v>758</v>
+        <v>831</v>
       </c>
       <c r="E56" s="53"/>
       <c r="F56" s="54"/>
@@ -29982,14 +30201,14 @@
       <c r="W56" s="54"/>
       <c r="X56" s="54"/>
       <c r="Y56" s="55" t="s">
-        <v>758</v>
+        <v>831</v>
       </c>
       <c r="AB56" s="194"/>
       <c r="AC56" s="194"/>
       <c r="AD56" s="194"/>
       <c r="AE56" s="194"/>
       <c r="AG56" s="14" t="s">
-        <v>759</v>
+        <v>832</v>
       </c>
       <c r="AH56" s="14"/>
     </row>
@@ -29997,7 +30216,7 @@
       <c r="B57" s="42"/>
       <c r="C57" s="43"/>
       <c r="D57" s="48" t="s">
-        <v>760</v>
+        <v>833</v>
       </c>
       <c r="E57" s="49"/>
       <c r="F57" s="50"/>
@@ -30020,7 +30239,7 @@
       <c r="W57" s="50"/>
       <c r="X57" s="50"/>
       <c r="Y57" s="51" t="s">
-        <v>760</v>
+        <v>833</v>
       </c>
       <c r="AG57" s="192"/>
       <c r="AH57" s="192"/>
@@ -30029,7 +30248,7 @@
       <c r="B58" s="60"/>
       <c r="C58" s="61"/>
       <c r="D58" s="109" t="s">
-        <v>761</v>
+        <v>834</v>
       </c>
       <c r="E58" s="110"/>
       <c r="F58" s="111"/>
@@ -30052,24 +30271,24 @@
       <c r="W58" s="111"/>
       <c r="X58" s="111"/>
       <c r="Y58" s="112" t="s">
-        <v>761</v>
+        <v>834</v>
       </c>
       <c r="AB58" s="195"/>
       <c r="AC58" s="195"/>
       <c r="AD58" s="195"/>
       <c r="AE58" s="195"/>
       <c r="AG58" s="14" t="s">
-        <v>762</v>
+        <v>835</v>
       </c>
       <c r="AH58" s="14"/>
     </row>
     <row r="59" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="36" t="s">
-        <v>763</v>
+        <v>836</v>
       </c>
       <c r="C59" s="37"/>
       <c r="D59" s="196" t="s">
-        <v>764</v>
+        <v>837</v>
       </c>
       <c r="E59" s="197"/>
       <c r="F59" s="198"/>
@@ -30092,7 +30311,7 @@
       <c r="W59" s="198"/>
       <c r="X59" s="198"/>
       <c r="Y59" s="199" t="s">
-        <v>764</v>
+        <v>837</v>
       </c>
       <c r="AG59" s="192"/>
       <c r="AH59" s="192"/>
@@ -30101,7 +30320,7 @@
       <c r="B60" s="42"/>
       <c r="C60" s="43"/>
       <c r="D60" s="56" t="s">
-        <v>765</v>
+        <v>838</v>
       </c>
       <c r="E60" s="57"/>
       <c r="F60" s="58"/>
@@ -30124,22 +30343,22 @@
       <c r="W60" s="58"/>
       <c r="X60" s="58"/>
       <c r="Y60" s="59" t="s">
-        <v>765</v>
+        <v>838</v>
       </c>
       <c r="AB60" s="135" t="s">
-        <v>740</v>
+        <v>813</v>
       </c>
       <c r="AC60" s="135" t="s">
-        <v>740</v>
+        <v>813</v>
       </c>
       <c r="AD60" s="135" t="s">
-        <v>740</v>
+        <v>813</v>
       </c>
       <c r="AE60" s="135" t="s">
-        <v>740</v>
+        <v>813</v>
       </c>
       <c r="AG60" s="14" t="s">
-        <v>766</v>
+        <v>839</v>
       </c>
       <c r="AH60" s="14"/>
     </row>
@@ -30147,7 +30366,7 @@
       <c r="B61" s="42"/>
       <c r="C61" s="43"/>
       <c r="D61" s="48" t="s">
-        <v>767</v>
+        <v>840</v>
       </c>
       <c r="E61" s="49"/>
       <c r="F61" s="50"/>
@@ -30170,7 +30389,7 @@
       <c r="W61" s="50"/>
       <c r="X61" s="50"/>
       <c r="Y61" s="51" t="s">
-        <v>767</v>
+        <v>840</v>
       </c>
       <c r="AB61" s="200"/>
       <c r="AC61" s="200"/>
@@ -30183,7 +30402,7 @@
       <c r="B62" s="60"/>
       <c r="C62" s="61"/>
       <c r="D62" s="109" t="s">
-        <v>768</v>
+        <v>841</v>
       </c>
       <c r="E62" s="110"/>
       <c r="F62" s="111"/>
@@ -30206,32 +30425,32 @@
       <c r="W62" s="111"/>
       <c r="X62" s="111"/>
       <c r="Y62" s="112" t="s">
-        <v>768</v>
+        <v>841</v>
       </c>
       <c r="AB62" s="135" t="s">
-        <v>741</v>
+        <v>814</v>
       </c>
       <c r="AC62" s="135" t="s">
-        <v>741</v>
+        <v>814</v>
       </c>
       <c r="AD62" s="135" t="s">
-        <v>741</v>
+        <v>814</v>
       </c>
       <c r="AE62" s="135" t="s">
-        <v>741</v>
+        <v>814</v>
       </c>
       <c r="AG62" s="14" t="s">
-        <v>769</v>
+        <v>842</v>
       </c>
       <c r="AH62" s="14"/>
     </row>
     <row r="63" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="36" t="s">
-        <v>770</v>
+        <v>843</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="89" t="s">
-        <v>771</v>
+        <v>844</v>
       </c>
       <c r="E63" s="90"/>
       <c r="F63" s="91"/>
@@ -30254,7 +30473,7 @@
       <c r="W63" s="91"/>
       <c r="X63" s="91"/>
       <c r="Y63" s="92" t="s">
-        <v>771</v>
+        <v>844</v>
       </c>
       <c r="AG63" s="192"/>
       <c r="AH63" s="192"/>
@@ -30263,7 +30482,7 @@
       <c r="B64" s="42"/>
       <c r="C64" s="43"/>
       <c r="D64" s="52" t="s">
-        <v>772</v>
+        <v>845</v>
       </c>
       <c r="E64" s="53"/>
       <c r="F64" s="54"/>
@@ -30286,14 +30505,14 @@
       <c r="W64" s="54"/>
       <c r="X64" s="54"/>
       <c r="Y64" s="55" t="s">
-        <v>772</v>
+        <v>845</v>
       </c>
       <c r="AB64" s="201"/>
       <c r="AC64" s="201"/>
       <c r="AD64" s="201"/>
       <c r="AE64" s="201"/>
       <c r="AG64" s="14" t="s">
-        <v>773</v>
+        <v>846</v>
       </c>
       <c r="AH64" s="14"/>
     </row>
@@ -30301,7 +30520,7 @@
       <c r="B65" s="42"/>
       <c r="C65" s="43"/>
       <c r="D65" s="44" t="s">
-        <v>774</v>
+        <v>847</v>
       </c>
       <c r="E65" s="45"/>
       <c r="F65" s="46"/>
@@ -30324,14 +30543,14 @@
       <c r="W65" s="46"/>
       <c r="X65" s="46"/>
       <c r="Y65" s="47" t="s">
-        <v>774</v>
+        <v>847</v>
       </c>
     </row>
     <row r="66" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="60"/>
       <c r="C66" s="61"/>
       <c r="D66" s="62" t="s">
-        <v>775</v>
+        <v>848</v>
       </c>
       <c r="E66" s="63"/>
       <c r="F66" s="64"/>
@@ -30354,12 +30573,12 @@
       <c r="W66" s="64"/>
       <c r="X66" s="64"/>
       <c r="Y66" s="65" t="s">
-        <v>775</v>
+        <v>848</v>
       </c>
     </row>
     <row r="67" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="202" t="s">
-        <v>776</v>
+        <v>849</v>
       </c>
       <c r="C67" s="203"/>
       <c r="D67" s="204"/>
@@ -30387,7 +30606,7 @@
     </row>
     <row r="68" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="208" t="s">
-        <v>777</v>
+        <v>850</v>
       </c>
       <c r="C68" s="209" t="s">
         <v>4</v>
@@ -30414,13 +30633,13 @@
       <c r="W68" s="91"/>
       <c r="X68" s="91"/>
       <c r="Y68" s="211" t="s">
-        <v>778</v>
+        <v>851</v>
       </c>
     </row>
     <row r="69" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="212"/>
       <c r="C69" s="213" t="s">
-        <v>779</v>
+        <v>852</v>
       </c>
       <c r="D69" s="214"/>
       <c r="E69" s="57"/>
@@ -30448,7 +30667,7 @@
     <row r="70" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="212"/>
       <c r="C70" s="213" t="s">
-        <v>780</v>
+        <v>853</v>
       </c>
       <c r="D70" s="214"/>
       <c r="E70" s="57"/>
@@ -30560,7 +30779,7 @@
     <row r="74" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="212"/>
       <c r="C74" s="213" t="s">
-        <v>781</v>
+        <v>854</v>
       </c>
       <c r="D74" s="214"/>
       <c r="E74" s="57"/>
@@ -30588,7 +30807,7 @@
     <row r="75" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="212"/>
       <c r="C75" s="213" t="s">
-        <v>782</v>
+        <v>855</v>
       </c>
       <c r="D75" s="214"/>
       <c r="E75" s="216"/>
@@ -30616,7 +30835,7 @@
     <row r="76" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="218"/>
       <c r="C76" s="219" t="s">
-        <v>783</v>
+        <v>856</v>
       </c>
       <c r="D76" s="220"/>
       <c r="E76" s="221"/>
@@ -42883,13 +43102,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A30:IU38"/>
+  <dimension ref="A30:KW72"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="30" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:309" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>547</v>
       </c>
@@ -42897,7 +43116,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="31" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:309" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>549</v>
       </c>
@@ -42932,10 +43151,10 @@
         <v>549</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>550</v>
@@ -43001,13 +43220,13 @@
         <v>550</v>
       </c>
       <c r="AJ31" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK31" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AL31" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AM31" s="1" t="s">
         <v>551</v>
@@ -43070,13 +43289,13 @@
         <v>551</v>
       </c>
       <c r="BG31" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="BH31" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="BI31" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="BJ31" s="1" t="s">
         <v>552</v>
@@ -43142,2823 +43361,4793 @@
         <v>552</v>
       </c>
       <c r="CE31" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="CF31" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="CG31" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="CH31" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="CI31" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="CJ31" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="CK31" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="CL31" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="CM31" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="CN31" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="CO31" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="CP31" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="CQ31" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="CR31" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="CS31" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="CT31" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="CU31" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="CV31" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="CW31" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="CX31" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="CY31" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="CZ31" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="DA31" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="DB31" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="DC31" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="DD31" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="CF31" s="1" t="s">
+      <c r="DE31" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="CG31" s="1" t="s">
+      <c r="DF31" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="CH31" s="1" t="s">
+      <c r="DG31" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="CI31" s="1" t="s">
+      <c r="DH31" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="CJ31" s="1" t="s">
+      <c r="DI31" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="CK31" s="1" t="s">
+      <c r="DJ31" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="CL31" s="1" t="s">
+      <c r="DK31" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="CM31" s="1" t="s">
+      <c r="DL31" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="CN31" s="1" t="s">
+      <c r="DM31" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="CO31" s="1" t="s">
+      <c r="DN31" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="CP31" s="1" t="s">
+      <c r="DO31" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="CQ31" s="1" t="s">
+      <c r="DP31" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="CR31" s="1" t="s">
+      <c r="DQ31" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="DR31" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="DS31" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="DT31" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="DU31" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="DV31" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="DW31" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="CS31" s="1" t="s">
+      <c r="DX31" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="CT31" s="1" t="s">
+      <c r="DY31" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="CU31" s="1" t="s">
+      <c r="DZ31" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="CV31" s="1" t="s">
+      <c r="EA31" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="CW31" s="1" t="s">
+      <c r="EB31" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="CX31" s="1" t="s">
+      <c r="EC31" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="CY31" s="1" t="s">
+      <c r="ED31" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="CZ31" s="1" t="s">
+      <c r="EE31" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="DA31" s="1" t="s">
+      <c r="EF31" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="DB31" s="1" t="s">
+      <c r="EG31" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="EH31" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="EI31" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="DC31" s="1" t="s">
+      <c r="EJ31" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="DD31" s="1" t="s">
+      <c r="EK31" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="DE31" s="1" t="s">
+      <c r="EL31" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="DF31" s="1" t="s">
+      <c r="EM31" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="DG31" s="1" t="s">
+      <c r="EN31" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="DH31" s="1" t="s">
+      <c r="EO31" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="DI31" s="1" t="s">
+      <c r="EP31" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="DJ31" s="1" t="s">
+      <c r="EQ31" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="DK31" s="1" t="s">
+      <c r="ER31" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="DL31" s="1" t="s">
+      <c r="ES31" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="DM31" s="1" t="s">
+      <c r="ET31" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="DN31" s="1" t="s">
+      <c r="EU31" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="EV31" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="DO31" s="1" t="s">
+      <c r="EW31" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="DP31" s="1" t="s">
+      <c r="EX31" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="DQ31" s="1" t="s">
+      <c r="EY31" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="DR31" s="1" t="s">
+      <c r="EZ31" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="DS31" s="1" t="s">
+      <c r="FA31" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="DT31" s="1" t="s">
+      <c r="FB31" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="DU31" s="1" t="s">
+      <c r="FC31" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="DV31" s="1" t="s">
+      <c r="FD31" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="DW31" s="1" t="s">
+      <c r="FE31" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="DX31" s="1" t="s">
+      <c r="FF31" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="DY31" s="1" t="s">
+      <c r="FG31" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="DZ31" s="1" t="s">
+      <c r="FH31" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="EA31" s="1" t="s">
+      <c r="FI31" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="EB31" s="1" t="s">
+      <c r="FJ31" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="EC31" s="1" t="s">
+      <c r="FK31" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="FL31" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="FM31" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="FN31" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="FO31" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="FP31" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="FQ31" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="FR31" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="FS31" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="FT31" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="FU31" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="FV31" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="FW31" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="FX31" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="FY31" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="FZ31" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="ED31" s="1" t="s">
+      <c r="GA31" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="EE31" s="1" t="s">
+      <c r="GB31" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="EF31" s="1" t="s">
+      <c r="GC31" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="EG31" s="1" t="s">
+      <c r="GD31" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="EH31" s="1" t="s">
+      <c r="GE31" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="EI31" s="1" t="s">
+      <c r="GF31" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="EJ31" s="1" t="s">
+      <c r="GG31" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="EK31" s="1" t="s">
+      <c r="GH31" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="EL31" s="1" t="s">
+      <c r="GI31" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="EM31" s="1" t="s">
+      <c r="GJ31" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="EN31" s="1" t="s">
+      <c r="GK31" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="EO31" s="1" t="s">
+      <c r="GL31" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="EP31" s="1" t="s">
+      <c r="GM31" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="EQ31" s="1" t="s">
+      <c r="GN31" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="ER31" s="1" t="s">
+      <c r="GO31" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="ES31" s="1" t="s">
+      <c r="GP31" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="ET31" s="1" t="s">
+      <c r="GQ31" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="EU31" s="1" t="s">
+      <c r="GR31" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="EV31" s="1" t="s">
+      <c r="GS31" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="EW31" s="1" t="s">
+      <c r="GT31" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="EX31" s="1" t="s">
+      <c r="GU31" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="EY31" s="1" t="s">
+      <c r="GV31" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="EZ31" s="1" t="s">
+      <c r="GW31" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="FA31" s="1" t="s">
+      <c r="GX31" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="FB31" s="1" t="s">
+      <c r="GY31" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="FC31" s="1" t="s">
+      <c r="GZ31" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="FD31" s="1" t="s">
+      <c r="HA31" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="FE31" s="1" t="s">
+      <c r="HB31" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="FF31" s="1" t="s">
+      <c r="HC31" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="FG31" s="1" t="s">
+      <c r="HD31" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="FH31" s="1" t="s">
+      <c r="HE31" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="FI31" s="1" t="s">
+      <c r="HF31" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="FJ31" s="1" t="s">
+      <c r="HG31" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="FK31" s="1" t="s">
+      <c r="HH31" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="FL31" s="1" t="s">
+      <c r="HI31" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="FM31" s="1" t="s">
+      <c r="HJ31" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="FN31" s="1" t="s">
+      <c r="HK31" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="FO31" s="1" t="s">
+      <c r="HL31" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="FP31" s="1" t="s">
+      <c r="HM31" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="FQ31" s="1" t="s">
+      <c r="HN31" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="FR31" s="1" t="s">
+      <c r="HO31" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="FS31" s="1" t="s">
+      <c r="HP31" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="FT31" s="1" t="s">
+      <c r="HQ31" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="FU31" s="1" t="s">
+      <c r="HR31" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="FV31" s="1" t="s">
+      <c r="HS31" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="FW31" s="1" t="s">
+      <c r="HT31" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="FX31" s="1" t="s">
+      <c r="HU31" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="FY31" s="1" t="s">
+      <c r="HV31" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="FZ31" s="1" t="s">
+      <c r="HW31" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="GA31" s="1" t="s">
+      <c r="HX31" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="GB31" s="1" t="s">
+      <c r="HY31" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="GC31" s="1" t="s">
+      <c r="HZ31" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="GD31" s="1" t="s">
+      <c r="IA31" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="GE31" s="1" t="s">
+      <c r="IB31" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="GF31" s="1" t="s">
+      <c r="IC31" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="GG31" s="1" t="s">
+      <c r="ID31" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="GH31" s="1" t="s">
+      <c r="IE31" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="GI31" s="1" t="s">
+      <c r="IF31" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="GJ31" s="1" t="s">
+      <c r="IG31" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="GK31" s="1" t="s">
+      <c r="IH31" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="GL31" s="1" t="s">
+      <c r="II31" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="GM31" s="1" t="s">
+      <c r="IJ31" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="GN31" s="1" t="s">
+      <c r="IK31" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="GO31" s="1" t="s">
+      <c r="IL31" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="GP31" s="1" t="s">
+      <c r="IM31" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="GQ31" s="1" t="s">
+      <c r="IN31" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="GR31" s="1" t="s">
+      <c r="IO31" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="GS31" s="1" t="s">
+      <c r="IP31" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="GT31" s="1" t="s">
+      <c r="IQ31" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="GU31" s="1" t="s">
+      <c r="IR31" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="GV31" s="1" t="s">
+      <c r="IS31" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="GW31" s="1" t="s">
+      <c r="IT31" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="GX31" s="1" t="s">
+      <c r="IU31" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="GY31" s="1" t="s">
+      <c r="IV31" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="GZ31" s="1" t="s">
+      <c r="IW31" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="HA31" s="1" t="s">
+      <c r="IX31" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="HB31" s="1" t="s">
+      <c r="IY31" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="HC31" s="1" t="s">
+      <c r="IZ31" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="HD31" s="1" t="s">
+      <c r="JA31" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="HE31" s="1" t="s">
+      <c r="JB31" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="HF31" s="1" t="s">
+      <c r="JC31" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="HG31" s="1" t="s">
+      <c r="JD31" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="HH31" s="1" t="s">
+      <c r="JE31" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="HI31" s="1" t="s">
+      <c r="JF31" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="HJ31" s="1" t="s">
+      <c r="JG31" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="HK31" s="1" t="s">
+      <c r="JH31" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="HL31" s="1" t="s">
+      <c r="JI31" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="HM31" s="1" t="s">
+      <c r="JJ31" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="HN31" s="1" t="s">
+      <c r="JK31" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="HO31" s="1" t="s">
+      <c r="JL31" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="HP31" s="1" t="s">
+      <c r="JM31" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="HQ31" s="1" t="s">
+      <c r="JN31" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="HR31" s="1" t="s">
+      <c r="JO31" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="HS31" s="1" t="s">
+      <c r="JP31" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="HT31" s="1" t="s">
+      <c r="JQ31" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="HU31" s="1" t="s">
+      <c r="JR31" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="HV31" s="1" t="s">
+      <c r="JS31" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="HW31" s="1" t="s">
+      <c r="JT31" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="HX31" s="1" t="s">
+      <c r="JU31" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="HY31" s="1" t="s">
+      <c r="JV31" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="HZ31" s="1" t="s">
+      <c r="JW31" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="IA31" s="1" t="s">
+      <c r="JX31" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="IB31" s="1" t="s">
+      <c r="JY31" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="IC31" s="1" t="s">
+      <c r="JZ31" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="ID31" s="1" t="s">
+      <c r="KA31" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="IE31" s="1" t="s">
+      <c r="KB31" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="IF31" s="1" t="s">
+      <c r="KC31" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="IG31" s="1" t="s">
+      <c r="KD31" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="IH31" s="1" t="s">
+      <c r="KE31" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="II31" s="1" t="s">
+      <c r="KF31" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="IJ31" s="1" t="s">
+      <c r="KG31" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="IK31" s="1" t="s">
+      <c r="KH31" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="IL31" s="1" t="s">
+      <c r="KI31" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="IM31" s="1" t="s">
+      <c r="KJ31" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="IN31" s="1" t="s">
+      <c r="KK31" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="IO31" s="1" t="s">
+      <c r="KL31" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="IP31" s="1" t="s">
+      <c r="KM31" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="IQ31" s="1" t="s">
+      <c r="KN31" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="IR31" s="1" t="s">
+      <c r="KO31" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="IS31" s="1" t="s">
+      <c r="KP31" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="IT31" s="1" t="s">
+      <c r="KQ31" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="IU31" s="1" t="s">
+      <c r="KR31" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="KS31" s="1" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="32" spans="1:255" x14ac:dyDescent="0.3">
+      <c r="KT31" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="KU31" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="KV31" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="KW31" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="32" spans="1:309" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B32" t="s">
+        <v>616</v>
+      </c>
+      <c r="C32" t="s">
+        <v>616</v>
+      </c>
+      <c r="D32" t="s">
+        <v>616</v>
+      </c>
+      <c r="E32" t="s">
+        <v>616</v>
+      </c>
+      <c r="F32" t="s">
+        <v>627</v>
+      </c>
+      <c r="G32" t="s">
+        <v>630</v>
+      </c>
+      <c r="H32" t="s">
+        <v>633</v>
+      </c>
+      <c r="I32" t="s">
+        <v>634</v>
+      </c>
+      <c r="J32" t="s">
+        <v>635</v>
+      </c>
+      <c r="K32" t="s">
+        <v>636</v>
+      </c>
+      <c r="L32" t="s">
+        <v>638</v>
+      </c>
+      <c r="M32" t="s">
+        <v>639</v>
+      </c>
+      <c r="N32" t="s">
+        <v>640</v>
+      </c>
+      <c r="O32" t="s">
+        <v>616</v>
+      </c>
+      <c r="P32" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>645</v>
+      </c>
+      <c r="R32" t="s">
+        <v>646</v>
+      </c>
+      <c r="S32" t="s">
+        <v>647</v>
+      </c>
+      <c r="T32" t="s">
+        <v>648</v>
+      </c>
+      <c r="U32" t="s">
+        <v>649</v>
+      </c>
+      <c r="V32" t="s">
+        <v>650</v>
+      </c>
+      <c r="W32" t="s">
+        <v>652</v>
+      </c>
+      <c r="X32" t="s">
+        <v>653</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>654</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>655</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>633</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>656</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>635</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>657</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>658</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>659</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>660</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>638</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>639</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>661</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>640</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>616</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>646</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>664</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>648</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>649</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>665</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>650</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>652</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>667</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>669</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>655</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>670</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>671</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>672</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>673</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>635</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>674</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>658</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>675</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>676</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>639</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>661</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>640</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>616</v>
+      </c>
+      <c r="BK32" t="s">
+        <v>616</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>616</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>616</v>
+      </c>
+      <c r="BN32" t="s">
+        <v>616</v>
+      </c>
+      <c r="BO32" t="s">
+        <v>616</v>
+      </c>
+      <c r="BP32" t="s">
+        <v>616</v>
+      </c>
+      <c r="BQ32" t="s">
+        <v>616</v>
+      </c>
+      <c r="BR32" t="s">
+        <v>616</v>
+      </c>
+      <c r="BS32" t="s">
+        <v>616</v>
+      </c>
+      <c r="BT32" t="s">
+        <v>616</v>
+      </c>
+      <c r="BU32" t="s">
+        <v>616</v>
+      </c>
+      <c r="BV32" t="s">
+        <v>616</v>
+      </c>
+      <c r="BW32" t="s">
+        <v>616</v>
+      </c>
+      <c r="BX32" t="s">
+        <v>616</v>
+      </c>
+      <c r="BY32" t="s">
+        <v>616</v>
+      </c>
+      <c r="BZ32" t="s">
+        <v>616</v>
+      </c>
+      <c r="CA32" t="s">
+        <v>616</v>
+      </c>
+      <c r="CB32" t="s">
+        <v>616</v>
+      </c>
+      <c r="CC32" t="s">
+        <v>616</v>
+      </c>
+      <c r="CD32" t="s">
+        <v>616</v>
+      </c>
+      <c r="CE32" t="s">
+        <v>616</v>
+      </c>
+      <c r="CF32" t="s">
+        <v>616</v>
+      </c>
+      <c r="CG32" t="s">
+        <v>616</v>
+      </c>
+      <c r="CH32" t="s">
+        <v>645</v>
+      </c>
+      <c r="CI32" t="s">
+        <v>646</v>
+      </c>
+      <c r="CJ32" t="s">
+        <v>664</v>
+      </c>
+      <c r="CK32" t="s">
+        <v>648</v>
+      </c>
+      <c r="CL32" t="s">
+        <v>649</v>
+      </c>
+      <c r="CM32" t="s">
+        <v>665</v>
+      </c>
+      <c r="CN32" t="s">
+        <v>650</v>
+      </c>
+      <c r="CO32" t="s">
+        <v>685</v>
+      </c>
+      <c r="CP32" t="s">
+        <v>686</v>
+      </c>
+      <c r="CQ32" t="s">
+        <v>654</v>
+      </c>
+      <c r="CR32" t="s">
+        <v>655</v>
+      </c>
+      <c r="CS32" t="s">
+        <v>633</v>
+      </c>
+      <c r="CT32" t="s">
+        <v>634</v>
+      </c>
+      <c r="CU32" t="s">
+        <v>656</v>
+      </c>
+      <c r="CV32" t="s">
+        <v>635</v>
+      </c>
+      <c r="CW32" t="s">
+        <v>657</v>
+      </c>
+      <c r="CX32" t="s">
+        <v>687</v>
+      </c>
+      <c r="CY32" t="s">
+        <v>660</v>
+      </c>
+      <c r="CZ32" t="s">
+        <v>638</v>
+      </c>
+      <c r="DA32" t="s">
+        <v>639</v>
+      </c>
+      <c r="DB32" t="s">
+        <v>661</v>
+      </c>
+      <c r="DC32" t="s">
+        <v>688</v>
+      </c>
+      <c r="DD32" t="s">
+        <v>616</v>
+      </c>
+      <c r="DE32" t="s">
+        <v>616</v>
+      </c>
+      <c r="DF32" t="s">
+        <v>616</v>
+      </c>
+      <c r="DG32" t="s">
+        <v>616</v>
+      </c>
+      <c r="DH32" t="s">
+        <v>616</v>
+      </c>
+      <c r="DI32" t="s">
+        <v>616</v>
+      </c>
+      <c r="DJ32" t="s">
+        <v>616</v>
+      </c>
+      <c r="DK32" t="s">
+        <v>616</v>
+      </c>
+      <c r="DL32" t="s">
+        <v>693</v>
+      </c>
+      <c r="DM32" t="s">
+        <v>694</v>
+      </c>
+      <c r="DN32" t="s">
+        <v>695</v>
+      </c>
+      <c r="DO32" t="s">
+        <v>696</v>
+      </c>
+      <c r="DP32" t="s">
+        <v>649</v>
+      </c>
+      <c r="DQ32" t="s">
+        <v>697</v>
+      </c>
+      <c r="DR32" t="s">
+        <v>652</v>
+      </c>
+      <c r="DS32" t="s">
+        <v>633</v>
+      </c>
+      <c r="DT32" t="s">
+        <v>657</v>
+      </c>
+      <c r="DU32" t="s">
+        <v>698</v>
+      </c>
+      <c r="DV32" t="s">
+        <v>661</v>
+      </c>
+      <c r="DW32" t="s">
+        <v>616</v>
+      </c>
+      <c r="DX32" t="s">
+        <v>616</v>
+      </c>
+      <c r="DY32" t="s">
+        <v>616</v>
+      </c>
+      <c r="DZ32" t="s">
+        <v>701</v>
+      </c>
+      <c r="EA32" t="s">
+        <v>648</v>
+      </c>
+      <c r="EB32" t="s">
+        <v>702</v>
+      </c>
+      <c r="EC32" t="s">
+        <v>665</v>
+      </c>
+      <c r="ED32" t="s">
+        <v>652</v>
+      </c>
+      <c r="EE32" t="s">
+        <v>633</v>
+      </c>
+      <c r="EF32" t="s">
+        <v>703</v>
+      </c>
+      <c r="EG32" t="s">
+        <v>657</v>
+      </c>
+      <c r="EH32" t="s">
+        <v>638</v>
+      </c>
+      <c r="EI32" t="s">
+        <v>616</v>
+      </c>
+      <c r="EJ32" t="s">
+        <v>616</v>
+      </c>
+      <c r="EK32" t="s">
+        <v>693</v>
+      </c>
+      <c r="EL32" t="s">
+        <v>706</v>
+      </c>
+      <c r="EM32" t="s">
+        <v>648</v>
+      </c>
+      <c r="EN32" t="s">
+        <v>707</v>
+      </c>
+      <c r="EO32" t="s">
+        <v>652</v>
+      </c>
+      <c r="EP32" t="s">
+        <v>654</v>
+      </c>
+      <c r="EQ32" t="s">
+        <v>633</v>
+      </c>
+      <c r="ER32" t="s">
+        <v>656</v>
+      </c>
+      <c r="ES32" t="s">
+        <v>657</v>
+      </c>
+      <c r="ET32" t="s">
+        <v>708</v>
+      </c>
+      <c r="EU32" t="s">
+        <v>661</v>
+      </c>
+      <c r="EV32" t="s">
+        <v>616</v>
+      </c>
+      <c r="EW32" t="s">
+        <v>616</v>
+      </c>
+      <c r="EX32" t="s">
+        <v>616</v>
+      </c>
+      <c r="EY32" t="s">
+        <v>616</v>
+      </c>
+      <c r="EZ32" t="s">
+        <v>616</v>
+      </c>
+      <c r="FA32" t="s">
+        <v>616</v>
+      </c>
+      <c r="FB32" t="s">
+        <v>616</v>
+      </c>
+      <c r="FC32" t="s">
+        <v>616</v>
+      </c>
+      <c r="FD32" t="s">
+        <v>616</v>
+      </c>
+      <c r="FE32" t="s">
+        <v>616</v>
+      </c>
+      <c r="FF32" t="s">
+        <v>616</v>
+      </c>
+      <c r="FG32" t="s">
+        <v>616</v>
+      </c>
+      <c r="FH32" t="s">
+        <v>616</v>
+      </c>
+      <c r="FI32" t="s">
+        <v>616</v>
+      </c>
+      <c r="FJ32" t="s">
+        <v>616</v>
+      </c>
+      <c r="FK32" t="s">
+        <v>616</v>
+      </c>
+      <c r="FL32" t="s">
+        <v>616</v>
+      </c>
+      <c r="FM32" t="s">
+        <v>616</v>
+      </c>
+      <c r="FN32" t="s">
+        <v>711</v>
+      </c>
+      <c r="FO32" t="s">
+        <v>646</v>
+      </c>
+      <c r="FP32" t="s">
+        <v>648</v>
+      </c>
+      <c r="FQ32" t="s">
+        <v>665</v>
+      </c>
+      <c r="FR32" t="s">
+        <v>652</v>
+      </c>
+      <c r="FS32" t="s">
+        <v>654</v>
+      </c>
+      <c r="FT32" t="s">
+        <v>633</v>
+      </c>
+      <c r="FU32" t="s">
+        <v>656</v>
+      </c>
+      <c r="FV32" t="s">
+        <v>657</v>
+      </c>
+      <c r="FW32" t="s">
+        <v>659</v>
+      </c>
+      <c r="FX32" t="s">
+        <v>712</v>
+      </c>
+      <c r="FY32" t="s">
+        <v>661</v>
+      </c>
+      <c r="FZ32" t="s">
+        <v>616</v>
+      </c>
+      <c r="GA32" t="s">
+        <v>713</v>
+      </c>
+      <c r="GB32" t="s">
+        <v>664</v>
+      </c>
+      <c r="GC32" t="s">
+        <v>714</v>
+      </c>
+      <c r="GD32" t="s">
+        <v>665</v>
+      </c>
+      <c r="GE32" t="s">
+        <v>652</v>
+      </c>
+      <c r="GF32" t="s">
+        <v>654</v>
+      </c>
+      <c r="GG32" t="s">
+        <v>633</v>
+      </c>
+      <c r="GH32" t="s">
+        <v>656</v>
+      </c>
+      <c r="GI32" t="s">
+        <v>657</v>
+      </c>
+      <c r="GJ32" t="s">
+        <v>659</v>
+      </c>
+      <c r="GK32" t="s">
+        <v>715</v>
+      </c>
+      <c r="GL32" t="s">
+        <v>661</v>
+      </c>
+      <c r="GM32" t="s">
+        <v>616</v>
+      </c>
+      <c r="GN32" t="s">
+        <v>717</v>
+      </c>
+      <c r="GO32" t="s">
+        <v>701</v>
+      </c>
+      <c r="GP32" t="s">
+        <v>718</v>
+      </c>
+      <c r="GQ32" t="s">
+        <v>719</v>
+      </c>
+      <c r="GR32" t="s">
+        <v>720</v>
+      </c>
+      <c r="GS32" t="s">
+        <v>721</v>
+      </c>
+      <c r="GT32" t="s">
+        <v>722</v>
+      </c>
+      <c r="GU32" t="s">
+        <v>723</v>
+      </c>
+      <c r="GV32" t="s">
+        <v>724</v>
+      </c>
+      <c r="GW32" t="s">
+        <v>725</v>
+      </c>
+      <c r="GX32" t="s">
+        <v>726</v>
+      </c>
+      <c r="GY32" t="s">
+        <v>616</v>
+      </c>
+      <c r="GZ32" t="s">
+        <v>616</v>
+      </c>
+      <c r="HA32" t="s">
+        <v>729</v>
+      </c>
+      <c r="HB32" t="s">
+        <v>730</v>
+      </c>
+      <c r="HC32" t="s">
+        <v>731</v>
+      </c>
+      <c r="HD32" t="s">
+        <v>652</v>
+      </c>
+      <c r="HE32" t="s">
+        <v>654</v>
+      </c>
+      <c r="HF32" t="s">
+        <v>633</v>
+      </c>
+      <c r="HG32" t="s">
+        <v>656</v>
+      </c>
+      <c r="HH32" t="s">
+        <v>657</v>
+      </c>
+      <c r="HI32" t="s">
+        <v>659</v>
+      </c>
+      <c r="HJ32" t="s">
+        <v>638</v>
+      </c>
+      <c r="HK32" t="s">
+        <v>661</v>
+      </c>
+      <c r="HL32" t="s">
+        <v>616</v>
+      </c>
+      <c r="HM32" t="s">
+        <v>646</v>
+      </c>
+      <c r="HN32" t="s">
+        <v>648</v>
+      </c>
+      <c r="HO32" t="s">
+        <v>652</v>
+      </c>
+      <c r="HP32" t="s">
+        <v>654</v>
+      </c>
+      <c r="HQ32" t="s">
+        <v>633</v>
+      </c>
+      <c r="HR32" t="s">
+        <v>732</v>
+      </c>
+      <c r="HS32" t="s">
+        <v>657</v>
+      </c>
+      <c r="HT32" t="s">
+        <v>659</v>
+      </c>
+      <c r="HU32" t="s">
+        <v>733</v>
+      </c>
+      <c r="HV32" t="s">
+        <v>616</v>
+      </c>
+      <c r="HW32" t="s">
+        <v>717</v>
+      </c>
+      <c r="HX32" t="s">
+        <v>735</v>
+      </c>
+      <c r="HY32" t="s">
+        <v>652</v>
+      </c>
+      <c r="HZ32" t="s">
+        <v>654</v>
+      </c>
+      <c r="IA32" t="s">
+        <v>633</v>
+      </c>
+      <c r="IB32" t="s">
+        <v>656</v>
+      </c>
+      <c r="IC32" t="s">
+        <v>657</v>
+      </c>
+      <c r="ID32" t="s">
+        <v>659</v>
+      </c>
+      <c r="IE32" t="s">
+        <v>725</v>
+      </c>
+      <c r="IF32" t="s">
+        <v>616</v>
+      </c>
+      <c r="IG32" t="s">
+        <v>693</v>
+      </c>
+      <c r="IH32" t="s">
+        <v>737</v>
+      </c>
+      <c r="II32" t="s">
+        <v>652</v>
+      </c>
+      <c r="IJ32" t="s">
+        <v>633</v>
+      </c>
+      <c r="IK32" t="s">
+        <v>658</v>
+      </c>
+      <c r="IL32" t="s">
+        <v>738</v>
+      </c>
+      <c r="IM32" t="s">
+        <v>739</v>
+      </c>
+      <c r="IN32" t="s">
+        <v>616</v>
+      </c>
+      <c r="IO32" t="s">
+        <v>616</v>
+      </c>
+      <c r="IP32" t="s">
+        <v>616</v>
+      </c>
+      <c r="IQ32" t="s">
+        <v>616</v>
+      </c>
+      <c r="IR32" t="s">
+        <v>713</v>
+      </c>
+      <c r="IS32" t="s">
+        <v>741</v>
+      </c>
+      <c r="IT32" t="s">
+        <v>652</v>
+      </c>
+      <c r="IU32" t="s">
+        <v>633</v>
+      </c>
+      <c r="IV32" t="s">
+        <v>657</v>
+      </c>
+      <c r="IW32" t="s">
+        <v>638</v>
+      </c>
+      <c r="IX32" t="s">
+        <v>616</v>
+      </c>
+      <c r="IY32" t="s">
+        <v>616</v>
+      </c>
+      <c r="IZ32" t="s">
+        <v>742</v>
+      </c>
+      <c r="JA32" t="s">
+        <v>743</v>
+      </c>
+      <c r="JB32" t="s">
+        <v>744</v>
+      </c>
+      <c r="JC32" t="s">
+        <v>633</v>
+      </c>
+      <c r="JD32" t="s">
+        <v>657</v>
+      </c>
+      <c r="JE32" t="s">
+        <v>745</v>
+      </c>
+      <c r="JF32" t="s">
+        <v>746</v>
+      </c>
+      <c r="JG32" t="s">
+        <v>648</v>
+      </c>
+      <c r="JH32" t="s">
+        <v>652</v>
+      </c>
+      <c r="JI32" t="s">
+        <v>633</v>
+      </c>
+      <c r="JJ32" t="s">
+        <v>657</v>
+      </c>
+      <c r="JK32" t="s">
+        <v>638</v>
+      </c>
+      <c r="JL32" t="s">
+        <v>616</v>
+      </c>
+      <c r="JM32" t="s">
+        <v>648</v>
+      </c>
+      <c r="JN32" t="s">
+        <v>748</v>
+      </c>
+      <c r="JO32" t="s">
+        <v>749</v>
+      </c>
+      <c r="JP32" t="s">
+        <v>657</v>
+      </c>
+      <c r="JQ32" t="s">
+        <v>676</v>
+      </c>
+      <c r="JR32" t="s">
+        <v>616</v>
+      </c>
+      <c r="JS32" t="s">
+        <v>751</v>
+      </c>
+      <c r="JT32" t="s">
+        <v>752</v>
+      </c>
+      <c r="JU32" t="s">
+        <v>753</v>
+      </c>
+      <c r="JV32" t="s">
+        <v>658</v>
+      </c>
+      <c r="JW32" t="s">
+        <v>754</v>
+      </c>
+      <c r="JX32" t="s">
+        <v>616</v>
+      </c>
+      <c r="JY32" t="s">
+        <v>757</v>
+      </c>
+      <c r="JZ32" t="s">
+        <v>758</v>
+      </c>
+      <c r="KA32" t="s">
+        <v>652</v>
+      </c>
+      <c r="KB32" t="s">
+        <v>633</v>
+      </c>
+      <c r="KC32" t="s">
+        <v>759</v>
+      </c>
+      <c r="KD32" t="s">
+        <v>638</v>
+      </c>
+      <c r="KE32" t="s">
+        <v>698</v>
+      </c>
+      <c r="KF32" t="s">
+        <v>616</v>
+      </c>
+      <c r="KG32" t="s">
+        <v>760</v>
+      </c>
+      <c r="KH32" t="s">
+        <v>652</v>
+      </c>
+      <c r="KI32" t="s">
+        <v>633</v>
+      </c>
+      <c r="KJ32" t="s">
+        <v>657</v>
+      </c>
+      <c r="KK32" t="s">
+        <v>761</v>
+      </c>
+      <c r="KL32" t="s">
+        <v>638</v>
+      </c>
+      <c r="KM32" t="s">
+        <v>616</v>
+      </c>
+      <c r="KN32" t="s">
+        <v>616</v>
+      </c>
+      <c r="KO32" t="s">
+        <v>762</v>
+      </c>
+      <c r="KP32" t="s">
+        <v>652</v>
+      </c>
+      <c r="KQ32" t="s">
+        <v>633</v>
+      </c>
+      <c r="KR32" t="s">
+        <v>657</v>
+      </c>
+      <c r="KS32" t="s">
+        <v>616</v>
+      </c>
+      <c r="KT32" t="s">
+        <v>616</v>
+      </c>
+      <c r="KU32" t="s">
+        <v>616</v>
+      </c>
+      <c r="KV32" t="s">
+        <v>616</v>
+      </c>
+      <c r="KW32" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="33" spans="1:309" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="F33" t="s">
+        <v>628</v>
+      </c>
+      <c r="G33" t="s">
+        <v>631</v>
+      </c>
+      <c r="H33" t="s">
+        <v>631</v>
+      </c>
+      <c r="I33" t="s">
+        <v>631</v>
+      </c>
+      <c r="J33" t="s">
+        <v>628</v>
+      </c>
+      <c r="K33" t="s">
+        <v>637</v>
+      </c>
+      <c r="L33" t="s">
+        <v>628</v>
+      </c>
+      <c r="M33" t="s">
+        <v>628</v>
+      </c>
+      <c r="N33" t="s">
+        <v>637</v>
+      </c>
+      <c r="O33" t="s">
+        <v>628</v>
+      </c>
+      <c r="P33" t="s">
+        <v>628</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>628</v>
+      </c>
+      <c r="R33" t="s">
+        <v>628</v>
+      </c>
+      <c r="S33" t="s">
+        <v>637</v>
+      </c>
+      <c r="T33" t="s">
+        <v>637</v>
+      </c>
+      <c r="U33" t="s">
+        <v>637</v>
+      </c>
+      <c r="V33" t="s">
+        <v>651</v>
+      </c>
+      <c r="W33" t="s">
+        <v>651</v>
+      </c>
+      <c r="X33" t="s">
+        <v>651</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>651</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>651</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>651</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>651</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>651</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>651</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>651</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>651</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>651</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>651</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>651</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>651</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>651</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>651</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>651</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>651</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>651</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>651</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>651</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>651</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>651</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>651</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>631</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>631</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>631</v>
+      </c>
+      <c r="AX33" t="s">
+        <v>631</v>
+      </c>
+      <c r="AY33" t="s">
+        <v>631</v>
+      </c>
+      <c r="AZ33" t="s">
+        <v>631</v>
+      </c>
+      <c r="BA33" t="s">
+        <v>631</v>
+      </c>
+      <c r="BB33" t="s">
+        <v>631</v>
+      </c>
+      <c r="BC33" t="s">
+        <v>631</v>
+      </c>
+      <c r="BD33" t="s">
+        <v>631</v>
+      </c>
+      <c r="BE33" t="s">
+        <v>651</v>
+      </c>
+      <c r="BF33" t="s">
+        <v>677</v>
+      </c>
+      <c r="BG33" t="s">
+        <v>677</v>
+      </c>
+      <c r="BH33" t="s">
+        <v>677</v>
+      </c>
+      <c r="BI33" t="s">
+        <v>677</v>
+      </c>
+      <c r="BJ33" t="s">
+        <v>631</v>
+      </c>
+      <c r="BK33" t="s">
+        <v>631</v>
+      </c>
+      <c r="BL33" t="s">
+        <v>631</v>
+      </c>
+      <c r="BM33" t="s">
+        <v>631</v>
+      </c>
+      <c r="BN33" t="s">
+        <v>631</v>
+      </c>
+      <c r="BO33" t="s">
+        <v>631</v>
+      </c>
+      <c r="BP33" t="s">
+        <v>631</v>
+      </c>
+      <c r="BQ33" t="s">
+        <v>631</v>
+      </c>
+      <c r="BR33" t="s">
+        <v>631</v>
+      </c>
+      <c r="BS33" t="s">
+        <v>631</v>
+      </c>
+      <c r="BT33" t="s">
+        <v>631</v>
+      </c>
+      <c r="BU33" t="s">
+        <v>631</v>
+      </c>
+      <c r="BV33" t="s">
+        <v>631</v>
+      </c>
+      <c r="BW33" t="s">
+        <v>631</v>
+      </c>
+      <c r="BX33" t="s">
+        <v>631</v>
+      </c>
+      <c r="BY33" t="s">
+        <v>631</v>
+      </c>
+      <c r="BZ33" t="s">
+        <v>631</v>
+      </c>
+      <c r="CA33" t="s">
+        <v>631</v>
+      </c>
+      <c r="CB33" t="s">
+        <v>631</v>
+      </c>
+      <c r="CC33" t="s">
+        <v>631</v>
+      </c>
+      <c r="CD33" t="s">
+        <v>631</v>
+      </c>
+      <c r="CE33" t="s">
+        <v>631</v>
+      </c>
+      <c r="CF33" t="s">
+        <v>631</v>
+      </c>
+      <c r="CG33" t="s">
+        <v>631</v>
+      </c>
+      <c r="CH33" t="s">
+        <v>677</v>
+      </c>
+      <c r="CI33" t="s">
+        <v>677</v>
+      </c>
+      <c r="CJ33" t="s">
+        <v>677</v>
+      </c>
+      <c r="CK33" t="s">
+        <v>677</v>
+      </c>
+      <c r="CL33" t="s">
+        <v>677</v>
+      </c>
+      <c r="CM33" t="s">
+        <v>677</v>
+      </c>
+      <c r="CN33" t="s">
+        <v>631</v>
+      </c>
+      <c r="CO33" t="s">
+        <v>677</v>
+      </c>
+      <c r="CP33" t="s">
+        <v>677</v>
+      </c>
+      <c r="CQ33" t="s">
+        <v>677</v>
+      </c>
+      <c r="CR33" t="s">
+        <v>677</v>
+      </c>
+      <c r="CS33" t="s">
+        <v>677</v>
+      </c>
+      <c r="CT33" t="s">
+        <v>677</v>
+      </c>
+      <c r="CU33" t="s">
+        <v>677</v>
+      </c>
+      <c r="CV33" t="s">
+        <v>677</v>
+      </c>
+      <c r="CW33" t="s">
+        <v>677</v>
+      </c>
+      <c r="CX33" t="s">
+        <v>677</v>
+      </c>
+      <c r="CY33" t="s">
+        <v>677</v>
+      </c>
+      <c r="CZ33" t="s">
+        <v>677</v>
+      </c>
+      <c r="DA33" t="s">
+        <v>677</v>
+      </c>
+      <c r="DB33" t="s">
+        <v>677</v>
+      </c>
+      <c r="DC33" t="s">
+        <v>677</v>
+      </c>
+      <c r="DL33" t="s">
+        <v>677</v>
+      </c>
+      <c r="DM33" t="s">
+        <v>677</v>
+      </c>
+      <c r="DN33" t="s">
+        <v>677</v>
+      </c>
+      <c r="DO33" t="s">
+        <v>677</v>
+      </c>
+      <c r="DP33" t="s">
+        <v>677</v>
+      </c>
+      <c r="DQ33" t="s">
+        <v>677</v>
+      </c>
+      <c r="DR33" t="s">
+        <v>677</v>
+      </c>
+      <c r="DS33" t="s">
+        <v>631</v>
+      </c>
+      <c r="DT33" t="s">
+        <v>677</v>
+      </c>
+      <c r="DU33" t="s">
+        <v>677</v>
+      </c>
+      <c r="DV33" t="s">
+        <v>677</v>
+      </c>
+      <c r="DW33" t="s">
+        <v>677</v>
+      </c>
+      <c r="DX33" t="s">
+        <v>677</v>
+      </c>
+      <c r="DY33" t="s">
+        <v>677</v>
+      </c>
+      <c r="DZ33" t="s">
+        <v>677</v>
+      </c>
+      <c r="EA33" t="s">
+        <v>677</v>
+      </c>
+      <c r="EB33" t="s">
+        <v>677</v>
+      </c>
+      <c r="EC33" t="s">
+        <v>677</v>
+      </c>
+      <c r="ED33" t="s">
+        <v>677</v>
+      </c>
+      <c r="EE33" t="s">
+        <v>677</v>
+      </c>
+      <c r="EF33" t="s">
+        <v>677</v>
+      </c>
+      <c r="EG33" t="s">
+        <v>677</v>
+      </c>
+      <c r="EH33" t="s">
+        <v>677</v>
+      </c>
+      <c r="EK33" t="s">
+        <v>677</v>
+      </c>
+      <c r="EL33" t="s">
+        <v>677</v>
+      </c>
+      <c r="EM33" t="s">
+        <v>677</v>
+      </c>
+      <c r="EN33" t="s">
+        <v>677</v>
+      </c>
+      <c r="EO33" t="s">
+        <v>677</v>
+      </c>
+      <c r="EP33" t="s">
+        <v>677</v>
+      </c>
+      <c r="EQ33" t="s">
+        <v>677</v>
+      </c>
+      <c r="ER33" t="s">
+        <v>677</v>
+      </c>
+      <c r="ES33" t="s">
+        <v>677</v>
+      </c>
+      <c r="ET33" t="s">
+        <v>677</v>
+      </c>
+      <c r="EU33" t="s">
+        <v>677</v>
+      </c>
+      <c r="FN33" t="s">
+        <v>677</v>
+      </c>
+      <c r="FO33" t="s">
+        <v>677</v>
+      </c>
+      <c r="FP33" t="s">
+        <v>677</v>
+      </c>
+      <c r="FQ33" t="s">
+        <v>677</v>
+      </c>
+      <c r="FR33" t="s">
+        <v>677</v>
+      </c>
+      <c r="FS33" t="s">
+        <v>677</v>
+      </c>
+      <c r="FT33" t="s">
+        <v>677</v>
+      </c>
+      <c r="FU33" t="s">
+        <v>677</v>
+      </c>
+      <c r="FV33" t="s">
+        <v>677</v>
+      </c>
+      <c r="FW33" t="s">
+        <v>677</v>
+      </c>
+      <c r="FX33" t="s">
+        <v>677</v>
+      </c>
+      <c r="FY33" t="s">
+        <v>677</v>
+      </c>
+      <c r="GA33" t="s">
+        <v>677</v>
+      </c>
+      <c r="GB33" t="s">
+        <v>631</v>
+      </c>
+      <c r="GC33" t="s">
+        <v>677</v>
+      </c>
+      <c r="GD33" t="s">
+        <v>677</v>
+      </c>
+      <c r="GE33" t="s">
+        <v>677</v>
+      </c>
+      <c r="GF33" t="s">
+        <v>677</v>
+      </c>
+      <c r="GG33" t="s">
+        <v>677</v>
+      </c>
+      <c r="GH33" t="s">
+        <v>677</v>
+      </c>
+      <c r="GI33" t="s">
+        <v>677</v>
+      </c>
+      <c r="GJ33" t="s">
+        <v>677</v>
+      </c>
+      <c r="GK33" t="s">
+        <v>677</v>
+      </c>
+      <c r="GL33" t="s">
+        <v>677</v>
+      </c>
+      <c r="GN33" t="s">
+        <v>677</v>
+      </c>
+      <c r="GO33" t="s">
+        <v>677</v>
+      </c>
+      <c r="GP33" t="s">
+        <v>677</v>
+      </c>
+      <c r="GQ33" t="s">
+        <v>677</v>
+      </c>
+      <c r="GR33" t="s">
+        <v>677</v>
+      </c>
+      <c r="GS33" t="s">
+        <v>677</v>
+      </c>
+      <c r="GT33" t="s">
+        <v>677</v>
+      </c>
+      <c r="GU33" t="s">
+        <v>677</v>
+      </c>
+      <c r="GV33" t="s">
+        <v>677</v>
+      </c>
+      <c r="GW33" t="s">
+        <v>677</v>
+      </c>
+      <c r="GX33" t="s">
+        <v>677</v>
+      </c>
+      <c r="HA33" t="s">
+        <v>677</v>
+      </c>
+      <c r="HB33" t="s">
+        <v>677</v>
+      </c>
+      <c r="HC33" t="s">
+        <v>677</v>
+      </c>
+      <c r="HD33" t="s">
+        <v>677</v>
+      </c>
+      <c r="HE33" t="s">
+        <v>677</v>
+      </c>
+      <c r="HF33" t="s">
+        <v>677</v>
+      </c>
+      <c r="HG33" t="s">
+        <v>677</v>
+      </c>
+      <c r="HH33" t="s">
+        <v>677</v>
+      </c>
+      <c r="HI33" t="s">
+        <v>677</v>
+      </c>
+      <c r="HJ33" t="s">
+        <v>677</v>
+      </c>
+      <c r="HK33" t="s">
+        <v>677</v>
+      </c>
+      <c r="HL33" t="s">
+        <v>677</v>
+      </c>
+      <c r="HM33" t="s">
+        <v>677</v>
+      </c>
+      <c r="HN33" t="s">
+        <v>677</v>
+      </c>
+      <c r="HO33" t="s">
+        <v>677</v>
+      </c>
+      <c r="HP33" t="s">
+        <v>677</v>
+      </c>
+      <c r="HQ33" t="s">
+        <v>677</v>
+      </c>
+      <c r="HR33" t="s">
+        <v>677</v>
+      </c>
+      <c r="HS33" t="s">
+        <v>677</v>
+      </c>
+      <c r="HT33" t="s">
+        <v>677</v>
+      </c>
+      <c r="HU33" t="s">
+        <v>677</v>
+      </c>
+      <c r="HW33" t="s">
+        <v>677</v>
+      </c>
+      <c r="HX33" t="s">
+        <v>677</v>
+      </c>
+      <c r="HY33" t="s">
+        <v>677</v>
+      </c>
+      <c r="HZ33" t="s">
+        <v>677</v>
+      </c>
+      <c r="IA33" t="s">
+        <v>677</v>
+      </c>
+      <c r="IB33" t="s">
+        <v>677</v>
+      </c>
+      <c r="IC33" t="s">
+        <v>677</v>
+      </c>
+      <c r="ID33" t="s">
+        <v>677</v>
+      </c>
+      <c r="IE33" t="s">
+        <v>677</v>
+      </c>
+      <c r="IG33" t="s">
+        <v>677</v>
+      </c>
+      <c r="IH33" t="s">
+        <v>677</v>
+      </c>
+      <c r="II33" t="s">
+        <v>677</v>
+      </c>
+      <c r="IJ33" t="s">
+        <v>677</v>
+      </c>
+      <c r="IK33" t="s">
+        <v>677</v>
+      </c>
+      <c r="IL33" t="s">
+        <v>677</v>
+      </c>
+      <c r="IM33" t="s">
+        <v>677</v>
+      </c>
+      <c r="IR33" t="s">
+        <v>677</v>
+      </c>
+      <c r="IS33" t="s">
+        <v>631</v>
+      </c>
+      <c r="IT33" t="s">
+        <v>677</v>
+      </c>
+      <c r="IU33" t="s">
+        <v>677</v>
+      </c>
+      <c r="IV33" t="s">
+        <v>677</v>
+      </c>
+      <c r="IW33" t="s">
+        <v>677</v>
+      </c>
+      <c r="IZ33" t="s">
+        <v>677</v>
+      </c>
+      <c r="JA33" t="s">
+        <v>677</v>
+      </c>
+      <c r="JB33" t="s">
+        <v>677</v>
+      </c>
+      <c r="JC33" t="s">
+        <v>677</v>
+      </c>
+      <c r="JD33" t="s">
+        <v>677</v>
+      </c>
+      <c r="JE33" t="s">
+        <v>677</v>
+      </c>
+      <c r="JF33" t="s">
+        <v>677</v>
+      </c>
+      <c r="JG33" t="s">
+        <v>677</v>
+      </c>
+      <c r="JH33" t="s">
+        <v>677</v>
+      </c>
+      <c r="JI33" t="s">
+        <v>677</v>
+      </c>
+      <c r="JJ33" t="s">
+        <v>677</v>
+      </c>
+      <c r="JK33" t="s">
+        <v>677</v>
+      </c>
+      <c r="JL33" t="s">
+        <v>677</v>
+      </c>
+      <c r="JM33" t="s">
+        <v>677</v>
+      </c>
+      <c r="JN33" t="s">
+        <v>677</v>
+      </c>
+      <c r="JO33" t="s">
+        <v>677</v>
+      </c>
+      <c r="JP33" t="s">
+        <v>677</v>
+      </c>
+      <c r="JQ33" t="s">
+        <v>677</v>
+      </c>
+      <c r="JR33" t="s">
+        <v>677</v>
+      </c>
+      <c r="JS33" t="s">
+        <v>677</v>
+      </c>
+      <c r="JT33" t="s">
+        <v>677</v>
+      </c>
+      <c r="JU33" t="s">
+        <v>677</v>
+      </c>
+      <c r="JV33" t="s">
+        <v>677</v>
+      </c>
+      <c r="JW33" t="s">
+        <v>677</v>
+      </c>
+      <c r="JY33" t="s">
+        <v>677</v>
+      </c>
+      <c r="JZ33" t="s">
+        <v>677</v>
+      </c>
+      <c r="KA33" t="s">
+        <v>677</v>
+      </c>
+      <c r="KB33" t="s">
+        <v>637</v>
+      </c>
+      <c r="KC33" t="s">
+        <v>637</v>
+      </c>
+      <c r="KD33" t="s">
+        <v>637</v>
+      </c>
+      <c r="KF33" t="s">
+        <v>637</v>
+      </c>
+      <c r="KG33" t="s">
+        <v>637</v>
+      </c>
+      <c r="KH33" t="s">
+        <v>637</v>
+      </c>
+      <c r="KI33" t="s">
+        <v>637</v>
+      </c>
+      <c r="KJ33" t="s">
+        <v>637</v>
+      </c>
+      <c r="KK33" t="s">
+        <v>637</v>
+      </c>
+      <c r="KL33" t="s">
+        <v>637</v>
+      </c>
+      <c r="KM33" t="s">
+        <v>637</v>
+      </c>
+      <c r="KN33" t="s">
+        <v>637</v>
+      </c>
+      <c r="KO33" t="s">
+        <v>637</v>
+      </c>
+      <c r="KP33" t="s">
+        <v>637</v>
+      </c>
+      <c r="KQ33" t="s">
+        <v>628</v>
+      </c>
+      <c r="KR33" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="34" spans="1:309" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="F34" t="s">
+        <v>629</v>
+      </c>
+      <c r="G34" t="s">
+        <v>632</v>
+      </c>
+      <c r="H34" t="s">
+        <v>629</v>
+      </c>
+      <c r="I34" t="s">
+        <v>629</v>
+      </c>
+      <c r="J34" t="s">
+        <v>632</v>
+      </c>
+      <c r="K34" t="s">
+        <v>632</v>
+      </c>
+      <c r="L34" t="s">
+        <v>632</v>
+      </c>
+      <c r="M34" t="s">
+        <v>632</v>
+      </c>
+      <c r="N34" t="s">
+        <v>632</v>
+      </c>
+      <c r="O34" t="s">
+        <v>632</v>
+      </c>
+      <c r="P34" t="s">
+        <v>632</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>632</v>
+      </c>
+      <c r="R34" t="s">
+        <v>632</v>
+      </c>
+      <c r="S34" t="s">
+        <v>632</v>
+      </c>
+      <c r="T34" t="s">
+        <v>632</v>
+      </c>
+      <c r="U34" t="s">
+        <v>632</v>
+      </c>
+      <c r="V34" t="s">
+        <v>629</v>
+      </c>
+      <c r="W34" t="s">
+        <v>629</v>
+      </c>
+      <c r="X34" t="s">
+        <v>629</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>629</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>629</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>629</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>629</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>629</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>629</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>629</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>629</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>629</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>629</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>629</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>629</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>629</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>629</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>629</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>629</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>629</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>629</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>629</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>629</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>666</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>666</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>668</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>629</v>
+      </c>
+      <c r="AW34" t="s">
+        <v>629</v>
+      </c>
+      <c r="AX34" t="s">
+        <v>629</v>
+      </c>
+      <c r="AY34" t="s">
+        <v>629</v>
+      </c>
+      <c r="AZ34" t="s">
+        <v>629</v>
+      </c>
+      <c r="BA34" t="s">
+        <v>629</v>
+      </c>
+      <c r="BB34" t="s">
+        <v>668</v>
+      </c>
+      <c r="BC34" t="s">
+        <v>668</v>
+      </c>
+      <c r="BD34" t="s">
+        <v>668</v>
+      </c>
+      <c r="BE34" t="s">
+        <v>668</v>
+      </c>
+      <c r="BF34" t="s">
+        <v>666</v>
+      </c>
+      <c r="BG34" t="s">
+        <v>666</v>
+      </c>
+      <c r="BH34" t="s">
+        <v>666</v>
+      </c>
+      <c r="BI34" t="s">
+        <v>666</v>
+      </c>
+      <c r="BJ34" t="s">
+        <v>666</v>
+      </c>
+      <c r="BK34" t="s">
+        <v>666</v>
+      </c>
+      <c r="BL34" t="s">
+        <v>666</v>
+      </c>
+      <c r="BM34" t="s">
+        <v>666</v>
+      </c>
+      <c r="BN34" t="s">
+        <v>666</v>
+      </c>
+      <c r="BO34" t="s">
+        <v>666</v>
+      </c>
+      <c r="BP34" t="s">
+        <v>666</v>
+      </c>
+      <c r="BQ34" t="s">
+        <v>666</v>
+      </c>
+      <c r="BR34" t="s">
+        <v>666</v>
+      </c>
+      <c r="BS34" t="s">
+        <v>666</v>
+      </c>
+      <c r="BT34" t="s">
+        <v>666</v>
+      </c>
+      <c r="BU34" t="s">
+        <v>666</v>
+      </c>
+      <c r="BV34" t="s">
+        <v>666</v>
+      </c>
+      <c r="BW34" t="s">
+        <v>666</v>
+      </c>
+      <c r="BX34" t="s">
+        <v>666</v>
+      </c>
+      <c r="BY34" t="s">
+        <v>666</v>
+      </c>
+      <c r="BZ34" t="s">
+        <v>666</v>
+      </c>
+      <c r="CA34" t="s">
+        <v>666</v>
+      </c>
+      <c r="CB34" t="s">
+        <v>666</v>
+      </c>
+      <c r="CC34" t="s">
+        <v>666</v>
+      </c>
+      <c r="CD34" t="s">
+        <v>666</v>
+      </c>
+      <c r="CE34" t="s">
+        <v>666</v>
+      </c>
+      <c r="CF34" t="s">
+        <v>666</v>
+      </c>
+      <c r="CG34" t="s">
+        <v>666</v>
+      </c>
+      <c r="CH34" t="s">
+        <v>666</v>
+      </c>
+      <c r="CI34" t="s">
+        <v>666</v>
+      </c>
+      <c r="CJ34" t="s">
+        <v>666</v>
+      </c>
+      <c r="CK34" t="s">
+        <v>666</v>
+      </c>
+      <c r="CL34" t="s">
+        <v>666</v>
+      </c>
+      <c r="CM34" t="s">
+        <v>666</v>
+      </c>
+      <c r="CN34" t="s">
+        <v>666</v>
+      </c>
+      <c r="CO34" t="s">
+        <v>666</v>
+      </c>
+      <c r="CP34" t="s">
+        <v>666</v>
+      </c>
+      <c r="CQ34" t="s">
+        <v>668</v>
+      </c>
+      <c r="CR34" t="s">
+        <v>668</v>
+      </c>
+      <c r="CS34" t="s">
+        <v>668</v>
+      </c>
+      <c r="CT34" t="s">
+        <v>668</v>
+      </c>
+      <c r="CU34" t="s">
+        <v>668</v>
+      </c>
+      <c r="CV34" t="s">
+        <v>668</v>
+      </c>
+      <c r="CW34" t="s">
+        <v>668</v>
+      </c>
+      <c r="CX34" t="s">
+        <v>668</v>
+      </c>
+      <c r="CY34" t="s">
+        <v>668</v>
+      </c>
+      <c r="CZ34" t="s">
+        <v>629</v>
+      </c>
+      <c r="DA34" t="s">
+        <v>629</v>
+      </c>
+      <c r="DB34" t="s">
+        <v>629</v>
+      </c>
+      <c r="DC34" t="s">
+        <v>668</v>
+      </c>
+      <c r="DL34" t="s">
+        <v>668</v>
+      </c>
+      <c r="DM34" t="s">
+        <v>668</v>
+      </c>
+      <c r="DN34" t="s">
+        <v>668</v>
+      </c>
+      <c r="DO34" t="s">
+        <v>668</v>
+      </c>
+      <c r="DP34" t="s">
+        <v>668</v>
+      </c>
+      <c r="DQ34" t="s">
+        <v>668</v>
+      </c>
+      <c r="DR34" t="s">
+        <v>629</v>
+      </c>
+      <c r="DS34" t="s">
+        <v>629</v>
+      </c>
+      <c r="DT34" t="s">
+        <v>629</v>
+      </c>
+      <c r="DU34" t="s">
+        <v>668</v>
+      </c>
+      <c r="DV34" t="s">
+        <v>668</v>
+      </c>
+      <c r="DW34" t="s">
+        <v>668</v>
+      </c>
+      <c r="DX34" t="s">
+        <v>668</v>
+      </c>
+      <c r="DY34" t="s">
+        <v>668</v>
+      </c>
+      <c r="DZ34" t="s">
+        <v>668</v>
+      </c>
+      <c r="EA34" t="s">
+        <v>668</v>
+      </c>
+      <c r="EC34" t="s">
+        <v>668</v>
+      </c>
+      <c r="ED34" t="s">
+        <v>629</v>
+      </c>
+      <c r="EE34" t="s">
+        <v>629</v>
+      </c>
+      <c r="EF34" t="s">
+        <v>666</v>
+      </c>
+      <c r="EG34" t="s">
+        <v>629</v>
+      </c>
+      <c r="EH34" t="s">
+        <v>629</v>
+      </c>
+      <c r="EK34" t="s">
+        <v>629</v>
+      </c>
+      <c r="EL34" t="s">
+        <v>632</v>
+      </c>
+      <c r="EM34" t="s">
+        <v>629</v>
+      </c>
+      <c r="EN34" t="s">
+        <v>632</v>
+      </c>
+      <c r="EO34" t="s">
+        <v>632</v>
+      </c>
+      <c r="EP34" t="s">
+        <v>666</v>
+      </c>
+      <c r="EQ34" t="s">
+        <v>632</v>
+      </c>
+      <c r="ER34" t="s">
+        <v>632</v>
+      </c>
+      <c r="ES34" t="s">
+        <v>632</v>
+      </c>
+      <c r="ET34" t="s">
+        <v>629</v>
+      </c>
+      <c r="EU34" t="s">
+        <v>632</v>
+      </c>
+      <c r="FN34" t="s">
+        <v>632</v>
+      </c>
+      <c r="FO34" t="s">
+        <v>629</v>
+      </c>
+      <c r="FP34" t="s">
+        <v>629</v>
+      </c>
+      <c r="FQ34" t="s">
+        <v>629</v>
+      </c>
+      <c r="FR34" t="s">
+        <v>629</v>
+      </c>
+      <c r="FS34" t="s">
+        <v>632</v>
+      </c>
+      <c r="FT34" t="s">
+        <v>632</v>
+      </c>
+      <c r="FU34" t="s">
+        <v>632</v>
+      </c>
+      <c r="FV34" t="s">
+        <v>632</v>
+      </c>
+      <c r="FW34" t="s">
+        <v>632</v>
+      </c>
+      <c r="FX34" t="s">
+        <v>632</v>
+      </c>
+      <c r="FY34" t="s">
+        <v>632</v>
+      </c>
+      <c r="GA34" t="s">
+        <v>632</v>
+      </c>
+      <c r="GB34" t="s">
+        <v>632</v>
+      </c>
+      <c r="GC34" t="s">
+        <v>632</v>
+      </c>
+      <c r="GD34" t="s">
+        <v>632</v>
+      </c>
+      <c r="GE34" t="s">
+        <v>632</v>
+      </c>
+      <c r="GF34" t="s">
+        <v>632</v>
+      </c>
+      <c r="GG34" t="s">
+        <v>632</v>
+      </c>
+      <c r="GH34" t="s">
+        <v>632</v>
+      </c>
+      <c r="GI34" t="s">
+        <v>632</v>
+      </c>
+      <c r="GJ34" t="s">
+        <v>632</v>
+      </c>
+      <c r="GK34" t="s">
+        <v>632</v>
+      </c>
+      <c r="GL34" t="s">
+        <v>629</v>
+      </c>
+      <c r="GN34" t="s">
+        <v>629</v>
+      </c>
+      <c r="GO34" t="s">
+        <v>632</v>
+      </c>
+      <c r="GP34" t="s">
+        <v>632</v>
+      </c>
+      <c r="GQ34" t="s">
+        <v>632</v>
+      </c>
+      <c r="GR34" t="s">
+        <v>632</v>
+      </c>
+      <c r="GS34" t="s">
+        <v>632</v>
+      </c>
+      <c r="GT34" t="s">
+        <v>632</v>
+      </c>
+      <c r="GU34" t="s">
+        <v>632</v>
+      </c>
+      <c r="GV34" t="s">
+        <v>632</v>
+      </c>
+      <c r="GW34" t="s">
+        <v>632</v>
+      </c>
+      <c r="GX34" t="s">
+        <v>629</v>
+      </c>
+      <c r="HA34" t="s">
+        <v>632</v>
+      </c>
+      <c r="HB34" t="s">
+        <v>632</v>
+      </c>
+      <c r="HC34" t="s">
+        <v>632</v>
+      </c>
+      <c r="HD34" t="s">
+        <v>632</v>
+      </c>
+      <c r="HE34" t="s">
+        <v>632</v>
+      </c>
+      <c r="HF34" t="s">
+        <v>632</v>
+      </c>
+      <c r="HG34" t="s">
+        <v>632</v>
+      </c>
+      <c r="HH34" t="s">
+        <v>632</v>
+      </c>
+      <c r="HI34" t="s">
+        <v>632</v>
+      </c>
+      <c r="HJ34" t="s">
+        <v>632</v>
+      </c>
+      <c r="HK34" t="s">
+        <v>632</v>
+      </c>
+      <c r="HL34" t="s">
+        <v>632</v>
+      </c>
+      <c r="HM34" t="s">
+        <v>632</v>
+      </c>
+      <c r="HN34" t="s">
+        <v>632</v>
+      </c>
+      <c r="HO34" t="s">
+        <v>632</v>
+      </c>
+      <c r="HP34" t="s">
+        <v>632</v>
+      </c>
+      <c r="HQ34" t="s">
+        <v>632</v>
+      </c>
+      <c r="HR34" t="s">
+        <v>632</v>
+      </c>
+      <c r="HS34" t="s">
+        <v>632</v>
+      </c>
+      <c r="HT34" t="s">
+        <v>632</v>
+      </c>
+      <c r="HU34" t="s">
+        <v>632</v>
+      </c>
+      <c r="HW34" t="s">
+        <v>632</v>
+      </c>
+      <c r="HX34" t="s">
+        <v>632</v>
+      </c>
+      <c r="HY34" t="s">
+        <v>632</v>
+      </c>
+      <c r="HZ34" t="s">
+        <v>632</v>
+      </c>
+      <c r="IA34" t="s">
+        <v>632</v>
+      </c>
+      <c r="IB34" t="s">
+        <v>632</v>
+      </c>
+      <c r="IC34" t="s">
+        <v>632</v>
+      </c>
+      <c r="ID34" t="s">
+        <v>632</v>
+      </c>
+      <c r="IE34" t="s">
+        <v>632</v>
+      </c>
+      <c r="IG34" t="s">
+        <v>632</v>
+      </c>
+      <c r="IH34" t="s">
+        <v>632</v>
+      </c>
+      <c r="II34" t="s">
+        <v>632</v>
+      </c>
+      <c r="IJ34" t="s">
+        <v>632</v>
+      </c>
+      <c r="IK34" t="s">
+        <v>629</v>
+      </c>
+      <c r="IL34" t="s">
+        <v>632</v>
+      </c>
+      <c r="IM34" t="s">
+        <v>632</v>
+      </c>
+      <c r="IR34" t="s">
+        <v>632</v>
+      </c>
+      <c r="IS34" t="s">
+        <v>632</v>
+      </c>
+      <c r="IT34" t="s">
+        <v>632</v>
+      </c>
+      <c r="IU34" t="s">
+        <v>632</v>
+      </c>
+      <c r="IV34" t="s">
+        <v>632</v>
+      </c>
+      <c r="IW34" t="s">
+        <v>632</v>
+      </c>
+      <c r="IZ34" t="s">
+        <v>632</v>
+      </c>
+      <c r="JA34" t="s">
+        <v>632</v>
+      </c>
+      <c r="JB34" t="s">
+        <v>632</v>
+      </c>
+      <c r="JC34" t="s">
+        <v>632</v>
+      </c>
+      <c r="JD34" t="s">
+        <v>632</v>
+      </c>
+      <c r="JE34" t="s">
+        <v>632</v>
+      </c>
+      <c r="JF34" t="s">
+        <v>632</v>
+      </c>
+      <c r="JG34" t="s">
+        <v>632</v>
+      </c>
+      <c r="JH34" t="s">
+        <v>632</v>
+      </c>
+      <c r="JI34" t="s">
+        <v>632</v>
+      </c>
+      <c r="JJ34" t="s">
+        <v>632</v>
+      </c>
+      <c r="JK34" t="s">
+        <v>632</v>
+      </c>
+      <c r="JL34" t="s">
+        <v>632</v>
+      </c>
+      <c r="JM34" t="s">
+        <v>632</v>
+      </c>
+      <c r="JN34" t="s">
+        <v>629</v>
+      </c>
+      <c r="JO34" t="s">
+        <v>632</v>
+      </c>
+      <c r="JP34" t="s">
+        <v>632</v>
+      </c>
+      <c r="JQ34" t="s">
+        <v>632</v>
+      </c>
+      <c r="JR34" t="s">
+        <v>632</v>
+      </c>
+      <c r="JS34" t="s">
+        <v>632</v>
+      </c>
+      <c r="JT34" t="s">
+        <v>632</v>
+      </c>
+      <c r="JU34" t="s">
+        <v>632</v>
+      </c>
+      <c r="JV34" t="s">
+        <v>632</v>
+      </c>
+      <c r="JW34" t="s">
+        <v>632</v>
+      </c>
+      <c r="JY34" t="s">
+        <v>632</v>
+      </c>
+      <c r="JZ34" t="s">
+        <v>632</v>
+      </c>
+      <c r="KA34" t="s">
+        <v>632</v>
+      </c>
+      <c r="KB34" t="s">
+        <v>632</v>
+      </c>
+      <c r="KC34" t="s">
+        <v>632</v>
+      </c>
+      <c r="KE34" t="s">
+        <v>632</v>
+      </c>
+      <c r="KF34" t="s">
+        <v>632</v>
+      </c>
+      <c r="KG34" t="s">
+        <v>632</v>
+      </c>
+      <c r="KH34" t="s">
+        <v>632</v>
+      </c>
+      <c r="KI34" t="s">
+        <v>632</v>
+      </c>
+      <c r="KJ34" t="s">
+        <v>632</v>
+      </c>
+      <c r="KK34" t="s">
+        <v>632</v>
+      </c>
+      <c r="KL34" t="s">
+        <v>632</v>
+      </c>
+      <c r="KM34" t="s">
+        <v>632</v>
+      </c>
+      <c r="KN34" t="s">
+        <v>632</v>
+      </c>
+      <c r="KO34" t="s">
+        <v>632</v>
+      </c>
+      <c r="KP34" t="s">
+        <v>632</v>
+      </c>
+      <c r="KQ34" t="s">
+        <v>632</v>
+      </c>
+      <c r="KR34" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="35" spans="1:309" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="C32" t="s">
-        <v>578</v>
-      </c>
-      <c r="D32" t="s">
+    </row>
+    <row r="36" spans="1:309" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="GY36" t="s">
+        <v>727</v>
+      </c>
+      <c r="GZ36" t="s">
+        <v>728</v>
+      </c>
+      <c r="IF36" t="s">
+        <v>736</v>
+      </c>
+      <c r="IN36" t="s">
+        <v>728</v>
+      </c>
+      <c r="IO36" t="s">
+        <v>728</v>
+      </c>
+      <c r="IP36" t="s">
+        <v>740</v>
+      </c>
+      <c r="IQ36" t="s">
+        <v>740</v>
+      </c>
+      <c r="IX36" t="s">
+        <v>727</v>
+      </c>
+      <c r="IY36" t="s">
+        <v>727</v>
+      </c>
+      <c r="JL36" t="s">
+        <v>747</v>
+      </c>
+      <c r="KM36" t="s">
+        <v>620</v>
+      </c>
+      <c r="KN36" t="s">
+        <v>728</v>
+      </c>
+      <c r="KS36" t="s">
+        <v>763</v>
+      </c>
+      <c r="KV36" t="s">
+        <v>763</v>
+      </c>
+      <c r="KW36" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="37" spans="1:309" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B37" t="s">
+        <v>617</v>
+      </c>
+      <c r="C37" t="s">
+        <v>625</v>
+      </c>
+      <c r="D37" t="s">
+        <v>625</v>
+      </c>
+      <c r="E37" t="s">
+        <v>617</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>625</v>
+      </c>
+      <c r="BJ37" t="s">
+        <v>625</v>
+      </c>
+      <c r="BK37" t="s">
+        <v>625</v>
+      </c>
+      <c r="BL37" t="s">
+        <v>625</v>
+      </c>
+      <c r="BM37" t="s">
+        <v>625</v>
+      </c>
+      <c r="BN37" t="s">
+        <v>625</v>
+      </c>
+      <c r="BO37" t="s">
+        <v>625</v>
+      </c>
+      <c r="BP37" t="s">
+        <v>625</v>
+      </c>
+      <c r="BQ37" t="s">
+        <v>625</v>
+      </c>
+      <c r="BR37" t="s">
+        <v>625</v>
+      </c>
+      <c r="BS37" t="s">
+        <v>625</v>
+      </c>
+      <c r="BT37" t="s">
+        <v>625</v>
+      </c>
+      <c r="BU37" t="s">
+        <v>625</v>
+      </c>
+      <c r="BV37" t="s">
+        <v>625</v>
+      </c>
+      <c r="BW37" t="s">
+        <v>625</v>
+      </c>
+      <c r="BX37" t="s">
+        <v>625</v>
+      </c>
+      <c r="BY37" t="s">
+        <v>625</v>
+      </c>
+      <c r="BZ37" t="s">
+        <v>625</v>
+      </c>
+      <c r="CA37" t="s">
+        <v>625</v>
+      </c>
+      <c r="CB37" t="s">
+        <v>625</v>
+      </c>
+      <c r="CC37" t="s">
+        <v>625</v>
+      </c>
+      <c r="CD37" t="s">
+        <v>625</v>
+      </c>
+      <c r="CE37" t="s">
+        <v>625</v>
+      </c>
+      <c r="CF37" t="s">
+        <v>625</v>
+      </c>
+      <c r="CG37" t="s">
+        <v>625</v>
+      </c>
+      <c r="DD37" t="s">
+        <v>617</v>
+      </c>
+      <c r="DE37" t="s">
+        <v>617</v>
+      </c>
+      <c r="DF37" t="s">
+        <v>617</v>
+      </c>
+      <c r="DG37" t="s">
+        <v>617</v>
+      </c>
+      <c r="DH37" t="s">
+        <v>683</v>
+      </c>
+      <c r="DI37" t="s">
+        <v>683</v>
+      </c>
+      <c r="DJ37" t="s">
+        <v>683</v>
+      </c>
+      <c r="DK37" t="s">
+        <v>683</v>
+      </c>
+      <c r="EV37" t="s">
+        <v>625</v>
+      </c>
+      <c r="EW37" t="s">
+        <v>625</v>
+      </c>
+      <c r="EX37" t="s">
+        <v>625</v>
+      </c>
+      <c r="EY37" t="s">
+        <v>625</v>
+      </c>
+      <c r="EZ37" t="s">
+        <v>625</v>
+      </c>
+      <c r="FA37" t="s">
+        <v>625</v>
+      </c>
+      <c r="FB37" t="s">
+        <v>625</v>
+      </c>
+      <c r="FC37" t="s">
+        <v>625</v>
+      </c>
+      <c r="FD37" t="s">
+        <v>625</v>
+      </c>
+      <c r="FE37" t="s">
+        <v>625</v>
+      </c>
+      <c r="FF37" t="s">
+        <v>625</v>
+      </c>
+      <c r="FG37" t="s">
+        <v>625</v>
+      </c>
+      <c r="FH37" t="s">
+        <v>625</v>
+      </c>
+      <c r="FI37" t="s">
+        <v>625</v>
+      </c>
+      <c r="FJ37" t="s">
+        <v>625</v>
+      </c>
+      <c r="FK37" t="s">
+        <v>625</v>
+      </c>
+      <c r="FL37" t="s">
+        <v>625</v>
+      </c>
+      <c r="FM37" t="s">
+        <v>625</v>
+      </c>
+      <c r="FZ37" t="s">
+        <v>680</v>
+      </c>
+      <c r="IF37" t="s">
+        <v>683</v>
+      </c>
+      <c r="IN37" t="s">
+        <v>680</v>
+      </c>
+      <c r="IO37" t="s">
+        <v>683</v>
+      </c>
+      <c r="IP37" t="s">
+        <v>683</v>
+      </c>
+      <c r="IQ37" t="s">
+        <v>680</v>
+      </c>
+      <c r="JX37" t="s">
+        <v>680</v>
+      </c>
+      <c r="KM37" t="s">
+        <v>683</v>
+      </c>
+      <c r="KN37" t="s">
+        <v>683</v>
+      </c>
+      <c r="KS37" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="38" spans="1:309" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="EI38" t="s">
+        <v>704</v>
+      </c>
+      <c r="EJ38" t="s">
+        <v>704</v>
+      </c>
+      <c r="KT38" t="s">
+        <v>764</v>
+      </c>
+      <c r="KU38" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="39" spans="1:309" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="E32" t="s">
+      <c r="KV39" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="40" spans="1:309" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="KW40" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="41" spans="1:309" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="GM41" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="42" spans="1:309" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="F32" t="s">
+      <c r="HV42" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="43" spans="1:309" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="HV43" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="44" spans="1:309" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="BJ44" t="s">
+        <v>678</v>
+      </c>
+      <c r="BK44" t="s">
+        <v>678</v>
+      </c>
+      <c r="BL44" t="s">
+        <v>678</v>
+      </c>
+      <c r="BM44" t="s">
+        <v>678</v>
+      </c>
+      <c r="BN44" t="s">
+        <v>678</v>
+      </c>
+      <c r="BO44" t="s">
+        <v>678</v>
+      </c>
+      <c r="BP44" t="s">
+        <v>678</v>
+      </c>
+      <c r="BQ44" t="s">
+        <v>678</v>
+      </c>
+      <c r="BR44" t="s">
+        <v>678</v>
+      </c>
+      <c r="BS44" t="s">
+        <v>678</v>
+      </c>
+      <c r="BT44" t="s">
+        <v>678</v>
+      </c>
+      <c r="BU44" t="s">
+        <v>678</v>
+      </c>
+      <c r="BV44" t="s">
+        <v>678</v>
+      </c>
+      <c r="BW44" t="s">
+        <v>678</v>
+      </c>
+      <c r="BX44" t="s">
+        <v>678</v>
+      </c>
+      <c r="BY44" t="s">
+        <v>678</v>
+      </c>
+      <c r="BZ44" t="s">
+        <v>678</v>
+      </c>
+      <c r="CA44" t="s">
+        <v>678</v>
+      </c>
+      <c r="CB44" t="s">
+        <v>678</v>
+      </c>
+      <c r="CC44" t="s">
+        <v>678</v>
+      </c>
+      <c r="CD44" t="s">
+        <v>678</v>
+      </c>
+      <c r="CE44" t="s">
+        <v>678</v>
+      </c>
+      <c r="CF44" t="s">
+        <v>678</v>
+      </c>
+      <c r="CG44" t="s">
+        <v>678</v>
+      </c>
+      <c r="IF44" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="45" spans="1:309" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="G32" t="s">
+      <c r="JL45" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="46" spans="1:309" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="H32" t="s">
+      <c r="JR46" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="47" spans="1:309" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="I32" t="s">
+      <c r="O47" t="s">
+        <v>641</v>
+      </c>
+      <c r="P47" t="s">
+        <v>641</v>
+      </c>
+      <c r="BJ47" t="s">
+        <v>679</v>
+      </c>
+      <c r="BK47" t="s">
+        <v>679</v>
+      </c>
+      <c r="BL47" t="s">
+        <v>679</v>
+      </c>
+      <c r="BM47" t="s">
+        <v>679</v>
+      </c>
+      <c r="BN47" t="s">
+        <v>679</v>
+      </c>
+      <c r="BO47" t="s">
+        <v>679</v>
+      </c>
+      <c r="BP47" t="s">
+        <v>679</v>
+      </c>
+      <c r="BQ47" t="s">
+        <v>679</v>
+      </c>
+      <c r="BR47" t="s">
+        <v>679</v>
+      </c>
+      <c r="BS47" t="s">
+        <v>679</v>
+      </c>
+      <c r="BT47" t="s">
+        <v>679</v>
+      </c>
+      <c r="BU47" t="s">
+        <v>679</v>
+      </c>
+      <c r="BV47" t="s">
+        <v>679</v>
+      </c>
+      <c r="BW47" t="s">
+        <v>679</v>
+      </c>
+      <c r="BX47" t="s">
+        <v>679</v>
+      </c>
+      <c r="BY47" t="s">
+        <v>679</v>
+      </c>
+      <c r="BZ47" t="s">
+        <v>679</v>
+      </c>
+      <c r="CA47" t="s">
+        <v>679</v>
+      </c>
+      <c r="CB47" t="s">
+        <v>679</v>
+      </c>
+      <c r="CC47" t="s">
+        <v>679</v>
+      </c>
+      <c r="CD47" t="s">
+        <v>679</v>
+      </c>
+      <c r="CE47" t="s">
+        <v>679</v>
+      </c>
+      <c r="CF47" t="s">
+        <v>679</v>
+      </c>
+      <c r="CG47" t="s">
+        <v>679</v>
+      </c>
+      <c r="DD47" t="s">
+        <v>689</v>
+      </c>
+      <c r="DE47" t="s">
+        <v>689</v>
+      </c>
+      <c r="DF47" t="s">
+        <v>689</v>
+      </c>
+      <c r="DG47" t="s">
+        <v>692</v>
+      </c>
+      <c r="DH47" t="s">
+        <v>689</v>
+      </c>
+      <c r="DI47" t="s">
+        <v>689</v>
+      </c>
+      <c r="DJ47" t="s">
+        <v>689</v>
+      </c>
+      <c r="DK47" t="s">
+        <v>692</v>
+      </c>
+      <c r="DW47" t="s">
+        <v>699</v>
+      </c>
+      <c r="DX47" t="s">
+        <v>699</v>
+      </c>
+      <c r="DY47" t="s">
+        <v>699</v>
+      </c>
+      <c r="EV47" t="s">
+        <v>692</v>
+      </c>
+      <c r="EW47" t="s">
+        <v>692</v>
+      </c>
+      <c r="EX47" t="s">
+        <v>692</v>
+      </c>
+      <c r="EY47" t="s">
+        <v>692</v>
+      </c>
+      <c r="EZ47" t="s">
+        <v>692</v>
+      </c>
+      <c r="FA47" t="s">
+        <v>692</v>
+      </c>
+      <c r="FB47" t="s">
+        <v>692</v>
+      </c>
+      <c r="FC47" t="s">
+        <v>692</v>
+      </c>
+      <c r="FD47" t="s">
+        <v>692</v>
+      </c>
+      <c r="FE47" t="s">
+        <v>692</v>
+      </c>
+      <c r="FF47" t="s">
+        <v>692</v>
+      </c>
+      <c r="FG47" t="s">
+        <v>692</v>
+      </c>
+      <c r="FH47" t="s">
+        <v>692</v>
+      </c>
+      <c r="FI47" t="s">
+        <v>692</v>
+      </c>
+      <c r="FJ47" t="s">
+        <v>692</v>
+      </c>
+      <c r="FK47" t="s">
+        <v>692</v>
+      </c>
+      <c r="FL47" t="s">
+        <v>692</v>
+      </c>
+      <c r="FM47" t="s">
+        <v>692</v>
+      </c>
+      <c r="FZ47" t="s">
+        <v>692</v>
+      </c>
+      <c r="GM47" t="s">
+        <v>692</v>
+      </c>
+      <c r="JX47" t="s">
+        <v>755</v>
+      </c>
+      <c r="KF47" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="48" spans="1:309" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="J32" t="s">
+      <c r="JX48" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="49" spans="1:292" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="BJ49" t="s">
+        <v>680</v>
+      </c>
+      <c r="BK49" t="s">
+        <v>680</v>
+      </c>
+      <c r="BL49" t="s">
+        <v>680</v>
+      </c>
+      <c r="BM49" t="s">
+        <v>684</v>
+      </c>
+      <c r="BN49" t="s">
+        <v>684</v>
+      </c>
+      <c r="BO49" t="s">
+        <v>680</v>
+      </c>
+      <c r="BP49" t="s">
+        <v>684</v>
+      </c>
+      <c r="BQ49" t="s">
+        <v>680</v>
+      </c>
+      <c r="BR49" t="s">
+        <v>684</v>
+      </c>
+      <c r="BS49" t="s">
+        <v>684</v>
+      </c>
+      <c r="BT49" t="s">
+        <v>684</v>
+      </c>
+      <c r="BU49" t="s">
+        <v>684</v>
+      </c>
+      <c r="BV49" t="s">
+        <v>684</v>
+      </c>
+      <c r="BW49" t="s">
+        <v>680</v>
+      </c>
+      <c r="BX49" t="s">
+        <v>680</v>
+      </c>
+      <c r="BY49" t="s">
+        <v>684</v>
+      </c>
+      <c r="BZ49" t="s">
+        <v>680</v>
+      </c>
+      <c r="CA49" t="s">
+        <v>680</v>
+      </c>
+      <c r="CB49" t="s">
+        <v>684</v>
+      </c>
+      <c r="CC49" t="s">
+        <v>680</v>
+      </c>
+      <c r="CD49" t="s">
+        <v>680</v>
+      </c>
+      <c r="CE49" t="s">
+        <v>684</v>
+      </c>
+      <c r="CF49" t="s">
+        <v>684</v>
+      </c>
+      <c r="CG49" t="s">
+        <v>680</v>
+      </c>
+      <c r="DW49" t="s">
+        <v>700</v>
+      </c>
+      <c r="DX49" t="s">
+        <v>684</v>
+      </c>
+      <c r="DY49" t="s">
+        <v>700</v>
+      </c>
+      <c r="KF49" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="50" spans="1:292" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="K32" t="s">
+      <c r="B50" t="s">
+        <v>618</v>
+      </c>
+      <c r="C50" t="s">
+        <v>618</v>
+      </c>
+      <c r="D50" t="s">
+        <v>618</v>
+      </c>
+      <c r="E50" t="s">
+        <v>618</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="51" spans="1:292" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="L32" t="s">
+      <c r="B51" t="s">
+        <v>618</v>
+      </c>
+      <c r="C51" t="s">
+        <v>618</v>
+      </c>
+      <c r="D51" t="s">
+        <v>618</v>
+      </c>
+      <c r="E51" t="s">
+        <v>618</v>
+      </c>
+      <c r="BJ51" t="s">
+        <v>618</v>
+      </c>
+      <c r="BK51" t="s">
+        <v>618</v>
+      </c>
+      <c r="BL51" t="s">
+        <v>618</v>
+      </c>
+      <c r="BM51" t="s">
+        <v>618</v>
+      </c>
+      <c r="BN51" t="s">
+        <v>618</v>
+      </c>
+      <c r="BO51" t="s">
+        <v>618</v>
+      </c>
+      <c r="BP51" t="s">
+        <v>618</v>
+      </c>
+      <c r="BQ51" t="s">
+        <v>618</v>
+      </c>
+      <c r="BR51" t="s">
+        <v>618</v>
+      </c>
+      <c r="BS51" t="s">
+        <v>618</v>
+      </c>
+      <c r="BT51" t="s">
+        <v>618</v>
+      </c>
+      <c r="BU51" t="s">
+        <v>618</v>
+      </c>
+      <c r="BV51" t="s">
+        <v>618</v>
+      </c>
+      <c r="BW51" t="s">
+        <v>618</v>
+      </c>
+      <c r="BX51" t="s">
+        <v>618</v>
+      </c>
+      <c r="BY51" t="s">
+        <v>618</v>
+      </c>
+      <c r="BZ51" t="s">
+        <v>618</v>
+      </c>
+      <c r="CA51" t="s">
+        <v>618</v>
+      </c>
+      <c r="CB51" t="s">
+        <v>618</v>
+      </c>
+      <c r="CC51" t="s">
+        <v>618</v>
+      </c>
+      <c r="CD51" t="s">
+        <v>618</v>
+      </c>
+      <c r="CE51" t="s">
+        <v>618</v>
+      </c>
+      <c r="CF51" t="s">
+        <v>618</v>
+      </c>
+      <c r="CG51" t="s">
+        <v>618</v>
+      </c>
+      <c r="DD51" t="s">
+        <v>618</v>
+      </c>
+      <c r="DE51" t="s">
+        <v>618</v>
+      </c>
+      <c r="DF51" t="s">
+        <v>618</v>
+      </c>
+      <c r="DG51" t="s">
+        <v>618</v>
+      </c>
+      <c r="DH51" t="s">
+        <v>618</v>
+      </c>
+      <c r="DI51" t="s">
+        <v>618</v>
+      </c>
+      <c r="DJ51" t="s">
+        <v>618</v>
+      </c>
+      <c r="DK51" t="s">
+        <v>618</v>
+      </c>
+      <c r="DW51" t="s">
+        <v>618</v>
+      </c>
+      <c r="DX51" t="s">
+        <v>618</v>
+      </c>
+      <c r="DY51" t="s">
+        <v>618</v>
+      </c>
+      <c r="EI51" t="s">
+        <v>618</v>
+      </c>
+      <c r="EJ51" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="52" spans="1:292" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="M32" t="s">
-        <v>578</v>
-      </c>
-      <c r="N32" t="s">
+      <c r="B52" t="s">
+        <v>619</v>
+      </c>
+      <c r="C52" t="s">
+        <v>619</v>
+      </c>
+      <c r="D52" t="s">
+        <v>619</v>
+      </c>
+      <c r="E52" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="53" spans="1:292" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="O32" t="s">
+      <c r="B53" t="s">
+        <v>620</v>
+      </c>
+      <c r="C53" t="s">
+        <v>620</v>
+      </c>
+      <c r="D53" t="s">
+        <v>626</v>
+      </c>
+      <c r="E53" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="54" spans="1:292" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="P32" t="s">
+      <c r="B54" t="s">
+        <v>621</v>
+      </c>
+      <c r="C54" t="s">
+        <v>621</v>
+      </c>
+      <c r="D54" t="s">
+        <v>621</v>
+      </c>
+      <c r="E54" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="55" spans="1:292" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="B55" t="s">
+        <v>622</v>
+      </c>
+      <c r="C55" t="s">
+        <v>622</v>
+      </c>
+      <c r="D55" t="s">
+        <v>622</v>
+      </c>
+      <c r="E55" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="56" spans="1:292" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="R32" t="s">
+      <c r="B56" t="s">
+        <v>623</v>
+      </c>
+      <c r="C56" t="s">
+        <v>623</v>
+      </c>
+      <c r="D56" t="s">
+        <v>623</v>
+      </c>
+      <c r="E56" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="57" spans="1:292" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="S32" t="s">
+      <c r="B57" t="s">
+        <v>624</v>
+      </c>
+      <c r="C57" t="s">
+        <v>624</v>
+      </c>
+      <c r="D57" t="s">
+        <v>624</v>
+      </c>
+      <c r="E57" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="58" spans="1:292" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="T32" t="s">
+      <c r="O58" t="s">
+        <v>617</v>
+      </c>
+      <c r="P58" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="59" spans="1:292" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="O59" t="s">
+        <v>642</v>
+      </c>
+      <c r="P59" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="60" spans="1:292" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="U32" t="s">
+      <c r="O60" t="s">
+        <v>643</v>
+      </c>
+      <c r="P60" t="s">
+        <v>643</v>
+      </c>
+      <c r="AM60" t="s">
+        <v>643</v>
+      </c>
+      <c r="BJ60" t="s">
+        <v>643</v>
+      </c>
+      <c r="BK60" t="s">
+        <v>643</v>
+      </c>
+      <c r="BL60" t="s">
+        <v>643</v>
+      </c>
+      <c r="BM60" t="s">
+        <v>643</v>
+      </c>
+      <c r="BN60" t="s">
+        <v>643</v>
+      </c>
+      <c r="BO60" t="s">
+        <v>643</v>
+      </c>
+      <c r="BP60" t="s">
+        <v>643</v>
+      </c>
+      <c r="BQ60" t="s">
+        <v>643</v>
+      </c>
+      <c r="BR60" t="s">
+        <v>643</v>
+      </c>
+      <c r="BS60" t="s">
+        <v>643</v>
+      </c>
+      <c r="BT60" t="s">
+        <v>643</v>
+      </c>
+      <c r="BU60" t="s">
+        <v>643</v>
+      </c>
+      <c r="BV60" t="s">
+        <v>643</v>
+      </c>
+      <c r="BW60" t="s">
+        <v>643</v>
+      </c>
+      <c r="BX60" t="s">
+        <v>643</v>
+      </c>
+      <c r="BY60" t="s">
+        <v>643</v>
+      </c>
+      <c r="BZ60" t="s">
+        <v>643</v>
+      </c>
+      <c r="CA60" t="s">
+        <v>643</v>
+      </c>
+      <c r="CB60" t="s">
+        <v>643</v>
+      </c>
+      <c r="CC60" t="s">
+        <v>643</v>
+      </c>
+      <c r="CD60" t="s">
+        <v>643</v>
+      </c>
+      <c r="CE60" t="s">
+        <v>643</v>
+      </c>
+      <c r="CF60" t="s">
+        <v>643</v>
+      </c>
+      <c r="CG60" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="61" spans="1:292" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="V32" t="s">
+      <c r="O61" t="s">
+        <v>644</v>
+      </c>
+      <c r="P61" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="62" spans="1:292" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="W32" t="s">
+      <c r="AM62" t="s">
+        <v>662</v>
+      </c>
+      <c r="EV62" t="s">
+        <v>625</v>
+      </c>
+      <c r="EW62" t="s">
+        <v>710</v>
+      </c>
+      <c r="EX62" t="s">
+        <v>710</v>
+      </c>
+      <c r="EY62" t="s">
+        <v>625</v>
+      </c>
+      <c r="EZ62" t="s">
+        <v>710</v>
+      </c>
+      <c r="FA62" t="s">
+        <v>625</v>
+      </c>
+      <c r="FB62" t="s">
+        <v>625</v>
+      </c>
+      <c r="FC62" t="s">
+        <v>710</v>
+      </c>
+      <c r="FD62" t="s">
+        <v>625</v>
+      </c>
+      <c r="FE62" t="s">
+        <v>625</v>
+      </c>
+      <c r="FF62" t="s">
+        <v>625</v>
+      </c>
+      <c r="FG62" t="s">
+        <v>625</v>
+      </c>
+      <c r="FH62" t="s">
+        <v>625</v>
+      </c>
+      <c r="FI62" t="s">
+        <v>710</v>
+      </c>
+      <c r="FJ62" t="s">
+        <v>710</v>
+      </c>
+      <c r="FK62" t="s">
+        <v>625</v>
+      </c>
+      <c r="FL62" t="s">
+        <v>625</v>
+      </c>
+      <c r="FM62" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="63" spans="1:292" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="X32" t="s">
-        <v>588</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>589</v>
-      </c>
-      <c r="Z32" t="s">
+      <c r="AM63" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="64" spans="1:292" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="AA32" t="s">
-        <v>590</v>
-      </c>
-      <c r="AB32" t="s">
+      <c r="DD64" t="s">
+        <v>690</v>
+      </c>
+      <c r="DE64" t="s">
+        <v>690</v>
+      </c>
+      <c r="DF64" t="s">
+        <v>690</v>
+      </c>
+      <c r="DG64" t="s">
+        <v>690</v>
+      </c>
+      <c r="DH64" t="s">
+        <v>690</v>
+      </c>
+      <c r="DI64" t="s">
+        <v>690</v>
+      </c>
+      <c r="DJ64" t="s">
+        <v>690</v>
+      </c>
+      <c r="DK64" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="65" spans="1:169" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="AC32" t="s">
+      <c r="DW65" t="s">
+        <v>626</v>
+      </c>
+      <c r="DX65" t="s">
+        <v>626</v>
+      </c>
+      <c r="DY65" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="66" spans="1:169" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="AD32" t="s">
+      <c r="EI66" t="s">
+        <v>705</v>
+      </c>
+      <c r="EJ66" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="67" spans="1:169" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="AE32" t="s">
+      <c r="BJ67" t="s">
+        <v>625</v>
+      </c>
+      <c r="BK67" t="s">
+        <v>625</v>
+      </c>
+      <c r="BL67" t="s">
+        <v>683</v>
+      </c>
+      <c r="BM67" t="s">
+        <v>683</v>
+      </c>
+      <c r="BN67" t="s">
+        <v>625</v>
+      </c>
+      <c r="BO67" t="s">
+        <v>683</v>
+      </c>
+      <c r="BP67" t="s">
+        <v>625</v>
+      </c>
+      <c r="BQ67" t="s">
+        <v>625</v>
+      </c>
+      <c r="BR67" t="s">
+        <v>625</v>
+      </c>
+      <c r="BS67" t="s">
+        <v>683</v>
+      </c>
+      <c r="BT67" t="s">
+        <v>625</v>
+      </c>
+      <c r="BU67" t="s">
+        <v>683</v>
+      </c>
+      <c r="BV67" t="s">
+        <v>625</v>
+      </c>
+      <c r="BW67" t="s">
+        <v>683</v>
+      </c>
+      <c r="BX67" t="s">
+        <v>625</v>
+      </c>
+      <c r="BY67" t="s">
+        <v>683</v>
+      </c>
+      <c r="BZ67" t="s">
+        <v>683</v>
+      </c>
+      <c r="CA67" t="s">
+        <v>625</v>
+      </c>
+      <c r="CB67" t="s">
+        <v>683</v>
+      </c>
+      <c r="CC67" t="s">
+        <v>625</v>
+      </c>
+      <c r="CD67" t="s">
+        <v>683</v>
+      </c>
+      <c r="CE67" t="s">
+        <v>683</v>
+      </c>
+      <c r="CF67" t="s">
+        <v>625</v>
+      </c>
+      <c r="CG67" t="s">
+        <v>683</v>
+      </c>
+      <c r="EV67" t="s">
+        <v>625</v>
+      </c>
+      <c r="EW67" t="s">
+        <v>625</v>
+      </c>
+      <c r="EX67" t="s">
+        <v>625</v>
+      </c>
+      <c r="EY67" t="s">
+        <v>625</v>
+      </c>
+      <c r="EZ67" t="s">
+        <v>625</v>
+      </c>
+      <c r="FA67" t="s">
+        <v>625</v>
+      </c>
+      <c r="FB67" t="s">
+        <v>625</v>
+      </c>
+      <c r="FC67" t="s">
+        <v>625</v>
+      </c>
+      <c r="FD67" t="s">
+        <v>625</v>
+      </c>
+      <c r="FE67" t="s">
+        <v>625</v>
+      </c>
+      <c r="FF67" t="s">
+        <v>625</v>
+      </c>
+      <c r="FG67" t="s">
+        <v>625</v>
+      </c>
+      <c r="FH67" t="s">
+        <v>625</v>
+      </c>
+      <c r="FI67" t="s">
+        <v>625</v>
+      </c>
+      <c r="FJ67" t="s">
+        <v>625</v>
+      </c>
+      <c r="FK67" t="s">
+        <v>625</v>
+      </c>
+      <c r="FL67" t="s">
+        <v>625</v>
+      </c>
+      <c r="FM67" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="68" spans="1:169" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="AF32" t="s">
-        <v>593</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>594</v>
-      </c>
-      <c r="AH32" t="s">
+      <c r="EV68" t="s">
+        <v>709</v>
+      </c>
+      <c r="EW68" t="s">
+        <v>709</v>
+      </c>
+      <c r="EX68" t="s">
+        <v>709</v>
+      </c>
+      <c r="EY68" t="s">
+        <v>709</v>
+      </c>
+      <c r="EZ68" t="s">
+        <v>709</v>
+      </c>
+      <c r="FA68" t="s">
+        <v>709</v>
+      </c>
+      <c r="FB68" t="s">
+        <v>709</v>
+      </c>
+      <c r="FC68" t="s">
+        <v>709</v>
+      </c>
+      <c r="FD68" t="s">
+        <v>709</v>
+      </c>
+      <c r="FE68" t="s">
+        <v>709</v>
+      </c>
+      <c r="FF68" t="s">
+        <v>709</v>
+      </c>
+      <c r="FG68" t="s">
+        <v>709</v>
+      </c>
+      <c r="FH68" t="s">
+        <v>709</v>
+      </c>
+      <c r="FI68" t="s">
+        <v>709</v>
+      </c>
+      <c r="FJ68" t="s">
+        <v>709</v>
+      </c>
+      <c r="FK68" t="s">
+        <v>709</v>
+      </c>
+      <c r="FL68" t="s">
+        <v>709</v>
+      </c>
+      <c r="FM68" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="69" spans="1:169" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="AI32" t="s">
-        <v>595</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>578</v>
-      </c>
-      <c r="AK32" t="s">
-        <v>597</v>
-      </c>
-      <c r="AL32" t="s">
+      <c r="BJ69" t="s">
+        <v>617</v>
+      </c>
+      <c r="BK69" t="s">
+        <v>617</v>
+      </c>
+      <c r="BL69" t="s">
+        <v>617</v>
+      </c>
+      <c r="BM69" t="s">
+        <v>617</v>
+      </c>
+      <c r="BN69" t="s">
+        <v>617</v>
+      </c>
+      <c r="BO69" t="s">
+        <v>617</v>
+      </c>
+      <c r="BP69" t="s">
+        <v>617</v>
+      </c>
+      <c r="BQ69" t="s">
+        <v>617</v>
+      </c>
+      <c r="BR69" t="s">
+        <v>617</v>
+      </c>
+      <c r="BS69" t="s">
+        <v>617</v>
+      </c>
+      <c r="BT69" t="s">
+        <v>617</v>
+      </c>
+      <c r="BU69" t="s">
+        <v>617</v>
+      </c>
+      <c r="BV69" t="s">
+        <v>617</v>
+      </c>
+      <c r="BW69" t="s">
+        <v>617</v>
+      </c>
+      <c r="BX69" t="s">
+        <v>617</v>
+      </c>
+      <c r="BY69" t="s">
+        <v>617</v>
+      </c>
+      <c r="BZ69" t="s">
+        <v>617</v>
+      </c>
+      <c r="CA69" t="s">
+        <v>617</v>
+      </c>
+      <c r="CB69" t="s">
+        <v>617</v>
+      </c>
+      <c r="CC69" t="s">
+        <v>617</v>
+      </c>
+      <c r="CD69" t="s">
+        <v>617</v>
+      </c>
+      <c r="CE69" t="s">
+        <v>617</v>
+      </c>
+      <c r="CF69" t="s">
+        <v>617</v>
+      </c>
+      <c r="CG69" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="70" spans="1:169" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="AM32" t="s">
-        <v>599</v>
-      </c>
-      <c r="AN32" t="s">
-        <v>600</v>
-      </c>
-      <c r="AO32" t="s">
+      <c r="BJ70" t="s">
+        <v>681</v>
+      </c>
+      <c r="BK70" t="s">
+        <v>681</v>
+      </c>
+      <c r="BL70" t="s">
+        <v>681</v>
+      </c>
+      <c r="BM70" t="s">
+        <v>681</v>
+      </c>
+      <c r="BN70" t="s">
+        <v>681</v>
+      </c>
+      <c r="BO70" t="s">
+        <v>681</v>
+      </c>
+      <c r="BP70" t="s">
+        <v>681</v>
+      </c>
+      <c r="BQ70" t="s">
+        <v>681</v>
+      </c>
+      <c r="BR70" t="s">
+        <v>681</v>
+      </c>
+      <c r="BS70" t="s">
+        <v>681</v>
+      </c>
+      <c r="BT70" t="s">
+        <v>681</v>
+      </c>
+      <c r="BU70" t="s">
+        <v>681</v>
+      </c>
+      <c r="BV70" t="s">
+        <v>681</v>
+      </c>
+      <c r="BW70" t="s">
+        <v>681</v>
+      </c>
+      <c r="BX70" t="s">
+        <v>681</v>
+      </c>
+      <c r="BY70" t="s">
+        <v>681</v>
+      </c>
+      <c r="BZ70" t="s">
+        <v>681</v>
+      </c>
+      <c r="CA70" t="s">
+        <v>681</v>
+      </c>
+      <c r="CB70" t="s">
+        <v>681</v>
+      </c>
+      <c r="CC70" t="s">
+        <v>681</v>
+      </c>
+      <c r="CD70" t="s">
+        <v>681</v>
+      </c>
+      <c r="CE70" t="s">
+        <v>681</v>
+      </c>
+      <c r="CF70" t="s">
+        <v>681</v>
+      </c>
+      <c r="CG70" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="71" spans="1:169" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="AP32" t="s">
-        <v>601</v>
-      </c>
-      <c r="AQ32" t="s">
-        <v>603</v>
-      </c>
-      <c r="AR32" t="s">
-        <v>616</v>
-      </c>
-      <c r="AS32" t="s">
-        <v>618</v>
-      </c>
-      <c r="AT32" t="s">
-        <v>606</v>
-      </c>
-      <c r="AU32" t="s">
-        <v>619</v>
-      </c>
-      <c r="AV32" t="s">
-        <v>620</v>
-      </c>
-      <c r="AW32" t="s">
-        <v>621</v>
-      </c>
-      <c r="AX32" t="s">
-        <v>622</v>
-      </c>
-      <c r="AY32" t="s">
-        <v>590</v>
-      </c>
-      <c r="AZ32" t="s">
-        <v>623</v>
-      </c>
-      <c r="BA32" t="s">
-        <v>609</v>
-      </c>
-      <c r="BB32" t="s">
-        <v>624</v>
-      </c>
-      <c r="BC32" t="s">
-        <v>625</v>
-      </c>
-      <c r="BD32" t="s">
-        <v>594</v>
-      </c>
-      <c r="BE32" t="s">
-        <v>612</v>
-      </c>
-      <c r="BF32" t="s">
-        <v>595</v>
-      </c>
-      <c r="BG32" t="s">
-        <v>578</v>
-      </c>
-      <c r="BH32" t="s">
-        <v>578</v>
-      </c>
-      <c r="BI32" t="s">
-        <v>596</v>
-      </c>
-      <c r="BJ32" t="s">
-        <v>597</v>
-      </c>
-      <c r="BK32" t="s">
-        <v>613</v>
-      </c>
-      <c r="BL32" t="s">
-        <v>599</v>
-      </c>
-      <c r="BM32" t="s">
-        <v>600</v>
-      </c>
-      <c r="BN32" t="s">
-        <v>614</v>
-      </c>
-      <c r="BO32" t="s">
-        <v>601</v>
-      </c>
-      <c r="BP32" t="s">
-        <v>627</v>
-      </c>
-      <c r="BQ32" t="s">
-        <v>628</v>
-      </c>
-      <c r="BR32" t="s">
-        <v>605</v>
-      </c>
-      <c r="BS32" t="s">
-        <v>606</v>
-      </c>
-      <c r="BT32" t="s">
-        <v>588</v>
-      </c>
-      <c r="BU32" t="s">
-        <v>589</v>
-      </c>
-      <c r="BV32" t="s">
-        <v>607</v>
-      </c>
-      <c r="BW32" t="s">
-        <v>590</v>
-      </c>
-      <c r="BX32" t="s">
-        <v>608</v>
-      </c>
-      <c r="BY32" t="s">
-        <v>629</v>
-      </c>
-      <c r="BZ32" t="s">
-        <v>611</v>
-      </c>
-      <c r="CA32" t="s">
-        <v>593</v>
-      </c>
-      <c r="CB32" t="s">
-        <v>594</v>
-      </c>
-      <c r="CC32" t="s">
-        <v>612</v>
-      </c>
-      <c r="CD32" t="s">
-        <v>630</v>
-      </c>
-      <c r="CE32" t="s">
-        <v>578</v>
-      </c>
-      <c r="CF32" t="s">
-        <v>578</v>
-      </c>
-      <c r="CG32" t="s">
-        <v>632</v>
-      </c>
-      <c r="CH32" t="s">
-        <v>633</v>
-      </c>
-      <c r="CI32" t="s">
-        <v>634</v>
-      </c>
-      <c r="CJ32" t="s">
-        <v>635</v>
-      </c>
-      <c r="CK32" t="s">
-        <v>600</v>
-      </c>
-      <c r="CL32" t="s">
-        <v>636</v>
-      </c>
-      <c r="CM32" t="s">
-        <v>603</v>
-      </c>
-      <c r="CN32" t="s">
-        <v>588</v>
-      </c>
-      <c r="CO32" t="s">
-        <v>608</v>
-      </c>
-      <c r="CP32" t="s">
-        <v>637</v>
-      </c>
-      <c r="CQ32" t="s">
-        <v>612</v>
-      </c>
-      <c r="CR32" t="s">
-        <v>578</v>
-      </c>
-      <c r="CS32" t="s">
-        <v>638</v>
-      </c>
-      <c r="CT32" t="s">
-        <v>599</v>
-      </c>
-      <c r="CU32" t="s">
-        <v>639</v>
-      </c>
-      <c r="CV32" t="s">
-        <v>614</v>
-      </c>
-      <c r="CW32" t="s">
-        <v>603</v>
-      </c>
-      <c r="CX32" t="s">
-        <v>588</v>
-      </c>
-      <c r="CY32" t="s">
-        <v>640</v>
-      </c>
-      <c r="CZ32" t="s">
-        <v>608</v>
-      </c>
-      <c r="DA32" t="s">
-        <v>593</v>
-      </c>
-      <c r="DB32" t="s">
-        <v>578</v>
-      </c>
-      <c r="DC32" t="s">
-        <v>632</v>
-      </c>
-      <c r="DD32" t="s">
-        <v>641</v>
-      </c>
-      <c r="DE32" t="s">
-        <v>599</v>
-      </c>
-      <c r="DF32" t="s">
-        <v>642</v>
-      </c>
-      <c r="DG32" t="s">
-        <v>603</v>
-      </c>
-      <c r="DH32" t="s">
-        <v>605</v>
-      </c>
-      <c r="DI32" t="s">
-        <v>588</v>
-      </c>
-      <c r="DJ32" t="s">
-        <v>607</v>
-      </c>
-      <c r="DK32" t="s">
-        <v>608</v>
-      </c>
-      <c r="DL32" t="s">
-        <v>643</v>
-      </c>
-      <c r="DM32" t="s">
-        <v>612</v>
-      </c>
-      <c r="DN32" t="s">
-        <v>578</v>
-      </c>
-      <c r="DO32" t="s">
-        <v>578</v>
-      </c>
-      <c r="DP32" t="s">
-        <v>578</v>
-      </c>
-      <c r="DQ32" t="s">
-        <v>644</v>
-      </c>
-      <c r="DR32" t="s">
-        <v>597</v>
-      </c>
-      <c r="DS32" t="s">
-        <v>599</v>
-      </c>
-      <c r="DT32" t="s">
-        <v>614</v>
-      </c>
-      <c r="DU32" t="s">
-        <v>603</v>
-      </c>
-      <c r="DV32" t="s">
-        <v>605</v>
-      </c>
-      <c r="DW32" t="s">
-        <v>588</v>
-      </c>
-      <c r="DX32" t="s">
-        <v>607</v>
-      </c>
-      <c r="DY32" t="s">
-        <v>608</v>
-      </c>
-      <c r="DZ32" t="s">
-        <v>610</v>
-      </c>
-      <c r="EA32" t="s">
-        <v>645</v>
-      </c>
-      <c r="EB32" t="s">
-        <v>612</v>
-      </c>
-      <c r="EC32" t="s">
-        <v>578</v>
-      </c>
-      <c r="ED32" t="s">
-        <v>647</v>
-      </c>
-      <c r="EE32" t="s">
-        <v>613</v>
-      </c>
-      <c r="EF32" t="s">
-        <v>648</v>
-      </c>
-      <c r="EG32" t="s">
-        <v>614</v>
-      </c>
-      <c r="EH32" t="s">
-        <v>603</v>
-      </c>
-      <c r="EI32" t="s">
-        <v>605</v>
-      </c>
-      <c r="EJ32" t="s">
-        <v>588</v>
-      </c>
-      <c r="EK32" t="s">
-        <v>607</v>
-      </c>
-      <c r="EL32" t="s">
-        <v>608</v>
-      </c>
-      <c r="EM32" t="s">
-        <v>610</v>
-      </c>
-      <c r="EN32" t="s">
-        <v>649</v>
-      </c>
-      <c r="EO32" t="s">
-        <v>612</v>
-      </c>
-      <c r="EP32" t="s">
-        <v>578</v>
-      </c>
-      <c r="EQ32" t="s">
-        <v>651</v>
-      </c>
-      <c r="ER32" t="s">
-        <v>638</v>
-      </c>
-      <c r="ES32" t="s">
-        <v>652</v>
-      </c>
-      <c r="ET32" t="s">
-        <v>653</v>
-      </c>
-      <c r="EU32" t="s">
-        <v>654</v>
-      </c>
-      <c r="EV32" t="s">
-        <v>655</v>
-      </c>
-      <c r="EW32" t="s">
-        <v>656</v>
-      </c>
-      <c r="EX32" t="s">
-        <v>657</v>
-      </c>
-      <c r="EY32" t="s">
-        <v>658</v>
-      </c>
-      <c r="EZ32" t="s">
-        <v>659</v>
-      </c>
-      <c r="FA32" t="s">
-        <v>660</v>
-      </c>
-      <c r="FB32" t="s">
-        <v>578</v>
-      </c>
-      <c r="FC32" t="s">
-        <v>578</v>
-      </c>
-      <c r="FD32" t="s">
-        <v>663</v>
-      </c>
-      <c r="FE32" t="s">
-        <v>664</v>
-      </c>
-      <c r="FF32" t="s">
-        <v>665</v>
-      </c>
-      <c r="FG32" t="s">
-        <v>603</v>
-      </c>
-      <c r="FH32" t="s">
-        <v>605</v>
-      </c>
-      <c r="FI32" t="s">
-        <v>588</v>
-      </c>
-      <c r="FJ32" t="s">
-        <v>607</v>
-      </c>
-      <c r="FK32" t="s">
-        <v>608</v>
-      </c>
-      <c r="FL32" t="s">
-        <v>610</v>
-      </c>
-      <c r="FM32" t="s">
-        <v>593</v>
-      </c>
-      <c r="FN32" t="s">
-        <v>612</v>
-      </c>
-      <c r="FO32" t="s">
-        <v>578</v>
-      </c>
-      <c r="FP32" t="s">
-        <v>597</v>
-      </c>
-      <c r="FQ32" t="s">
-        <v>599</v>
-      </c>
-      <c r="FR32" t="s">
-        <v>603</v>
-      </c>
-      <c r="FS32" t="s">
-        <v>605</v>
-      </c>
-      <c r="FT32" t="s">
-        <v>588</v>
-      </c>
-      <c r="FU32" t="s">
-        <v>666</v>
-      </c>
-      <c r="FV32" t="s">
-        <v>608</v>
-      </c>
-      <c r="FW32" t="s">
-        <v>610</v>
-      </c>
-      <c r="FX32" t="s">
-        <v>667</v>
-      </c>
-      <c r="FY32" t="s">
-        <v>578</v>
-      </c>
-      <c r="FZ32" t="s">
-        <v>651</v>
-      </c>
-      <c r="GA32" t="s">
-        <v>668</v>
-      </c>
-      <c r="GB32" t="s">
-        <v>603</v>
-      </c>
-      <c r="GC32" t="s">
-        <v>605</v>
-      </c>
-      <c r="GD32" t="s">
-        <v>588</v>
-      </c>
-      <c r="GE32" t="s">
-        <v>607</v>
-      </c>
-      <c r="GF32" t="s">
-        <v>608</v>
-      </c>
-      <c r="GG32" t="s">
-        <v>610</v>
-      </c>
-      <c r="GH32" t="s">
-        <v>659</v>
-      </c>
-      <c r="GI32" t="s">
-        <v>578</v>
-      </c>
-      <c r="GJ32" t="s">
-        <v>632</v>
-      </c>
-      <c r="GK32" t="s">
-        <v>670</v>
-      </c>
-      <c r="GL32" t="s">
-        <v>603</v>
-      </c>
-      <c r="GM32" t="s">
-        <v>588</v>
-      </c>
-      <c r="GN32" t="s">
-        <v>609</v>
-      </c>
-      <c r="GO32" t="s">
-        <v>671</v>
-      </c>
-      <c r="GP32" t="s">
-        <v>672</v>
-      </c>
-      <c r="GQ32" t="s">
-        <v>578</v>
-      </c>
-      <c r="GR32" t="s">
-        <v>578</v>
-      </c>
-      <c r="GS32" t="s">
-        <v>578</v>
-      </c>
-      <c r="GT32" t="s">
-        <v>578</v>
-      </c>
-      <c r="GU32" t="s">
-        <v>647</v>
-      </c>
-      <c r="GV32" t="s">
-        <v>674</v>
-      </c>
-      <c r="GW32" t="s">
-        <v>603</v>
-      </c>
-      <c r="GX32" t="s">
-        <v>588</v>
-      </c>
-      <c r="GY32" t="s">
-        <v>608</v>
-      </c>
-      <c r="GZ32" t="s">
-        <v>593</v>
-      </c>
-      <c r="HA32" t="s">
-        <v>578</v>
-      </c>
-      <c r="HB32" t="s">
-        <v>578</v>
-      </c>
-      <c r="HC32" t="s">
-        <v>675</v>
-      </c>
-      <c r="HD32" t="s">
-        <v>676</v>
-      </c>
-      <c r="HE32" t="s">
-        <v>677</v>
-      </c>
-      <c r="HF32" t="s">
-        <v>588</v>
-      </c>
-      <c r="HG32" t="s">
-        <v>608</v>
-      </c>
-      <c r="HH32" t="s">
-        <v>678</v>
-      </c>
-      <c r="HI32" t="s">
-        <v>679</v>
-      </c>
-      <c r="HJ32" t="s">
-        <v>599</v>
-      </c>
-      <c r="HK32" t="s">
-        <v>603</v>
-      </c>
-      <c r="HL32" t="s">
-        <v>588</v>
-      </c>
-      <c r="HM32" t="s">
-        <v>608</v>
-      </c>
-      <c r="HN32" t="s">
-        <v>593</v>
-      </c>
-      <c r="HO32" t="s">
-        <v>578</v>
-      </c>
-      <c r="HP32" t="s">
-        <v>599</v>
-      </c>
-      <c r="HQ32" t="s">
-        <v>681</v>
-      </c>
-      <c r="HR32" t="s">
+      <c r="BJ71" t="s">
         <v>682</v>
       </c>
-      <c r="HS32" t="s">
-        <v>608</v>
-      </c>
-      <c r="HT32" t="s">
-        <v>625</v>
-      </c>
-      <c r="HU32" t="s">
-        <v>578</v>
-      </c>
-      <c r="HV32" t="s">
-        <v>683</v>
-      </c>
-      <c r="HW32" t="s">
-        <v>684</v>
-      </c>
-      <c r="HX32" t="s">
-        <v>685</v>
-      </c>
-      <c r="HY32" t="s">
-        <v>609</v>
-      </c>
-      <c r="HZ32" t="s">
-        <v>686</v>
-      </c>
-      <c r="IA32" t="s">
-        <v>578</v>
-      </c>
-      <c r="IB32" t="s">
-        <v>687</v>
-      </c>
-      <c r="IC32" t="s">
-        <v>688</v>
-      </c>
-      <c r="ID32" t="s">
-        <v>603</v>
-      </c>
-      <c r="IE32" t="s">
-        <v>588</v>
-      </c>
-      <c r="IF32" t="s">
-        <v>689</v>
-      </c>
-      <c r="IG32" t="s">
-        <v>593</v>
-      </c>
-      <c r="IH32" t="s">
-        <v>637</v>
-      </c>
-      <c r="II32" t="s">
-        <v>578</v>
-      </c>
-      <c r="IJ32" t="s">
-        <v>690</v>
-      </c>
-      <c r="IK32" t="s">
-        <v>603</v>
-      </c>
-      <c r="IL32" t="s">
-        <v>588</v>
-      </c>
-      <c r="IM32" t="s">
-        <v>608</v>
-      </c>
-      <c r="IN32" t="s">
+      <c r="BK71" t="s">
+        <v>682</v>
+      </c>
+      <c r="BL71" t="s">
+        <v>682</v>
+      </c>
+      <c r="BM71" t="s">
+        <v>682</v>
+      </c>
+      <c r="BN71" t="s">
+        <v>682</v>
+      </c>
+      <c r="BO71" t="s">
+        <v>682</v>
+      </c>
+      <c r="BP71" t="s">
+        <v>682</v>
+      </c>
+      <c r="BQ71" t="s">
+        <v>682</v>
+      </c>
+      <c r="BR71" t="s">
+        <v>682</v>
+      </c>
+      <c r="BS71" t="s">
+        <v>682</v>
+      </c>
+      <c r="BT71" t="s">
+        <v>682</v>
+      </c>
+      <c r="BU71" t="s">
+        <v>682</v>
+      </c>
+      <c r="BV71" t="s">
+        <v>682</v>
+      </c>
+      <c r="BW71" t="s">
+        <v>682</v>
+      </c>
+      <c r="BX71" t="s">
+        <v>682</v>
+      </c>
+      <c r="BY71" t="s">
+        <v>682</v>
+      </c>
+      <c r="BZ71" t="s">
+        <v>682</v>
+      </c>
+      <c r="CA71" t="s">
+        <v>682</v>
+      </c>
+      <c r="CB71" t="s">
+        <v>682</v>
+      </c>
+      <c r="CC71" t="s">
+        <v>682</v>
+      </c>
+      <c r="CD71" t="s">
+        <v>682</v>
+      </c>
+      <c r="CE71" t="s">
+        <v>682</v>
+      </c>
+      <c r="CF71" t="s">
+        <v>682</v>
+      </c>
+      <c r="CG71" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="72" spans="1:169" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="DD72" t="s">
         <v>691</v>
       </c>
-      <c r="IO32" t="s">
-        <v>593</v>
-      </c>
-      <c r="IP32" t="s">
-        <v>578</v>
-      </c>
-      <c r="IQ32" t="s">
-        <v>692</v>
-      </c>
-      <c r="IR32" t="s">
-        <v>603</v>
-      </c>
-      <c r="IS32" t="s">
-        <v>588</v>
-      </c>
-      <c r="IT32" t="s">
-        <v>608</v>
-      </c>
-      <c r="IU32" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="33" spans="1:255" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="D33" t="s">
-        <v>583</v>
-      </c>
-      <c r="E33" t="s">
-        <v>586</v>
-      </c>
-      <c r="F33" t="s">
-        <v>586</v>
-      </c>
-      <c r="G33" t="s">
-        <v>586</v>
-      </c>
-      <c r="H33" t="s">
-        <v>583</v>
-      </c>
-      <c r="I33" t="s">
-        <v>592</v>
-      </c>
-      <c r="J33" t="s">
-        <v>583</v>
-      </c>
-      <c r="K33" t="s">
-        <v>583</v>
-      </c>
-      <c r="L33" t="s">
-        <v>592</v>
-      </c>
-      <c r="M33" t="s">
-        <v>583</v>
-      </c>
-      <c r="N33" t="s">
-        <v>583</v>
-      </c>
-      <c r="O33" t="s">
-        <v>583</v>
-      </c>
-      <c r="P33" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>592</v>
-      </c>
-      <c r="R33" t="s">
-        <v>592</v>
-      </c>
-      <c r="S33" t="s">
-        <v>602</v>
-      </c>
-      <c r="T33" t="s">
-        <v>602</v>
-      </c>
-      <c r="U33" t="s">
-        <v>602</v>
-      </c>
-      <c r="V33" t="s">
-        <v>602</v>
-      </c>
-      <c r="W33" t="s">
-        <v>602</v>
-      </c>
-      <c r="X33" t="s">
-        <v>602</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>602</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>602</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>602</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>602</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>602</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>602</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>602</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>602</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>602</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>602</v>
-      </c>
-      <c r="AI33" t="s">
-        <v>602</v>
-      </c>
-      <c r="AJ33" t="s">
-        <v>602</v>
-      </c>
-      <c r="AK33" t="s">
-        <v>602</v>
-      </c>
-      <c r="AL33" t="s">
-        <v>602</v>
-      </c>
-      <c r="AM33" t="s">
-        <v>602</v>
-      </c>
-      <c r="AN33" t="s">
-        <v>602</v>
-      </c>
-      <c r="AO33" t="s">
-        <v>602</v>
-      </c>
-      <c r="AP33" t="s">
-        <v>602</v>
-      </c>
-      <c r="AQ33" t="s">
-        <v>602</v>
-      </c>
-      <c r="AR33" t="s">
-        <v>586</v>
-      </c>
-      <c r="AS33" t="s">
-        <v>586</v>
-      </c>
-      <c r="AT33" t="s">
-        <v>586</v>
-      </c>
-      <c r="AU33" t="s">
-        <v>586</v>
-      </c>
-      <c r="AV33" t="s">
-        <v>586</v>
-      </c>
-      <c r="AW33" t="s">
-        <v>586</v>
-      </c>
-      <c r="AX33" t="s">
-        <v>586</v>
-      </c>
-      <c r="AY33" t="s">
-        <v>586</v>
-      </c>
-      <c r="AZ33" t="s">
-        <v>586</v>
-      </c>
-      <c r="BA33" t="s">
-        <v>586</v>
-      </c>
-      <c r="BB33" t="s">
-        <v>602</v>
-      </c>
-      <c r="BC33" t="s">
-        <v>626</v>
-      </c>
-      <c r="BD33" t="s">
-        <v>626</v>
-      </c>
-      <c r="BE33" t="s">
-        <v>626</v>
-      </c>
-      <c r="BF33" t="s">
-        <v>626</v>
-      </c>
-      <c r="BG33" t="s">
-        <v>586</v>
-      </c>
-      <c r="BH33" t="s">
-        <v>586</v>
-      </c>
-      <c r="BI33" t="s">
-        <v>626</v>
-      </c>
-      <c r="BJ33" t="s">
-        <v>626</v>
-      </c>
-      <c r="BK33" t="s">
-        <v>626</v>
-      </c>
-      <c r="BL33" t="s">
-        <v>626</v>
-      </c>
-      <c r="BM33" t="s">
-        <v>626</v>
-      </c>
-      <c r="BN33" t="s">
-        <v>626</v>
-      </c>
-      <c r="BO33" t="s">
-        <v>586</v>
-      </c>
-      <c r="BP33" t="s">
-        <v>626</v>
-      </c>
-      <c r="BQ33" t="s">
-        <v>626</v>
-      </c>
-      <c r="BR33" t="s">
-        <v>626</v>
-      </c>
-      <c r="BS33" t="s">
-        <v>626</v>
-      </c>
-      <c r="BT33" t="s">
-        <v>626</v>
-      </c>
-      <c r="BU33" t="s">
-        <v>626</v>
-      </c>
-      <c r="BV33" t="s">
-        <v>626</v>
-      </c>
-      <c r="BW33" t="s">
-        <v>626</v>
-      </c>
-      <c r="BX33" t="s">
-        <v>626</v>
-      </c>
-      <c r="BY33" t="s">
-        <v>626</v>
-      </c>
-      <c r="BZ33" t="s">
-        <v>626</v>
-      </c>
-      <c r="CA33" t="s">
-        <v>626</v>
-      </c>
-      <c r="CB33" t="s">
-        <v>626</v>
-      </c>
-      <c r="CC33" t="s">
-        <v>626</v>
-      </c>
-      <c r="CD33" t="s">
-        <v>626</v>
-      </c>
-      <c r="CG33" t="s">
-        <v>626</v>
-      </c>
-      <c r="CH33" t="s">
-        <v>626</v>
-      </c>
-      <c r="CI33" t="s">
-        <v>626</v>
-      </c>
-      <c r="CJ33" t="s">
-        <v>626</v>
-      </c>
-      <c r="CK33" t="s">
-        <v>626</v>
-      </c>
-      <c r="CL33" t="s">
-        <v>626</v>
-      </c>
-      <c r="CM33" t="s">
-        <v>626</v>
-      </c>
-      <c r="CN33" t="s">
-        <v>586</v>
-      </c>
-      <c r="CO33" t="s">
-        <v>626</v>
-      </c>
-      <c r="CP33" t="s">
-        <v>626</v>
-      </c>
-      <c r="CQ33" t="s">
-        <v>626</v>
-      </c>
-      <c r="CR33" t="s">
-        <v>626</v>
-      </c>
-      <c r="CS33" t="s">
-        <v>626</v>
-      </c>
-      <c r="CT33" t="s">
-        <v>626</v>
-      </c>
-      <c r="CU33" t="s">
-        <v>626</v>
-      </c>
-      <c r="CV33" t="s">
-        <v>626</v>
-      </c>
-      <c r="CW33" t="s">
-        <v>626</v>
-      </c>
-      <c r="CX33" t="s">
-        <v>626</v>
-      </c>
-      <c r="CY33" t="s">
-        <v>626</v>
-      </c>
-      <c r="CZ33" t="s">
-        <v>626</v>
-      </c>
-      <c r="DA33" t="s">
-        <v>626</v>
-      </c>
-      <c r="DC33" t="s">
-        <v>626</v>
-      </c>
-      <c r="DD33" t="s">
-        <v>626</v>
-      </c>
-      <c r="DE33" t="s">
-        <v>626</v>
-      </c>
-      <c r="DF33" t="s">
-        <v>626</v>
-      </c>
-      <c r="DG33" t="s">
-        <v>626</v>
-      </c>
-      <c r="DH33" t="s">
-        <v>626</v>
-      </c>
-      <c r="DI33" t="s">
-        <v>626</v>
-      </c>
-      <c r="DJ33" t="s">
-        <v>626</v>
-      </c>
-      <c r="DK33" t="s">
-        <v>626</v>
-      </c>
-      <c r="DL33" t="s">
-        <v>626</v>
-      </c>
-      <c r="DM33" t="s">
-        <v>626</v>
-      </c>
-      <c r="DQ33" t="s">
-        <v>626</v>
-      </c>
-      <c r="DR33" t="s">
-        <v>626</v>
-      </c>
-      <c r="DS33" t="s">
-        <v>626</v>
-      </c>
-      <c r="DT33" t="s">
-        <v>626</v>
-      </c>
-      <c r="DU33" t="s">
-        <v>626</v>
-      </c>
-      <c r="DV33" t="s">
-        <v>626</v>
-      </c>
-      <c r="DW33" t="s">
-        <v>626</v>
-      </c>
-      <c r="DX33" t="s">
-        <v>626</v>
-      </c>
-      <c r="DY33" t="s">
-        <v>626</v>
-      </c>
-      <c r="DZ33" t="s">
-        <v>626</v>
-      </c>
-      <c r="EA33" t="s">
-        <v>626</v>
-      </c>
-      <c r="EB33" t="s">
-        <v>626</v>
-      </c>
-      <c r="ED33" t="s">
-        <v>626</v>
-      </c>
-      <c r="EE33" t="s">
-        <v>586</v>
-      </c>
-      <c r="EF33" t="s">
-        <v>626</v>
-      </c>
-      <c r="EG33" t="s">
-        <v>626</v>
-      </c>
-      <c r="EH33" t="s">
-        <v>626</v>
-      </c>
-      <c r="EI33" t="s">
-        <v>626</v>
-      </c>
-      <c r="EJ33" t="s">
-        <v>626</v>
-      </c>
-      <c r="EK33" t="s">
-        <v>626</v>
-      </c>
-      <c r="EL33" t="s">
-        <v>626</v>
-      </c>
-      <c r="EM33" t="s">
-        <v>626</v>
-      </c>
-      <c r="EN33" t="s">
-        <v>626</v>
-      </c>
-      <c r="EO33" t="s">
-        <v>626</v>
-      </c>
-      <c r="EQ33" t="s">
-        <v>626</v>
-      </c>
-      <c r="ER33" t="s">
-        <v>626</v>
-      </c>
-      <c r="ES33" t="s">
-        <v>626</v>
-      </c>
-      <c r="ET33" t="s">
-        <v>626</v>
-      </c>
-      <c r="EU33" t="s">
-        <v>626</v>
-      </c>
-      <c r="EV33" t="s">
-        <v>626</v>
-      </c>
-      <c r="EW33" t="s">
-        <v>626</v>
-      </c>
-      <c r="EX33" t="s">
-        <v>626</v>
-      </c>
-      <c r="EY33" t="s">
-        <v>626</v>
-      </c>
-      <c r="EZ33" t="s">
-        <v>626</v>
-      </c>
-      <c r="FA33" t="s">
-        <v>626</v>
-      </c>
-      <c r="FD33" t="s">
-        <v>626</v>
-      </c>
-      <c r="FE33" t="s">
-        <v>626</v>
-      </c>
-      <c r="FF33" t="s">
-        <v>626</v>
-      </c>
-      <c r="FG33" t="s">
-        <v>626</v>
-      </c>
-      <c r="FH33" t="s">
-        <v>626</v>
-      </c>
-      <c r="FI33" t="s">
-        <v>626</v>
-      </c>
-      <c r="FJ33" t="s">
-        <v>626</v>
-      </c>
-      <c r="FK33" t="s">
-        <v>626</v>
-      </c>
-      <c r="FL33" t="s">
-        <v>626</v>
-      </c>
-      <c r="FM33" t="s">
-        <v>626</v>
-      </c>
-      <c r="FN33" t="s">
-        <v>626</v>
-      </c>
-      <c r="FO33" t="s">
-        <v>626</v>
-      </c>
-      <c r="FP33" t="s">
-        <v>626</v>
-      </c>
-      <c r="FQ33" t="s">
-        <v>626</v>
-      </c>
-      <c r="FR33" t="s">
-        <v>626</v>
-      </c>
-      <c r="FS33" t="s">
-        <v>626</v>
-      </c>
-      <c r="FT33" t="s">
-        <v>626</v>
-      </c>
-      <c r="FU33" t="s">
-        <v>626</v>
-      </c>
-      <c r="FV33" t="s">
-        <v>626</v>
-      </c>
-      <c r="FW33" t="s">
-        <v>626</v>
-      </c>
-      <c r="FX33" t="s">
-        <v>626</v>
-      </c>
-      <c r="FZ33" t="s">
-        <v>626</v>
-      </c>
-      <c r="GA33" t="s">
-        <v>626</v>
-      </c>
-      <c r="GB33" t="s">
-        <v>626</v>
-      </c>
-      <c r="GC33" t="s">
-        <v>626</v>
-      </c>
-      <c r="GD33" t="s">
-        <v>626</v>
-      </c>
-      <c r="GE33" t="s">
-        <v>626</v>
-      </c>
-      <c r="GF33" t="s">
-        <v>626</v>
-      </c>
-      <c r="GG33" t="s">
-        <v>626</v>
-      </c>
-      <c r="GH33" t="s">
-        <v>626</v>
-      </c>
-      <c r="GJ33" t="s">
-        <v>626</v>
-      </c>
-      <c r="GK33" t="s">
-        <v>626</v>
-      </c>
-      <c r="GL33" t="s">
-        <v>626</v>
-      </c>
-      <c r="GM33" t="s">
-        <v>626</v>
-      </c>
-      <c r="GN33" t="s">
-        <v>626</v>
-      </c>
-      <c r="GO33" t="s">
-        <v>626</v>
-      </c>
-      <c r="GP33" t="s">
-        <v>626</v>
-      </c>
-      <c r="GU33" t="s">
-        <v>626</v>
-      </c>
-      <c r="GV33" t="s">
-        <v>586</v>
-      </c>
-      <c r="GW33" t="s">
-        <v>626</v>
-      </c>
-      <c r="GX33" t="s">
-        <v>626</v>
-      </c>
-      <c r="GY33" t="s">
-        <v>626</v>
-      </c>
-      <c r="GZ33" t="s">
-        <v>626</v>
-      </c>
-      <c r="HC33" t="s">
-        <v>626</v>
-      </c>
-      <c r="HD33" t="s">
-        <v>626</v>
-      </c>
-      <c r="HE33" t="s">
-        <v>626</v>
-      </c>
-      <c r="HF33" t="s">
-        <v>626</v>
-      </c>
-      <c r="HG33" t="s">
-        <v>626</v>
-      </c>
-      <c r="HH33" t="s">
-        <v>626</v>
-      </c>
-      <c r="HI33" t="s">
-        <v>626</v>
-      </c>
-      <c r="HJ33" t="s">
-        <v>626</v>
-      </c>
-      <c r="HK33" t="s">
-        <v>626</v>
-      </c>
-      <c r="HL33" t="s">
-        <v>626</v>
-      </c>
-      <c r="HM33" t="s">
-        <v>626</v>
-      </c>
-      <c r="HN33" t="s">
-        <v>626</v>
-      </c>
-      <c r="HO33" t="s">
-        <v>626</v>
-      </c>
-      <c r="HP33" t="s">
-        <v>626</v>
-      </c>
-      <c r="HQ33" t="s">
-        <v>626</v>
-      </c>
-      <c r="HR33" t="s">
-        <v>626</v>
-      </c>
-      <c r="HS33" t="s">
-        <v>626</v>
-      </c>
-      <c r="HT33" t="s">
-        <v>626</v>
-      </c>
-      <c r="HU33" t="s">
-        <v>626</v>
-      </c>
-      <c r="HV33" t="s">
-        <v>626</v>
-      </c>
-      <c r="HW33" t="s">
-        <v>626</v>
-      </c>
-      <c r="HX33" t="s">
-        <v>626</v>
-      </c>
-      <c r="HY33" t="s">
-        <v>626</v>
-      </c>
-      <c r="HZ33" t="s">
-        <v>626</v>
-      </c>
-      <c r="IB33" t="s">
-        <v>626</v>
-      </c>
-      <c r="IC33" t="s">
-        <v>626</v>
-      </c>
-      <c r="ID33" t="s">
-        <v>626</v>
-      </c>
-      <c r="IE33" t="s">
-        <v>592</v>
-      </c>
-      <c r="IF33" t="s">
-        <v>592</v>
-      </c>
-      <c r="IG33" t="s">
-        <v>592</v>
-      </c>
-      <c r="II33" t="s">
-        <v>592</v>
-      </c>
-      <c r="IJ33" t="s">
-        <v>592</v>
-      </c>
-      <c r="IK33" t="s">
-        <v>592</v>
-      </c>
-      <c r="IL33" t="s">
-        <v>592</v>
-      </c>
-      <c r="IM33" t="s">
-        <v>592</v>
-      </c>
-      <c r="IN33" t="s">
-        <v>592</v>
-      </c>
-      <c r="IO33" t="s">
-        <v>592</v>
-      </c>
-      <c r="IP33" t="s">
-        <v>592</v>
-      </c>
-      <c r="IQ33" t="s">
-        <v>592</v>
-      </c>
-      <c r="IR33" t="s">
-        <v>592</v>
-      </c>
-      <c r="IS33" t="s">
-        <v>583</v>
-      </c>
-      <c r="IT33" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="34" spans="1:255" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="D34" t="s">
-        <v>584</v>
-      </c>
-      <c r="E34" t="s">
-        <v>587</v>
-      </c>
-      <c r="F34" t="s">
-        <v>584</v>
-      </c>
-      <c r="G34" t="s">
-        <v>584</v>
-      </c>
-      <c r="H34" t="s">
-        <v>587</v>
-      </c>
-      <c r="I34" t="s">
-        <v>587</v>
-      </c>
-      <c r="J34" t="s">
-        <v>587</v>
-      </c>
-      <c r="K34" t="s">
-        <v>587</v>
-      </c>
-      <c r="L34" t="s">
-        <v>587</v>
-      </c>
-      <c r="M34" t="s">
-        <v>587</v>
-      </c>
-      <c r="N34" t="s">
-        <v>587</v>
-      </c>
-      <c r="O34" t="s">
-        <v>587</v>
-      </c>
-      <c r="P34" t="s">
-        <v>587</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>587</v>
-      </c>
-      <c r="R34" t="s">
-        <v>587</v>
-      </c>
-      <c r="S34" t="s">
-        <v>584</v>
-      </c>
-      <c r="T34" t="s">
-        <v>584</v>
-      </c>
-      <c r="U34" t="s">
-        <v>584</v>
-      </c>
-      <c r="V34" t="s">
-        <v>584</v>
-      </c>
-      <c r="W34" t="s">
-        <v>584</v>
-      </c>
-      <c r="X34" t="s">
-        <v>584</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>584</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>584</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>584</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>584</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>584</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>584</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>584</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>584</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>584</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>584</v>
-      </c>
-      <c r="AI34" t="s">
-        <v>584</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>584</v>
-      </c>
-      <c r="AK34" t="s">
-        <v>584</v>
-      </c>
-      <c r="AL34" t="s">
-        <v>584</v>
-      </c>
-      <c r="AM34" t="s">
-        <v>584</v>
-      </c>
-      <c r="AN34" t="s">
-        <v>584</v>
-      </c>
-      <c r="AO34" t="s">
-        <v>584</v>
-      </c>
-      <c r="AP34" t="s">
-        <v>615</v>
-      </c>
-      <c r="AQ34" t="s">
-        <v>615</v>
-      </c>
-      <c r="AR34" t="s">
-        <v>617</v>
-      </c>
-      <c r="AS34" t="s">
-        <v>584</v>
-      </c>
-      <c r="AT34" t="s">
-        <v>584</v>
-      </c>
-      <c r="AU34" t="s">
-        <v>584</v>
-      </c>
-      <c r="AV34" t="s">
-        <v>584</v>
-      </c>
-      <c r="AW34" t="s">
-        <v>584</v>
-      </c>
-      <c r="AX34" t="s">
-        <v>584</v>
-      </c>
-      <c r="AY34" t="s">
-        <v>617</v>
-      </c>
-      <c r="AZ34" t="s">
-        <v>617</v>
-      </c>
-      <c r="BA34" t="s">
-        <v>617</v>
-      </c>
-      <c r="BB34" t="s">
-        <v>617</v>
-      </c>
-      <c r="BC34" t="s">
-        <v>615</v>
-      </c>
-      <c r="BD34" t="s">
-        <v>615</v>
-      </c>
-      <c r="BE34" t="s">
-        <v>615</v>
-      </c>
-      <c r="BF34" t="s">
-        <v>615</v>
-      </c>
-      <c r="BG34" t="s">
-        <v>615</v>
-      </c>
-      <c r="BH34" t="s">
-        <v>615</v>
-      </c>
-      <c r="BI34" t="s">
-        <v>615</v>
-      </c>
-      <c r="BJ34" t="s">
-        <v>615</v>
-      </c>
-      <c r="BK34" t="s">
-        <v>615</v>
-      </c>
-      <c r="BL34" t="s">
-        <v>615</v>
-      </c>
-      <c r="BM34" t="s">
-        <v>615</v>
-      </c>
-      <c r="BN34" t="s">
-        <v>615</v>
-      </c>
-      <c r="BO34" t="s">
-        <v>615</v>
-      </c>
-      <c r="BP34" t="s">
-        <v>615</v>
-      </c>
-      <c r="BQ34" t="s">
-        <v>615</v>
-      </c>
-      <c r="BR34" t="s">
-        <v>617</v>
-      </c>
-      <c r="BS34" t="s">
-        <v>617</v>
-      </c>
-      <c r="BT34" t="s">
-        <v>617</v>
-      </c>
-      <c r="BU34" t="s">
-        <v>617</v>
-      </c>
-      <c r="BV34" t="s">
-        <v>617</v>
-      </c>
-      <c r="BW34" t="s">
-        <v>617</v>
-      </c>
-      <c r="BX34" t="s">
-        <v>617</v>
-      </c>
-      <c r="BY34" t="s">
-        <v>617</v>
-      </c>
-      <c r="BZ34" t="s">
-        <v>617</v>
-      </c>
-      <c r="CA34" t="s">
-        <v>584</v>
-      </c>
-      <c r="CB34" t="s">
-        <v>584</v>
-      </c>
-      <c r="CC34" t="s">
-        <v>584</v>
-      </c>
-      <c r="CD34" t="s">
-        <v>617</v>
-      </c>
-      <c r="CG34" t="s">
-        <v>617</v>
-      </c>
-      <c r="CH34" t="s">
-        <v>617</v>
-      </c>
-      <c r="CI34" t="s">
-        <v>617</v>
-      </c>
-      <c r="CJ34" t="s">
-        <v>617</v>
-      </c>
-      <c r="CK34" t="s">
-        <v>617</v>
-      </c>
-      <c r="CL34" t="s">
-        <v>617</v>
-      </c>
-      <c r="CM34" t="s">
-        <v>584</v>
-      </c>
-      <c r="CN34" t="s">
-        <v>584</v>
-      </c>
-      <c r="CO34" t="s">
-        <v>584</v>
-      </c>
-      <c r="CP34" t="s">
-        <v>617</v>
-      </c>
-      <c r="CQ34" t="s">
-        <v>617</v>
-      </c>
-      <c r="CR34" t="s">
-        <v>617</v>
-      </c>
-      <c r="CS34" t="s">
-        <v>617</v>
-      </c>
-      <c r="CT34" t="s">
-        <v>617</v>
-      </c>
-      <c r="CV34" t="s">
-        <v>617</v>
-      </c>
-      <c r="CW34" t="s">
-        <v>584</v>
-      </c>
-      <c r="CX34" t="s">
-        <v>584</v>
-      </c>
-      <c r="CY34" t="s">
-        <v>615</v>
-      </c>
-      <c r="CZ34" t="s">
-        <v>584</v>
-      </c>
-      <c r="DA34" t="s">
-        <v>584</v>
-      </c>
-      <c r="DC34" t="s">
-        <v>584</v>
-      </c>
-      <c r="DD34" t="s">
-        <v>587</v>
-      </c>
-      <c r="DE34" t="s">
-        <v>584</v>
-      </c>
-      <c r="DF34" t="s">
-        <v>587</v>
-      </c>
-      <c r="DG34" t="s">
-        <v>587</v>
-      </c>
-      <c r="DH34" t="s">
-        <v>615</v>
-      </c>
-      <c r="DI34" t="s">
-        <v>587</v>
-      </c>
-      <c r="DJ34" t="s">
-        <v>587</v>
-      </c>
-      <c r="DK34" t="s">
-        <v>587</v>
-      </c>
-      <c r="DL34" t="s">
-        <v>584</v>
-      </c>
-      <c r="DM34" t="s">
-        <v>587</v>
-      </c>
-      <c r="DQ34" t="s">
-        <v>587</v>
-      </c>
-      <c r="DR34" t="s">
-        <v>584</v>
-      </c>
-      <c r="DS34" t="s">
-        <v>584</v>
-      </c>
-      <c r="DT34" t="s">
-        <v>584</v>
-      </c>
-      <c r="DU34" t="s">
-        <v>584</v>
-      </c>
-      <c r="DV34" t="s">
-        <v>587</v>
-      </c>
-      <c r="DW34" t="s">
-        <v>587</v>
-      </c>
-      <c r="DX34" t="s">
-        <v>587</v>
-      </c>
-      <c r="DY34" t="s">
-        <v>587</v>
-      </c>
-      <c r="DZ34" t="s">
-        <v>587</v>
-      </c>
-      <c r="EA34" t="s">
-        <v>587</v>
-      </c>
-      <c r="EB34" t="s">
-        <v>587</v>
-      </c>
-      <c r="ED34" t="s">
-        <v>587</v>
-      </c>
-      <c r="EE34" t="s">
-        <v>587</v>
-      </c>
-      <c r="EF34" t="s">
-        <v>587</v>
-      </c>
-      <c r="EG34" t="s">
-        <v>587</v>
-      </c>
-      <c r="EH34" t="s">
-        <v>587</v>
-      </c>
-      <c r="EI34" t="s">
-        <v>587</v>
-      </c>
-      <c r="EJ34" t="s">
-        <v>587</v>
-      </c>
-      <c r="EK34" t="s">
-        <v>587</v>
-      </c>
-      <c r="EL34" t="s">
-        <v>587</v>
-      </c>
-      <c r="EM34" t="s">
-        <v>587</v>
-      </c>
-      <c r="EN34" t="s">
-        <v>587</v>
-      </c>
-      <c r="EO34" t="s">
-        <v>584</v>
-      </c>
-      <c r="EQ34" t="s">
-        <v>584</v>
-      </c>
-      <c r="ER34" t="s">
-        <v>587</v>
-      </c>
-      <c r="ES34" t="s">
-        <v>587</v>
-      </c>
-      <c r="ET34" t="s">
-        <v>587</v>
-      </c>
-      <c r="EU34" t="s">
-        <v>587</v>
-      </c>
-      <c r="EV34" t="s">
-        <v>587</v>
-      </c>
-      <c r="EW34" t="s">
-        <v>587</v>
-      </c>
-      <c r="EX34" t="s">
-        <v>587</v>
-      </c>
-      <c r="EY34" t="s">
-        <v>587</v>
-      </c>
-      <c r="EZ34" t="s">
-        <v>587</v>
-      </c>
-      <c r="FA34" t="s">
-        <v>584</v>
-      </c>
-      <c r="FD34" t="s">
-        <v>587</v>
-      </c>
-      <c r="FE34" t="s">
-        <v>587</v>
-      </c>
-      <c r="FF34" t="s">
-        <v>587</v>
-      </c>
-      <c r="FG34" t="s">
-        <v>587</v>
-      </c>
-      <c r="FH34" t="s">
-        <v>587</v>
-      </c>
-      <c r="FI34" t="s">
-        <v>587</v>
-      </c>
-      <c r="FJ34" t="s">
-        <v>587</v>
-      </c>
-      <c r="FK34" t="s">
-        <v>587</v>
-      </c>
-      <c r="FL34" t="s">
-        <v>587</v>
-      </c>
-      <c r="FM34" t="s">
-        <v>587</v>
-      </c>
-      <c r="FN34" t="s">
-        <v>587</v>
-      </c>
-      <c r="FO34" t="s">
-        <v>587</v>
-      </c>
-      <c r="FP34" t="s">
-        <v>587</v>
-      </c>
-      <c r="FQ34" t="s">
-        <v>587</v>
-      </c>
-      <c r="FR34" t="s">
-        <v>587</v>
-      </c>
-      <c r="FS34" t="s">
-        <v>587</v>
-      </c>
-      <c r="FT34" t="s">
-        <v>587</v>
-      </c>
-      <c r="FU34" t="s">
-        <v>587</v>
-      </c>
-      <c r="FV34" t="s">
-        <v>587</v>
-      </c>
-      <c r="FW34" t="s">
-        <v>587</v>
-      </c>
-      <c r="FX34" t="s">
-        <v>587</v>
-      </c>
-      <c r="FZ34" t="s">
-        <v>587</v>
-      </c>
-      <c r="GA34" t="s">
-        <v>587</v>
-      </c>
-      <c r="GB34" t="s">
-        <v>587</v>
-      </c>
-      <c r="GC34" t="s">
-        <v>587</v>
-      </c>
-      <c r="GD34" t="s">
-        <v>587</v>
-      </c>
-      <c r="GE34" t="s">
-        <v>587</v>
-      </c>
-      <c r="GF34" t="s">
-        <v>587</v>
-      </c>
-      <c r="GG34" t="s">
-        <v>587</v>
-      </c>
-      <c r="GH34" t="s">
-        <v>587</v>
-      </c>
-      <c r="GJ34" t="s">
-        <v>587</v>
-      </c>
-      <c r="GK34" t="s">
-        <v>587</v>
-      </c>
-      <c r="GL34" t="s">
-        <v>587</v>
-      </c>
-      <c r="GM34" t="s">
-        <v>587</v>
-      </c>
-      <c r="GN34" t="s">
-        <v>584</v>
-      </c>
-      <c r="GO34" t="s">
-        <v>587</v>
-      </c>
-      <c r="GP34" t="s">
-        <v>587</v>
-      </c>
-      <c r="GU34" t="s">
-        <v>587</v>
-      </c>
-      <c r="GV34" t="s">
-        <v>587</v>
-      </c>
-      <c r="GW34" t="s">
-        <v>587</v>
-      </c>
-      <c r="GX34" t="s">
-        <v>587</v>
-      </c>
-      <c r="GY34" t="s">
-        <v>587</v>
-      </c>
-      <c r="GZ34" t="s">
-        <v>587</v>
-      </c>
-      <c r="HC34" t="s">
-        <v>587</v>
-      </c>
-      <c r="HD34" t="s">
-        <v>587</v>
-      </c>
-      <c r="HE34" t="s">
-        <v>587</v>
-      </c>
-      <c r="HF34" t="s">
-        <v>587</v>
-      </c>
-      <c r="HG34" t="s">
-        <v>587</v>
-      </c>
-      <c r="HH34" t="s">
-        <v>587</v>
-      </c>
-      <c r="HI34" t="s">
-        <v>587</v>
-      </c>
-      <c r="HJ34" t="s">
-        <v>587</v>
-      </c>
-      <c r="HK34" t="s">
-        <v>587</v>
-      </c>
-      <c r="HL34" t="s">
-        <v>587</v>
-      </c>
-      <c r="HM34" t="s">
-        <v>587</v>
-      </c>
-      <c r="HN34" t="s">
-        <v>587</v>
-      </c>
-      <c r="HO34" t="s">
-        <v>587</v>
-      </c>
-      <c r="HP34" t="s">
-        <v>587</v>
-      </c>
-      <c r="HQ34" t="s">
-        <v>584</v>
-      </c>
-      <c r="HR34" t="s">
-        <v>587</v>
-      </c>
-      <c r="HS34" t="s">
-        <v>587</v>
-      </c>
-      <c r="HT34" t="s">
-        <v>587</v>
-      </c>
-      <c r="HU34" t="s">
-        <v>587</v>
-      </c>
-      <c r="HV34" t="s">
-        <v>587</v>
-      </c>
-      <c r="HW34" t="s">
-        <v>587</v>
-      </c>
-      <c r="HX34" t="s">
-        <v>587</v>
-      </c>
-      <c r="HY34" t="s">
-        <v>587</v>
-      </c>
-      <c r="HZ34" t="s">
-        <v>587</v>
-      </c>
-      <c r="IB34" t="s">
-        <v>587</v>
-      </c>
-      <c r="IC34" t="s">
-        <v>587</v>
-      </c>
-      <c r="ID34" t="s">
-        <v>587</v>
-      </c>
-      <c r="IE34" t="s">
-        <v>587</v>
-      </c>
-      <c r="IF34" t="s">
-        <v>587</v>
-      </c>
-      <c r="IH34" t="s">
-        <v>587</v>
-      </c>
-      <c r="II34" t="s">
-        <v>587</v>
-      </c>
-      <c r="IJ34" t="s">
-        <v>587</v>
-      </c>
-      <c r="IK34" t="s">
-        <v>587</v>
-      </c>
-      <c r="IL34" t="s">
-        <v>587</v>
-      </c>
-      <c r="IM34" t="s">
-        <v>587</v>
-      </c>
-      <c r="IN34" t="s">
-        <v>587</v>
-      </c>
-      <c r="IO34" t="s">
-        <v>587</v>
-      </c>
-      <c r="IP34" t="s">
-        <v>587</v>
-      </c>
-      <c r="IQ34" t="s">
-        <v>587</v>
-      </c>
-      <c r="IR34" t="s">
-        <v>587</v>
-      </c>
-      <c r="IS34" t="s">
-        <v>587</v>
-      </c>
-      <c r="IT34" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="35" spans="1:255" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="36" spans="1:255" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="B36" t="s">
-        <v>579</v>
-      </c>
-      <c r="C36" t="s">
-        <v>581</v>
-      </c>
-      <c r="AJ36" t="s">
-        <v>581</v>
-      </c>
-      <c r="BG36" t="s">
-        <v>581</v>
-      </c>
-      <c r="BH36" t="s">
-        <v>581</v>
-      </c>
-      <c r="CE36" t="s">
-        <v>579</v>
-      </c>
-      <c r="CF36" t="s">
-        <v>631</v>
-      </c>
-      <c r="DN36" t="s">
-        <v>581</v>
-      </c>
-      <c r="DO36" t="s">
-        <v>581</v>
-      </c>
-      <c r="DP36" t="s">
-        <v>581</v>
-      </c>
-      <c r="EC36" t="s">
-        <v>646</v>
-      </c>
-      <c r="EP36" t="s">
-        <v>650</v>
-      </c>
-      <c r="FY36" t="s">
-        <v>631</v>
-      </c>
-      <c r="GI36" t="s">
-        <v>631</v>
-      </c>
-      <c r="GQ36" t="s">
-        <v>631</v>
-      </c>
-      <c r="GR36" t="s">
-        <v>646</v>
-      </c>
-      <c r="GS36" t="s">
-        <v>646</v>
-      </c>
-      <c r="GT36" t="s">
-        <v>631</v>
-      </c>
-      <c r="IA36" t="s">
-        <v>646</v>
-      </c>
-      <c r="IP36" t="s">
-        <v>631</v>
-      </c>
-      <c r="IU36" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="37" spans="1:255" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="FB37" t="s">
-        <v>661</v>
-      </c>
-      <c r="FC37" t="s">
-        <v>662</v>
-      </c>
-      <c r="GI37" t="s">
-        <v>669</v>
-      </c>
-      <c r="GQ37" t="s">
-        <v>661</v>
-      </c>
-      <c r="GR37" t="s">
-        <v>673</v>
-      </c>
-      <c r="GS37" t="s">
-        <v>661</v>
-      </c>
-      <c r="GT37" t="s">
-        <v>673</v>
-      </c>
-      <c r="HA37" t="s">
-        <v>662</v>
-      </c>
-      <c r="HB37" t="s">
-        <v>662</v>
-      </c>
-      <c r="HO37" t="s">
-        <v>680</v>
-      </c>
-      <c r="IP37" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="38" spans="1:255" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="B38" t="s">
-        <v>580</v>
-      </c>
-      <c r="C38" t="s">
-        <v>580</v>
-      </c>
-      <c r="BG38" t="s">
-        <v>580</v>
-      </c>
-      <c r="BH38" t="s">
-        <v>580</v>
-      </c>
-      <c r="CE38" t="s">
-        <v>580</v>
-      </c>
-      <c r="CF38" t="s">
-        <v>580</v>
-      </c>
-      <c r="CR38" t="s">
-        <v>580</v>
-      </c>
-      <c r="DB38" t="s">
-        <v>580</v>
+      <c r="DE72" t="s">
+        <v>691</v>
+      </c>
+      <c r="DF72" t="s">
+        <v>691</v>
+      </c>
+      <c r="DG72" t="s">
+        <v>691</v>
+      </c>
+      <c r="DH72" t="s">
+        <v>691</v>
+      </c>
+      <c r="DI72" t="s">
+        <v>691</v>
+      </c>
+      <c r="DJ72" t="s">
+        <v>691</v>
+      </c>
+      <c r="DK72" t="s">
+        <v>691</v>
       </c>
     </row>
   </sheetData>
